--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
@@ -82,9 +82,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -96,27 +96,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -132,47 +164,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,11 +180,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,33 +232,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -266,7 +266,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,25 +278,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,25 +326,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,55 +392,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,49 +416,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,6 +457,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -475,27 +490,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.15"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,17 +508,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,15 +542,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -579,157 +556,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -754,13 +760,16 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -828,11 +837,11 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="入场指标"/>
-      <sheetName val="账户动态"/>
+      <sheetName val="交易计划及执行表"/>
+      <sheetName val="交易水平监控表"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
+      <sheetData sheetId="0">
         <row r="4">
           <cell r="A4" t="str">
             <v>000001</v>
@@ -852,1386 +861,1596 @@
           <cell r="F4">
             <v>24.52</v>
           </cell>
-          <cell r="G4">
+          <cell r="G4" t="str">
+            <v>200日均线：向上
+150日均线：向上
+  50日均线：向上</v>
+          </cell>
+          <cell r="H4">
             <v>25.7</v>
           </cell>
-          <cell r="H4">
+          <cell r="I4">
             <v>5.46</v>
           </cell>
-          <cell r="I4">
+          <cell r="J4">
             <v>46.33</v>
           </cell>
-          <cell r="J4">
+          <cell r="K4">
             <v>3.70695970695971</v>
           </cell>
-          <cell r="K4">
+          <cell r="L4">
             <v>0.445283833369307</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="M4">
+          <cell r="N4">
             <v>20.79</v>
           </cell>
-          <cell r="N4">
+          <cell r="O4">
             <v>29.8</v>
           </cell>
-          <cell r="O4">
+          <cell r="P4">
             <v>21.88</v>
           </cell>
-          <cell r="P4">
+          <cell r="Q4">
             <v>26.5</v>
           </cell>
-          <cell r="Q4">
+          <cell r="R4">
             <v>22.1</v>
           </cell>
-          <cell r="R4">
+          <cell r="S4">
             <v>26.4</v>
           </cell>
-          <cell r="S4">
+          <cell r="T4">
             <v>24</v>
           </cell>
-          <cell r="T4">
+          <cell r="U4">
             <v>26.2</v>
           </cell>
-          <cell r="U4">
+          <cell r="V4">
             <v>24.52</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="X4" t="str">
+          <cell r="Y4" t="str">
             <v>24w</v>
           </cell>
-          <cell r="Y4">
+          <cell r="Z4">
             <v>0.551262680768401</v>
           </cell>
-          <cell r="Z4">
+          <cell r="AA4">
             <v>0.265771812080537</v>
           </cell>
-          <cell r="AA4">
+          <cell r="AB4">
             <v>0.166037735849057</v>
           </cell>
-          <cell r="AB4">
+          <cell r="AC4">
             <v>0.0909090909090909</v>
           </cell>
-          <cell r="AC4">
+          <cell r="AD4">
             <v>0.0641221374045801</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="AE4" t="str">
+          <cell r="AF4" t="str">
             <v>5T</v>
           </cell>
-          <cell r="AF4" t="str">
+          <cell r="AG4" t="str">
             <v>成交量先随价格收缩逐级减少，然后随价格收缩放量</v>
           </cell>
-          <cell r="AG4">
+          <cell r="AH4">
             <v>28.15</v>
           </cell>
-          <cell r="AH4">
+          <cell r="AI4">
             <v>21.87</v>
           </cell>
-          <cell r="AI4">
+          <cell r="AJ4">
             <v>6.28</v>
           </cell>
-          <cell r="AJ4">
+          <cell r="AK4">
             <v>26.2</v>
           </cell>
-          <cell r="AK4">
+          <cell r="AL4">
             <v>24.68</v>
           </cell>
-          <cell r="AL4">
+          <cell r="AM4">
             <v>32.49</v>
           </cell>
-          <cell r="AM4">
+          <cell r="AN4">
             <v>152</v>
           </cell>
-          <cell r="AN4">
+          <cell r="AO4">
+            <v>100</v>
+          </cell>
+          <cell r="AP4">
+            <v>4.13815789473685</v>
+          </cell>
+          <cell r="AQ4">
+            <v>0.0580152671755725</v>
+          </cell>
+          <cell r="AR4">
+            <v>0.240076335877863</v>
+          </cell>
+          <cell r="AS4">
+            <v>150.88</v>
+          </cell>
+          <cell r="AT4" t="str">
+            <v>不宜入场</v>
+          </cell>
+          <cell r="AU4">
+            <v>44523</v>
+          </cell>
+          <cell r="AV4">
+            <v>26.2</v>
+          </cell>
+          <cell r="AW4">
             <v>200</v>
           </cell>
-          <cell r="AO4">
-            <v>4.13815789473685</v>
-          </cell>
-          <cell r="AP4">
-            <v>0.0580152671755725</v>
-          </cell>
-          <cell r="AQ4">
-            <v>0.240076335877863</v>
-          </cell>
-          <cell r="AR4">
-            <v>150.88</v>
-          </cell>
-          <cell r="AS4" t="str">
-            <v>不宜入场</v>
-          </cell>
-          <cell r="AT4">
-            <v>44523</v>
-          </cell>
-          <cell r="AU4">
-            <v>26.2</v>
-          </cell>
-          <cell r="AV4">
-            <v>200</v>
-          </cell>
-          <cell r="AW4">
+          <cell r="AX4">
             <v>5</v>
           </cell>
-          <cell r="AX4">
+          <cell r="AY4">
             <v>0.1048</v>
           </cell>
-          <cell r="AY4">
+          <cell r="AZ4">
             <v>5245.1048</v>
           </cell>
-          <cell r="AZ4">
+          <cell r="BA4">
             <v>309.1048</v>
           </cell>
-          <cell r="BA4">
+          <cell r="BB4">
             <v>26.5</v>
           </cell>
-          <cell r="BB4">
+          <cell r="BC4">
             <v>25.21</v>
           </cell>
-          <cell r="BC4">
+          <cell r="BD4">
             <v>0.232558139534884</v>
           </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>000002</v>
-          </cell>
-          <cell r="B5">
-            <v>44517</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>600085(同仁堂)</v>
-          </cell>
-          <cell r="D5">
-            <v>31.92</v>
-          </cell>
-          <cell r="E5">
-            <v>32.63</v>
-          </cell>
-          <cell r="F5">
-            <v>33.17</v>
-          </cell>
-          <cell r="G5">
-            <v>33.73</v>
-          </cell>
-          <cell r="H5">
-            <v>22.98</v>
-          </cell>
-          <cell r="I5">
-            <v>44.42</v>
-          </cell>
-          <cell r="J5">
-            <v>0.467798085291558</v>
-          </cell>
-          <cell r="K5">
-            <v>0.240657361548852</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="M5">
-            <v>30.78</v>
-          </cell>
-          <cell r="N5">
-            <v>35</v>
-          </cell>
-          <cell r="O5">
-            <v>31.27</v>
-          </cell>
-          <cell r="P5">
-            <v>34.82</v>
-          </cell>
-          <cell r="Q5">
-            <v>32.12</v>
-          </cell>
-          <cell r="R5">
-            <v>34.11</v>
-          </cell>
-          <cell r="S5">
-            <v>32.53</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="X5" t="str">
-            <v>24w</v>
-          </cell>
-          <cell r="Y5">
-            <v>0.307068887888339</v>
-          </cell>
-          <cell r="Z5">
-            <v>0.106571428571429</v>
-          </cell>
-          <cell r="AA5">
-            <v>0.077541642734061</v>
-          </cell>
-          <cell r="AB5">
-            <v>0.0463207270595133</v>
-          </cell>
-          <cell r="AC5" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="AE5" t="str">
-            <v>4T</v>
-          </cell>
-          <cell r="AF5" t="str">
-            <v>成交量先随价格收缩逐级减少，然后随价格收缩保持不变</v>
-          </cell>
-          <cell r="AG5">
-            <v>35.48</v>
-          </cell>
-          <cell r="AH5">
-            <v>31.36</v>
-          </cell>
-          <cell r="AI5">
-            <v>4.12</v>
-          </cell>
-          <cell r="AJ5">
-            <v>34.12</v>
-          </cell>
-          <cell r="AK5">
-            <v>32.53</v>
-          </cell>
-          <cell r="AL5">
-            <v>39.33</v>
-          </cell>
-          <cell r="AM5">
-            <v>159</v>
-          </cell>
-          <cell r="AN5">
+          <cell r="BE4">
+            <v>44526</v>
+          </cell>
+          <cell r="BF4">
+            <v>24.89</v>
+          </cell>
+          <cell r="BG4">
             <v>100</v>
           </cell>
-          <cell r="AO5">
-            <v>3.27672955974844</v>
-          </cell>
-          <cell r="AP5">
-            <v>0.0466002344665884</v>
-          </cell>
-          <cell r="AQ5">
-            <v>0.152696365767878</v>
-          </cell>
-          <cell r="AR5">
-            <v>37.41</v>
-          </cell>
-          <cell r="AS5" t="str">
-            <v>可以</v>
-          </cell>
-          <cell r="AT5">
-            <v>44523</v>
-          </cell>
-          <cell r="AU5">
-            <v>33.73</v>
-          </cell>
-          <cell r="AV5">
-            <v>100</v>
-          </cell>
-          <cell r="AW5">
+          <cell r="BH4">
             <v>5</v>
           </cell>
-          <cell r="AX5">
-            <v>0.06746</v>
-          </cell>
-          <cell r="AY5">
-            <v>3378.06746</v>
-          </cell>
-          <cell r="AZ5">
-            <v>125.06746</v>
-          </cell>
-          <cell r="BA5">
-            <v>35.36</v>
-          </cell>
-          <cell r="BB5">
-            <v>33.1</v>
-          </cell>
-          <cell r="BC5">
-            <v>0.721238938053099</v>
+          <cell r="BI4">
+            <v>2.489</v>
+          </cell>
+          <cell r="BJ4">
+            <v>2481.511</v>
+          </cell>
+          <cell r="BK4">
+            <v>27.43</v>
+          </cell>
+          <cell r="BL4">
+            <v>24.74</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>000003</v>
+            <v>000002</v>
           </cell>
           <cell r="B6">
-            <v>44519</v>
+            <v>44517</v>
           </cell>
           <cell r="C6" t="str">
-            <v>603867(新化股份)</v>
+            <v>600085(同仁堂)</v>
           </cell>
           <cell r="D6">
-            <v>28.2</v>
+            <v>31.92</v>
           </cell>
           <cell r="E6">
-            <v>29.15</v>
+            <v>32.63</v>
           </cell>
           <cell r="F6">
-            <v>31.53</v>
-          </cell>
-          <cell r="G6">
-            <v>32.57</v>
+            <v>33.17</v>
+          </cell>
+          <cell r="G6" t="str">
+            <v>200日均线：向上
+150日均线：向上
+  50日均线：向上</v>
           </cell>
           <cell r="H6">
-            <v>20.61</v>
+            <v>33.73</v>
           </cell>
           <cell r="I6">
-            <v>41.5</v>
+            <v>22.98</v>
           </cell>
           <cell r="J6">
-            <v>0.58030082484231</v>
+            <v>44.42</v>
           </cell>
           <cell r="K6">
-            <v>0.215180722891566</v>
+            <v>0.467798085291558</v>
+          </cell>
+          <cell r="L6">
+            <v>0.240657361548852</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>28.42</v>
-          </cell>
           <cell r="N6">
-            <v>34.7</v>
+            <v>30.78</v>
           </cell>
           <cell r="O6">
-            <v>29</v>
+            <v>35</v>
           </cell>
           <cell r="P6">
-            <v>35.27</v>
+            <v>31.27</v>
           </cell>
           <cell r="Q6">
-            <v>30.89</v>
+            <v>34.82</v>
+          </cell>
+          <cell r="R6">
+            <v>32.12</v>
+          </cell>
+          <cell r="S6">
+            <v>34.11</v>
+          </cell>
+          <cell r="T6">
+            <v>32.53</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="X6" t="str">
-            <v>8w</v>
-          </cell>
-          <cell r="Y6">
-            <v>0.315180722891566</v>
+          <cell r="Y6" t="str">
+            <v>24w</v>
           </cell>
           <cell r="Z6">
-            <v>0.164265129682997</v>
+            <v>0.307068887888339</v>
           </cell>
           <cell r="AA6">
-            <v>0.124184859654097</v>
-          </cell>
-          <cell r="AB6" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="AC6" t="e">
+            <v>0.106571428571429</v>
+          </cell>
+          <cell r="AB6">
+            <v>0.077541642734061</v>
+          </cell>
+          <cell r="AC6">
+            <v>0.0463207270595133</v>
+          </cell>
+          <cell r="AD6" t="e">
             <v>#DIV/0!</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="AE6" t="str">
-            <v>3T</v>
-          </cell>
           <cell r="AF6" t="str">
-            <v>成交量一直随价格收缩逐级减少，最后随着价格收缩期间空头几乎被榨干</v>
-          </cell>
-          <cell r="AG6">
-            <v>36.21</v>
+            <v>4T</v>
+          </cell>
+          <cell r="AG6" t="str">
+            <v>成交量先随价格收缩逐级减少，然后随价格收缩保持不变</v>
           </cell>
           <cell r="AH6">
-            <v>27.35</v>
+            <v>35.48</v>
           </cell>
           <cell r="AI6">
-            <v>8.86</v>
+            <v>31.36</v>
           </cell>
           <cell r="AJ6">
-            <v>32.65</v>
+            <v>4.12</v>
           </cell>
           <cell r="AK6">
-            <v>30.89</v>
+            <v>34.12</v>
           </cell>
           <cell r="AL6">
-            <v>36.22</v>
+            <v>32.53</v>
           </cell>
           <cell r="AM6">
-            <v>176</v>
+            <v>39.33</v>
           </cell>
           <cell r="AN6">
+            <v>159</v>
+          </cell>
+          <cell r="AO6">
             <v>100</v>
           </cell>
-          <cell r="AO6">
-            <v>2.02840909090909</v>
-          </cell>
           <cell r="AP6">
-            <v>0.0539050535987748</v>
+            <v>3.27672955974844</v>
           </cell>
           <cell r="AQ6">
-            <v>0.109341500765697</v>
+            <v>0.0466002344665884</v>
           </cell>
           <cell r="AR6">
-            <v>28.82</v>
-          </cell>
-          <cell r="AS6" t="str">
+            <v>0.152696365767878</v>
+          </cell>
+          <cell r="AS6">
+            <v>37.41</v>
+          </cell>
+          <cell r="AT6" t="str">
             <v>可以</v>
           </cell>
-          <cell r="AT6">
-            <v>44522</v>
-          </cell>
           <cell r="AU6">
-            <v>32.7</v>
+            <v>44523</v>
           </cell>
           <cell r="AV6">
+            <v>33.73</v>
+          </cell>
+          <cell r="AW6">
             <v>100</v>
           </cell>
-          <cell r="AW6">
+          <cell r="AX6">
             <v>5</v>
           </cell>
-          <cell r="AX6">
-            <v>0.0654</v>
-          </cell>
           <cell r="AY6">
-            <v>3275.0654</v>
+            <v>0.06746</v>
           </cell>
           <cell r="AZ6">
-            <v>186.0654</v>
+            <v>3378.06746</v>
           </cell>
           <cell r="BA6">
-            <v>33.9</v>
+            <v>125.06746</v>
           </cell>
           <cell r="BB6">
-            <v>32.49</v>
+            <v>35.36</v>
           </cell>
           <cell r="BC6">
-            <v>0.851063829787233</v>
+            <v>33.1</v>
+          </cell>
+          <cell r="BD6">
+            <v>0.721238938053099</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>000005</v>
+            <v>000003</v>
           </cell>
           <cell r="B7">
-            <v>44522</v>
+            <v>44519</v>
           </cell>
           <cell r="C7" t="str">
-            <v>605016(百龙创园)</v>
+            <v>603867(新化股份)</v>
           </cell>
           <cell r="D7">
-            <v>28.37</v>
+            <v>28.2</v>
           </cell>
           <cell r="E7">
-            <v>29.06</v>
+            <v>29.15</v>
           </cell>
           <cell r="F7">
-            <v>29.49</v>
-          </cell>
-          <cell r="G7">
-            <v>29.69</v>
+            <v>31.53</v>
+          </cell>
+          <cell r="G7" t="str">
+            <v>200日均线：向上
+150日均线：向上
+  50日均线：向上</v>
           </cell>
           <cell r="H7">
-            <v>17.54</v>
+            <v>32.57</v>
           </cell>
           <cell r="I7">
-            <v>48.5</v>
+            <v>20.61</v>
           </cell>
           <cell r="J7">
-            <v>0.692702394526796</v>
+            <v>41.5</v>
           </cell>
           <cell r="K7">
-            <v>0.387835051546392</v>
+            <v>0.58030082484231</v>
+          </cell>
+          <cell r="L7">
+            <v>0.215180722891566</v>
           </cell>
         </row>
         <row r="7">
-          <cell r="M7">
-            <v>24.11</v>
-          </cell>
           <cell r="N7">
-            <v>38.16</v>
+            <v>28.42</v>
           </cell>
           <cell r="O7">
-            <v>25.12</v>
+            <v>34.7</v>
           </cell>
           <cell r="P7">
-            <v>30.9</v>
+            <v>29</v>
           </cell>
           <cell r="Q7">
-            <v>29.2</v>
+            <v>35.27</v>
+          </cell>
+          <cell r="R7">
+            <v>30.89</v>
           </cell>
         </row>
         <row r="7">
-          <cell r="X7" t="str">
-            <v>24w</v>
-          </cell>
-          <cell r="Y7">
-            <v>0.502886597938144</v>
+          <cell r="Y7" t="str">
+            <v>8w</v>
           </cell>
           <cell r="Z7">
-            <v>0.341719077568134</v>
+            <v>0.315180722891566</v>
           </cell>
           <cell r="AA7">
-            <v>0.0550161812297734</v>
-          </cell>
-          <cell r="AB7" t="e">
-            <v>#DIV/0!</v>
+            <v>0.164265129682997</v>
+          </cell>
+          <cell r="AB7">
+            <v>0.124184859654097</v>
           </cell>
           <cell r="AC7" t="e">
             <v>#DIV/0!</v>
           </cell>
+          <cell r="AD7" t="e">
+            <v>#DIV/0!</v>
+          </cell>
         </row>
         <row r="7">
-          <cell r="AE7" t="str">
+          <cell r="AF7" t="str">
             <v>3T</v>
           </cell>
-          <cell r="AF7" t="str">
-            <v>由于价格收缩不明显，成交量收缩情况不予考虑</v>
-          </cell>
-          <cell r="AG7">
-            <v>32.43</v>
+          <cell r="AG7" t="str">
+            <v>成交量一直随价格收缩逐级减少，最后随着价格收缩期间空头几乎被榨干</v>
           </cell>
           <cell r="AH7">
-            <v>26.16</v>
+            <v>36.21</v>
           </cell>
           <cell r="AI7">
-            <v>6.27</v>
+            <v>27.35</v>
           </cell>
           <cell r="AJ7">
-            <v>30.66</v>
+            <v>8.86</v>
           </cell>
           <cell r="AK7">
-            <v>29.35</v>
+            <v>32.65</v>
           </cell>
           <cell r="AL7">
-            <v>38.71</v>
+            <v>30.89</v>
           </cell>
           <cell r="AM7">
-            <v>131</v>
+            <v>36.22</v>
           </cell>
           <cell r="AN7">
-            <v>200</v>
+            <v>176</v>
           </cell>
           <cell r="AO7">
-            <v>6.14503816793894</v>
+            <v>100</v>
           </cell>
           <cell r="AP7">
-            <v>0.042726679712981</v>
+            <v>2.02840909090909</v>
           </cell>
           <cell r="AQ7">
-            <v>0.262557077625571</v>
+            <v>0.0539050535987748</v>
           </cell>
           <cell r="AR7">
-            <v>38.46</v>
-          </cell>
-          <cell r="AS7" t="str">
-            <v>不宜入场</v>
-          </cell>
-          <cell r="AT7">
-            <v>44524</v>
+            <v>0.109341500765697</v>
+          </cell>
+          <cell r="AS7">
+            <v>28.82</v>
+          </cell>
+          <cell r="AT7" t="str">
+            <v>可以</v>
           </cell>
           <cell r="AU7">
-            <v>30.54</v>
+            <v>44522</v>
           </cell>
           <cell r="AV7">
+            <v>32.7</v>
+          </cell>
+          <cell r="AW7">
             <v>100</v>
           </cell>
-          <cell r="AW7">
+          <cell r="AX7">
             <v>5</v>
           </cell>
-          <cell r="AX7">
-            <v>0.06108</v>
-          </cell>
           <cell r="AY7">
-            <v>3059.06108</v>
+            <v>0.0654</v>
           </cell>
           <cell r="AZ7">
-            <v>124.06108</v>
+            <v>3275.0654</v>
           </cell>
           <cell r="BA7">
-            <v>30.72</v>
+            <v>186.0654</v>
           </cell>
           <cell r="BB7">
-            <v>29.33</v>
+            <v>33.9</v>
           </cell>
           <cell r="BC7">
-            <v>0.129496402877698</v>
+            <v>32.49</v>
           </cell>
           <cell r="BD7">
-            <v>44525</v>
-          </cell>
-          <cell r="BE7">
-            <v>30.15</v>
-          </cell>
-          <cell r="BF7">
-            <v>100</v>
-          </cell>
-          <cell r="BG7">
-            <v>5</v>
-          </cell>
-          <cell r="BH7">
-            <v>3.075</v>
-          </cell>
-          <cell r="BI7">
-            <v>3006.925</v>
+            <v>0.851063829787233</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>000010</v>
+            <v>000004</v>
           </cell>
           <cell r="B8">
-            <v>44524</v>
+            <v>44525</v>
           </cell>
           <cell r="C8" t="str">
-            <v>603663(三祥新材)</v>
+            <v>002932(明德生物)</v>
           </cell>
           <cell r="D8">
-            <v>18.26</v>
-          </cell>
-          <cell r="E8">
-            <v>19.01</v>
+            <v>64.32</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>65，56</v>
           </cell>
           <cell r="F8">
-            <v>21.05</v>
-          </cell>
-          <cell r="G8">
-            <v>23.2</v>
+            <v>68.37</v>
+          </cell>
+          <cell r="G8" t="str">
+            <v>200日均线：向上
+150日均线：向上
+  50日均线：向上</v>
           </cell>
           <cell r="H8">
-            <v>13.04</v>
+            <v>69.16</v>
           </cell>
           <cell r="I8">
-            <v>26.64</v>
+            <v>40.64</v>
           </cell>
           <cell r="J8">
-            <v>0.779141104294479</v>
+            <v>90.29</v>
           </cell>
           <cell r="K8">
-            <v>0.129129129129129</v>
+            <v>0.701771653543307</v>
+          </cell>
+          <cell r="L8">
+            <v>0.234023701406579</v>
           </cell>
         </row>
         <row r="8">
-          <cell r="M8">
-            <v>18.5</v>
-          </cell>
           <cell r="N8">
-            <v>22.39</v>
+            <v>60.05</v>
           </cell>
           <cell r="O8">
-            <v>18.85</v>
+            <v>74.75</v>
           </cell>
           <cell r="P8">
-            <v>23.56</v>
+            <v>65.5</v>
           </cell>
           <cell r="Q8">
-            <v>20.89</v>
+            <v>70.98</v>
+          </cell>
+          <cell r="R8">
+            <v>66.88</v>
           </cell>
         </row>
         <row r="8">
-          <cell r="X8" t="str">
+          <cell r="Y8" t="str">
             <v>12w</v>
           </cell>
-          <cell r="Y8">
-            <v>0.305555555555556</v>
-          </cell>
           <cell r="Z8">
-            <v>0.158106297454221</v>
+            <v>0.33492081072101</v>
           </cell>
           <cell r="AA8">
-            <v>0.113327674023769</v>
-          </cell>
-          <cell r="AB8" t="e">
+            <v>0.123745819397993</v>
+          </cell>
+          <cell r="AB8">
+            <v>0.0577627500704425</v>
+          </cell>
+          <cell r="AC8" t="e">
             <v>#DIV/0!</v>
           </cell>
         </row>
         <row r="8">
-          <cell r="AE8" t="str">
+          <cell r="AF8" t="str">
             <v>3T</v>
           </cell>
-          <cell r="AF8" t="str">
-            <v>成</v>
-          </cell>
-          <cell r="AG8">
-            <v>25.19</v>
+          <cell r="AG8" t="str">
+            <v>成交量先随价格收缩至几乎被榨干，然后随价格收缩有些许放量，最后又收缩至几乎榨干状态</v>
           </cell>
           <cell r="AH8">
-            <v>17.73</v>
+            <v>75.02</v>
           </cell>
           <cell r="AI8">
-            <v>7.46</v>
+            <v>62.33</v>
           </cell>
           <cell r="AJ8">
-            <v>23.56</v>
+            <v>12.69</v>
           </cell>
           <cell r="AK8">
-            <v>22.12</v>
+            <v>70.98</v>
           </cell>
           <cell r="AL8">
-            <v>26.91</v>
+            <v>66.88</v>
           </cell>
           <cell r="AM8">
-            <v>144</v>
+            <v>84.94</v>
           </cell>
           <cell r="AN8">
-            <v>200</v>
+            <v>410.000000000001</v>
           </cell>
           <cell r="AO8">
-            <v>2.32638888888889</v>
+            <v>0</v>
           </cell>
           <cell r="AP8">
-            <v>0.0611205432937181</v>
+            <v>3.40487804878048</v>
           </cell>
           <cell r="AQ8">
-            <v>0.142190152801358</v>
+            <v>0.0577627500704425</v>
           </cell>
           <cell r="AR8">
-            <v>53.49</v>
-          </cell>
-          <cell r="AS8" t="str">
+            <v>0.196675119752043</v>
+          </cell>
+          <cell r="AS8">
+            <v>6.49</v>
+          </cell>
+          <cell r="AT8" t="str">
             <v>可以</v>
+          </cell>
+          <cell r="AU8">
+            <v>44526</v>
+          </cell>
+          <cell r="AV8">
+            <v>72.07</v>
+          </cell>
+          <cell r="AW8">
+            <v>100</v>
+          </cell>
+          <cell r="AX8">
+            <v>5</v>
+          </cell>
+          <cell r="AY8">
+            <v>0.14414</v>
+          </cell>
+          <cell r="AZ8">
+            <v>7212.14414</v>
+          </cell>
+          <cell r="BA8">
+            <v>524.14414</v>
+          </cell>
+          <cell r="BB8">
+            <v>74.5</v>
+          </cell>
+          <cell r="BC8">
+            <v>70.4</v>
+          </cell>
+          <cell r="BD8">
+            <v>0.592682926829271</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>000014</v>
+            <v>000005</v>
           </cell>
           <cell r="B9">
-            <v>44524</v>
+            <v>44522</v>
           </cell>
           <cell r="C9" t="str">
-            <v>600392(盛和资源)</v>
+            <v>605016(百龙创园)</v>
           </cell>
           <cell r="D9">
-            <v>20.14</v>
+            <v>28.37</v>
           </cell>
           <cell r="E9">
-            <v>20.65</v>
+            <v>29.06</v>
           </cell>
           <cell r="F9">
-            <v>20.97</v>
-          </cell>
-          <cell r="G9">
-            <v>21.52</v>
-          </cell>
-          <cell r="H9">
-            <v>7.07</v>
-          </cell>
-          <cell r="I9">
-            <v>29.28</v>
-          </cell>
-          <cell r="J9">
-            <v>2.04384724186704</v>
-          </cell>
-          <cell r="K9">
-            <v>0.265027322404372</v>
+            <v>29.49</v>
           </cell>
         </row>
         <row r="9">
-          <cell r="M9">
-            <v>18.34</v>
-          </cell>
-          <cell r="N9">
-            <v>21.65</v>
-          </cell>
-          <cell r="O9">
-            <v>18.61</v>
-          </cell>
-          <cell r="P9">
-            <v>21.14</v>
-          </cell>
-          <cell r="Q9">
-            <v>18.86</v>
+          <cell r="H9">
+            <v>29.69</v>
+          </cell>
+          <cell r="I9">
+            <v>17.54</v>
+          </cell>
+          <cell r="J9">
+            <v>48.5</v>
+          </cell>
+          <cell r="K9">
+            <v>0.692702394526796</v>
+          </cell>
+          <cell r="L9">
+            <v>0.387835051546392</v>
           </cell>
         </row>
         <row r="9">
-          <cell r="X9" t="str">
-            <v>8w</v>
-          </cell>
-          <cell r="Y9">
-            <v>0.373633879781421</v>
-          </cell>
-          <cell r="Z9">
-            <v>0.140415704387991</v>
-          </cell>
-          <cell r="AA9">
-            <v>0.107852412488174</v>
-          </cell>
-          <cell r="AB9" t="e">
-            <v>#DIV/0!</v>
+          <cell r="N9">
+            <v>24.11</v>
+          </cell>
+          <cell r="O9">
+            <v>38.16</v>
+          </cell>
+          <cell r="P9">
+            <v>25.12</v>
+          </cell>
+          <cell r="Q9">
+            <v>30.9</v>
+          </cell>
+          <cell r="R9">
+            <v>29.2</v>
           </cell>
         </row>
         <row r="9">
-          <cell r="AE9" t="str">
-            <v>3T</v>
-          </cell>
-          <cell r="AF9" t="str">
-            <v>成交量先随价格收缩逐级减少，然后随价格收缩放量</v>
+          <cell r="Y9" t="str">
+            <v>24w</v>
+          </cell>
+          <cell r="Z9">
+            <v>0.502886597938144</v>
+          </cell>
+          <cell r="AA9">
+            <v>0.341719077568134</v>
+          </cell>
+          <cell r="AB9">
+            <v>0.0550161812297734</v>
+          </cell>
+          <cell r="AC9" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="AD9" t="e">
+            <v>#DIV/0!</v>
           </cell>
         </row>
         <row r="9">
+          <cell r="AF9" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AG9" t="str">
+            <v>由于价格收缩不明显，成交量收缩情况不予考虑</v>
+          </cell>
+          <cell r="AH9">
+            <v>32.43</v>
+          </cell>
+          <cell r="AI9">
+            <v>26.16</v>
+          </cell>
+          <cell r="AJ9">
+            <v>6.27</v>
+          </cell>
+          <cell r="AK9">
+            <v>30.66</v>
+          </cell>
+          <cell r="AL9">
+            <v>29.35</v>
+          </cell>
           <cell r="AM9">
-            <v>0</v>
-          </cell>
-          <cell r="AN9" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="AO9" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="AS9" t="str">
+            <v>38.71</v>
+          </cell>
+          <cell r="AN9">
+            <v>131</v>
+          </cell>
+          <cell r="AO9">
+            <v>200</v>
+          </cell>
+          <cell r="AP9">
+            <v>6.14503816793894</v>
+          </cell>
+          <cell r="AQ9">
+            <v>0.042726679712981</v>
+          </cell>
+          <cell r="AR9">
+            <v>0.262557077625571</v>
+          </cell>
+          <cell r="AS9">
+            <v>38.46</v>
+          </cell>
+          <cell r="AT9" t="str">
             <v>不宜入场</v>
+          </cell>
+          <cell r="AU9">
+            <v>44524</v>
+          </cell>
+          <cell r="AV9">
+            <v>30.54</v>
+          </cell>
+          <cell r="AW9">
+            <v>100</v>
+          </cell>
+          <cell r="AX9">
+            <v>5</v>
+          </cell>
+          <cell r="AY9">
+            <v>0.06108</v>
+          </cell>
+          <cell r="AZ9">
+            <v>3059.06108</v>
+          </cell>
+          <cell r="BA9">
+            <v>124.06108</v>
+          </cell>
+          <cell r="BB9">
+            <v>30.72</v>
+          </cell>
+          <cell r="BC9">
+            <v>29.33</v>
+          </cell>
+          <cell r="BD9">
+            <v>0.129496402877698</v>
+          </cell>
+          <cell r="BE9">
+            <v>44525</v>
+          </cell>
+          <cell r="BF9">
+            <v>30.15</v>
+          </cell>
+          <cell r="BG9">
+            <v>100</v>
+          </cell>
+          <cell r="BH9">
+            <v>5</v>
+          </cell>
+          <cell r="BI9">
+            <v>3.075</v>
+          </cell>
+          <cell r="BJ9">
+            <v>3006.925</v>
+          </cell>
+          <cell r="BK9">
+            <v>30.69</v>
+          </cell>
+          <cell r="BL9">
+            <v>30.01</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>000015</v>
+            <v>000010</v>
           </cell>
           <cell r="B10">
             <v>44524</v>
           </cell>
           <cell r="C10" t="str">
-            <v>600399(抚顺特钢)</v>
+            <v>603663(三祥新材)</v>
           </cell>
           <cell r="D10">
-            <v>19.9</v>
+            <v>18.26</v>
           </cell>
           <cell r="E10">
-            <v>20.73</v>
+            <v>19.01</v>
           </cell>
           <cell r="F10">
-            <v>22.88</v>
-          </cell>
-          <cell r="G10">
-            <v>23.53</v>
-          </cell>
-          <cell r="H10">
-            <v>7.25</v>
-          </cell>
-          <cell r="I10">
-            <v>29.3</v>
-          </cell>
-          <cell r="J10">
-            <v>2.24551724137931</v>
-          </cell>
-          <cell r="K10">
-            <v>0.196928327645051</v>
+            <v>21.05</v>
           </cell>
         </row>
         <row r="10">
-          <cell r="M10">
-            <v>19.05</v>
-          </cell>
-          <cell r="N10">
-            <v>22.91</v>
-          </cell>
-          <cell r="O10">
-            <v>19.73</v>
-          </cell>
-          <cell r="P10">
-            <v>25.5</v>
-          </cell>
-          <cell r="Q10">
-            <v>23.12</v>
-          </cell>
-          <cell r="R10">
-            <v>26.45</v>
-          </cell>
-          <cell r="S10">
-            <v>23.48</v>
+          <cell r="H10">
+            <v>23.2</v>
+          </cell>
+          <cell r="I10">
+            <v>13.04</v>
+          </cell>
+          <cell r="J10">
+            <v>26.64</v>
+          </cell>
+          <cell r="K10">
+            <v>0.779141104294479</v>
+          </cell>
+          <cell r="L10">
+            <v>0.129129129129129</v>
           </cell>
         </row>
         <row r="10">
-          <cell r="X10" t="str">
-            <v>12w</v>
-          </cell>
-          <cell r="Y10">
-            <v>0.349829351535836</v>
-          </cell>
-          <cell r="Z10">
-            <v>0.138804015713662</v>
-          </cell>
-          <cell r="AA10">
-            <v>0.0933333333333333</v>
-          </cell>
-          <cell r="AB10">
-            <v>0.112287334593573</v>
+          <cell r="N10">
+            <v>18.5</v>
+          </cell>
+          <cell r="O10">
+            <v>22.39</v>
+          </cell>
+          <cell r="P10">
+            <v>18.85</v>
+          </cell>
+          <cell r="Q10">
+            <v>23.56</v>
+          </cell>
+          <cell r="R10">
+            <v>20.89</v>
           </cell>
         </row>
         <row r="10">
-          <cell r="AE10" t="str">
-            <v>3T</v>
-          </cell>
-          <cell r="AF10" t="str">
-            <v>略明显</v>
+          <cell r="Y10" t="str">
+            <v>12w</v>
+          </cell>
+          <cell r="Z10">
+            <v>0.305555555555556</v>
+          </cell>
+          <cell r="AA10">
+            <v>0.158106297454221</v>
+          </cell>
+          <cell r="AB10">
+            <v>0.113327674023769</v>
+          </cell>
+          <cell r="AC10" t="e">
+            <v>#DIV/0!</v>
           </cell>
         </row>
         <row r="10">
+          <cell r="AF10" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AG10" t="str">
+            <v>成交量先随价格收缩逐级减少，然后随价格收缩放量</v>
+          </cell>
+          <cell r="AH10">
+            <v>25.19</v>
+          </cell>
+          <cell r="AI10">
+            <v>17.73</v>
+          </cell>
           <cell r="AJ10">
-            <v>25.15</v>
+            <v>7.46</v>
           </cell>
           <cell r="AK10">
-            <v>23.48</v>
+            <v>23.56</v>
           </cell>
           <cell r="AL10">
-            <v>27.83</v>
+            <v>22.12</v>
           </cell>
           <cell r="AM10">
-            <v>167</v>
+            <v>26.91</v>
           </cell>
           <cell r="AN10">
-            <v>100</v>
+            <v>144</v>
           </cell>
           <cell r="AO10">
-            <v>1.60479041916168</v>
+            <v>200</v>
+          </cell>
+          <cell r="AP10">
+            <v>2.32638888888889</v>
+          </cell>
+          <cell r="AQ10">
+            <v>0.0611205432937181</v>
+          </cell>
+          <cell r="AR10">
+            <v>0.142190152801358</v>
+          </cell>
+          <cell r="AS10">
+            <v>53.49</v>
+          </cell>
+          <cell r="AT10" t="str">
+            <v>不宜入场</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>000017</v>
+            <v>000014</v>
           </cell>
           <cell r="B11">
             <v>44524</v>
           </cell>
           <cell r="C11" t="str">
-            <v>601677(明泰铝业)</v>
+            <v>600392(盛和资源)</v>
           </cell>
           <cell r="D11">
-            <v>26.7</v>
+            <v>20.14</v>
           </cell>
           <cell r="E11">
-            <v>28.65</v>
+            <v>20.65</v>
           </cell>
           <cell r="F11">
-            <v>33.16</v>
-          </cell>
-          <cell r="G11">
-            <v>36.11</v>
-          </cell>
-          <cell r="H11">
-            <v>11.38</v>
-          </cell>
-          <cell r="I11">
-            <v>41.75</v>
-          </cell>
-          <cell r="J11">
-            <v>2.17311072056239</v>
-          </cell>
-          <cell r="K11">
-            <v>0.135089820359281</v>
+            <v>20.97</v>
           </cell>
         </row>
         <row r="11">
-          <cell r="M11">
-            <v>28.85</v>
-          </cell>
-          <cell r="N11">
-            <v>35.46</v>
-          </cell>
-          <cell r="O11">
-            <v>29.05</v>
-          </cell>
-          <cell r="P11">
-            <v>34.35</v>
-          </cell>
-          <cell r="Q11">
-            <v>31.5</v>
+          <cell r="H11">
+            <v>21.52</v>
+          </cell>
+          <cell r="I11">
+            <v>7.07</v>
+          </cell>
+          <cell r="J11">
+            <v>29.28</v>
+          </cell>
+          <cell r="K11">
+            <v>2.04384724186704</v>
+          </cell>
+          <cell r="L11">
+            <v>0.265027322404372</v>
           </cell>
         </row>
         <row r="11">
-          <cell r="X11" t="str">
-            <v>8w</v>
-          </cell>
-          <cell r="Y11">
-            <v>0.308982035928144</v>
-          </cell>
-          <cell r="Z11">
-            <v>0.180767061477721</v>
-          </cell>
-          <cell r="AA11">
-            <v>0.0829694323144105</v>
+          <cell r="N11">
+            <v>18.34</v>
+          </cell>
+          <cell r="O11">
+            <v>21.65</v>
+          </cell>
+          <cell r="P11">
+            <v>18.61</v>
+          </cell>
+          <cell r="Q11">
+            <v>21.14</v>
+          </cell>
+          <cell r="R11">
+            <v>18.86</v>
           </cell>
         </row>
         <row r="11">
-          <cell r="AE11" t="str">
-            <v>3T</v>
-          </cell>
-          <cell r="AF11" t="str">
-            <v>减少明显，空头几乎被榨干</v>
+          <cell r="Y11" t="str">
+            <v>8w</v>
+          </cell>
+          <cell r="Z11">
+            <v>0.373633879781421</v>
+          </cell>
+          <cell r="AA11">
+            <v>0.140415704387991</v>
+          </cell>
+          <cell r="AB11">
+            <v>0.107852412488174</v>
+          </cell>
+          <cell r="AC11" t="e">
+            <v>#DIV/0!</v>
           </cell>
         </row>
         <row r="11">
-          <cell r="AJ11">
-            <v>37.13</v>
-          </cell>
-          <cell r="AK11">
-            <v>35.6</v>
-          </cell>
-          <cell r="AL11">
-            <v>38.61</v>
-          </cell>
-          <cell r="AM11">
-            <v>153</v>
-          </cell>
-          <cell r="AN11">
-            <v>100</v>
-          </cell>
-          <cell r="AO11">
-            <v>0.967320261437906</v>
+          <cell r="AF11" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AG11" t="str">
+            <v>成交量先随价格收缩逐级减少，然后随价格收缩放量</v>
           </cell>
         </row>
         <row r="11">
-          <cell r="AS11" t="str">
-            <v>可以</v>
+          <cell r="AN11">
+            <v>0</v>
+          </cell>
+          <cell r="AO11" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="AP11" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="AT11" t="str">
+            <v>不宜入场</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>000018</v>
+            <v>000015</v>
           </cell>
           <cell r="B12">
             <v>44524</v>
           </cell>
           <cell r="C12" t="str">
-            <v>002223(鱼跃医疗)</v>
+            <v>600399(抚顺特钢)</v>
           </cell>
           <cell r="D12">
-            <v>32.91</v>
+            <v>19.9</v>
           </cell>
           <cell r="E12">
-            <v>33.52</v>
+            <v>20.73</v>
           </cell>
           <cell r="F12">
-            <v>34.71</v>
-          </cell>
-          <cell r="G12">
-            <v>36.09</v>
-          </cell>
-          <cell r="H12">
-            <v>25.12</v>
-          </cell>
-          <cell r="I12">
-            <v>41.77</v>
-          </cell>
-          <cell r="J12">
-            <v>0.436703821656051</v>
-          </cell>
-          <cell r="K12">
-            <v>0.135982762748384</v>
+            <v>22.88</v>
           </cell>
         </row>
         <row r="12">
-          <cell r="M12">
-            <v>30.46</v>
-          </cell>
-          <cell r="N12">
-            <v>36.94</v>
-          </cell>
-          <cell r="O12">
-            <v>33.59</v>
-          </cell>
-          <cell r="P12">
-            <v>37.1</v>
-          </cell>
-          <cell r="Q12">
-            <v>34.44</v>
+          <cell r="H12">
+            <v>23.53</v>
+          </cell>
+          <cell r="I12">
+            <v>7.25</v>
+          </cell>
+          <cell r="J12">
+            <v>29.3</v>
+          </cell>
+          <cell r="K12">
+            <v>2.24551724137931</v>
+          </cell>
+          <cell r="L12">
+            <v>0.196928327645051</v>
           </cell>
         </row>
         <row r="12">
-          <cell r="X12" t="str">
-            <v>16w</v>
-          </cell>
-          <cell r="Y12">
-            <v>0.270768494134546</v>
-          </cell>
-          <cell r="Z12">
-            <v>0.0906876015159717</v>
-          </cell>
-          <cell r="AA12">
-            <v>0.0716981132075473</v>
+          <cell r="N12">
+            <v>19.05</v>
+          </cell>
+          <cell r="O12">
+            <v>22.91</v>
+          </cell>
+          <cell r="P12">
+            <v>19.73</v>
+          </cell>
+          <cell r="Q12">
+            <v>25.5</v>
+          </cell>
+          <cell r="R12">
+            <v>23.12</v>
+          </cell>
+          <cell r="S12">
+            <v>26.45</v>
+          </cell>
+          <cell r="T12">
+            <v>23.48</v>
           </cell>
         </row>
         <row r="12">
-          <cell r="AE12" t="str">
-            <v>3T</v>
-          </cell>
-          <cell r="AF12" t="str">
-            <v>不是很明显</v>
+          <cell r="Y12" t="str">
+            <v>12w</v>
+          </cell>
+          <cell r="Z12">
+            <v>0.349829351535836</v>
+          </cell>
+          <cell r="AA12">
+            <v>0.138804015713662</v>
+          </cell>
+          <cell r="AB12">
+            <v>0.0933333333333333</v>
+          </cell>
+          <cell r="AC12">
+            <v>0.112287334593573</v>
           </cell>
         </row>
         <row r="12">
-          <cell r="AJ12">
-            <v>37.09</v>
-          </cell>
-          <cell r="AK12">
-            <v>35.25</v>
-          </cell>
-          <cell r="AL12">
-            <v>38.8</v>
-          </cell>
-          <cell r="AM12">
-            <v>184</v>
-          </cell>
-          <cell r="AN12">
-            <v>100</v>
-          </cell>
-          <cell r="AO12">
-            <v>0.929347826086951</v>
+          <cell r="AF12" t="str">
+            <v>3T</v>
           </cell>
         </row>
         <row r="12">
-          <cell r="AS12" t="str">
-            <v>可以</v>
+          <cell r="AK12">
+            <v>25.15</v>
+          </cell>
+          <cell r="AL12">
+            <v>23.48</v>
+          </cell>
+          <cell r="AM12">
+            <v>27.83</v>
+          </cell>
+          <cell r="AN12">
+            <v>167</v>
+          </cell>
+          <cell r="AO12">
+            <v>100</v>
+          </cell>
+          <cell r="AP12">
+            <v>1.60479041916168</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="AT12" t="str">
+            <v>不宜入场</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>000019</v>
+            <v>000017</v>
+          </cell>
+          <cell r="B13">
+            <v>44524</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>601677(明泰铝业)</v>
+          </cell>
+          <cell r="D13">
+            <v>26.7</v>
+          </cell>
+          <cell r="E13">
+            <v>28.65</v>
+          </cell>
+          <cell r="F13">
+            <v>33.16</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="H13">
+            <v>36.11</v>
+          </cell>
+          <cell r="I13">
+            <v>11.38</v>
+          </cell>
+          <cell r="J13">
+            <v>41.75</v>
+          </cell>
+          <cell r="K13">
+            <v>2.17311072056239</v>
+          </cell>
+          <cell r="L13">
+            <v>0.135089820359281</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="N13">
+            <v>28.85</v>
+          </cell>
+          <cell r="O13">
+            <v>35.46</v>
+          </cell>
+          <cell r="P13">
+            <v>29.05</v>
+          </cell>
+          <cell r="Q13">
+            <v>34.35</v>
+          </cell>
+          <cell r="R13">
+            <v>31.5</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="Y13" t="str">
+            <v>8w</v>
+          </cell>
+          <cell r="Z13">
+            <v>0.308982035928144</v>
+          </cell>
+          <cell r="AA13">
+            <v>0.180767061477721</v>
+          </cell>
+          <cell r="AB13">
+            <v>0.0829694323144105</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="AF13" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AG13" t="str">
+            <v>减少明显，空头几乎被榨干</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="AK13">
+            <v>37.13</v>
+          </cell>
+          <cell r="AL13">
+            <v>35.6</v>
+          </cell>
+          <cell r="AM13">
+            <v>38.61</v>
+          </cell>
+          <cell r="AN13">
+            <v>153</v>
+          </cell>
+          <cell r="AO13">
+            <v>100</v>
+          </cell>
+          <cell r="AP13">
+            <v>0.967320261437906</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="AT13" t="str">
+            <v>不宜入场</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>000020</v>
+            <v>000018</v>
+          </cell>
+          <cell r="B14">
+            <v>44524</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>002223(鱼跃医疗)</v>
+          </cell>
+          <cell r="D14">
+            <v>32.91</v>
+          </cell>
+          <cell r="E14">
+            <v>33.52</v>
+          </cell>
+          <cell r="F14">
+            <v>34.71</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="H14">
+            <v>36.09</v>
+          </cell>
+          <cell r="I14">
+            <v>25.12</v>
+          </cell>
+          <cell r="J14">
+            <v>41.77</v>
+          </cell>
+          <cell r="K14">
+            <v>0.436703821656051</v>
+          </cell>
+          <cell r="L14">
+            <v>0.135982762748384</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="N14">
+            <v>30.46</v>
+          </cell>
+          <cell r="O14">
+            <v>36.94</v>
+          </cell>
+          <cell r="P14">
+            <v>33.59</v>
+          </cell>
+          <cell r="Q14">
+            <v>37.1</v>
+          </cell>
+          <cell r="R14">
+            <v>34.44</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="Y14" t="str">
+            <v>16w</v>
+          </cell>
+          <cell r="Z14">
+            <v>0.270768494134546</v>
+          </cell>
+          <cell r="AA14">
+            <v>0.0906876015159717</v>
+          </cell>
+          <cell r="AB14">
+            <v>0.0716981132075473</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="AF14" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AG14" t="str">
+            <v>不是很明显</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="AK14">
+            <v>37.09</v>
+          </cell>
+          <cell r="AL14">
+            <v>35.25</v>
+          </cell>
+          <cell r="AM14">
+            <v>38.8</v>
+          </cell>
+          <cell r="AN14">
+            <v>184</v>
+          </cell>
+          <cell r="AO14">
+            <v>100</v>
+          </cell>
+          <cell r="AP14">
+            <v>0.929347826086951</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="AT14" t="str">
+            <v>不宜入场</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>000021</v>
+            <v>000019</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>000022</v>
+            <v>000020</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>000023</v>
+            <v>000021</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>000024</v>
+            <v>000022</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>000025</v>
+            <v>000023</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>000026</v>
+            <v>000024</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>000027</v>
+            <v>000025</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>000028</v>
+            <v>000026</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>000029</v>
+            <v>000027</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>000030</v>
+            <v>000028</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>000031</v>
+            <v>000029</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>000032</v>
+            <v>000030</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>000033</v>
+            <v>000031</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>000034</v>
+            <v>000032</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>000035</v>
+            <v>000033</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>000036</v>
+            <v>000034</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>000037</v>
+            <v>000035</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>000038</v>
+            <v>000036</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>000039</v>
+            <v>000037</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>000040</v>
+            <v>000038</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>000041</v>
+            <v>000039</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>000042</v>
+            <v>000040</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>000043</v>
+            <v>000041</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>000044</v>
+            <v>000042</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>000045</v>
+            <v>000043</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>000046</v>
+            <v>000044</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>000047</v>
+            <v>000045</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42" t="str">
-            <v>000048</v>
+            <v>000046</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>000049</v>
+            <v>000047</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>000050</v>
+            <v>000048</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>000051</v>
+            <v>000049</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>000052</v>
+            <v>000050</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>000053</v>
+            <v>000051</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48" t="str">
-            <v>000054</v>
+            <v>000052</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49" t="str">
-            <v>000055</v>
+            <v>000053</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50" t="str">
-            <v>000056</v>
+            <v>000054</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51" t="str">
-            <v>000057</v>
+            <v>000055</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52" t="str">
-            <v>000058</v>
+            <v>000056</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53" t="str">
-            <v>000059</v>
+            <v>000057</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54" t="str">
-            <v>000060</v>
+            <v>000058</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55" t="str">
-            <v>000061</v>
+            <v>000059</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56" t="str">
-            <v>000062</v>
+            <v>000060</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57" t="str">
-            <v>000063</v>
+            <v>000061</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58" t="str">
-            <v>000064</v>
+            <v>000062</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>000065</v>
+            <v>000063</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60" t="str">
-            <v>000066</v>
+            <v>000064</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61" t="str">
-            <v>000067</v>
+            <v>000065</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62" t="str">
-            <v>000068</v>
+            <v>000066</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63" t="str">
+            <v>000067</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>000068</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
             <v>000069</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2497,8 +2716,8 @@
   <sheetPr/>
   <dimension ref="A1:U499"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -2588,11 +2807,11 @@
         <v>24.68</v>
       </c>
       <c r="G2" s="4">
-        <f>F2/(1-VLOOKUP([1]入场指标!A4,[1]入场指标!A4:BL10000,42,FALSE))</f>
+        <f>F2/(1-VLOOKUP([1]交易计划及执行表!A4,[1]交易计划及执行表!A4:BL10001,43,FALSE))</f>
         <v>26.2</v>
       </c>
       <c r="H2" s="4">
-        <f>G2+G2*VLOOKUP([1]入场指标!A4,[1]入场指标!A4:BL1000,42,FALSE)*2</f>
+        <f>G2+G2*VLOOKUP([1]交易计划及执行表!A4,[1]交易计划及执行表!A4:BL1000,43,FALSE)*2</f>
         <v>29.24</v>
       </c>
       <c r="I2" s="4"/>
@@ -2642,11 +2861,11 @@
         <v>24.68</v>
       </c>
       <c r="G3" s="4">
-        <f>F3/(1-VLOOKUP([1]入场指标!A4,[1]入场指标!A4:BL10001,42,FALSE))</f>
+        <f>F3/(1-VLOOKUP([1]交易计划及执行表!A4,[1]交易计划及执行表!A4:BL10002,43,FALSE))</f>
         <v>26.2</v>
       </c>
       <c r="H3" s="4">
-        <f>G3+G3*VLOOKUP([1]入场指标!A4,[1]入场指标!A4:BL1001,42,FALSE)*2</f>
+        <f>G3+G3*VLOOKUP([1]交易计划及执行表!A4,[1]交易计划及执行表!A4:BL1000,43,FALSE)*2</f>
         <v>29.24</v>
       </c>
       <c r="I3" s="6">
@@ -2665,7 +2884,7 @@
       <c r="M3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="8" t="str">
+      <c r="N3" s="9" t="str">
         <f>IF(B3&gt;(D3-(D3-C3)/3),"上部",IF(B3&gt;(E3+(D3-C3)/3),"中部","下部"))</f>
         <v>下部</v>
       </c>
@@ -2699,11 +2918,11 @@
         <v>24.68</v>
       </c>
       <c r="G4" s="4">
-        <f>F4/(1-VLOOKUP([1]入场指标!A4,[1]入场指标!A4:BL10001,42,FALSE))</f>
+        <f>F4/(1-VLOOKUP([1]交易计划及执行表!A4,[1]交易计划及执行表!A4:BL10002,43,FALSE))</f>
         <v>26.2</v>
       </c>
       <c r="H4" s="4">
-        <f>G4+G4*VLOOKUP([1]入场指标!A4,[1]入场指标!A4:BL1001,42,FALSE)*2</f>
+        <f>G4+G4*VLOOKUP([1]交易计划及执行表!A4,[1]交易计划及执行表!A4:BL1000,43,FALSE)*2</f>
         <v>29.24</v>
       </c>
       <c r="I4" s="7">
@@ -2722,11 +2941,11 @@
       <c r="M4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="9" t="str">
+      <c r="N4" s="10" t="str">
         <f>IF(B4&gt;(D4-(D4-C4)/3),"上部",IF(B4&gt;(E4+(D4-C4)/3),"中部","下部"))</f>
         <v>中部</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="9" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="5"/>
@@ -2740,20 +2959,52 @@
       <c r="A5" s="3">
         <v>44526</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="5"/>
+      <c r="B5" s="4">
+        <v>27.43</v>
+      </c>
+      <c r="C5" s="4">
+        <v>24.88</v>
+      </c>
+      <c r="D5" s="4">
+        <v>27.43</v>
+      </c>
+      <c r="E5" s="4">
+        <v>24.74</v>
+      </c>
+      <c r="F5" s="4">
+        <v>24.68</v>
+      </c>
+      <c r="G5" s="4">
+        <f>F5/(1-VLOOKUP([1]交易计划及执行表!A4,[1]交易计划及执行表!A4:BL10004,43,FALSE))</f>
+        <v>26.2</v>
+      </c>
+      <c r="H5" s="4">
+        <f>G5+G5*VLOOKUP([1]交易计划及执行表!A4,[1]交易计划及执行表!A4:BL1000,43,FALSE)*2</f>
+        <v>29.24</v>
+      </c>
+      <c r="I5" s="8">
+        <f>(B5-B4)/B4</f>
+        <v>0.0998396150761828</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="11" t="str">
+        <f>IF(B5&gt;(D5-(D5-C5)/3),"上部",IF(B5&gt;(E5+(D5-C5)/3),"中部","下部"))</f>
+        <v>上部</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
@@ -2716,8 +2716,8 @@
   <sheetPr/>
   <dimension ref="A1:U499"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
@@ -22,10 +22,10 @@
     <t>当日行情走势</t>
   </si>
   <si>
-    <t>止损线情况</t>
+    <t>止损线状态</t>
   </si>
   <si>
-    <t>是否走向不利指标</t>
+    <t>是否向预期相反方向发展指标</t>
   </si>
   <si>
     <t>强势卖出指标</t>
@@ -378,7 +378,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,6 +393,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -400,6 +406,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,7 +602,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -608,19 +620,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -729,85 +728,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -816,7 +815,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -828,25 +827,25 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -855,82 +854,106 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1254,11 +1277,11 @@
   <dimension ref="A1:W500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -1300,28 +1323,28 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3" t="s">
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="10" t="s">
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
     </row>
     <row r="2" ht="56" customHeight="1" spans="1:23">
       <c r="A2" s="2"/>
@@ -1337,58 +1360,58 @@
       <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="17" t="s">
+      <c r="V2" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="17" t="s">
+      <c r="W2" s="24" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1401,22 +1424,22 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="1"/>
+      <c r="G3" s="11"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="1"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="11"/>
       <c r="W3" s="6"/>
     </row>
     <row r="4" spans="1:23">
@@ -1428,22 +1451,22 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="11"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="1"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="11"/>
       <c r="W4" s="6"/>
     </row>
     <row r="5" spans="1:23">
@@ -1455,22 +1478,22 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="11"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="1"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="11"/>
       <c r="W5" s="6"/>
     </row>
     <row r="6" spans="1:23">
@@ -1482,22 +1505,22 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="1"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="11"/>
       <c r="W6" s="6"/>
     </row>
     <row r="7" spans="1:23">
@@ -1509,21 +1532,23 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="11"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
       <c r="R7" s="6"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="7">
@@ -1534,21 +1559,23 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
       <c r="R8" s="6"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="7">
@@ -1559,21 +1586,23 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
       <c r="R9" s="6"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="7">
@@ -1584,21 +1613,23 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="11"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
       <c r="R10" s="6"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="7">
@@ -1609,21 +1640,23 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="11"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
       <c r="R11" s="6"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="7">
@@ -1634,21 +1667,23 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="11"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
       <c r="R12" s="6"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="7">
@@ -1659,21 +1694,23 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="11"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
       <c r="R13" s="6"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="7">
@@ -1684,21 +1721,23 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="11"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
       <c r="R14" s="6"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="7">
@@ -1709,21 +1748,23 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="11"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
       <c r="R15" s="6"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="7">
@@ -1734,21 +1775,23 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="11"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
       <c r="R16" s="6"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="7">
@@ -1759,21 +1802,23 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="11"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
       <c r="R17" s="6"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="7">
@@ -1784,21 +1829,23 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="11"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
       <c r="R18" s="6"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="7">
@@ -1809,21 +1856,23 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="11"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
       <c r="R19" s="6"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="7">
@@ -1834,21 +1883,23 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="11"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
       <c r="R20" s="6"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="7">
@@ -1859,21 +1910,23 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="1"/>
+      <c r="G21" s="11"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
       <c r="R21" s="6"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="7">
@@ -1884,21 +1937,23 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="11"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
       <c r="R22" s="6"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="7">
@@ -1909,21 +1964,23 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="11"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
       <c r="R23" s="6"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="7">
@@ -1933,23 +1990,26 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="G24" s="1"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
       <c r="R24" s="6"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" s="7">
         <v>44545</v>
       </c>
@@ -1957,22 +2017,26 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="G25" s="1"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-    </row>
-    <row r="26" spans="1:22">
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="26"/>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" s="7">
         <v>44546</v>
       </c>
@@ -1980,22 +2044,26 @@
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-      <c r="G26" s="1"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-    </row>
-    <row r="27" spans="1:22">
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="26"/>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" s="7">
         <v>44547</v>
       </c>
@@ -2003,22 +2071,26 @@
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="G27" s="1"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-    </row>
-    <row r="28" spans="1:22">
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="26"/>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" s="7">
         <v>44548</v>
       </c>
@@ -2026,22 +2098,26 @@
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-      <c r="G28" s="1"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-    </row>
-    <row r="29" spans="1:22">
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="26"/>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" s="7">
         <v>44549</v>
       </c>
@@ -2049,22 +2125,26 @@
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="G29" s="1"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-    </row>
-    <row r="30" spans="1:22">
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="26"/>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30" s="7">
         <v>44550</v>
       </c>
@@ -2072,22 +2152,26 @@
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-      <c r="G30" s="1"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-    </row>
-    <row r="31" spans="1:22">
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="26"/>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" s="7">
         <v>44551</v>
       </c>
@@ -2095,22 +2179,26 @@
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
-      <c r="G31" s="1"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-    </row>
-    <row r="32" spans="1:22">
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="26"/>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" s="7">
         <v>44552</v>
       </c>
@@ -2118,22 +2206,26 @@
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
-      <c r="G32" s="1"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-    </row>
-    <row r="33" spans="1:22">
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="26"/>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33" s="7">
         <v>44553</v>
       </c>
@@ -2141,22 +2233,26 @@
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
-      <c r="G33" s="1"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-    </row>
-    <row r="34" spans="1:22">
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="26"/>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" s="7">
         <v>44554</v>
       </c>
@@ -2164,22 +2260,26 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="G34" s="1"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-    </row>
-    <row r="35" spans="1:22">
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="26"/>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35" s="7">
         <v>44555</v>
       </c>
@@ -2187,22 +2287,26 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="G35" s="1"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-    </row>
-    <row r="36" spans="1:22">
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="26"/>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36" s="7">
         <v>44556</v>
       </c>
@@ -2210,22 +2314,26 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="G36" s="1"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-    </row>
-    <row r="37" spans="1:22">
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="26"/>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37" s="7">
         <v>44557</v>
       </c>
@@ -2233,22 +2341,26 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="G37" s="1"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-    </row>
-    <row r="38" spans="1:22">
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="26"/>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38" s="7">
         <v>44558</v>
       </c>
@@ -2256,20 +2368,24 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="G38" s="1"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="26"/>
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="1"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
@@ -61,24 +61,88 @@
     <t>预期移动止损线股价</t>
   </si>
   <si>
-    <t>当日收盘价是否小于20日均线
-(是的时候应该警惕)</t>
+    <r>
+      <t xml:space="preserve">单日涨幅
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(止损时，该值创新低是要引起注意；止盈时，该值创新高是要引起注意)</t>
+    </r>
   </si>
   <si>
-    <t>上涨是否交易量收缩/下跌是否交易量放大
-(是的时候应该警惕)</t>
+    <r>
+      <t xml:space="preserve">当日收盘价是否小于20日均线
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(是的时候应该警惕)</t>
+    </r>
   </si>
   <si>
-    <t>是否出现连续三日新低
-(是的时候应该警惕)</t>
+    <r>
+      <t xml:space="preserve">上涨是否交易量收缩/下跌是否交易量放大
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(是的时候应该警惕)</t>
+    </r>
   </si>
   <si>
-    <t>下跌天数是否多于上涨天数
-（是的时候应该警惕）</t>
+    <r>
+      <t xml:space="preserve">是否出现连续三日新低
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(是的时候应该警惕)</t>
+    </r>
   </si>
   <si>
-    <t>收盘价处于波动范围的位置
-(处于下部应该警惕)</t>
+    <r>
+      <t xml:space="preserve">下跌天数是否多于上涨天数
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（是的时候应该警惕）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">收盘价处于波动范围的位置
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(处于下部应该警惕)</t>
+    </r>
   </si>
   <si>
     <t>最低价是否出现下移</t>
@@ -184,10 +248,6 @@
     </r>
   </si>
   <si>
-    <t>单日涨幅
-(创新高要注意)</t>
-  </si>
-  <si>
     <t>否</t>
   </si>
   <si>
@@ -206,7 +266,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -377,6 +437,13 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -882,7 +949,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -946,22 +1013,19 @@
     <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="10" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2909,11 +2973,11 @@
   <dimension ref="A1:W500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2927,20 +2991,19 @@
     <col min="7" max="7" width="9.96428571428571" customWidth="1"/>
     <col min="8" max="8" width="13.5357142857143" customWidth="1"/>
     <col min="9" max="9" width="13.3839285714286" customWidth="1"/>
-    <col min="10" max="10" width="20.3839285714286" customWidth="1"/>
-    <col min="11" max="11" width="30.0625" customWidth="1"/>
-    <col min="12" max="12" width="40.4732142857143" customWidth="1"/>
-    <col min="13" max="13" width="25.4464285714286" customWidth="1"/>
-    <col min="14" max="14" width="28.7142857142857" customWidth="1"/>
-    <col min="15" max="15" width="30.0625" customWidth="1"/>
-    <col min="16" max="16" width="21.875" customWidth="1"/>
-    <col min="17" max="17" width="20.6785714285714" customWidth="1"/>
-    <col min="18" max="18" width="39.5803571428571" customWidth="1"/>
-    <col min="19" max="19" width="20.5267857142857" style="1" customWidth="1"/>
-    <col min="20" max="20" width="18.4464285714286" customWidth="1"/>
-    <col min="21" max="21" width="22.3125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="18.3035714285714" customWidth="1"/>
-    <col min="23" max="23" width="20.3839285714286" customWidth="1"/>
+    <col min="10" max="11" width="20.3839285714286" customWidth="1"/>
+    <col min="12" max="12" width="30.0625" customWidth="1"/>
+    <col min="13" max="13" width="40.4732142857143" customWidth="1"/>
+    <col min="14" max="14" width="25.4464285714286" customWidth="1"/>
+    <col min="15" max="15" width="28.7142857142857" customWidth="1"/>
+    <col min="16" max="16" width="30.0625" customWidth="1"/>
+    <col min="17" max="17" width="21.875" customWidth="1"/>
+    <col min="18" max="18" width="20.6785714285714" customWidth="1"/>
+    <col min="19" max="19" width="39.5803571428571" customWidth="1"/>
+    <col min="20" max="20" width="20.5267857142857" style="1" customWidth="1"/>
+    <col min="21" max="21" width="18.4464285714286" customWidth="1"/>
+    <col min="22" max="22" width="22.3125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="18.3035714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -2970,10 +3033,10 @@
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
       <c r="R1" s="11"/>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="11"/>
+      <c r="T1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="17"/>
       <c r="U1" s="17"/>
       <c r="V1" s="17"/>
       <c r="W1" s="17"/>
@@ -3022,16 +3085,16 @@
       <c r="O2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="Q2" s="11" t="s">
         <v>20</v>
       </c>
       <c r="R2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="S2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="T2" s="19" t="s">
@@ -3076,9 +3139,7 @@
         <f>I3+I3*VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL1000,43,FALSE)*2</f>
         <v>29.24</v>
       </c>
-      <c r="K3" s="14" t="s">
-        <v>27</v>
-      </c>
+      <c r="K3" s="6"/>
       <c r="L3" s="14" t="s">
         <v>27</v>
       </c>
@@ -3088,20 +3149,22 @@
       <c r="N3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="14" t="str">
-        <f t="shared" ref="O3:O6" si="0">IF(C3&gt;(E3-(E3-D3)/3),"上部",IF(C3&gt;(F3+(E3-D3)/3),"中部","下部"))</f>
+      <c r="O3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="14" t="str">
+        <f t="shared" ref="P3:P6" si="0">IF(C3&gt;(E3-(E3-D3)/3),"上部",IF(C3&gt;(F3+(E3-D3)/3),"中部","下部"))</f>
         <v>中部</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="Q3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="20"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="25"/>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="7">
@@ -3132,9 +3195,7 @@
         <f>I4+I4*VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL1001,43,FALSE)*2</f>
         <v>29.24</v>
       </c>
-      <c r="K4" s="14" t="s">
-        <v>27</v>
-      </c>
+      <c r="K4" s="6"/>
       <c r="L4" s="14" t="s">
         <v>27</v>
       </c>
@@ -3144,20 +3205,22 @@
       <c r="N4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="15" t="str">
+      <c r="O4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="15" t="str">
         <f t="shared" si="0"/>
         <v>上部</v>
       </c>
-      <c r="P4" s="14" t="s">
+      <c r="Q4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="22"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="8"/>
       <c r="T4" s="21"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="26"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="25"/>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="7">
@@ -3188,9 +3251,7 @@
         <f>I5+I5*VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL1002,43,FALSE)*2</f>
         <v>29.24</v>
       </c>
-      <c r="K5" s="14" t="s">
-        <v>27</v>
-      </c>
+      <c r="K5" s="6"/>
       <c r="L5" s="14" t="s">
         <v>27</v>
       </c>
@@ -3200,20 +3261,22 @@
       <c r="N5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="16" t="str">
+      <c r="O5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="16" t="str">
         <f t="shared" si="0"/>
         <v>上部</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="Q5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="22"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="8"/>
       <c r="T5" s="21"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="26"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="25"/>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="7">
@@ -3244,9 +3307,7 @@
         <f>I6+I6*VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL1003,43,FALSE)*2</f>
         <v>29.24</v>
       </c>
-      <c r="K6" s="14" t="s">
-        <v>27</v>
-      </c>
+      <c r="K6" s="6"/>
       <c r="L6" s="14" t="s">
         <v>27</v>
       </c>
@@ -3256,20 +3317,22 @@
       <c r="N6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="16" t="str">
+      <c r="O6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>中部</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="Q6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="22"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="8"/>
       <c r="T6" s="21"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="26"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="25"/>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="7">
@@ -3284,7 +3347,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="10"/>
+      <c r="K7" s="8"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
@@ -3293,8 +3356,8 @@
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
       <c r="S7" s="10"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="8"/>
       <c r="V7" s="10"/>
       <c r="W7" s="10"/>
     </row>
@@ -3311,7 +3374,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="10"/>
+      <c r="K8" s="8"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
@@ -3320,8 +3383,8 @@
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="8"/>
       <c r="V8" s="10"/>
       <c r="W8" s="10"/>
     </row>
@@ -3338,7 +3401,7 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="10"/>
+      <c r="K9" s="8"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
@@ -3347,8 +3410,8 @@
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="8"/>
       <c r="V9" s="10"/>
       <c r="W9" s="10"/>
     </row>
@@ -3365,7 +3428,7 @@
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="10"/>
+      <c r="K10" s="8"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
@@ -3374,8 +3437,8 @@
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="8"/>
       <c r="V10" s="10"/>
       <c r="W10" s="10"/>
     </row>
@@ -3392,7 +3455,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="10"/>
+      <c r="K11" s="8"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
@@ -3401,8 +3464,8 @@
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="8"/>
       <c r="V11" s="10"/>
       <c r="W11" s="10"/>
     </row>
@@ -3419,7 +3482,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="10"/>
+      <c r="K12" s="8"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
@@ -3428,8 +3491,8 @@
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="8"/>
       <c r="V12" s="10"/>
       <c r="W12" s="10"/>
     </row>
@@ -3446,7 +3509,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="10"/>
+      <c r="K13" s="8"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
@@ -3455,8 +3518,8 @@
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="8"/>
       <c r="V13" s="10"/>
       <c r="W13" s="10"/>
     </row>
@@ -3473,7 +3536,7 @@
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="10"/>
+      <c r="K14" s="8"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
@@ -3482,8 +3545,8 @@
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
       <c r="S14" s="10"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="8"/>
       <c r="V14" s="10"/>
       <c r="W14" s="10"/>
     </row>
@@ -3500,7 +3563,7 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="10"/>
+      <c r="K15" s="8"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
@@ -3509,8 +3572,8 @@
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="8"/>
       <c r="V15" s="10"/>
       <c r="W15" s="10"/>
     </row>
@@ -3527,7 +3590,7 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
-      <c r="K16" s="10"/>
+      <c r="K16" s="8"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
@@ -3536,8 +3599,8 @@
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
       <c r="S16" s="10"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="8"/>
       <c r="V16" s="10"/>
       <c r="W16" s="10"/>
     </row>
@@ -3554,7 +3617,7 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="10"/>
+      <c r="K17" s="8"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
@@ -3563,8 +3626,8 @@
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="8"/>
       <c r="V17" s="10"/>
       <c r="W17" s="10"/>
     </row>
@@ -3581,7 +3644,7 @@
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="10"/>
+      <c r="K18" s="8"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
@@ -3590,8 +3653,8 @@
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="8"/>
       <c r="V18" s="10"/>
       <c r="W18" s="10"/>
     </row>
@@ -3608,7 +3671,7 @@
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="10"/>
+      <c r="K19" s="8"/>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
@@ -3617,8 +3680,8 @@
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="8"/>
       <c r="V19" s="10"/>
       <c r="W19" s="10"/>
     </row>
@@ -3635,7 +3698,7 @@
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
-      <c r="K20" s="10"/>
+      <c r="K20" s="8"/>
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
@@ -3644,8 +3707,8 @@
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="8"/>
       <c r="V20" s="10"/>
       <c r="W20" s="10"/>
     </row>
@@ -3662,7 +3725,7 @@
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="10"/>
+      <c r="K21" s="8"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
@@ -3671,8 +3734,8 @@
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="8"/>
       <c r="V21" s="10"/>
       <c r="W21" s="10"/>
     </row>
@@ -3689,7 +3752,7 @@
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
-      <c r="K22" s="10"/>
+      <c r="K22" s="8"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
@@ -3698,8 +3761,8 @@
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
       <c r="S22" s="10"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="8"/>
       <c r="V22" s="10"/>
       <c r="W22" s="10"/>
     </row>
@@ -3716,7 +3779,7 @@
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="10"/>
+      <c r="K23" s="8"/>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
@@ -3725,8 +3788,8 @@
       <c r="Q23" s="10"/>
       <c r="R23" s="10"/>
       <c r="S23" s="10"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="8"/>
       <c r="V23" s="10"/>
       <c r="W23" s="10"/>
     </row>
@@ -3743,7 +3806,7 @@
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
-      <c r="K24" s="10"/>
+      <c r="K24" s="8"/>
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
@@ -3752,8 +3815,8 @@
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
       <c r="S24" s="10"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="8"/>
       <c r="V24" s="10"/>
       <c r="W24" s="10"/>
     </row>
@@ -3770,15 +3833,15 @@
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
-      <c r="K25" s="10"/>
+      <c r="K25" s="8"/>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
       <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="22"/>
       <c r="T25" s="10"/>
       <c r="U25" s="10"/>
       <c r="V25" s="10"/>
@@ -3797,15 +3860,15 @@
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
-      <c r="K26" s="10"/>
+      <c r="K26" s="8"/>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="22"/>
       <c r="T26" s="10"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
@@ -3824,15 +3887,15 @@
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
-      <c r="K27" s="10"/>
+      <c r="K27" s="8"/>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="22"/>
       <c r="T27" s="10"/>
       <c r="U27" s="10"/>
       <c r="V27" s="10"/>
@@ -3851,15 +3914,15 @@
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="10"/>
+      <c r="K28" s="8"/>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="22"/>
       <c r="T28" s="10"/>
       <c r="U28" s="10"/>
       <c r="V28" s="10"/>
@@ -3878,15 +3941,15 @@
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
-      <c r="K29" s="10"/>
+      <c r="K29" s="8"/>
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="22"/>
       <c r="T29" s="10"/>
       <c r="U29" s="10"/>
       <c r="V29" s="10"/>
@@ -3905,15 +3968,15 @@
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
-      <c r="K30" s="10"/>
+      <c r="K30" s="8"/>
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
-      <c r="R30" s="23"/>
-      <c r="S30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="22"/>
       <c r="T30" s="10"/>
       <c r="U30" s="10"/>
       <c r="V30" s="10"/>
@@ -3932,15 +3995,15 @@
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
-      <c r="K31" s="10"/>
+      <c r="K31" s="8"/>
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
-      <c r="R31" s="23"/>
-      <c r="S31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="22"/>
       <c r="T31" s="10"/>
       <c r="U31" s="10"/>
       <c r="V31" s="10"/>
@@ -3959,15 +4022,15 @@
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
-      <c r="K32" s="10"/>
+      <c r="K32" s="8"/>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="22"/>
       <c r="T32" s="10"/>
       <c r="U32" s="10"/>
       <c r="V32" s="10"/>
@@ -3986,15 +4049,15 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
-      <c r="K33" s="10"/>
+      <c r="K33" s="8"/>
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
-      <c r="R33" s="23"/>
-      <c r="S33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="22"/>
       <c r="T33" s="10"/>
       <c r="U33" s="10"/>
       <c r="V33" s="10"/>
@@ -4013,15 +4076,15 @@
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
-      <c r="K34" s="10"/>
+      <c r="K34" s="8"/>
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
       <c r="Q34" s="10"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="22"/>
       <c r="T34" s="10"/>
       <c r="U34" s="10"/>
       <c r="V34" s="10"/>
@@ -4040,15 +4103,15 @@
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
-      <c r="K35" s="10"/>
+      <c r="K35" s="8"/>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="22"/>
       <c r="T35" s="10"/>
       <c r="U35" s="10"/>
       <c r="V35" s="10"/>
@@ -4067,15 +4130,15 @@
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
-      <c r="K36" s="10"/>
+      <c r="K36" s="8"/>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
       <c r="Q36" s="10"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="22"/>
       <c r="T36" s="10"/>
       <c r="U36" s="10"/>
       <c r="V36" s="10"/>
@@ -4094,15 +4157,15 @@
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
-      <c r="K37" s="10"/>
+      <c r="K37" s="8"/>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
-      <c r="R37" s="23"/>
-      <c r="S37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="22"/>
       <c r="T37" s="10"/>
       <c r="U37" s="10"/>
       <c r="V37" s="10"/>
@@ -4121,15 +4184,15 @@
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="10"/>
+      <c r="K38" s="8"/>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
       <c r="Q38" s="10"/>
-      <c r="R38" s="23"/>
-      <c r="S38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="22"/>
       <c r="T38" s="10"/>
       <c r="U38" s="10"/>
       <c r="V38" s="10"/>
@@ -4152,8 +4215,8 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="V39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="U39" s="1"/>
       <c r="W39" s="1"/>
     </row>
     <row r="40" spans="1:23">
@@ -4173,8 +4236,8 @@
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="V40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="U40" s="1"/>
       <c r="W40" s="1"/>
     </row>
     <row r="41" spans="1:23">
@@ -4194,8 +4257,8 @@
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="V41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="U41" s="1"/>
       <c r="W41" s="1"/>
     </row>
     <row r="42" spans="1:23">
@@ -4215,8 +4278,8 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="V42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="U42" s="1"/>
       <c r="W42" s="1"/>
     </row>
     <row r="43" spans="1:23">
@@ -4236,8 +4299,8 @@
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="V43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="U43" s="1"/>
       <c r="W43" s="1"/>
     </row>
     <row r="44" spans="1:23">
@@ -4257,8 +4320,8 @@
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
-      <c r="T44" s="1"/>
-      <c r="V44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="U44" s="1"/>
       <c r="W44" s="1"/>
     </row>
     <row r="45" spans="1:23">
@@ -4278,8 +4341,8 @@
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
-      <c r="T45" s="1"/>
-      <c r="V45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="U45" s="1"/>
       <c r="W45" s="1"/>
     </row>
     <row r="46" spans="1:23">
@@ -4299,8 +4362,8 @@
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="V46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="U46" s="1"/>
       <c r="W46" s="1"/>
     </row>
     <row r="47" spans="1:23">
@@ -4320,8 +4383,8 @@
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
-      <c r="T47" s="1"/>
-      <c r="V47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="U47" s="1"/>
       <c r="W47" s="1"/>
     </row>
     <row r="48" spans="1:23">
@@ -4341,8 +4404,8 @@
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
-      <c r="T48" s="1"/>
-      <c r="V48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="U48" s="1"/>
       <c r="W48" s="1"/>
     </row>
     <row r="49" spans="1:23">
@@ -4362,8 +4425,8 @@
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
-      <c r="T49" s="1"/>
-      <c r="V49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="U49" s="1"/>
       <c r="W49" s="1"/>
     </row>
     <row r="50" spans="1:23">
@@ -4383,8 +4446,8 @@
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
-      <c r="T50" s="1"/>
-      <c r="V50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="U50" s="1"/>
       <c r="W50" s="1"/>
     </row>
     <row r="51" spans="1:23">
@@ -4404,8 +4467,8 @@
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
-      <c r="T51" s="1"/>
-      <c r="V51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="U51" s="1"/>
       <c r="W51" s="1"/>
     </row>
     <row r="52" spans="1:23">
@@ -4425,8 +4488,8 @@
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
-      <c r="T52" s="1"/>
-      <c r="V52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="U52" s="1"/>
       <c r="W52" s="1"/>
     </row>
     <row r="53" spans="1:23">
@@ -4446,8 +4509,8 @@
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
-      <c r="T53" s="1"/>
-      <c r="V53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="U53" s="1"/>
       <c r="W53" s="1"/>
     </row>
     <row r="54" spans="1:23">
@@ -4467,8 +4530,8 @@
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
-      <c r="T54" s="1"/>
-      <c r="V54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="U54" s="1"/>
       <c r="W54" s="1"/>
     </row>
     <row r="55" spans="1:23">
@@ -4488,8 +4551,8 @@
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
-      <c r="T55" s="1"/>
-      <c r="V55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="U55" s="1"/>
       <c r="W55" s="1"/>
     </row>
     <row r="56" spans="1:23">
@@ -4509,8 +4572,8 @@
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
-      <c r="T56" s="1"/>
-      <c r="V56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="U56" s="1"/>
       <c r="W56" s="1"/>
     </row>
     <row r="57" spans="1:23">
@@ -4530,8 +4593,8 @@
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
-      <c r="T57" s="1"/>
-      <c r="V57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="U57" s="1"/>
       <c r="W57" s="1"/>
     </row>
     <row r="58" spans="1:23">
@@ -4551,8 +4614,8 @@
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
-      <c r="T58" s="1"/>
-      <c r="V58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="U58" s="1"/>
       <c r="W58" s="1"/>
     </row>
     <row r="59" spans="1:23">
@@ -4572,8 +4635,8 @@
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
-      <c r="T59" s="1"/>
-      <c r="V59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="U59" s="1"/>
       <c r="W59" s="1"/>
     </row>
     <row r="60" spans="1:23">
@@ -4593,8 +4656,8 @@
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
-      <c r="T60" s="1"/>
-      <c r="V60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="U60" s="1"/>
       <c r="W60" s="1"/>
     </row>
     <row r="61" spans="1:23">
@@ -4614,8 +4677,8 @@
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
-      <c r="T61" s="1"/>
-      <c r="V61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="U61" s="1"/>
       <c r="W61" s="1"/>
     </row>
     <row r="62" spans="1:23">
@@ -4635,8 +4698,8 @@
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
-      <c r="T62" s="1"/>
-      <c r="V62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="U62" s="1"/>
       <c r="W62" s="1"/>
     </row>
     <row r="63" spans="1:23">
@@ -4656,8 +4719,8 @@
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
-      <c r="T63" s="1"/>
-      <c r="V63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="U63" s="1"/>
       <c r="W63" s="1"/>
     </row>
     <row r="64" spans="1:23">
@@ -4677,8 +4740,8 @@
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
-      <c r="T64" s="1"/>
-      <c r="V64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="U64" s="1"/>
       <c r="W64" s="1"/>
     </row>
     <row r="65" spans="1:23">
@@ -4698,8 +4761,8 @@
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
-      <c r="T65" s="1"/>
-      <c r="V65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="U65" s="1"/>
       <c r="W65" s="1"/>
     </row>
     <row r="66" spans="1:23">
@@ -4719,8 +4782,8 @@
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
-      <c r="T66" s="1"/>
-      <c r="V66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="U66" s="1"/>
       <c r="W66" s="1"/>
     </row>
     <row r="67" spans="1:23">
@@ -4740,8 +4803,8 @@
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
-      <c r="T67" s="1"/>
-      <c r="V67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="U67" s="1"/>
       <c r="W67" s="1"/>
     </row>
     <row r="68" spans="1:23">
@@ -4761,8 +4824,8 @@
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
-      <c r="T68" s="1"/>
-      <c r="V68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="U68" s="1"/>
       <c r="W68" s="1"/>
     </row>
     <row r="69" spans="1:23">
@@ -4782,8 +4845,8 @@
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
-      <c r="T69" s="1"/>
-      <c r="V69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="U69" s="1"/>
       <c r="W69" s="1"/>
     </row>
     <row r="70" spans="1:23">
@@ -4803,8 +4866,8 @@
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
-      <c r="T70" s="1"/>
-      <c r="V70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="U70" s="1"/>
       <c r="W70" s="1"/>
     </row>
     <row r="71" spans="1:23">
@@ -4824,8 +4887,8 @@
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
-      <c r="T71" s="1"/>
-      <c r="V71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="U71" s="1"/>
       <c r="W71" s="1"/>
     </row>
     <row r="72" spans="1:23">
@@ -4845,8 +4908,8 @@
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
-      <c r="T72" s="1"/>
-      <c r="V72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="U72" s="1"/>
       <c r="W72" s="1"/>
     </row>
     <row r="73" spans="1:23">
@@ -4866,8 +4929,8 @@
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
-      <c r="T73" s="1"/>
-      <c r="V73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="U73" s="1"/>
       <c r="W73" s="1"/>
     </row>
     <row r="74" spans="1:23">
@@ -4887,8 +4950,8 @@
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
-      <c r="T74" s="1"/>
-      <c r="V74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="U74" s="1"/>
       <c r="W74" s="1"/>
     </row>
     <row r="75" spans="1:23">
@@ -4908,8 +4971,8 @@
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
-      <c r="T75" s="1"/>
-      <c r="V75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="U75" s="1"/>
       <c r="W75" s="1"/>
     </row>
     <row r="76" spans="1:23">
@@ -4929,8 +4992,8 @@
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
-      <c r="T76" s="1"/>
-      <c r="V76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="U76" s="1"/>
       <c r="W76" s="1"/>
     </row>
     <row r="77" spans="1:23">
@@ -4950,8 +5013,8 @@
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
-      <c r="T77" s="1"/>
-      <c r="V77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="U77" s="1"/>
       <c r="W77" s="1"/>
     </row>
     <row r="78" spans="1:23">
@@ -4971,8 +5034,8 @@
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
-      <c r="T78" s="1"/>
-      <c r="V78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="U78" s="1"/>
       <c r="W78" s="1"/>
     </row>
     <row r="79" spans="1:23">
@@ -4992,8 +5055,8 @@
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
-      <c r="T79" s="1"/>
-      <c r="V79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="U79" s="1"/>
       <c r="W79" s="1"/>
     </row>
     <row r="80" spans="1:23">
@@ -5013,8 +5076,8 @@
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
-      <c r="T80" s="1"/>
-      <c r="V80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="U80" s="1"/>
       <c r="W80" s="1"/>
     </row>
     <row r="81" spans="1:23">
@@ -5034,8 +5097,8 @@
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
-      <c r="T81" s="1"/>
-      <c r="V81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="U81" s="1"/>
       <c r="W81" s="1"/>
     </row>
     <row r="82" spans="1:23">
@@ -5055,8 +5118,8 @@
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
-      <c r="T82" s="1"/>
-      <c r="V82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="U82" s="1"/>
       <c r="W82" s="1"/>
     </row>
     <row r="83" spans="1:23">
@@ -5076,8 +5139,8 @@
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
-      <c r="T83" s="1"/>
-      <c r="V83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="U83" s="1"/>
       <c r="W83" s="1"/>
     </row>
     <row r="84" spans="1:23">
@@ -5097,8 +5160,8 @@
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
-      <c r="T84" s="1"/>
-      <c r="V84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="U84" s="1"/>
       <c r="W84" s="1"/>
     </row>
     <row r="85" spans="1:23">
@@ -5118,8 +5181,8 @@
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
-      <c r="T85" s="1"/>
-      <c r="V85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="U85" s="1"/>
       <c r="W85" s="1"/>
     </row>
     <row r="86" spans="1:23">
@@ -5139,8 +5202,8 @@
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
-      <c r="T86" s="1"/>
-      <c r="V86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="U86" s="1"/>
       <c r="W86" s="1"/>
     </row>
     <row r="87" spans="1:23">
@@ -5160,8 +5223,8 @@
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
-      <c r="T87" s="1"/>
-      <c r="V87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="U87" s="1"/>
       <c r="W87" s="1"/>
     </row>
     <row r="88" spans="1:23">
@@ -5181,8 +5244,8 @@
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
-      <c r="T88" s="1"/>
-      <c r="V88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="U88" s="1"/>
       <c r="W88" s="1"/>
     </row>
     <row r="89" spans="1:23">
@@ -5202,8 +5265,8 @@
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
-      <c r="T89" s="1"/>
-      <c r="V89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="U89" s="1"/>
       <c r="W89" s="1"/>
     </row>
     <row r="90" spans="1:23">
@@ -5223,8 +5286,8 @@
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
-      <c r="T90" s="1"/>
-      <c r="V90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="U90" s="1"/>
       <c r="W90" s="1"/>
     </row>
     <row r="91" spans="1:23">
@@ -5244,8 +5307,8 @@
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
-      <c r="T91" s="1"/>
-      <c r="V91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="U91" s="1"/>
       <c r="W91" s="1"/>
     </row>
     <row r="92" spans="1:23">
@@ -5265,8 +5328,8 @@
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
-      <c r="T92" s="1"/>
-      <c r="V92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="U92" s="1"/>
       <c r="W92" s="1"/>
     </row>
     <row r="93" spans="1:23">
@@ -5286,8 +5349,8 @@
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
-      <c r="T93" s="1"/>
-      <c r="V93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="U93" s="1"/>
       <c r="W93" s="1"/>
     </row>
     <row r="94" spans="1:23">
@@ -5307,8 +5370,8 @@
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
-      <c r="T94" s="1"/>
-      <c r="V94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="U94" s="1"/>
       <c r="W94" s="1"/>
     </row>
     <row r="95" spans="1:23">
@@ -5328,8 +5391,8 @@
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
-      <c r="T95" s="1"/>
-      <c r="V95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="U95" s="1"/>
       <c r="W95" s="1"/>
     </row>
     <row r="96" spans="1:23">
@@ -5349,8 +5412,8 @@
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
-      <c r="T96" s="1"/>
-      <c r="V96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="U96" s="1"/>
       <c r="W96" s="1"/>
     </row>
     <row r="97" spans="1:23">
@@ -5370,8 +5433,8 @@
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
-      <c r="T97" s="1"/>
-      <c r="V97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="U97" s="1"/>
       <c r="W97" s="1"/>
     </row>
     <row r="98" spans="1:23">
@@ -5391,8 +5454,8 @@
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
-      <c r="T98" s="1"/>
-      <c r="V98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="U98" s="1"/>
       <c r="W98" s="1"/>
     </row>
     <row r="99" spans="1:23">
@@ -5412,8 +5475,8 @@
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
-      <c r="T99" s="1"/>
-      <c r="V99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="U99" s="1"/>
       <c r="W99" s="1"/>
     </row>
     <row r="100" spans="1:23">
@@ -5433,8 +5496,8 @@
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
-      <c r="T100" s="1"/>
-      <c r="V100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="U100" s="1"/>
       <c r="W100" s="1"/>
     </row>
     <row r="101" spans="1:23">
@@ -5454,8 +5517,8 @@
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
-      <c r="T101" s="1"/>
-      <c r="V101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="U101" s="1"/>
       <c r="W101" s="1"/>
     </row>
     <row r="102" spans="1:23">
@@ -5475,8 +5538,8 @@
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
-      <c r="T102" s="1"/>
-      <c r="V102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="U102" s="1"/>
       <c r="W102" s="1"/>
     </row>
     <row r="103" spans="1:23">
@@ -5496,8 +5559,8 @@
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
-      <c r="T103" s="1"/>
-      <c r="V103" s="1"/>
+      <c r="R103" s="1"/>
+      <c r="U103" s="1"/>
       <c r="W103" s="1"/>
     </row>
     <row r="104" spans="1:23">
@@ -5517,8 +5580,8 @@
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
-      <c r="T104" s="1"/>
-      <c r="V104" s="1"/>
+      <c r="R104" s="1"/>
+      <c r="U104" s="1"/>
       <c r="W104" s="1"/>
     </row>
     <row r="105" spans="1:23">
@@ -5538,8 +5601,8 @@
       <c r="O105" s="1"/>
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
-      <c r="T105" s="1"/>
-      <c r="V105" s="1"/>
+      <c r="R105" s="1"/>
+      <c r="U105" s="1"/>
       <c r="W105" s="1"/>
     </row>
     <row r="106" spans="1:23">
@@ -5559,8 +5622,8 @@
       <c r="O106" s="1"/>
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
-      <c r="T106" s="1"/>
-      <c r="V106" s="1"/>
+      <c r="R106" s="1"/>
+      <c r="U106" s="1"/>
       <c r="W106" s="1"/>
     </row>
     <row r="107" spans="1:23">
@@ -5580,8 +5643,8 @@
       <c r="O107" s="1"/>
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
-      <c r="T107" s="1"/>
-      <c r="V107" s="1"/>
+      <c r="R107" s="1"/>
+      <c r="U107" s="1"/>
       <c r="W107" s="1"/>
     </row>
     <row r="108" spans="1:23">
@@ -5601,8 +5664,8 @@
       <c r="O108" s="1"/>
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
-      <c r="T108" s="1"/>
-      <c r="V108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="U108" s="1"/>
       <c r="W108" s="1"/>
     </row>
     <row r="109" spans="1:23">
@@ -5622,8 +5685,8 @@
       <c r="O109" s="1"/>
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
-      <c r="T109" s="1"/>
-      <c r="V109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="U109" s="1"/>
       <c r="W109" s="1"/>
     </row>
     <row r="110" spans="1:23">
@@ -5643,8 +5706,8 @@
       <c r="O110" s="1"/>
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
-      <c r="T110" s="1"/>
-      <c r="V110" s="1"/>
+      <c r="R110" s="1"/>
+      <c r="U110" s="1"/>
       <c r="W110" s="1"/>
     </row>
     <row r="111" spans="1:23">
@@ -5664,8 +5727,8 @@
       <c r="O111" s="1"/>
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
-      <c r="T111" s="1"/>
-      <c r="V111" s="1"/>
+      <c r="R111" s="1"/>
+      <c r="U111" s="1"/>
       <c r="W111" s="1"/>
     </row>
     <row r="112" spans="1:23">
@@ -5685,8 +5748,8 @@
       <c r="O112" s="1"/>
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
-      <c r="T112" s="1"/>
-      <c r="V112" s="1"/>
+      <c r="R112" s="1"/>
+      <c r="U112" s="1"/>
       <c r="W112" s="1"/>
     </row>
     <row r="113" spans="1:23">
@@ -5706,8 +5769,8 @@
       <c r="O113" s="1"/>
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
-      <c r="T113" s="1"/>
-      <c r="V113" s="1"/>
+      <c r="R113" s="1"/>
+      <c r="U113" s="1"/>
       <c r="W113" s="1"/>
     </row>
     <row r="114" spans="1:23">
@@ -5727,8 +5790,8 @@
       <c r="O114" s="1"/>
       <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
-      <c r="T114" s="1"/>
-      <c r="V114" s="1"/>
+      <c r="R114" s="1"/>
+      <c r="U114" s="1"/>
       <c r="W114" s="1"/>
     </row>
     <row r="115" spans="1:23">
@@ -5748,8 +5811,8 @@
       <c r="O115" s="1"/>
       <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
-      <c r="T115" s="1"/>
-      <c r="V115" s="1"/>
+      <c r="R115" s="1"/>
+      <c r="U115" s="1"/>
       <c r="W115" s="1"/>
     </row>
     <row r="116" spans="1:23">
@@ -5769,8 +5832,8 @@
       <c r="O116" s="1"/>
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
-      <c r="T116" s="1"/>
-      <c r="V116" s="1"/>
+      <c r="R116" s="1"/>
+      <c r="U116" s="1"/>
       <c r="W116" s="1"/>
     </row>
     <row r="117" spans="1:23">
@@ -5790,8 +5853,8 @@
       <c r="O117" s="1"/>
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
-      <c r="T117" s="1"/>
-      <c r="V117" s="1"/>
+      <c r="R117" s="1"/>
+      <c r="U117" s="1"/>
       <c r="W117" s="1"/>
     </row>
     <row r="118" spans="1:23">
@@ -5811,8 +5874,8 @@
       <c r="O118" s="1"/>
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
-      <c r="T118" s="1"/>
-      <c r="V118" s="1"/>
+      <c r="R118" s="1"/>
+      <c r="U118" s="1"/>
       <c r="W118" s="1"/>
     </row>
     <row r="119" spans="1:23">
@@ -5832,8 +5895,8 @@
       <c r="O119" s="1"/>
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
-      <c r="T119" s="1"/>
-      <c r="V119" s="1"/>
+      <c r="R119" s="1"/>
+      <c r="U119" s="1"/>
       <c r="W119" s="1"/>
     </row>
     <row r="120" spans="1:23">
@@ -5853,8 +5916,8 @@
       <c r="O120" s="1"/>
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
-      <c r="T120" s="1"/>
-      <c r="V120" s="1"/>
+      <c r="R120" s="1"/>
+      <c r="U120" s="1"/>
       <c r="W120" s="1"/>
     </row>
     <row r="121" spans="1:23">
@@ -5874,8 +5937,8 @@
       <c r="O121" s="1"/>
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
-      <c r="T121" s="1"/>
-      <c r="V121" s="1"/>
+      <c r="R121" s="1"/>
+      <c r="U121" s="1"/>
       <c r="W121" s="1"/>
     </row>
     <row r="122" spans="1:23">
@@ -5895,8 +5958,8 @@
       <c r="O122" s="1"/>
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
-      <c r="T122" s="1"/>
-      <c r="V122" s="1"/>
+      <c r="R122" s="1"/>
+      <c r="U122" s="1"/>
       <c r="W122" s="1"/>
     </row>
     <row r="123" spans="1:23">
@@ -5916,8 +5979,8 @@
       <c r="O123" s="1"/>
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
-      <c r="T123" s="1"/>
-      <c r="V123" s="1"/>
+      <c r="R123" s="1"/>
+      <c r="U123" s="1"/>
       <c r="W123" s="1"/>
     </row>
     <row r="124" spans="1:23">
@@ -5937,8 +6000,8 @@
       <c r="O124" s="1"/>
       <c r="P124" s="1"/>
       <c r="Q124" s="1"/>
-      <c r="T124" s="1"/>
-      <c r="V124" s="1"/>
+      <c r="R124" s="1"/>
+      <c r="U124" s="1"/>
       <c r="W124" s="1"/>
     </row>
     <row r="125" spans="1:23">
@@ -5958,8 +6021,8 @@
       <c r="O125" s="1"/>
       <c r="P125" s="1"/>
       <c r="Q125" s="1"/>
-      <c r="T125" s="1"/>
-      <c r="V125" s="1"/>
+      <c r="R125" s="1"/>
+      <c r="U125" s="1"/>
       <c r="W125" s="1"/>
     </row>
     <row r="126" spans="1:23">
@@ -5979,8 +6042,8 @@
       <c r="O126" s="1"/>
       <c r="P126" s="1"/>
       <c r="Q126" s="1"/>
-      <c r="T126" s="1"/>
-      <c r="V126" s="1"/>
+      <c r="R126" s="1"/>
+      <c r="U126" s="1"/>
       <c r="W126" s="1"/>
     </row>
     <row r="127" spans="1:23">
@@ -6000,8 +6063,8 @@
       <c r="O127" s="1"/>
       <c r="P127" s="1"/>
       <c r="Q127" s="1"/>
-      <c r="T127" s="1"/>
-      <c r="V127" s="1"/>
+      <c r="R127" s="1"/>
+      <c r="U127" s="1"/>
       <c r="W127" s="1"/>
     </row>
     <row r="128" spans="1:23">
@@ -6021,8 +6084,8 @@
       <c r="O128" s="1"/>
       <c r="P128" s="1"/>
       <c r="Q128" s="1"/>
-      <c r="T128" s="1"/>
-      <c r="V128" s="1"/>
+      <c r="R128" s="1"/>
+      <c r="U128" s="1"/>
       <c r="W128" s="1"/>
     </row>
     <row r="129" spans="1:23">
@@ -6042,8 +6105,8 @@
       <c r="O129" s="1"/>
       <c r="P129" s="1"/>
       <c r="Q129" s="1"/>
-      <c r="T129" s="1"/>
-      <c r="V129" s="1"/>
+      <c r="R129" s="1"/>
+      <c r="U129" s="1"/>
       <c r="W129" s="1"/>
     </row>
     <row r="130" spans="1:23">
@@ -6063,8 +6126,8 @@
       <c r="O130" s="1"/>
       <c r="P130" s="1"/>
       <c r="Q130" s="1"/>
-      <c r="T130" s="1"/>
-      <c r="V130" s="1"/>
+      <c r="R130" s="1"/>
+      <c r="U130" s="1"/>
       <c r="W130" s="1"/>
     </row>
     <row r="131" spans="1:23">
@@ -6084,8 +6147,8 @@
       <c r="O131" s="1"/>
       <c r="P131" s="1"/>
       <c r="Q131" s="1"/>
-      <c r="T131" s="1"/>
-      <c r="V131" s="1"/>
+      <c r="R131" s="1"/>
+      <c r="U131" s="1"/>
       <c r="W131" s="1"/>
     </row>
     <row r="132" spans="1:23">
@@ -6105,8 +6168,8 @@
       <c r="O132" s="1"/>
       <c r="P132" s="1"/>
       <c r="Q132" s="1"/>
-      <c r="T132" s="1"/>
-      <c r="V132" s="1"/>
+      <c r="R132" s="1"/>
+      <c r="U132" s="1"/>
       <c r="W132" s="1"/>
     </row>
     <row r="133" spans="1:23">
@@ -6126,8 +6189,8 @@
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
-      <c r="T133" s="1"/>
-      <c r="V133" s="1"/>
+      <c r="R133" s="1"/>
+      <c r="U133" s="1"/>
       <c r="W133" s="1"/>
     </row>
     <row r="134" spans="1:23">
@@ -6147,8 +6210,8 @@
       <c r="O134" s="1"/>
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
-      <c r="T134" s="1"/>
-      <c r="V134" s="1"/>
+      <c r="R134" s="1"/>
+      <c r="U134" s="1"/>
       <c r="W134" s="1"/>
     </row>
     <row r="135" spans="1:23">
@@ -6168,8 +6231,8 @@
       <c r="O135" s="1"/>
       <c r="P135" s="1"/>
       <c r="Q135" s="1"/>
-      <c r="T135" s="1"/>
-      <c r="V135" s="1"/>
+      <c r="R135" s="1"/>
+      <c r="U135" s="1"/>
       <c r="W135" s="1"/>
     </row>
     <row r="136" spans="1:23">
@@ -6189,8 +6252,8 @@
       <c r="O136" s="1"/>
       <c r="P136" s="1"/>
       <c r="Q136" s="1"/>
-      <c r="T136" s="1"/>
-      <c r="V136" s="1"/>
+      <c r="R136" s="1"/>
+      <c r="U136" s="1"/>
       <c r="W136" s="1"/>
     </row>
     <row r="137" spans="1:23">
@@ -6210,8 +6273,8 @@
       <c r="O137" s="1"/>
       <c r="P137" s="1"/>
       <c r="Q137" s="1"/>
-      <c r="T137" s="1"/>
-      <c r="V137" s="1"/>
+      <c r="R137" s="1"/>
+      <c r="U137" s="1"/>
       <c r="W137" s="1"/>
     </row>
     <row r="138" spans="1:23">
@@ -6231,8 +6294,8 @@
       <c r="O138" s="1"/>
       <c r="P138" s="1"/>
       <c r="Q138" s="1"/>
-      <c r="T138" s="1"/>
-      <c r="V138" s="1"/>
+      <c r="R138" s="1"/>
+      <c r="U138" s="1"/>
       <c r="W138" s="1"/>
     </row>
     <row r="139" spans="1:23">
@@ -6252,8 +6315,8 @@
       <c r="O139" s="1"/>
       <c r="P139" s="1"/>
       <c r="Q139" s="1"/>
-      <c r="T139" s="1"/>
-      <c r="V139" s="1"/>
+      <c r="R139" s="1"/>
+      <c r="U139" s="1"/>
       <c r="W139" s="1"/>
     </row>
     <row r="140" spans="1:23">
@@ -6273,8 +6336,8 @@
       <c r="O140" s="1"/>
       <c r="P140" s="1"/>
       <c r="Q140" s="1"/>
-      <c r="T140" s="1"/>
-      <c r="V140" s="1"/>
+      <c r="R140" s="1"/>
+      <c r="U140" s="1"/>
       <c r="W140" s="1"/>
     </row>
     <row r="141" spans="1:23">
@@ -6294,8 +6357,8 @@
       <c r="O141" s="1"/>
       <c r="P141" s="1"/>
       <c r="Q141" s="1"/>
-      <c r="T141" s="1"/>
-      <c r="V141" s="1"/>
+      <c r="R141" s="1"/>
+      <c r="U141" s="1"/>
       <c r="W141" s="1"/>
     </row>
     <row r="142" spans="1:23">
@@ -6315,8 +6378,8 @@
       <c r="O142" s="1"/>
       <c r="P142" s="1"/>
       <c r="Q142" s="1"/>
-      <c r="T142" s="1"/>
-      <c r="V142" s="1"/>
+      <c r="R142" s="1"/>
+      <c r="U142" s="1"/>
       <c r="W142" s="1"/>
     </row>
     <row r="143" spans="1:23">
@@ -6336,8 +6399,8 @@
       <c r="O143" s="1"/>
       <c r="P143" s="1"/>
       <c r="Q143" s="1"/>
-      <c r="T143" s="1"/>
-      <c r="V143" s="1"/>
+      <c r="R143" s="1"/>
+      <c r="U143" s="1"/>
       <c r="W143" s="1"/>
     </row>
     <row r="144" spans="1:23">
@@ -6357,8 +6420,8 @@
       <c r="O144" s="1"/>
       <c r="P144" s="1"/>
       <c r="Q144" s="1"/>
-      <c r="T144" s="1"/>
-      <c r="V144" s="1"/>
+      <c r="R144" s="1"/>
+      <c r="U144" s="1"/>
       <c r="W144" s="1"/>
     </row>
     <row r="145" spans="1:23">
@@ -6378,8 +6441,8 @@
       <c r="O145" s="1"/>
       <c r="P145" s="1"/>
       <c r="Q145" s="1"/>
-      <c r="T145" s="1"/>
-      <c r="V145" s="1"/>
+      <c r="R145" s="1"/>
+      <c r="U145" s="1"/>
       <c r="W145" s="1"/>
     </row>
     <row r="146" spans="1:23">
@@ -6399,8 +6462,8 @@
       <c r="O146" s="1"/>
       <c r="P146" s="1"/>
       <c r="Q146" s="1"/>
-      <c r="T146" s="1"/>
-      <c r="V146" s="1"/>
+      <c r="R146" s="1"/>
+      <c r="U146" s="1"/>
       <c r="W146" s="1"/>
     </row>
     <row r="147" spans="1:23">
@@ -6420,8 +6483,8 @@
       <c r="O147" s="1"/>
       <c r="P147" s="1"/>
       <c r="Q147" s="1"/>
-      <c r="T147" s="1"/>
-      <c r="V147" s="1"/>
+      <c r="R147" s="1"/>
+      <c r="U147" s="1"/>
       <c r="W147" s="1"/>
     </row>
     <row r="148" spans="1:23">
@@ -6441,8 +6504,8 @@
       <c r="O148" s="1"/>
       <c r="P148" s="1"/>
       <c r="Q148" s="1"/>
-      <c r="T148" s="1"/>
-      <c r="V148" s="1"/>
+      <c r="R148" s="1"/>
+      <c r="U148" s="1"/>
       <c r="W148" s="1"/>
     </row>
     <row r="149" spans="1:23">
@@ -6462,8 +6525,8 @@
       <c r="O149" s="1"/>
       <c r="P149" s="1"/>
       <c r="Q149" s="1"/>
-      <c r="T149" s="1"/>
-      <c r="V149" s="1"/>
+      <c r="R149" s="1"/>
+      <c r="U149" s="1"/>
       <c r="W149" s="1"/>
     </row>
     <row r="150" spans="1:23">
@@ -6483,8 +6546,8 @@
       <c r="O150" s="1"/>
       <c r="P150" s="1"/>
       <c r="Q150" s="1"/>
-      <c r="T150" s="1"/>
-      <c r="V150" s="1"/>
+      <c r="R150" s="1"/>
+      <c r="U150" s="1"/>
       <c r="W150" s="1"/>
     </row>
     <row r="151" spans="1:23">
@@ -6504,8 +6567,8 @@
       <c r="O151" s="1"/>
       <c r="P151" s="1"/>
       <c r="Q151" s="1"/>
-      <c r="T151" s="1"/>
-      <c r="V151" s="1"/>
+      <c r="R151" s="1"/>
+      <c r="U151" s="1"/>
       <c r="W151" s="1"/>
     </row>
     <row r="152" spans="1:23">
@@ -6525,8 +6588,8 @@
       <c r="O152" s="1"/>
       <c r="P152" s="1"/>
       <c r="Q152" s="1"/>
-      <c r="T152" s="1"/>
-      <c r="V152" s="1"/>
+      <c r="R152" s="1"/>
+      <c r="U152" s="1"/>
       <c r="W152" s="1"/>
     </row>
     <row r="153" spans="1:23">
@@ -6546,8 +6609,8 @@
       <c r="O153" s="1"/>
       <c r="P153" s="1"/>
       <c r="Q153" s="1"/>
-      <c r="T153" s="1"/>
-      <c r="V153" s="1"/>
+      <c r="R153" s="1"/>
+      <c r="U153" s="1"/>
       <c r="W153" s="1"/>
     </row>
     <row r="154" spans="1:23">
@@ -6567,8 +6630,8 @@
       <c r="O154" s="1"/>
       <c r="P154" s="1"/>
       <c r="Q154" s="1"/>
-      <c r="T154" s="1"/>
-      <c r="V154" s="1"/>
+      <c r="R154" s="1"/>
+      <c r="U154" s="1"/>
       <c r="W154" s="1"/>
     </row>
     <row r="155" spans="1:23">
@@ -6588,8 +6651,8 @@
       <c r="O155" s="1"/>
       <c r="P155" s="1"/>
       <c r="Q155" s="1"/>
-      <c r="T155" s="1"/>
-      <c r="V155" s="1"/>
+      <c r="R155" s="1"/>
+      <c r="U155" s="1"/>
       <c r="W155" s="1"/>
     </row>
     <row r="156" spans="1:23">
@@ -6609,8 +6672,8 @@
       <c r="O156" s="1"/>
       <c r="P156" s="1"/>
       <c r="Q156" s="1"/>
-      <c r="T156" s="1"/>
-      <c r="V156" s="1"/>
+      <c r="R156" s="1"/>
+      <c r="U156" s="1"/>
       <c r="W156" s="1"/>
     </row>
     <row r="157" spans="1:23">
@@ -6630,8 +6693,8 @@
       <c r="O157" s="1"/>
       <c r="P157" s="1"/>
       <c r="Q157" s="1"/>
-      <c r="T157" s="1"/>
-      <c r="V157" s="1"/>
+      <c r="R157" s="1"/>
+      <c r="U157" s="1"/>
       <c r="W157" s="1"/>
     </row>
     <row r="158" spans="1:23">
@@ -6651,8 +6714,8 @@
       <c r="O158" s="1"/>
       <c r="P158" s="1"/>
       <c r="Q158" s="1"/>
-      <c r="T158" s="1"/>
-      <c r="V158" s="1"/>
+      <c r="R158" s="1"/>
+      <c r="U158" s="1"/>
       <c r="W158" s="1"/>
     </row>
     <row r="159" spans="1:23">
@@ -6672,8 +6735,8 @@
       <c r="O159" s="1"/>
       <c r="P159" s="1"/>
       <c r="Q159" s="1"/>
-      <c r="T159" s="1"/>
-      <c r="V159" s="1"/>
+      <c r="R159" s="1"/>
+      <c r="U159" s="1"/>
       <c r="W159" s="1"/>
     </row>
     <row r="160" spans="1:23">
@@ -6693,8 +6756,8 @@
       <c r="O160" s="1"/>
       <c r="P160" s="1"/>
       <c r="Q160" s="1"/>
-      <c r="T160" s="1"/>
-      <c r="V160" s="1"/>
+      <c r="R160" s="1"/>
+      <c r="U160" s="1"/>
       <c r="W160" s="1"/>
     </row>
     <row r="161" spans="1:23">
@@ -6714,8 +6777,8 @@
       <c r="O161" s="1"/>
       <c r="P161" s="1"/>
       <c r="Q161" s="1"/>
-      <c r="T161" s="1"/>
-      <c r="V161" s="1"/>
+      <c r="R161" s="1"/>
+      <c r="U161" s="1"/>
       <c r="W161" s="1"/>
     </row>
     <row r="162" spans="1:23">
@@ -6735,8 +6798,8 @@
       <c r="O162" s="1"/>
       <c r="P162" s="1"/>
       <c r="Q162" s="1"/>
-      <c r="T162" s="1"/>
-      <c r="V162" s="1"/>
+      <c r="R162" s="1"/>
+      <c r="U162" s="1"/>
       <c r="W162" s="1"/>
     </row>
     <row r="163" spans="1:23">
@@ -6756,8 +6819,8 @@
       <c r="O163" s="1"/>
       <c r="P163" s="1"/>
       <c r="Q163" s="1"/>
-      <c r="T163" s="1"/>
-      <c r="V163" s="1"/>
+      <c r="R163" s="1"/>
+      <c r="U163" s="1"/>
       <c r="W163" s="1"/>
     </row>
     <row r="164" spans="1:23">
@@ -6777,8 +6840,8 @@
       <c r="O164" s="1"/>
       <c r="P164" s="1"/>
       <c r="Q164" s="1"/>
-      <c r="T164" s="1"/>
-      <c r="V164" s="1"/>
+      <c r="R164" s="1"/>
+      <c r="U164" s="1"/>
       <c r="W164" s="1"/>
     </row>
     <row r="165" spans="1:23">
@@ -6798,8 +6861,8 @@
       <c r="O165" s="1"/>
       <c r="P165" s="1"/>
       <c r="Q165" s="1"/>
-      <c r="T165" s="1"/>
-      <c r="V165" s="1"/>
+      <c r="R165" s="1"/>
+      <c r="U165" s="1"/>
       <c r="W165" s="1"/>
     </row>
     <row r="166" spans="1:23">
@@ -6819,8 +6882,8 @@
       <c r="O166" s="1"/>
       <c r="P166" s="1"/>
       <c r="Q166" s="1"/>
-      <c r="T166" s="1"/>
-      <c r="V166" s="1"/>
+      <c r="R166" s="1"/>
+      <c r="U166" s="1"/>
       <c r="W166" s="1"/>
     </row>
     <row r="167" spans="1:23">
@@ -6840,8 +6903,8 @@
       <c r="O167" s="1"/>
       <c r="P167" s="1"/>
       <c r="Q167" s="1"/>
-      <c r="T167" s="1"/>
-      <c r="V167" s="1"/>
+      <c r="R167" s="1"/>
+      <c r="U167" s="1"/>
       <c r="W167" s="1"/>
     </row>
     <row r="168" spans="1:23">
@@ -6861,8 +6924,8 @@
       <c r="O168" s="1"/>
       <c r="P168" s="1"/>
       <c r="Q168" s="1"/>
-      <c r="T168" s="1"/>
-      <c r="V168" s="1"/>
+      <c r="R168" s="1"/>
+      <c r="U168" s="1"/>
       <c r="W168" s="1"/>
     </row>
     <row r="169" spans="1:23">
@@ -6882,8 +6945,8 @@
       <c r="O169" s="1"/>
       <c r="P169" s="1"/>
       <c r="Q169" s="1"/>
-      <c r="T169" s="1"/>
-      <c r="V169" s="1"/>
+      <c r="R169" s="1"/>
+      <c r="U169" s="1"/>
       <c r="W169" s="1"/>
     </row>
     <row r="170" spans="1:23">
@@ -6903,8 +6966,8 @@
       <c r="O170" s="1"/>
       <c r="P170" s="1"/>
       <c r="Q170" s="1"/>
-      <c r="T170" s="1"/>
-      <c r="V170" s="1"/>
+      <c r="R170" s="1"/>
+      <c r="U170" s="1"/>
       <c r="W170" s="1"/>
     </row>
     <row r="171" spans="1:23">
@@ -6924,8 +6987,8 @@
       <c r="O171" s="1"/>
       <c r="P171" s="1"/>
       <c r="Q171" s="1"/>
-      <c r="T171" s="1"/>
-      <c r="V171" s="1"/>
+      <c r="R171" s="1"/>
+      <c r="U171" s="1"/>
       <c r="W171" s="1"/>
     </row>
     <row r="172" spans="1:23">
@@ -6945,8 +7008,8 @@
       <c r="O172" s="1"/>
       <c r="P172" s="1"/>
       <c r="Q172" s="1"/>
-      <c r="T172" s="1"/>
-      <c r="V172" s="1"/>
+      <c r="R172" s="1"/>
+      <c r="U172" s="1"/>
       <c r="W172" s="1"/>
     </row>
     <row r="173" spans="1:23">
@@ -6966,8 +7029,8 @@
       <c r="O173" s="1"/>
       <c r="P173" s="1"/>
       <c r="Q173" s="1"/>
-      <c r="T173" s="1"/>
-      <c r="V173" s="1"/>
+      <c r="R173" s="1"/>
+      <c r="U173" s="1"/>
       <c r="W173" s="1"/>
     </row>
     <row r="174" spans="1:23">
@@ -6987,8 +7050,8 @@
       <c r="O174" s="1"/>
       <c r="P174" s="1"/>
       <c r="Q174" s="1"/>
-      <c r="T174" s="1"/>
-      <c r="V174" s="1"/>
+      <c r="R174" s="1"/>
+      <c r="U174" s="1"/>
       <c r="W174" s="1"/>
     </row>
     <row r="175" spans="1:23">
@@ -7008,8 +7071,8 @@
       <c r="O175" s="1"/>
       <c r="P175" s="1"/>
       <c r="Q175" s="1"/>
-      <c r="T175" s="1"/>
-      <c r="V175" s="1"/>
+      <c r="R175" s="1"/>
+      <c r="U175" s="1"/>
       <c r="W175" s="1"/>
     </row>
     <row r="176" spans="1:23">
@@ -7029,8 +7092,8 @@
       <c r="O176" s="1"/>
       <c r="P176" s="1"/>
       <c r="Q176" s="1"/>
-      <c r="T176" s="1"/>
-      <c r="V176" s="1"/>
+      <c r="R176" s="1"/>
+      <c r="U176" s="1"/>
       <c r="W176" s="1"/>
     </row>
     <row r="177" spans="1:23">
@@ -7050,8 +7113,8 @@
       <c r="O177" s="1"/>
       <c r="P177" s="1"/>
       <c r="Q177" s="1"/>
-      <c r="T177" s="1"/>
-      <c r="V177" s="1"/>
+      <c r="R177" s="1"/>
+      <c r="U177" s="1"/>
       <c r="W177" s="1"/>
     </row>
     <row r="178" spans="1:23">
@@ -7071,8 +7134,8 @@
       <c r="O178" s="1"/>
       <c r="P178" s="1"/>
       <c r="Q178" s="1"/>
-      <c r="T178" s="1"/>
-      <c r="V178" s="1"/>
+      <c r="R178" s="1"/>
+      <c r="U178" s="1"/>
       <c r="W178" s="1"/>
     </row>
     <row r="179" spans="1:23">
@@ -7092,8 +7155,8 @@
       <c r="O179" s="1"/>
       <c r="P179" s="1"/>
       <c r="Q179" s="1"/>
-      <c r="T179" s="1"/>
-      <c r="V179" s="1"/>
+      <c r="R179" s="1"/>
+      <c r="U179" s="1"/>
       <c r="W179" s="1"/>
     </row>
     <row r="180" spans="1:23">
@@ -7113,8 +7176,8 @@
       <c r="O180" s="1"/>
       <c r="P180" s="1"/>
       <c r="Q180" s="1"/>
-      <c r="T180" s="1"/>
-      <c r="V180" s="1"/>
+      <c r="R180" s="1"/>
+      <c r="U180" s="1"/>
       <c r="W180" s="1"/>
     </row>
     <row r="181" spans="1:23">
@@ -7134,8 +7197,8 @@
       <c r="O181" s="1"/>
       <c r="P181" s="1"/>
       <c r="Q181" s="1"/>
-      <c r="T181" s="1"/>
-      <c r="V181" s="1"/>
+      <c r="R181" s="1"/>
+      <c r="U181" s="1"/>
       <c r="W181" s="1"/>
     </row>
     <row r="182" spans="1:23">
@@ -7155,8 +7218,8 @@
       <c r="O182" s="1"/>
       <c r="P182" s="1"/>
       <c r="Q182" s="1"/>
-      <c r="T182" s="1"/>
-      <c r="V182" s="1"/>
+      <c r="R182" s="1"/>
+      <c r="U182" s="1"/>
       <c r="W182" s="1"/>
     </row>
     <row r="183" spans="1:23">
@@ -7176,8 +7239,8 @@
       <c r="O183" s="1"/>
       <c r="P183" s="1"/>
       <c r="Q183" s="1"/>
-      <c r="T183" s="1"/>
-      <c r="V183" s="1"/>
+      <c r="R183" s="1"/>
+      <c r="U183" s="1"/>
       <c r="W183" s="1"/>
     </row>
     <row r="184" spans="1:23">
@@ -7197,8 +7260,8 @@
       <c r="O184" s="1"/>
       <c r="P184" s="1"/>
       <c r="Q184" s="1"/>
-      <c r="T184" s="1"/>
-      <c r="V184" s="1"/>
+      <c r="R184" s="1"/>
+      <c r="U184" s="1"/>
       <c r="W184" s="1"/>
     </row>
     <row r="185" spans="1:23">
@@ -7218,8 +7281,8 @@
       <c r="O185" s="1"/>
       <c r="P185" s="1"/>
       <c r="Q185" s="1"/>
-      <c r="T185" s="1"/>
-      <c r="V185" s="1"/>
+      <c r="R185" s="1"/>
+      <c r="U185" s="1"/>
       <c r="W185" s="1"/>
     </row>
     <row r="186" spans="1:23">
@@ -7239,8 +7302,8 @@
       <c r="O186" s="1"/>
       <c r="P186" s="1"/>
       <c r="Q186" s="1"/>
-      <c r="T186" s="1"/>
-      <c r="V186" s="1"/>
+      <c r="R186" s="1"/>
+      <c r="U186" s="1"/>
       <c r="W186" s="1"/>
     </row>
     <row r="187" spans="1:23">
@@ -7260,8 +7323,8 @@
       <c r="O187" s="1"/>
       <c r="P187" s="1"/>
       <c r="Q187" s="1"/>
-      <c r="T187" s="1"/>
-      <c r="V187" s="1"/>
+      <c r="R187" s="1"/>
+      <c r="U187" s="1"/>
       <c r="W187" s="1"/>
     </row>
     <row r="188" spans="1:23">
@@ -7281,8 +7344,8 @@
       <c r="O188" s="1"/>
       <c r="P188" s="1"/>
       <c r="Q188" s="1"/>
-      <c r="T188" s="1"/>
-      <c r="V188" s="1"/>
+      <c r="R188" s="1"/>
+      <c r="U188" s="1"/>
       <c r="W188" s="1"/>
     </row>
     <row r="189" spans="1:23">
@@ -7302,8 +7365,8 @@
       <c r="O189" s="1"/>
       <c r="P189" s="1"/>
       <c r="Q189" s="1"/>
-      <c r="T189" s="1"/>
-      <c r="V189" s="1"/>
+      <c r="R189" s="1"/>
+      <c r="U189" s="1"/>
       <c r="W189" s="1"/>
     </row>
     <row r="190" spans="1:23">
@@ -7323,8 +7386,8 @@
       <c r="O190" s="1"/>
       <c r="P190" s="1"/>
       <c r="Q190" s="1"/>
-      <c r="T190" s="1"/>
-      <c r="V190" s="1"/>
+      <c r="R190" s="1"/>
+      <c r="U190" s="1"/>
       <c r="W190" s="1"/>
     </row>
     <row r="191" spans="1:23">
@@ -7344,8 +7407,8 @@
       <c r="O191" s="1"/>
       <c r="P191" s="1"/>
       <c r="Q191" s="1"/>
-      <c r="T191" s="1"/>
-      <c r="V191" s="1"/>
+      <c r="R191" s="1"/>
+      <c r="U191" s="1"/>
       <c r="W191" s="1"/>
     </row>
     <row r="192" spans="1:23">
@@ -7365,8 +7428,8 @@
       <c r="O192" s="1"/>
       <c r="P192" s="1"/>
       <c r="Q192" s="1"/>
-      <c r="T192" s="1"/>
-      <c r="V192" s="1"/>
+      <c r="R192" s="1"/>
+      <c r="U192" s="1"/>
       <c r="W192" s="1"/>
     </row>
     <row r="193" spans="1:23">
@@ -7386,8 +7449,8 @@
       <c r="O193" s="1"/>
       <c r="P193" s="1"/>
       <c r="Q193" s="1"/>
-      <c r="T193" s="1"/>
-      <c r="V193" s="1"/>
+      <c r="R193" s="1"/>
+      <c r="U193" s="1"/>
       <c r="W193" s="1"/>
     </row>
     <row r="194" spans="1:23">
@@ -7407,8 +7470,8 @@
       <c r="O194" s="1"/>
       <c r="P194" s="1"/>
       <c r="Q194" s="1"/>
-      <c r="T194" s="1"/>
-      <c r="V194" s="1"/>
+      <c r="R194" s="1"/>
+      <c r="U194" s="1"/>
       <c r="W194" s="1"/>
     </row>
     <row r="195" spans="1:23">
@@ -7428,8 +7491,8 @@
       <c r="O195" s="1"/>
       <c r="P195" s="1"/>
       <c r="Q195" s="1"/>
-      <c r="T195" s="1"/>
-      <c r="V195" s="1"/>
+      <c r="R195" s="1"/>
+      <c r="U195" s="1"/>
       <c r="W195" s="1"/>
     </row>
     <row r="196" spans="1:23">
@@ -7449,8 +7512,8 @@
       <c r="O196" s="1"/>
       <c r="P196" s="1"/>
       <c r="Q196" s="1"/>
-      <c r="T196" s="1"/>
-      <c r="V196" s="1"/>
+      <c r="R196" s="1"/>
+      <c r="U196" s="1"/>
       <c r="W196" s="1"/>
     </row>
     <row r="197" spans="1:23">
@@ -7470,8 +7533,8 @@
       <c r="O197" s="1"/>
       <c r="P197" s="1"/>
       <c r="Q197" s="1"/>
-      <c r="T197" s="1"/>
-      <c r="V197" s="1"/>
+      <c r="R197" s="1"/>
+      <c r="U197" s="1"/>
       <c r="W197" s="1"/>
     </row>
     <row r="198" spans="1:23">
@@ -7491,8 +7554,8 @@
       <c r="O198" s="1"/>
       <c r="P198" s="1"/>
       <c r="Q198" s="1"/>
-      <c r="T198" s="1"/>
-      <c r="V198" s="1"/>
+      <c r="R198" s="1"/>
+      <c r="U198" s="1"/>
       <c r="W198" s="1"/>
     </row>
     <row r="199" spans="1:23">
@@ -7512,8 +7575,8 @@
       <c r="O199" s="1"/>
       <c r="P199" s="1"/>
       <c r="Q199" s="1"/>
-      <c r="T199" s="1"/>
-      <c r="V199" s="1"/>
+      <c r="R199" s="1"/>
+      <c r="U199" s="1"/>
       <c r="W199" s="1"/>
     </row>
     <row r="200" spans="1:23">
@@ -7533,8 +7596,8 @@
       <c r="O200" s="1"/>
       <c r="P200" s="1"/>
       <c r="Q200" s="1"/>
-      <c r="T200" s="1"/>
-      <c r="V200" s="1"/>
+      <c r="R200" s="1"/>
+      <c r="U200" s="1"/>
       <c r="W200" s="1"/>
     </row>
     <row r="201" spans="1:23">
@@ -7554,8 +7617,8 @@
       <c r="O201" s="1"/>
       <c r="P201" s="1"/>
       <c r="Q201" s="1"/>
-      <c r="T201" s="1"/>
-      <c r="V201" s="1"/>
+      <c r="R201" s="1"/>
+      <c r="U201" s="1"/>
       <c r="W201" s="1"/>
     </row>
     <row r="202" spans="1:23">
@@ -7575,8 +7638,8 @@
       <c r="O202" s="1"/>
       <c r="P202" s="1"/>
       <c r="Q202" s="1"/>
-      <c r="T202" s="1"/>
-      <c r="V202" s="1"/>
+      <c r="R202" s="1"/>
+      <c r="U202" s="1"/>
       <c r="W202" s="1"/>
     </row>
     <row r="203" spans="1:23">
@@ -7596,8 +7659,8 @@
       <c r="O203" s="1"/>
       <c r="P203" s="1"/>
       <c r="Q203" s="1"/>
-      <c r="T203" s="1"/>
-      <c r="V203" s="1"/>
+      <c r="R203" s="1"/>
+      <c r="U203" s="1"/>
       <c r="W203" s="1"/>
     </row>
     <row r="204" spans="1:23">
@@ -7617,8 +7680,8 @@
       <c r="O204" s="1"/>
       <c r="P204" s="1"/>
       <c r="Q204" s="1"/>
-      <c r="T204" s="1"/>
-      <c r="V204" s="1"/>
+      <c r="R204" s="1"/>
+      <c r="U204" s="1"/>
       <c r="W204" s="1"/>
     </row>
     <row r="205" spans="1:23">
@@ -7638,8 +7701,8 @@
       <c r="O205" s="1"/>
       <c r="P205" s="1"/>
       <c r="Q205" s="1"/>
-      <c r="T205" s="1"/>
-      <c r="V205" s="1"/>
+      <c r="R205" s="1"/>
+      <c r="U205" s="1"/>
       <c r="W205" s="1"/>
     </row>
     <row r="206" spans="1:23">
@@ -7659,8 +7722,8 @@
       <c r="O206" s="1"/>
       <c r="P206" s="1"/>
       <c r="Q206" s="1"/>
-      <c r="T206" s="1"/>
-      <c r="V206" s="1"/>
+      <c r="R206" s="1"/>
+      <c r="U206" s="1"/>
       <c r="W206" s="1"/>
     </row>
     <row r="207" spans="1:23">
@@ -7680,8 +7743,8 @@
       <c r="O207" s="1"/>
       <c r="P207" s="1"/>
       <c r="Q207" s="1"/>
-      <c r="T207" s="1"/>
-      <c r="V207" s="1"/>
+      <c r="R207" s="1"/>
+      <c r="U207" s="1"/>
       <c r="W207" s="1"/>
     </row>
     <row r="208" spans="1:23">
@@ -7701,8 +7764,8 @@
       <c r="O208" s="1"/>
       <c r="P208" s="1"/>
       <c r="Q208" s="1"/>
-      <c r="T208" s="1"/>
-      <c r="V208" s="1"/>
+      <c r="R208" s="1"/>
+      <c r="U208" s="1"/>
       <c r="W208" s="1"/>
     </row>
     <row r="209" spans="1:23">
@@ -7722,8 +7785,8 @@
       <c r="O209" s="1"/>
       <c r="P209" s="1"/>
       <c r="Q209" s="1"/>
-      <c r="T209" s="1"/>
-      <c r="V209" s="1"/>
+      <c r="R209" s="1"/>
+      <c r="U209" s="1"/>
       <c r="W209" s="1"/>
     </row>
     <row r="210" spans="1:23">
@@ -7743,8 +7806,8 @@
       <c r="O210" s="1"/>
       <c r="P210" s="1"/>
       <c r="Q210" s="1"/>
-      <c r="T210" s="1"/>
-      <c r="V210" s="1"/>
+      <c r="R210" s="1"/>
+      <c r="U210" s="1"/>
       <c r="W210" s="1"/>
     </row>
     <row r="211" spans="1:23">
@@ -7764,8 +7827,8 @@
       <c r="O211" s="1"/>
       <c r="P211" s="1"/>
       <c r="Q211" s="1"/>
-      <c r="T211" s="1"/>
-      <c r="V211" s="1"/>
+      <c r="R211" s="1"/>
+      <c r="U211" s="1"/>
       <c r="W211" s="1"/>
     </row>
     <row r="212" spans="1:23">
@@ -7785,8 +7848,8 @@
       <c r="O212" s="1"/>
       <c r="P212" s="1"/>
       <c r="Q212" s="1"/>
-      <c r="T212" s="1"/>
-      <c r="V212" s="1"/>
+      <c r="R212" s="1"/>
+      <c r="U212" s="1"/>
       <c r="W212" s="1"/>
     </row>
     <row r="213" spans="1:23">
@@ -7806,8 +7869,8 @@
       <c r="O213" s="1"/>
       <c r="P213" s="1"/>
       <c r="Q213" s="1"/>
-      <c r="T213" s="1"/>
-      <c r="V213" s="1"/>
+      <c r="R213" s="1"/>
+      <c r="U213" s="1"/>
       <c r="W213" s="1"/>
     </row>
     <row r="214" spans="1:23">
@@ -7827,8 +7890,8 @@
       <c r="O214" s="1"/>
       <c r="P214" s="1"/>
       <c r="Q214" s="1"/>
-      <c r="T214" s="1"/>
-      <c r="V214" s="1"/>
+      <c r="R214" s="1"/>
+      <c r="U214" s="1"/>
       <c r="W214" s="1"/>
     </row>
     <row r="215" spans="1:23">
@@ -7848,8 +7911,8 @@
       <c r="O215" s="1"/>
       <c r="P215" s="1"/>
       <c r="Q215" s="1"/>
-      <c r="T215" s="1"/>
-      <c r="V215" s="1"/>
+      <c r="R215" s="1"/>
+      <c r="U215" s="1"/>
       <c r="W215" s="1"/>
     </row>
     <row r="216" spans="1:23">
@@ -7869,8 +7932,8 @@
       <c r="O216" s="1"/>
       <c r="P216" s="1"/>
       <c r="Q216" s="1"/>
-      <c r="T216" s="1"/>
-      <c r="V216" s="1"/>
+      <c r="R216" s="1"/>
+      <c r="U216" s="1"/>
       <c r="W216" s="1"/>
     </row>
     <row r="217" spans="1:23">
@@ -7890,8 +7953,8 @@
       <c r="O217" s="1"/>
       <c r="P217" s="1"/>
       <c r="Q217" s="1"/>
-      <c r="T217" s="1"/>
-      <c r="V217" s="1"/>
+      <c r="R217" s="1"/>
+      <c r="U217" s="1"/>
       <c r="W217" s="1"/>
     </row>
     <row r="218" spans="1:23">
@@ -7911,8 +7974,8 @@
       <c r="O218" s="1"/>
       <c r="P218" s="1"/>
       <c r="Q218" s="1"/>
-      <c r="T218" s="1"/>
-      <c r="V218" s="1"/>
+      <c r="R218" s="1"/>
+      <c r="U218" s="1"/>
       <c r="W218" s="1"/>
     </row>
     <row r="219" spans="1:23">
@@ -7932,8 +7995,8 @@
       <c r="O219" s="1"/>
       <c r="P219" s="1"/>
       <c r="Q219" s="1"/>
-      <c r="T219" s="1"/>
-      <c r="V219" s="1"/>
+      <c r="R219" s="1"/>
+      <c r="U219" s="1"/>
       <c r="W219" s="1"/>
     </row>
     <row r="220" spans="1:23">
@@ -7953,8 +8016,8 @@
       <c r="O220" s="1"/>
       <c r="P220" s="1"/>
       <c r="Q220" s="1"/>
-      <c r="T220" s="1"/>
-      <c r="V220" s="1"/>
+      <c r="R220" s="1"/>
+      <c r="U220" s="1"/>
       <c r="W220" s="1"/>
     </row>
     <row r="221" spans="1:23">
@@ -7974,8 +8037,8 @@
       <c r="O221" s="1"/>
       <c r="P221" s="1"/>
       <c r="Q221" s="1"/>
-      <c r="T221" s="1"/>
-      <c r="V221" s="1"/>
+      <c r="R221" s="1"/>
+      <c r="U221" s="1"/>
       <c r="W221" s="1"/>
     </row>
     <row r="222" spans="1:23">
@@ -7995,8 +8058,8 @@
       <c r="O222" s="1"/>
       <c r="P222" s="1"/>
       <c r="Q222" s="1"/>
-      <c r="T222" s="1"/>
-      <c r="V222" s="1"/>
+      <c r="R222" s="1"/>
+      <c r="U222" s="1"/>
       <c r="W222" s="1"/>
     </row>
     <row r="223" spans="1:23">
@@ -8016,8 +8079,8 @@
       <c r="O223" s="1"/>
       <c r="P223" s="1"/>
       <c r="Q223" s="1"/>
-      <c r="T223" s="1"/>
-      <c r="V223" s="1"/>
+      <c r="R223" s="1"/>
+      <c r="U223" s="1"/>
       <c r="W223" s="1"/>
     </row>
     <row r="224" spans="1:23">
@@ -8037,8 +8100,8 @@
       <c r="O224" s="1"/>
       <c r="P224" s="1"/>
       <c r="Q224" s="1"/>
-      <c r="T224" s="1"/>
-      <c r="V224" s="1"/>
+      <c r="R224" s="1"/>
+      <c r="U224" s="1"/>
       <c r="W224" s="1"/>
     </row>
     <row r="225" spans="1:23">
@@ -8058,8 +8121,8 @@
       <c r="O225" s="1"/>
       <c r="P225" s="1"/>
       <c r="Q225" s="1"/>
-      <c r="T225" s="1"/>
-      <c r="V225" s="1"/>
+      <c r="R225" s="1"/>
+      <c r="U225" s="1"/>
       <c r="W225" s="1"/>
     </row>
     <row r="226" spans="1:23">
@@ -8079,8 +8142,8 @@
       <c r="O226" s="1"/>
       <c r="P226" s="1"/>
       <c r="Q226" s="1"/>
-      <c r="T226" s="1"/>
-      <c r="V226" s="1"/>
+      <c r="R226" s="1"/>
+      <c r="U226" s="1"/>
       <c r="W226" s="1"/>
     </row>
     <row r="227" spans="1:23">
@@ -8100,8 +8163,8 @@
       <c r="O227" s="1"/>
       <c r="P227" s="1"/>
       <c r="Q227" s="1"/>
-      <c r="T227" s="1"/>
-      <c r="V227" s="1"/>
+      <c r="R227" s="1"/>
+      <c r="U227" s="1"/>
       <c r="W227" s="1"/>
     </row>
     <row r="228" spans="1:23">
@@ -8121,8 +8184,8 @@
       <c r="O228" s="1"/>
       <c r="P228" s="1"/>
       <c r="Q228" s="1"/>
-      <c r="T228" s="1"/>
-      <c r="V228" s="1"/>
+      <c r="R228" s="1"/>
+      <c r="U228" s="1"/>
       <c r="W228" s="1"/>
     </row>
     <row r="229" spans="1:23">
@@ -8142,8 +8205,8 @@
       <c r="O229" s="1"/>
       <c r="P229" s="1"/>
       <c r="Q229" s="1"/>
-      <c r="T229" s="1"/>
-      <c r="V229" s="1"/>
+      <c r="R229" s="1"/>
+      <c r="U229" s="1"/>
       <c r="W229" s="1"/>
     </row>
     <row r="230" spans="1:23">
@@ -8163,8 +8226,8 @@
       <c r="O230" s="1"/>
       <c r="P230" s="1"/>
       <c r="Q230" s="1"/>
-      <c r="T230" s="1"/>
-      <c r="V230" s="1"/>
+      <c r="R230" s="1"/>
+      <c r="U230" s="1"/>
       <c r="W230" s="1"/>
     </row>
     <row r="231" spans="1:23">
@@ -8184,8 +8247,8 @@
       <c r="O231" s="1"/>
       <c r="P231" s="1"/>
       <c r="Q231" s="1"/>
-      <c r="T231" s="1"/>
-      <c r="V231" s="1"/>
+      <c r="R231" s="1"/>
+      <c r="U231" s="1"/>
       <c r="W231" s="1"/>
     </row>
     <row r="232" spans="1:23">
@@ -8205,8 +8268,8 @@
       <c r="O232" s="1"/>
       <c r="P232" s="1"/>
       <c r="Q232" s="1"/>
-      <c r="T232" s="1"/>
-      <c r="V232" s="1"/>
+      <c r="R232" s="1"/>
+      <c r="U232" s="1"/>
       <c r="W232" s="1"/>
     </row>
     <row r="233" spans="1:23">
@@ -8226,8 +8289,8 @@
       <c r="O233" s="1"/>
       <c r="P233" s="1"/>
       <c r="Q233" s="1"/>
-      <c r="T233" s="1"/>
-      <c r="V233" s="1"/>
+      <c r="R233" s="1"/>
+      <c r="U233" s="1"/>
       <c r="W233" s="1"/>
     </row>
     <row r="234" spans="1:23">
@@ -8247,8 +8310,8 @@
       <c r="O234" s="1"/>
       <c r="P234" s="1"/>
       <c r="Q234" s="1"/>
-      <c r="T234" s="1"/>
-      <c r="V234" s="1"/>
+      <c r="R234" s="1"/>
+      <c r="U234" s="1"/>
       <c r="W234" s="1"/>
     </row>
     <row r="235" spans="1:23">
@@ -8268,8 +8331,8 @@
       <c r="O235" s="1"/>
       <c r="P235" s="1"/>
       <c r="Q235" s="1"/>
-      <c r="T235" s="1"/>
-      <c r="V235" s="1"/>
+      <c r="R235" s="1"/>
+      <c r="U235" s="1"/>
       <c r="W235" s="1"/>
     </row>
     <row r="236" spans="1:23">
@@ -8289,8 +8352,8 @@
       <c r="O236" s="1"/>
       <c r="P236" s="1"/>
       <c r="Q236" s="1"/>
-      <c r="T236" s="1"/>
-      <c r="V236" s="1"/>
+      <c r="R236" s="1"/>
+      <c r="U236" s="1"/>
       <c r="W236" s="1"/>
     </row>
     <row r="237" spans="1:23">
@@ -8310,8 +8373,8 @@
       <c r="O237" s="1"/>
       <c r="P237" s="1"/>
       <c r="Q237" s="1"/>
-      <c r="T237" s="1"/>
-      <c r="V237" s="1"/>
+      <c r="R237" s="1"/>
+      <c r="U237" s="1"/>
       <c r="W237" s="1"/>
     </row>
     <row r="238" spans="1:23">
@@ -8331,8 +8394,8 @@
       <c r="O238" s="1"/>
       <c r="P238" s="1"/>
       <c r="Q238" s="1"/>
-      <c r="T238" s="1"/>
-      <c r="V238" s="1"/>
+      <c r="R238" s="1"/>
+      <c r="U238" s="1"/>
       <c r="W238" s="1"/>
     </row>
     <row r="239" spans="1:23">
@@ -8352,8 +8415,8 @@
       <c r="O239" s="1"/>
       <c r="P239" s="1"/>
       <c r="Q239" s="1"/>
-      <c r="T239" s="1"/>
-      <c r="V239" s="1"/>
+      <c r="R239" s="1"/>
+      <c r="U239" s="1"/>
       <c r="W239" s="1"/>
     </row>
     <row r="240" spans="1:23">
@@ -8373,8 +8436,8 @@
       <c r="O240" s="1"/>
       <c r="P240" s="1"/>
       <c r="Q240" s="1"/>
-      <c r="T240" s="1"/>
-      <c r="V240" s="1"/>
+      <c r="R240" s="1"/>
+      <c r="U240" s="1"/>
       <c r="W240" s="1"/>
     </row>
     <row r="241" spans="1:23">
@@ -8394,8 +8457,8 @@
       <c r="O241" s="1"/>
       <c r="P241" s="1"/>
       <c r="Q241" s="1"/>
-      <c r="T241" s="1"/>
-      <c r="V241" s="1"/>
+      <c r="R241" s="1"/>
+      <c r="U241" s="1"/>
       <c r="W241" s="1"/>
     </row>
     <row r="242" spans="1:23">
@@ -8415,8 +8478,8 @@
       <c r="O242" s="1"/>
       <c r="P242" s="1"/>
       <c r="Q242" s="1"/>
-      <c r="T242" s="1"/>
-      <c r="V242" s="1"/>
+      <c r="R242" s="1"/>
+      <c r="U242" s="1"/>
       <c r="W242" s="1"/>
     </row>
     <row r="243" spans="1:23">
@@ -8436,8 +8499,8 @@
       <c r="O243" s="1"/>
       <c r="P243" s="1"/>
       <c r="Q243" s="1"/>
-      <c r="T243" s="1"/>
-      <c r="V243" s="1"/>
+      <c r="R243" s="1"/>
+      <c r="U243" s="1"/>
       <c r="W243" s="1"/>
     </row>
     <row r="244" spans="1:23">
@@ -8457,8 +8520,8 @@
       <c r="O244" s="1"/>
       <c r="P244" s="1"/>
       <c r="Q244" s="1"/>
-      <c r="T244" s="1"/>
-      <c r="V244" s="1"/>
+      <c r="R244" s="1"/>
+      <c r="U244" s="1"/>
       <c r="W244" s="1"/>
     </row>
     <row r="245" spans="1:23">
@@ -8478,8 +8541,8 @@
       <c r="O245" s="1"/>
       <c r="P245" s="1"/>
       <c r="Q245" s="1"/>
-      <c r="T245" s="1"/>
-      <c r="V245" s="1"/>
+      <c r="R245" s="1"/>
+      <c r="U245" s="1"/>
       <c r="W245" s="1"/>
     </row>
     <row r="246" spans="1:23">
@@ -8499,8 +8562,8 @@
       <c r="O246" s="1"/>
       <c r="P246" s="1"/>
       <c r="Q246" s="1"/>
-      <c r="T246" s="1"/>
-      <c r="V246" s="1"/>
+      <c r="R246" s="1"/>
+      <c r="U246" s="1"/>
       <c r="W246" s="1"/>
     </row>
     <row r="247" spans="1:23">
@@ -8520,8 +8583,8 @@
       <c r="O247" s="1"/>
       <c r="P247" s="1"/>
       <c r="Q247" s="1"/>
-      <c r="T247" s="1"/>
-      <c r="V247" s="1"/>
+      <c r="R247" s="1"/>
+      <c r="U247" s="1"/>
       <c r="W247" s="1"/>
     </row>
     <row r="248" spans="1:23">
@@ -8541,8 +8604,8 @@
       <c r="O248" s="1"/>
       <c r="P248" s="1"/>
       <c r="Q248" s="1"/>
-      <c r="T248" s="1"/>
-      <c r="V248" s="1"/>
+      <c r="R248" s="1"/>
+      <c r="U248" s="1"/>
       <c r="W248" s="1"/>
     </row>
     <row r="249" spans="1:23">
@@ -8562,8 +8625,8 @@
       <c r="O249" s="1"/>
       <c r="P249" s="1"/>
       <c r="Q249" s="1"/>
-      <c r="T249" s="1"/>
-      <c r="V249" s="1"/>
+      <c r="R249" s="1"/>
+      <c r="U249" s="1"/>
       <c r="W249" s="1"/>
     </row>
     <row r="250" spans="1:23">
@@ -8583,8 +8646,8 @@
       <c r="O250" s="1"/>
       <c r="P250" s="1"/>
       <c r="Q250" s="1"/>
-      <c r="T250" s="1"/>
-      <c r="V250" s="1"/>
+      <c r="R250" s="1"/>
+      <c r="U250" s="1"/>
       <c r="W250" s="1"/>
     </row>
     <row r="251" spans="1:23">
@@ -8604,8 +8667,8 @@
       <c r="O251" s="1"/>
       <c r="P251" s="1"/>
       <c r="Q251" s="1"/>
-      <c r="T251" s="1"/>
-      <c r="V251" s="1"/>
+      <c r="R251" s="1"/>
+      <c r="U251" s="1"/>
       <c r="W251" s="1"/>
     </row>
     <row r="252" spans="1:23">
@@ -8625,8 +8688,8 @@
       <c r="O252" s="1"/>
       <c r="P252" s="1"/>
       <c r="Q252" s="1"/>
-      <c r="T252" s="1"/>
-      <c r="V252" s="1"/>
+      <c r="R252" s="1"/>
+      <c r="U252" s="1"/>
       <c r="W252" s="1"/>
     </row>
     <row r="253" spans="1:23">
@@ -8646,8 +8709,8 @@
       <c r="O253" s="1"/>
       <c r="P253" s="1"/>
       <c r="Q253" s="1"/>
-      <c r="T253" s="1"/>
-      <c r="V253" s="1"/>
+      <c r="R253" s="1"/>
+      <c r="U253" s="1"/>
       <c r="W253" s="1"/>
     </row>
     <row r="254" spans="1:23">
@@ -8667,8 +8730,8 @@
       <c r="O254" s="1"/>
       <c r="P254" s="1"/>
       <c r="Q254" s="1"/>
-      <c r="T254" s="1"/>
-      <c r="V254" s="1"/>
+      <c r="R254" s="1"/>
+      <c r="U254" s="1"/>
       <c r="W254" s="1"/>
     </row>
     <row r="255" spans="1:23">
@@ -8688,8 +8751,8 @@
       <c r="O255" s="1"/>
       <c r="P255" s="1"/>
       <c r="Q255" s="1"/>
-      <c r="T255" s="1"/>
-      <c r="V255" s="1"/>
+      <c r="R255" s="1"/>
+      <c r="U255" s="1"/>
       <c r="W255" s="1"/>
     </row>
     <row r="256" spans="1:23">
@@ -8709,8 +8772,8 @@
       <c r="O256" s="1"/>
       <c r="P256" s="1"/>
       <c r="Q256" s="1"/>
-      <c r="T256" s="1"/>
-      <c r="V256" s="1"/>
+      <c r="R256" s="1"/>
+      <c r="U256" s="1"/>
       <c r="W256" s="1"/>
     </row>
     <row r="257" spans="1:23">
@@ -8730,8 +8793,8 @@
       <c r="O257" s="1"/>
       <c r="P257" s="1"/>
       <c r="Q257" s="1"/>
-      <c r="T257" s="1"/>
-      <c r="V257" s="1"/>
+      <c r="R257" s="1"/>
+      <c r="U257" s="1"/>
       <c r="W257" s="1"/>
     </row>
     <row r="258" spans="1:23">
@@ -8751,8 +8814,8 @@
       <c r="O258" s="1"/>
       <c r="P258" s="1"/>
       <c r="Q258" s="1"/>
-      <c r="T258" s="1"/>
-      <c r="V258" s="1"/>
+      <c r="R258" s="1"/>
+      <c r="U258" s="1"/>
       <c r="W258" s="1"/>
     </row>
     <row r="259" spans="1:23">
@@ -8772,8 +8835,8 @@
       <c r="O259" s="1"/>
       <c r="P259" s="1"/>
       <c r="Q259" s="1"/>
-      <c r="T259" s="1"/>
-      <c r="V259" s="1"/>
+      <c r="R259" s="1"/>
+      <c r="U259" s="1"/>
       <c r="W259" s="1"/>
     </row>
     <row r="260" spans="1:23">
@@ -8793,8 +8856,8 @@
       <c r="O260" s="1"/>
       <c r="P260" s="1"/>
       <c r="Q260" s="1"/>
-      <c r="T260" s="1"/>
-      <c r="V260" s="1"/>
+      <c r="R260" s="1"/>
+      <c r="U260" s="1"/>
       <c r="W260" s="1"/>
     </row>
     <row r="261" spans="1:23">
@@ -8814,8 +8877,8 @@
       <c r="O261" s="1"/>
       <c r="P261" s="1"/>
       <c r="Q261" s="1"/>
-      <c r="T261" s="1"/>
-      <c r="V261" s="1"/>
+      <c r="R261" s="1"/>
+      <c r="U261" s="1"/>
       <c r="W261" s="1"/>
     </row>
     <row r="262" spans="1:23">
@@ -8835,8 +8898,8 @@
       <c r="O262" s="1"/>
       <c r="P262" s="1"/>
       <c r="Q262" s="1"/>
-      <c r="T262" s="1"/>
-      <c r="V262" s="1"/>
+      <c r="R262" s="1"/>
+      <c r="U262" s="1"/>
       <c r="W262" s="1"/>
     </row>
     <row r="263" spans="1:23">
@@ -8856,8 +8919,8 @@
       <c r="O263" s="1"/>
       <c r="P263" s="1"/>
       <c r="Q263" s="1"/>
-      <c r="T263" s="1"/>
-      <c r="V263" s="1"/>
+      <c r="R263" s="1"/>
+      <c r="U263" s="1"/>
       <c r="W263" s="1"/>
     </row>
     <row r="264" spans="1:23">
@@ -8877,8 +8940,8 @@
       <c r="O264" s="1"/>
       <c r="P264" s="1"/>
       <c r="Q264" s="1"/>
-      <c r="T264" s="1"/>
-      <c r="V264" s="1"/>
+      <c r="R264" s="1"/>
+      <c r="U264" s="1"/>
       <c r="W264" s="1"/>
     </row>
     <row r="265" spans="1:23">
@@ -8898,8 +8961,8 @@
       <c r="O265" s="1"/>
       <c r="P265" s="1"/>
       <c r="Q265" s="1"/>
-      <c r="T265" s="1"/>
-      <c r="V265" s="1"/>
+      <c r="R265" s="1"/>
+      <c r="U265" s="1"/>
       <c r="W265" s="1"/>
     </row>
     <row r="266" spans="1:23">
@@ -8919,8 +8982,8 @@
       <c r="O266" s="1"/>
       <c r="P266" s="1"/>
       <c r="Q266" s="1"/>
-      <c r="T266" s="1"/>
-      <c r="V266" s="1"/>
+      <c r="R266" s="1"/>
+      <c r="U266" s="1"/>
       <c r="W266" s="1"/>
     </row>
     <row r="267" spans="1:23">
@@ -8940,8 +9003,8 @@
       <c r="O267" s="1"/>
       <c r="P267" s="1"/>
       <c r="Q267" s="1"/>
-      <c r="T267" s="1"/>
-      <c r="V267" s="1"/>
+      <c r="R267" s="1"/>
+      <c r="U267" s="1"/>
       <c r="W267" s="1"/>
     </row>
     <row r="268" spans="1:23">
@@ -8961,8 +9024,8 @@
       <c r="O268" s="1"/>
       <c r="P268" s="1"/>
       <c r="Q268" s="1"/>
-      <c r="T268" s="1"/>
-      <c r="V268" s="1"/>
+      <c r="R268" s="1"/>
+      <c r="U268" s="1"/>
       <c r="W268" s="1"/>
     </row>
     <row r="269" spans="1:23">
@@ -8982,8 +9045,8 @@
       <c r="O269" s="1"/>
       <c r="P269" s="1"/>
       <c r="Q269" s="1"/>
-      <c r="T269" s="1"/>
-      <c r="V269" s="1"/>
+      <c r="R269" s="1"/>
+      <c r="U269" s="1"/>
       <c r="W269" s="1"/>
     </row>
     <row r="270" spans="1:23">
@@ -9003,8 +9066,8 @@
       <c r="O270" s="1"/>
       <c r="P270" s="1"/>
       <c r="Q270" s="1"/>
-      <c r="T270" s="1"/>
-      <c r="V270" s="1"/>
+      <c r="R270" s="1"/>
+      <c r="U270" s="1"/>
       <c r="W270" s="1"/>
     </row>
     <row r="271" spans="1:23">
@@ -9024,8 +9087,8 @@
       <c r="O271" s="1"/>
       <c r="P271" s="1"/>
       <c r="Q271" s="1"/>
-      <c r="T271" s="1"/>
-      <c r="V271" s="1"/>
+      <c r="R271" s="1"/>
+      <c r="U271" s="1"/>
       <c r="W271" s="1"/>
     </row>
     <row r="272" spans="1:23">
@@ -9045,8 +9108,8 @@
       <c r="O272" s="1"/>
       <c r="P272" s="1"/>
       <c r="Q272" s="1"/>
-      <c r="T272" s="1"/>
-      <c r="V272" s="1"/>
+      <c r="R272" s="1"/>
+      <c r="U272" s="1"/>
       <c r="W272" s="1"/>
     </row>
     <row r="273" spans="1:23">
@@ -9066,8 +9129,8 @@
       <c r="O273" s="1"/>
       <c r="P273" s="1"/>
       <c r="Q273" s="1"/>
-      <c r="T273" s="1"/>
-      <c r="V273" s="1"/>
+      <c r="R273" s="1"/>
+      <c r="U273" s="1"/>
       <c r="W273" s="1"/>
     </row>
     <row r="274" spans="1:23">
@@ -9087,8 +9150,8 @@
       <c r="O274" s="1"/>
       <c r="P274" s="1"/>
       <c r="Q274" s="1"/>
-      <c r="T274" s="1"/>
-      <c r="V274" s="1"/>
+      <c r="R274" s="1"/>
+      <c r="U274" s="1"/>
       <c r="W274" s="1"/>
     </row>
     <row r="275" spans="1:23">
@@ -9108,8 +9171,8 @@
       <c r="O275" s="1"/>
       <c r="P275" s="1"/>
       <c r="Q275" s="1"/>
-      <c r="T275" s="1"/>
-      <c r="V275" s="1"/>
+      <c r="R275" s="1"/>
+      <c r="U275" s="1"/>
       <c r="W275" s="1"/>
     </row>
     <row r="276" spans="1:23">
@@ -9129,8 +9192,8 @@
       <c r="O276" s="1"/>
       <c r="P276" s="1"/>
       <c r="Q276" s="1"/>
-      <c r="T276" s="1"/>
-      <c r="V276" s="1"/>
+      <c r="R276" s="1"/>
+      <c r="U276" s="1"/>
       <c r="W276" s="1"/>
     </row>
     <row r="277" spans="1:23">
@@ -9150,8 +9213,8 @@
       <c r="O277" s="1"/>
       <c r="P277" s="1"/>
       <c r="Q277" s="1"/>
-      <c r="T277" s="1"/>
-      <c r="V277" s="1"/>
+      <c r="R277" s="1"/>
+      <c r="U277" s="1"/>
       <c r="W277" s="1"/>
     </row>
     <row r="278" spans="1:23">
@@ -9171,8 +9234,8 @@
       <c r="O278" s="1"/>
       <c r="P278" s="1"/>
       <c r="Q278" s="1"/>
-      <c r="T278" s="1"/>
-      <c r="V278" s="1"/>
+      <c r="R278" s="1"/>
+      <c r="U278" s="1"/>
       <c r="W278" s="1"/>
     </row>
     <row r="279" spans="1:23">
@@ -9192,8 +9255,8 @@
       <c r="O279" s="1"/>
       <c r="P279" s="1"/>
       <c r="Q279" s="1"/>
-      <c r="T279" s="1"/>
-      <c r="V279" s="1"/>
+      <c r="R279" s="1"/>
+      <c r="U279" s="1"/>
       <c r="W279" s="1"/>
     </row>
     <row r="280" spans="1:23">
@@ -9213,8 +9276,8 @@
       <c r="O280" s="1"/>
       <c r="P280" s="1"/>
       <c r="Q280" s="1"/>
-      <c r="T280" s="1"/>
-      <c r="V280" s="1"/>
+      <c r="R280" s="1"/>
+      <c r="U280" s="1"/>
       <c r="W280" s="1"/>
     </row>
     <row r="281" spans="1:23">
@@ -9234,8 +9297,8 @@
       <c r="O281" s="1"/>
       <c r="P281" s="1"/>
       <c r="Q281" s="1"/>
-      <c r="T281" s="1"/>
-      <c r="V281" s="1"/>
+      <c r="R281" s="1"/>
+      <c r="U281" s="1"/>
       <c r="W281" s="1"/>
     </row>
     <row r="282" spans="1:23">
@@ -9255,8 +9318,8 @@
       <c r="O282" s="1"/>
       <c r="P282" s="1"/>
       <c r="Q282" s="1"/>
-      <c r="T282" s="1"/>
-      <c r="V282" s="1"/>
+      <c r="R282" s="1"/>
+      <c r="U282" s="1"/>
       <c r="W282" s="1"/>
     </row>
     <row r="283" spans="1:23">
@@ -9276,8 +9339,8 @@
       <c r="O283" s="1"/>
       <c r="P283" s="1"/>
       <c r="Q283" s="1"/>
-      <c r="T283" s="1"/>
-      <c r="V283" s="1"/>
+      <c r="R283" s="1"/>
+      <c r="U283" s="1"/>
       <c r="W283" s="1"/>
     </row>
     <row r="284" spans="1:23">
@@ -9297,8 +9360,8 @@
       <c r="O284" s="1"/>
       <c r="P284" s="1"/>
       <c r="Q284" s="1"/>
-      <c r="T284" s="1"/>
-      <c r="V284" s="1"/>
+      <c r="R284" s="1"/>
+      <c r="U284" s="1"/>
       <c r="W284" s="1"/>
     </row>
     <row r="285" spans="1:23">
@@ -9318,8 +9381,8 @@
       <c r="O285" s="1"/>
       <c r="P285" s="1"/>
       <c r="Q285" s="1"/>
-      <c r="T285" s="1"/>
-      <c r="V285" s="1"/>
+      <c r="R285" s="1"/>
+      <c r="U285" s="1"/>
       <c r="W285" s="1"/>
     </row>
     <row r="286" spans="1:23">
@@ -9339,8 +9402,8 @@
       <c r="O286" s="1"/>
       <c r="P286" s="1"/>
       <c r="Q286" s="1"/>
-      <c r="T286" s="1"/>
-      <c r="V286" s="1"/>
+      <c r="R286" s="1"/>
+      <c r="U286" s="1"/>
       <c r="W286" s="1"/>
     </row>
     <row r="287" spans="1:23">
@@ -9360,8 +9423,8 @@
       <c r="O287" s="1"/>
       <c r="P287" s="1"/>
       <c r="Q287" s="1"/>
-      <c r="T287" s="1"/>
-      <c r="V287" s="1"/>
+      <c r="R287" s="1"/>
+      <c r="U287" s="1"/>
       <c r="W287" s="1"/>
     </row>
     <row r="288" spans="1:23">
@@ -9381,8 +9444,8 @@
       <c r="O288" s="1"/>
       <c r="P288" s="1"/>
       <c r="Q288" s="1"/>
-      <c r="T288" s="1"/>
-      <c r="V288" s="1"/>
+      <c r="R288" s="1"/>
+      <c r="U288" s="1"/>
       <c r="W288" s="1"/>
     </row>
     <row r="289" spans="1:23">
@@ -9402,8 +9465,8 @@
       <c r="O289" s="1"/>
       <c r="P289" s="1"/>
       <c r="Q289" s="1"/>
-      <c r="T289" s="1"/>
-      <c r="V289" s="1"/>
+      <c r="R289" s="1"/>
+      <c r="U289" s="1"/>
       <c r="W289" s="1"/>
     </row>
     <row r="290" spans="1:23">
@@ -9423,8 +9486,8 @@
       <c r="O290" s="1"/>
       <c r="P290" s="1"/>
       <c r="Q290" s="1"/>
-      <c r="T290" s="1"/>
-      <c r="V290" s="1"/>
+      <c r="R290" s="1"/>
+      <c r="U290" s="1"/>
       <c r="W290" s="1"/>
     </row>
     <row r="291" spans="1:23">
@@ -9444,8 +9507,8 @@
       <c r="O291" s="1"/>
       <c r="P291" s="1"/>
       <c r="Q291" s="1"/>
-      <c r="T291" s="1"/>
-      <c r="V291" s="1"/>
+      <c r="R291" s="1"/>
+      <c r="U291" s="1"/>
       <c r="W291" s="1"/>
     </row>
     <row r="292" spans="1:23">
@@ -9465,8 +9528,8 @@
       <c r="O292" s="1"/>
       <c r="P292" s="1"/>
       <c r="Q292" s="1"/>
-      <c r="T292" s="1"/>
-      <c r="V292" s="1"/>
+      <c r="R292" s="1"/>
+      <c r="U292" s="1"/>
       <c r="W292" s="1"/>
     </row>
     <row r="293" spans="1:23">
@@ -9486,8 +9549,8 @@
       <c r="O293" s="1"/>
       <c r="P293" s="1"/>
       <c r="Q293" s="1"/>
-      <c r="T293" s="1"/>
-      <c r="V293" s="1"/>
+      <c r="R293" s="1"/>
+      <c r="U293" s="1"/>
       <c r="W293" s="1"/>
     </row>
     <row r="294" spans="1:23">
@@ -9507,8 +9570,8 @@
       <c r="O294" s="1"/>
       <c r="P294" s="1"/>
       <c r="Q294" s="1"/>
-      <c r="T294" s="1"/>
-      <c r="V294" s="1"/>
+      <c r="R294" s="1"/>
+      <c r="U294" s="1"/>
       <c r="W294" s="1"/>
     </row>
     <row r="295" spans="1:23">
@@ -9528,8 +9591,8 @@
       <c r="O295" s="1"/>
       <c r="P295" s="1"/>
       <c r="Q295" s="1"/>
-      <c r="T295" s="1"/>
-      <c r="V295" s="1"/>
+      <c r="R295" s="1"/>
+      <c r="U295" s="1"/>
       <c r="W295" s="1"/>
     </row>
     <row r="296" spans="1:23">
@@ -9549,8 +9612,8 @@
       <c r="O296" s="1"/>
       <c r="P296" s="1"/>
       <c r="Q296" s="1"/>
-      <c r="T296" s="1"/>
-      <c r="V296" s="1"/>
+      <c r="R296" s="1"/>
+      <c r="U296" s="1"/>
       <c r="W296" s="1"/>
     </row>
     <row r="297" spans="1:23">
@@ -9570,8 +9633,8 @@
       <c r="O297" s="1"/>
       <c r="P297" s="1"/>
       <c r="Q297" s="1"/>
-      <c r="T297" s="1"/>
-      <c r="V297" s="1"/>
+      <c r="R297" s="1"/>
+      <c r="U297" s="1"/>
       <c r="W297" s="1"/>
     </row>
     <row r="298" spans="1:23">
@@ -9591,8 +9654,8 @@
       <c r="O298" s="1"/>
       <c r="P298" s="1"/>
       <c r="Q298" s="1"/>
-      <c r="T298" s="1"/>
-      <c r="V298" s="1"/>
+      <c r="R298" s="1"/>
+      <c r="U298" s="1"/>
       <c r="W298" s="1"/>
     </row>
     <row r="299" spans="1:23">
@@ -9612,8 +9675,8 @@
       <c r="O299" s="1"/>
       <c r="P299" s="1"/>
       <c r="Q299" s="1"/>
-      <c r="T299" s="1"/>
-      <c r="V299" s="1"/>
+      <c r="R299" s="1"/>
+      <c r="U299" s="1"/>
       <c r="W299" s="1"/>
     </row>
     <row r="300" spans="1:23">
@@ -9633,8 +9696,8 @@
       <c r="O300" s="1"/>
       <c r="P300" s="1"/>
       <c r="Q300" s="1"/>
-      <c r="T300" s="1"/>
-      <c r="V300" s="1"/>
+      <c r="R300" s="1"/>
+      <c r="U300" s="1"/>
       <c r="W300" s="1"/>
     </row>
     <row r="301" spans="1:23">
@@ -9654,8 +9717,8 @@
       <c r="O301" s="1"/>
       <c r="P301" s="1"/>
       <c r="Q301" s="1"/>
-      <c r="T301" s="1"/>
-      <c r="V301" s="1"/>
+      <c r="R301" s="1"/>
+      <c r="U301" s="1"/>
       <c r="W301" s="1"/>
     </row>
     <row r="302" spans="1:23">
@@ -9675,8 +9738,8 @@
       <c r="O302" s="1"/>
       <c r="P302" s="1"/>
       <c r="Q302" s="1"/>
-      <c r="T302" s="1"/>
-      <c r="V302" s="1"/>
+      <c r="R302" s="1"/>
+      <c r="U302" s="1"/>
       <c r="W302" s="1"/>
     </row>
     <row r="303" spans="1:23">
@@ -9696,8 +9759,8 @@
       <c r="O303" s="1"/>
       <c r="P303" s="1"/>
       <c r="Q303" s="1"/>
-      <c r="T303" s="1"/>
-      <c r="V303" s="1"/>
+      <c r="R303" s="1"/>
+      <c r="U303" s="1"/>
       <c r="W303" s="1"/>
     </row>
     <row r="304" spans="1:23">
@@ -9717,8 +9780,8 @@
       <c r="O304" s="1"/>
       <c r="P304" s="1"/>
       <c r="Q304" s="1"/>
-      <c r="T304" s="1"/>
-      <c r="V304" s="1"/>
+      <c r="R304" s="1"/>
+      <c r="U304" s="1"/>
       <c r="W304" s="1"/>
     </row>
     <row r="305" spans="1:23">
@@ -9738,8 +9801,8 @@
       <c r="O305" s="1"/>
       <c r="P305" s="1"/>
       <c r="Q305" s="1"/>
-      <c r="T305" s="1"/>
-      <c r="V305" s="1"/>
+      <c r="R305" s="1"/>
+      <c r="U305" s="1"/>
       <c r="W305" s="1"/>
     </row>
     <row r="306" spans="1:23">
@@ -9759,8 +9822,8 @@
       <c r="O306" s="1"/>
       <c r="P306" s="1"/>
       <c r="Q306" s="1"/>
-      <c r="T306" s="1"/>
-      <c r="V306" s="1"/>
+      <c r="R306" s="1"/>
+      <c r="U306" s="1"/>
       <c r="W306" s="1"/>
     </row>
     <row r="307" spans="1:23">
@@ -9780,8 +9843,8 @@
       <c r="O307" s="1"/>
       <c r="P307" s="1"/>
       <c r="Q307" s="1"/>
-      <c r="T307" s="1"/>
-      <c r="V307" s="1"/>
+      <c r="R307" s="1"/>
+      <c r="U307" s="1"/>
       <c r="W307" s="1"/>
     </row>
     <row r="308" spans="1:23">
@@ -9801,8 +9864,8 @@
       <c r="O308" s="1"/>
       <c r="P308" s="1"/>
       <c r="Q308" s="1"/>
-      <c r="T308" s="1"/>
-      <c r="V308" s="1"/>
+      <c r="R308" s="1"/>
+      <c r="U308" s="1"/>
       <c r="W308" s="1"/>
     </row>
     <row r="309" spans="1:23">
@@ -9822,8 +9885,8 @@
       <c r="O309" s="1"/>
       <c r="P309" s="1"/>
       <c r="Q309" s="1"/>
-      <c r="T309" s="1"/>
-      <c r="V309" s="1"/>
+      <c r="R309" s="1"/>
+      <c r="U309" s="1"/>
       <c r="W309" s="1"/>
     </row>
     <row r="310" spans="1:23">
@@ -9843,8 +9906,8 @@
       <c r="O310" s="1"/>
       <c r="P310" s="1"/>
       <c r="Q310" s="1"/>
-      <c r="T310" s="1"/>
-      <c r="V310" s="1"/>
+      <c r="R310" s="1"/>
+      <c r="U310" s="1"/>
       <c r="W310" s="1"/>
     </row>
     <row r="311" spans="1:23">
@@ -9864,8 +9927,8 @@
       <c r="O311" s="1"/>
       <c r="P311" s="1"/>
       <c r="Q311" s="1"/>
-      <c r="T311" s="1"/>
-      <c r="V311" s="1"/>
+      <c r="R311" s="1"/>
+      <c r="U311" s="1"/>
       <c r="W311" s="1"/>
     </row>
     <row r="312" spans="1:23">
@@ -9885,8 +9948,8 @@
       <c r="O312" s="1"/>
       <c r="P312" s="1"/>
       <c r="Q312" s="1"/>
-      <c r="T312" s="1"/>
-      <c r="V312" s="1"/>
+      <c r="R312" s="1"/>
+      <c r="U312" s="1"/>
       <c r="W312" s="1"/>
     </row>
     <row r="313" spans="1:23">
@@ -9906,8 +9969,8 @@
       <c r="O313" s="1"/>
       <c r="P313" s="1"/>
       <c r="Q313" s="1"/>
-      <c r="T313" s="1"/>
-      <c r="V313" s="1"/>
+      <c r="R313" s="1"/>
+      <c r="U313" s="1"/>
       <c r="W313" s="1"/>
     </row>
     <row r="314" spans="1:23">
@@ -9927,8 +9990,8 @@
       <c r="O314" s="1"/>
       <c r="P314" s="1"/>
       <c r="Q314" s="1"/>
-      <c r="T314" s="1"/>
-      <c r="V314" s="1"/>
+      <c r="R314" s="1"/>
+      <c r="U314" s="1"/>
       <c r="W314" s="1"/>
     </row>
     <row r="315" spans="1:23">
@@ -9948,8 +10011,8 @@
       <c r="O315" s="1"/>
       <c r="P315" s="1"/>
       <c r="Q315" s="1"/>
-      <c r="T315" s="1"/>
-      <c r="V315" s="1"/>
+      <c r="R315" s="1"/>
+      <c r="U315" s="1"/>
       <c r="W315" s="1"/>
     </row>
     <row r="316" spans="1:23">
@@ -9969,8 +10032,8 @@
       <c r="O316" s="1"/>
       <c r="P316" s="1"/>
       <c r="Q316" s="1"/>
-      <c r="T316" s="1"/>
-      <c r="V316" s="1"/>
+      <c r="R316" s="1"/>
+      <c r="U316" s="1"/>
       <c r="W316" s="1"/>
     </row>
     <row r="317" spans="1:23">
@@ -9990,8 +10053,8 @@
       <c r="O317" s="1"/>
       <c r="P317" s="1"/>
       <c r="Q317" s="1"/>
-      <c r="T317" s="1"/>
-      <c r="V317" s="1"/>
+      <c r="R317" s="1"/>
+      <c r="U317" s="1"/>
       <c r="W317" s="1"/>
     </row>
     <row r="318" spans="1:23">
@@ -10011,8 +10074,8 @@
       <c r="O318" s="1"/>
       <c r="P318" s="1"/>
       <c r="Q318" s="1"/>
-      <c r="T318" s="1"/>
-      <c r="V318" s="1"/>
+      <c r="R318" s="1"/>
+      <c r="U318" s="1"/>
       <c r="W318" s="1"/>
     </row>
     <row r="319" spans="1:23">
@@ -10032,8 +10095,8 @@
       <c r="O319" s="1"/>
       <c r="P319" s="1"/>
       <c r="Q319" s="1"/>
-      <c r="T319" s="1"/>
-      <c r="V319" s="1"/>
+      <c r="R319" s="1"/>
+      <c r="U319" s="1"/>
       <c r="W319" s="1"/>
     </row>
     <row r="320" spans="1:23">
@@ -10053,8 +10116,8 @@
       <c r="O320" s="1"/>
       <c r="P320" s="1"/>
       <c r="Q320" s="1"/>
-      <c r="T320" s="1"/>
-      <c r="V320" s="1"/>
+      <c r="R320" s="1"/>
+      <c r="U320" s="1"/>
       <c r="W320" s="1"/>
     </row>
     <row r="321" spans="1:23">
@@ -10074,8 +10137,8 @@
       <c r="O321" s="1"/>
       <c r="P321" s="1"/>
       <c r="Q321" s="1"/>
-      <c r="T321" s="1"/>
-      <c r="V321" s="1"/>
+      <c r="R321" s="1"/>
+      <c r="U321" s="1"/>
       <c r="W321" s="1"/>
     </row>
     <row r="322" spans="1:23">
@@ -10095,8 +10158,8 @@
       <c r="O322" s="1"/>
       <c r="P322" s="1"/>
       <c r="Q322" s="1"/>
-      <c r="T322" s="1"/>
-      <c r="V322" s="1"/>
+      <c r="R322" s="1"/>
+      <c r="U322" s="1"/>
       <c r="W322" s="1"/>
     </row>
     <row r="323" spans="1:23">
@@ -10116,8 +10179,8 @@
       <c r="O323" s="1"/>
       <c r="P323" s="1"/>
       <c r="Q323" s="1"/>
-      <c r="T323" s="1"/>
-      <c r="V323" s="1"/>
+      <c r="R323" s="1"/>
+      <c r="U323" s="1"/>
       <c r="W323" s="1"/>
     </row>
     <row r="324" spans="1:23">
@@ -10137,8 +10200,8 @@
       <c r="O324" s="1"/>
       <c r="P324" s="1"/>
       <c r="Q324" s="1"/>
-      <c r="T324" s="1"/>
-      <c r="V324" s="1"/>
+      <c r="R324" s="1"/>
+      <c r="U324" s="1"/>
       <c r="W324" s="1"/>
     </row>
     <row r="325" spans="1:23">
@@ -10158,8 +10221,8 @@
       <c r="O325" s="1"/>
       <c r="P325" s="1"/>
       <c r="Q325" s="1"/>
-      <c r="T325" s="1"/>
-      <c r="V325" s="1"/>
+      <c r="R325" s="1"/>
+      <c r="U325" s="1"/>
       <c r="W325" s="1"/>
     </row>
     <row r="326" spans="1:23">
@@ -10179,8 +10242,8 @@
       <c r="O326" s="1"/>
       <c r="P326" s="1"/>
       <c r="Q326" s="1"/>
-      <c r="T326" s="1"/>
-      <c r="V326" s="1"/>
+      <c r="R326" s="1"/>
+      <c r="U326" s="1"/>
       <c r="W326" s="1"/>
     </row>
     <row r="327" spans="1:23">
@@ -10200,8 +10263,8 @@
       <c r="O327" s="1"/>
       <c r="P327" s="1"/>
       <c r="Q327" s="1"/>
-      <c r="T327" s="1"/>
-      <c r="V327" s="1"/>
+      <c r="R327" s="1"/>
+      <c r="U327" s="1"/>
       <c r="W327" s="1"/>
     </row>
     <row r="328" spans="1:23">
@@ -10221,8 +10284,8 @@
       <c r="O328" s="1"/>
       <c r="P328" s="1"/>
       <c r="Q328" s="1"/>
-      <c r="T328" s="1"/>
-      <c r="V328" s="1"/>
+      <c r="R328" s="1"/>
+      <c r="U328" s="1"/>
       <c r="W328" s="1"/>
     </row>
     <row r="329" spans="1:23">
@@ -10242,8 +10305,8 @@
       <c r="O329" s="1"/>
       <c r="P329" s="1"/>
       <c r="Q329" s="1"/>
-      <c r="T329" s="1"/>
-      <c r="V329" s="1"/>
+      <c r="R329" s="1"/>
+      <c r="U329" s="1"/>
       <c r="W329" s="1"/>
     </row>
     <row r="330" spans="1:23">
@@ -10263,8 +10326,8 @@
       <c r="O330" s="1"/>
       <c r="P330" s="1"/>
       <c r="Q330" s="1"/>
-      <c r="T330" s="1"/>
-      <c r="V330" s="1"/>
+      <c r="R330" s="1"/>
+      <c r="U330" s="1"/>
       <c r="W330" s="1"/>
     </row>
     <row r="331" spans="1:23">
@@ -10284,8 +10347,8 @@
       <c r="O331" s="1"/>
       <c r="P331" s="1"/>
       <c r="Q331" s="1"/>
-      <c r="T331" s="1"/>
-      <c r="V331" s="1"/>
+      <c r="R331" s="1"/>
+      <c r="U331" s="1"/>
       <c r="W331" s="1"/>
     </row>
     <row r="332" spans="1:23">
@@ -10305,8 +10368,8 @@
       <c r="O332" s="1"/>
       <c r="P332" s="1"/>
       <c r="Q332" s="1"/>
-      <c r="T332" s="1"/>
-      <c r="V332" s="1"/>
+      <c r="R332" s="1"/>
+      <c r="U332" s="1"/>
       <c r="W332" s="1"/>
     </row>
     <row r="333" spans="1:23">
@@ -10326,8 +10389,8 @@
       <c r="O333" s="1"/>
       <c r="P333" s="1"/>
       <c r="Q333" s="1"/>
-      <c r="T333" s="1"/>
-      <c r="V333" s="1"/>
+      <c r="R333" s="1"/>
+      <c r="U333" s="1"/>
       <c r="W333" s="1"/>
     </row>
     <row r="334" spans="1:23">
@@ -10347,8 +10410,8 @@
       <c r="O334" s="1"/>
       <c r="P334" s="1"/>
       <c r="Q334" s="1"/>
-      <c r="T334" s="1"/>
-      <c r="V334" s="1"/>
+      <c r="R334" s="1"/>
+      <c r="U334" s="1"/>
       <c r="W334" s="1"/>
     </row>
     <row r="335" spans="1:23">
@@ -10368,8 +10431,8 @@
       <c r="O335" s="1"/>
       <c r="P335" s="1"/>
       <c r="Q335" s="1"/>
-      <c r="T335" s="1"/>
-      <c r="V335" s="1"/>
+      <c r="R335" s="1"/>
+      <c r="U335" s="1"/>
       <c r="W335" s="1"/>
     </row>
     <row r="336" spans="1:23">
@@ -10389,8 +10452,8 @@
       <c r="O336" s="1"/>
       <c r="P336" s="1"/>
       <c r="Q336" s="1"/>
-      <c r="T336" s="1"/>
-      <c r="V336" s="1"/>
+      <c r="R336" s="1"/>
+      <c r="U336" s="1"/>
       <c r="W336" s="1"/>
     </row>
     <row r="337" spans="1:23">
@@ -10410,8 +10473,8 @@
       <c r="O337" s="1"/>
       <c r="P337" s="1"/>
       <c r="Q337" s="1"/>
-      <c r="T337" s="1"/>
-      <c r="V337" s="1"/>
+      <c r="R337" s="1"/>
+      <c r="U337" s="1"/>
       <c r="W337" s="1"/>
     </row>
     <row r="338" spans="1:23">
@@ -10431,8 +10494,8 @@
       <c r="O338" s="1"/>
       <c r="P338" s="1"/>
       <c r="Q338" s="1"/>
-      <c r="T338" s="1"/>
-      <c r="V338" s="1"/>
+      <c r="R338" s="1"/>
+      <c r="U338" s="1"/>
       <c r="W338" s="1"/>
     </row>
     <row r="339" spans="1:23">
@@ -10452,8 +10515,8 @@
       <c r="O339" s="1"/>
       <c r="P339" s="1"/>
       <c r="Q339" s="1"/>
-      <c r="T339" s="1"/>
-      <c r="V339" s="1"/>
+      <c r="R339" s="1"/>
+      <c r="U339" s="1"/>
       <c r="W339" s="1"/>
     </row>
     <row r="340" spans="1:23">
@@ -10473,8 +10536,8 @@
       <c r="O340" s="1"/>
       <c r="P340" s="1"/>
       <c r="Q340" s="1"/>
-      <c r="T340" s="1"/>
-      <c r="V340" s="1"/>
+      <c r="R340" s="1"/>
+      <c r="U340" s="1"/>
       <c r="W340" s="1"/>
     </row>
     <row r="341" spans="1:23">
@@ -10494,8 +10557,8 @@
       <c r="O341" s="1"/>
       <c r="P341" s="1"/>
       <c r="Q341" s="1"/>
-      <c r="T341" s="1"/>
-      <c r="V341" s="1"/>
+      <c r="R341" s="1"/>
+      <c r="U341" s="1"/>
       <c r="W341" s="1"/>
     </row>
     <row r="342" spans="1:23">
@@ -10515,8 +10578,8 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
       <c r="Q342" s="1"/>
-      <c r="T342" s="1"/>
-      <c r="V342" s="1"/>
+      <c r="R342" s="1"/>
+      <c r="U342" s="1"/>
       <c r="W342" s="1"/>
     </row>
     <row r="343" spans="1:23">
@@ -10536,8 +10599,8 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
       <c r="Q343" s="1"/>
-      <c r="T343" s="1"/>
-      <c r="V343" s="1"/>
+      <c r="R343" s="1"/>
+      <c r="U343" s="1"/>
       <c r="W343" s="1"/>
     </row>
     <row r="344" spans="1:23">
@@ -10557,8 +10620,8 @@
       <c r="O344" s="1"/>
       <c r="P344" s="1"/>
       <c r="Q344" s="1"/>
-      <c r="T344" s="1"/>
-      <c r="V344" s="1"/>
+      <c r="R344" s="1"/>
+      <c r="U344" s="1"/>
       <c r="W344" s="1"/>
     </row>
     <row r="345" spans="1:23">
@@ -10578,8 +10641,8 @@
       <c r="O345" s="1"/>
       <c r="P345" s="1"/>
       <c r="Q345" s="1"/>
-      <c r="T345" s="1"/>
-      <c r="V345" s="1"/>
+      <c r="R345" s="1"/>
+      <c r="U345" s="1"/>
       <c r="W345" s="1"/>
     </row>
     <row r="346" spans="1:23">
@@ -10599,8 +10662,8 @@
       <c r="O346" s="1"/>
       <c r="P346" s="1"/>
       <c r="Q346" s="1"/>
-      <c r="T346" s="1"/>
-      <c r="V346" s="1"/>
+      <c r="R346" s="1"/>
+      <c r="U346" s="1"/>
       <c r="W346" s="1"/>
     </row>
     <row r="347" spans="1:23">
@@ -10620,8 +10683,8 @@
       <c r="O347" s="1"/>
       <c r="P347" s="1"/>
       <c r="Q347" s="1"/>
-      <c r="T347" s="1"/>
-      <c r="V347" s="1"/>
+      <c r="R347" s="1"/>
+      <c r="U347" s="1"/>
       <c r="W347" s="1"/>
     </row>
     <row r="348" spans="1:23">
@@ -10641,8 +10704,8 @@
       <c r="O348" s="1"/>
       <c r="P348" s="1"/>
       <c r="Q348" s="1"/>
-      <c r="T348" s="1"/>
-      <c r="V348" s="1"/>
+      <c r="R348" s="1"/>
+      <c r="U348" s="1"/>
       <c r="W348" s="1"/>
     </row>
     <row r="349" spans="1:23">
@@ -10662,8 +10725,8 @@
       <c r="O349" s="1"/>
       <c r="P349" s="1"/>
       <c r="Q349" s="1"/>
-      <c r="T349" s="1"/>
-      <c r="V349" s="1"/>
+      <c r="R349" s="1"/>
+      <c r="U349" s="1"/>
       <c r="W349" s="1"/>
     </row>
     <row r="350" spans="1:23">
@@ -10683,8 +10746,8 @@
       <c r="O350" s="1"/>
       <c r="P350" s="1"/>
       <c r="Q350" s="1"/>
-      <c r="T350" s="1"/>
-      <c r="V350" s="1"/>
+      <c r="R350" s="1"/>
+      <c r="U350" s="1"/>
       <c r="W350" s="1"/>
     </row>
     <row r="351" spans="1:23">
@@ -10704,8 +10767,8 @@
       <c r="O351" s="1"/>
       <c r="P351" s="1"/>
       <c r="Q351" s="1"/>
-      <c r="T351" s="1"/>
-      <c r="V351" s="1"/>
+      <c r="R351" s="1"/>
+      <c r="U351" s="1"/>
       <c r="W351" s="1"/>
     </row>
     <row r="352" spans="1:23">
@@ -10725,8 +10788,8 @@
       <c r="O352" s="1"/>
       <c r="P352" s="1"/>
       <c r="Q352" s="1"/>
-      <c r="T352" s="1"/>
-      <c r="V352" s="1"/>
+      <c r="R352" s="1"/>
+      <c r="U352" s="1"/>
       <c r="W352" s="1"/>
     </row>
     <row r="353" spans="1:23">
@@ -10746,8 +10809,8 @@
       <c r="O353" s="1"/>
       <c r="P353" s="1"/>
       <c r="Q353" s="1"/>
-      <c r="T353" s="1"/>
-      <c r="V353" s="1"/>
+      <c r="R353" s="1"/>
+      <c r="U353" s="1"/>
       <c r="W353" s="1"/>
     </row>
     <row r="354" spans="1:23">
@@ -10767,8 +10830,8 @@
       <c r="O354" s="1"/>
       <c r="P354" s="1"/>
       <c r="Q354" s="1"/>
-      <c r="T354" s="1"/>
-      <c r="V354" s="1"/>
+      <c r="R354" s="1"/>
+      <c r="U354" s="1"/>
       <c r="W354" s="1"/>
     </row>
     <row r="355" spans="1:23">
@@ -10788,8 +10851,8 @@
       <c r="O355" s="1"/>
       <c r="P355" s="1"/>
       <c r="Q355" s="1"/>
-      <c r="T355" s="1"/>
-      <c r="V355" s="1"/>
+      <c r="R355" s="1"/>
+      <c r="U355" s="1"/>
       <c r="W355" s="1"/>
     </row>
     <row r="356" spans="1:23">
@@ -10809,8 +10872,8 @@
       <c r="O356" s="1"/>
       <c r="P356" s="1"/>
       <c r="Q356" s="1"/>
-      <c r="T356" s="1"/>
-      <c r="V356" s="1"/>
+      <c r="R356" s="1"/>
+      <c r="U356" s="1"/>
       <c r="W356" s="1"/>
     </row>
     <row r="357" spans="1:23">
@@ -10830,8 +10893,8 @@
       <c r="O357" s="1"/>
       <c r="P357" s="1"/>
       <c r="Q357" s="1"/>
-      <c r="T357" s="1"/>
-      <c r="V357" s="1"/>
+      <c r="R357" s="1"/>
+      <c r="U357" s="1"/>
       <c r="W357" s="1"/>
     </row>
     <row r="358" spans="1:23">
@@ -10851,8 +10914,8 @@
       <c r="O358" s="1"/>
       <c r="P358" s="1"/>
       <c r="Q358" s="1"/>
-      <c r="T358" s="1"/>
-      <c r="V358" s="1"/>
+      <c r="R358" s="1"/>
+      <c r="U358" s="1"/>
       <c r="W358" s="1"/>
     </row>
     <row r="359" spans="1:23">
@@ -10872,8 +10935,8 @@
       <c r="O359" s="1"/>
       <c r="P359" s="1"/>
       <c r="Q359" s="1"/>
-      <c r="T359" s="1"/>
-      <c r="V359" s="1"/>
+      <c r="R359" s="1"/>
+      <c r="U359" s="1"/>
       <c r="W359" s="1"/>
     </row>
     <row r="360" spans="1:23">
@@ -10893,8 +10956,8 @@
       <c r="O360" s="1"/>
       <c r="P360" s="1"/>
       <c r="Q360" s="1"/>
-      <c r="T360" s="1"/>
-      <c r="V360" s="1"/>
+      <c r="R360" s="1"/>
+      <c r="U360" s="1"/>
       <c r="W360" s="1"/>
     </row>
     <row r="361" spans="1:23">
@@ -10914,8 +10977,8 @@
       <c r="O361" s="1"/>
       <c r="P361" s="1"/>
       <c r="Q361" s="1"/>
-      <c r="T361" s="1"/>
-      <c r="V361" s="1"/>
+      <c r="R361" s="1"/>
+      <c r="U361" s="1"/>
       <c r="W361" s="1"/>
     </row>
     <row r="362" spans="1:23">
@@ -10935,8 +10998,8 @@
       <c r="O362" s="1"/>
       <c r="P362" s="1"/>
       <c r="Q362" s="1"/>
-      <c r="T362" s="1"/>
-      <c r="V362" s="1"/>
+      <c r="R362" s="1"/>
+      <c r="U362" s="1"/>
       <c r="W362" s="1"/>
     </row>
     <row r="363" spans="1:23">
@@ -10956,8 +11019,8 @@
       <c r="O363" s="1"/>
       <c r="P363" s="1"/>
       <c r="Q363" s="1"/>
-      <c r="T363" s="1"/>
-      <c r="V363" s="1"/>
+      <c r="R363" s="1"/>
+      <c r="U363" s="1"/>
       <c r="W363" s="1"/>
     </row>
     <row r="364" spans="1:23">
@@ -10977,8 +11040,8 @@
       <c r="O364" s="1"/>
       <c r="P364" s="1"/>
       <c r="Q364" s="1"/>
-      <c r="T364" s="1"/>
-      <c r="V364" s="1"/>
+      <c r="R364" s="1"/>
+      <c r="U364" s="1"/>
       <c r="W364" s="1"/>
     </row>
     <row r="365" spans="1:23">
@@ -10998,8 +11061,8 @@
       <c r="O365" s="1"/>
       <c r="P365" s="1"/>
       <c r="Q365" s="1"/>
-      <c r="T365" s="1"/>
-      <c r="V365" s="1"/>
+      <c r="R365" s="1"/>
+      <c r="U365" s="1"/>
       <c r="W365" s="1"/>
     </row>
     <row r="366" spans="1:23">
@@ -11019,8 +11082,8 @@
       <c r="O366" s="1"/>
       <c r="P366" s="1"/>
       <c r="Q366" s="1"/>
-      <c r="T366" s="1"/>
-      <c r="V366" s="1"/>
+      <c r="R366" s="1"/>
+      <c r="U366" s="1"/>
       <c r="W366" s="1"/>
     </row>
     <row r="367" spans="1:23">
@@ -11040,8 +11103,8 @@
       <c r="O367" s="1"/>
       <c r="P367" s="1"/>
       <c r="Q367" s="1"/>
-      <c r="T367" s="1"/>
-      <c r="V367" s="1"/>
+      <c r="R367" s="1"/>
+      <c r="U367" s="1"/>
       <c r="W367" s="1"/>
     </row>
     <row r="368" spans="1:23">
@@ -11061,8 +11124,8 @@
       <c r="O368" s="1"/>
       <c r="P368" s="1"/>
       <c r="Q368" s="1"/>
-      <c r="T368" s="1"/>
-      <c r="V368" s="1"/>
+      <c r="R368" s="1"/>
+      <c r="U368" s="1"/>
       <c r="W368" s="1"/>
     </row>
     <row r="369" spans="1:23">
@@ -11082,8 +11145,8 @@
       <c r="O369" s="1"/>
       <c r="P369" s="1"/>
       <c r="Q369" s="1"/>
-      <c r="T369" s="1"/>
-      <c r="V369" s="1"/>
+      <c r="R369" s="1"/>
+      <c r="U369" s="1"/>
       <c r="W369" s="1"/>
     </row>
     <row r="370" spans="1:23">
@@ -11103,8 +11166,8 @@
       <c r="O370" s="1"/>
       <c r="P370" s="1"/>
       <c r="Q370" s="1"/>
-      <c r="T370" s="1"/>
-      <c r="V370" s="1"/>
+      <c r="R370" s="1"/>
+      <c r="U370" s="1"/>
       <c r="W370" s="1"/>
     </row>
     <row r="371" spans="1:23">
@@ -11124,8 +11187,8 @@
       <c r="O371" s="1"/>
       <c r="P371" s="1"/>
       <c r="Q371" s="1"/>
-      <c r="T371" s="1"/>
-      <c r="V371" s="1"/>
+      <c r="R371" s="1"/>
+      <c r="U371" s="1"/>
       <c r="W371" s="1"/>
     </row>
     <row r="372" spans="1:23">
@@ -11145,8 +11208,8 @@
       <c r="O372" s="1"/>
       <c r="P372" s="1"/>
       <c r="Q372" s="1"/>
-      <c r="T372" s="1"/>
-      <c r="V372" s="1"/>
+      <c r="R372" s="1"/>
+      <c r="U372" s="1"/>
       <c r="W372" s="1"/>
     </row>
     <row r="373" spans="1:23">
@@ -11166,8 +11229,8 @@
       <c r="O373" s="1"/>
       <c r="P373" s="1"/>
       <c r="Q373" s="1"/>
-      <c r="T373" s="1"/>
-      <c r="V373" s="1"/>
+      <c r="R373" s="1"/>
+      <c r="U373" s="1"/>
       <c r="W373" s="1"/>
     </row>
     <row r="374" spans="1:23">
@@ -11187,8 +11250,8 @@
       <c r="O374" s="1"/>
       <c r="P374" s="1"/>
       <c r="Q374" s="1"/>
-      <c r="T374" s="1"/>
-      <c r="V374" s="1"/>
+      <c r="R374" s="1"/>
+      <c r="U374" s="1"/>
       <c r="W374" s="1"/>
     </row>
     <row r="375" spans="1:23">
@@ -11208,8 +11271,8 @@
       <c r="O375" s="1"/>
       <c r="P375" s="1"/>
       <c r="Q375" s="1"/>
-      <c r="T375" s="1"/>
-      <c r="V375" s="1"/>
+      <c r="R375" s="1"/>
+      <c r="U375" s="1"/>
       <c r="W375" s="1"/>
     </row>
     <row r="376" spans="1:23">
@@ -11229,8 +11292,8 @@
       <c r="O376" s="1"/>
       <c r="P376" s="1"/>
       <c r="Q376" s="1"/>
-      <c r="T376" s="1"/>
-      <c r="V376" s="1"/>
+      <c r="R376" s="1"/>
+      <c r="U376" s="1"/>
       <c r="W376" s="1"/>
     </row>
     <row r="377" spans="1:23">
@@ -11250,8 +11313,8 @@
       <c r="O377" s="1"/>
       <c r="P377" s="1"/>
       <c r="Q377" s="1"/>
-      <c r="T377" s="1"/>
-      <c r="V377" s="1"/>
+      <c r="R377" s="1"/>
+      <c r="U377" s="1"/>
       <c r="W377" s="1"/>
     </row>
     <row r="378" spans="1:23">
@@ -11271,8 +11334,8 @@
       <c r="O378" s="1"/>
       <c r="P378" s="1"/>
       <c r="Q378" s="1"/>
-      <c r="T378" s="1"/>
-      <c r="V378" s="1"/>
+      <c r="R378" s="1"/>
+      <c r="U378" s="1"/>
       <c r="W378" s="1"/>
     </row>
     <row r="379" spans="1:23">
@@ -11292,8 +11355,8 @@
       <c r="O379" s="1"/>
       <c r="P379" s="1"/>
       <c r="Q379" s="1"/>
-      <c r="T379" s="1"/>
-      <c r="V379" s="1"/>
+      <c r="R379" s="1"/>
+      <c r="U379" s="1"/>
       <c r="W379" s="1"/>
     </row>
     <row r="380" spans="1:23">
@@ -11313,8 +11376,8 @@
       <c r="O380" s="1"/>
       <c r="P380" s="1"/>
       <c r="Q380" s="1"/>
-      <c r="T380" s="1"/>
-      <c r="V380" s="1"/>
+      <c r="R380" s="1"/>
+      <c r="U380" s="1"/>
       <c r="W380" s="1"/>
     </row>
     <row r="381" spans="1:23">
@@ -11334,8 +11397,8 @@
       <c r="O381" s="1"/>
       <c r="P381" s="1"/>
       <c r="Q381" s="1"/>
-      <c r="T381" s="1"/>
-      <c r="V381" s="1"/>
+      <c r="R381" s="1"/>
+      <c r="U381" s="1"/>
       <c r="W381" s="1"/>
     </row>
     <row r="382" spans="1:23">
@@ -11355,8 +11418,8 @@
       <c r="O382" s="1"/>
       <c r="P382" s="1"/>
       <c r="Q382" s="1"/>
-      <c r="T382" s="1"/>
-      <c r="V382" s="1"/>
+      <c r="R382" s="1"/>
+      <c r="U382" s="1"/>
       <c r="W382" s="1"/>
     </row>
     <row r="383" spans="1:23">
@@ -11376,8 +11439,8 @@
       <c r="O383" s="1"/>
       <c r="P383" s="1"/>
       <c r="Q383" s="1"/>
-      <c r="T383" s="1"/>
-      <c r="V383" s="1"/>
+      <c r="R383" s="1"/>
+      <c r="U383" s="1"/>
       <c r="W383" s="1"/>
     </row>
     <row r="384" spans="1:23">
@@ -11397,8 +11460,8 @@
       <c r="O384" s="1"/>
       <c r="P384" s="1"/>
       <c r="Q384" s="1"/>
-      <c r="T384" s="1"/>
-      <c r="V384" s="1"/>
+      <c r="R384" s="1"/>
+      <c r="U384" s="1"/>
       <c r="W384" s="1"/>
     </row>
     <row r="385" spans="1:23">
@@ -11418,8 +11481,8 @@
       <c r="O385" s="1"/>
       <c r="P385" s="1"/>
       <c r="Q385" s="1"/>
-      <c r="T385" s="1"/>
-      <c r="V385" s="1"/>
+      <c r="R385" s="1"/>
+      <c r="U385" s="1"/>
       <c r="W385" s="1"/>
     </row>
     <row r="386" spans="1:23">
@@ -11439,8 +11502,8 @@
       <c r="O386" s="1"/>
       <c r="P386" s="1"/>
       <c r="Q386" s="1"/>
-      <c r="T386" s="1"/>
-      <c r="V386" s="1"/>
+      <c r="R386" s="1"/>
+      <c r="U386" s="1"/>
       <c r="W386" s="1"/>
     </row>
     <row r="387" spans="1:23">
@@ -11460,8 +11523,8 @@
       <c r="O387" s="1"/>
       <c r="P387" s="1"/>
       <c r="Q387" s="1"/>
-      <c r="T387" s="1"/>
-      <c r="V387" s="1"/>
+      <c r="R387" s="1"/>
+      <c r="U387" s="1"/>
       <c r="W387" s="1"/>
     </row>
     <row r="388" spans="1:23">
@@ -11481,8 +11544,8 @@
       <c r="O388" s="1"/>
       <c r="P388" s="1"/>
       <c r="Q388" s="1"/>
-      <c r="T388" s="1"/>
-      <c r="V388" s="1"/>
+      <c r="R388" s="1"/>
+      <c r="U388" s="1"/>
       <c r="W388" s="1"/>
     </row>
     <row r="389" spans="1:23">
@@ -11502,8 +11565,8 @@
       <c r="O389" s="1"/>
       <c r="P389" s="1"/>
       <c r="Q389" s="1"/>
-      <c r="T389" s="1"/>
-      <c r="V389" s="1"/>
+      <c r="R389" s="1"/>
+      <c r="U389" s="1"/>
       <c r="W389" s="1"/>
     </row>
     <row r="390" spans="1:23">
@@ -11523,8 +11586,8 @@
       <c r="O390" s="1"/>
       <c r="P390" s="1"/>
       <c r="Q390" s="1"/>
-      <c r="T390" s="1"/>
-      <c r="V390" s="1"/>
+      <c r="R390" s="1"/>
+      <c r="U390" s="1"/>
       <c r="W390" s="1"/>
     </row>
     <row r="391" spans="1:23">
@@ -11544,8 +11607,8 @@
       <c r="O391" s="1"/>
       <c r="P391" s="1"/>
       <c r="Q391" s="1"/>
-      <c r="T391" s="1"/>
-      <c r="V391" s="1"/>
+      <c r="R391" s="1"/>
+      <c r="U391" s="1"/>
       <c r="W391" s="1"/>
     </row>
     <row r="392" spans="1:23">
@@ -11565,8 +11628,8 @@
       <c r="O392" s="1"/>
       <c r="P392" s="1"/>
       <c r="Q392" s="1"/>
-      <c r="T392" s="1"/>
-      <c r="V392" s="1"/>
+      <c r="R392" s="1"/>
+      <c r="U392" s="1"/>
       <c r="W392" s="1"/>
     </row>
     <row r="393" spans="1:23">
@@ -11586,8 +11649,8 @@
       <c r="O393" s="1"/>
       <c r="P393" s="1"/>
       <c r="Q393" s="1"/>
-      <c r="T393" s="1"/>
-      <c r="V393" s="1"/>
+      <c r="R393" s="1"/>
+      <c r="U393" s="1"/>
       <c r="W393" s="1"/>
     </row>
     <row r="394" spans="1:23">
@@ -11607,8 +11670,8 @@
       <c r="O394" s="1"/>
       <c r="P394" s="1"/>
       <c r="Q394" s="1"/>
-      <c r="T394" s="1"/>
-      <c r="V394" s="1"/>
+      <c r="R394" s="1"/>
+      <c r="U394" s="1"/>
       <c r="W394" s="1"/>
     </row>
     <row r="395" spans="1:23">
@@ -11628,8 +11691,8 @@
       <c r="O395" s="1"/>
       <c r="P395" s="1"/>
       <c r="Q395" s="1"/>
-      <c r="T395" s="1"/>
-      <c r="V395" s="1"/>
+      <c r="R395" s="1"/>
+      <c r="U395" s="1"/>
       <c r="W395" s="1"/>
     </row>
     <row r="396" spans="1:23">
@@ -11649,8 +11712,8 @@
       <c r="O396" s="1"/>
       <c r="P396" s="1"/>
       <c r="Q396" s="1"/>
-      <c r="T396" s="1"/>
-      <c r="V396" s="1"/>
+      <c r="R396" s="1"/>
+      <c r="U396" s="1"/>
       <c r="W396" s="1"/>
     </row>
     <row r="397" spans="1:23">
@@ -11670,8 +11733,8 @@
       <c r="O397" s="1"/>
       <c r="P397" s="1"/>
       <c r="Q397" s="1"/>
-      <c r="T397" s="1"/>
-      <c r="V397" s="1"/>
+      <c r="R397" s="1"/>
+      <c r="U397" s="1"/>
       <c r="W397" s="1"/>
     </row>
     <row r="398" spans="1:23">
@@ -11691,8 +11754,8 @@
       <c r="O398" s="1"/>
       <c r="P398" s="1"/>
       <c r="Q398" s="1"/>
-      <c r="T398" s="1"/>
-      <c r="V398" s="1"/>
+      <c r="R398" s="1"/>
+      <c r="U398" s="1"/>
       <c r="W398" s="1"/>
     </row>
     <row r="399" spans="1:23">
@@ -11712,8 +11775,8 @@
       <c r="O399" s="1"/>
       <c r="P399" s="1"/>
       <c r="Q399" s="1"/>
-      <c r="T399" s="1"/>
-      <c r="V399" s="1"/>
+      <c r="R399" s="1"/>
+      <c r="U399" s="1"/>
       <c r="W399" s="1"/>
     </row>
     <row r="400" spans="1:23">
@@ -11733,8 +11796,8 @@
       <c r="O400" s="1"/>
       <c r="P400" s="1"/>
       <c r="Q400" s="1"/>
-      <c r="T400" s="1"/>
-      <c r="V400" s="1"/>
+      <c r="R400" s="1"/>
+      <c r="U400" s="1"/>
       <c r="W400" s="1"/>
     </row>
     <row r="401" spans="1:23">
@@ -11754,8 +11817,8 @@
       <c r="O401" s="1"/>
       <c r="P401" s="1"/>
       <c r="Q401" s="1"/>
-      <c r="T401" s="1"/>
-      <c r="V401" s="1"/>
+      <c r="R401" s="1"/>
+      <c r="U401" s="1"/>
       <c r="W401" s="1"/>
     </row>
     <row r="402" spans="1:23">
@@ -11775,8 +11838,8 @@
       <c r="O402" s="1"/>
       <c r="P402" s="1"/>
       <c r="Q402" s="1"/>
-      <c r="T402" s="1"/>
-      <c r="V402" s="1"/>
+      <c r="R402" s="1"/>
+      <c r="U402" s="1"/>
       <c r="W402" s="1"/>
     </row>
     <row r="403" spans="1:23">
@@ -11796,8 +11859,8 @@
       <c r="O403" s="1"/>
       <c r="P403" s="1"/>
       <c r="Q403" s="1"/>
-      <c r="T403" s="1"/>
-      <c r="V403" s="1"/>
+      <c r="R403" s="1"/>
+      <c r="U403" s="1"/>
       <c r="W403" s="1"/>
     </row>
     <row r="404" spans="1:23">
@@ -11817,8 +11880,8 @@
       <c r="O404" s="1"/>
       <c r="P404" s="1"/>
       <c r="Q404" s="1"/>
-      <c r="T404" s="1"/>
-      <c r="V404" s="1"/>
+      <c r="R404" s="1"/>
+      <c r="U404" s="1"/>
       <c r="W404" s="1"/>
     </row>
     <row r="405" spans="1:23">
@@ -11838,8 +11901,8 @@
       <c r="O405" s="1"/>
       <c r="P405" s="1"/>
       <c r="Q405" s="1"/>
-      <c r="T405" s="1"/>
-      <c r="V405" s="1"/>
+      <c r="R405" s="1"/>
+      <c r="U405" s="1"/>
       <c r="W405" s="1"/>
     </row>
     <row r="406" spans="1:23">
@@ -11859,8 +11922,8 @@
       <c r="O406" s="1"/>
       <c r="P406" s="1"/>
       <c r="Q406" s="1"/>
-      <c r="T406" s="1"/>
-      <c r="V406" s="1"/>
+      <c r="R406" s="1"/>
+      <c r="U406" s="1"/>
       <c r="W406" s="1"/>
     </row>
     <row r="407" spans="1:23">
@@ -11880,8 +11943,8 @@
       <c r="O407" s="1"/>
       <c r="P407" s="1"/>
       <c r="Q407" s="1"/>
-      <c r="T407" s="1"/>
-      <c r="V407" s="1"/>
+      <c r="R407" s="1"/>
+      <c r="U407" s="1"/>
       <c r="W407" s="1"/>
     </row>
     <row r="408" spans="1:23">
@@ -11901,8 +11964,8 @@
       <c r="O408" s="1"/>
       <c r="P408" s="1"/>
       <c r="Q408" s="1"/>
-      <c r="T408" s="1"/>
-      <c r="V408" s="1"/>
+      <c r="R408" s="1"/>
+      <c r="U408" s="1"/>
       <c r="W408" s="1"/>
     </row>
     <row r="409" spans="1:23">
@@ -11922,8 +11985,8 @@
       <c r="O409" s="1"/>
       <c r="P409" s="1"/>
       <c r="Q409" s="1"/>
-      <c r="T409" s="1"/>
-      <c r="V409" s="1"/>
+      <c r="R409" s="1"/>
+      <c r="U409" s="1"/>
       <c r="W409" s="1"/>
     </row>
     <row r="410" spans="1:23">
@@ -11943,8 +12006,8 @@
       <c r="O410" s="1"/>
       <c r="P410" s="1"/>
       <c r="Q410" s="1"/>
-      <c r="T410" s="1"/>
-      <c r="V410" s="1"/>
+      <c r="R410" s="1"/>
+      <c r="U410" s="1"/>
       <c r="W410" s="1"/>
     </row>
     <row r="411" spans="1:23">
@@ -11964,8 +12027,8 @@
       <c r="O411" s="1"/>
       <c r="P411" s="1"/>
       <c r="Q411" s="1"/>
-      <c r="T411" s="1"/>
-      <c r="V411" s="1"/>
+      <c r="R411" s="1"/>
+      <c r="U411" s="1"/>
       <c r="W411" s="1"/>
     </row>
     <row r="412" spans="1:23">
@@ -11985,8 +12048,8 @@
       <c r="O412" s="1"/>
       <c r="P412" s="1"/>
       <c r="Q412" s="1"/>
-      <c r="T412" s="1"/>
-      <c r="V412" s="1"/>
+      <c r="R412" s="1"/>
+      <c r="U412" s="1"/>
       <c r="W412" s="1"/>
     </row>
     <row r="413" spans="1:23">
@@ -12006,8 +12069,8 @@
       <c r="O413" s="1"/>
       <c r="P413" s="1"/>
       <c r="Q413" s="1"/>
-      <c r="T413" s="1"/>
-      <c r="V413" s="1"/>
+      <c r="R413" s="1"/>
+      <c r="U413" s="1"/>
       <c r="W413" s="1"/>
     </row>
     <row r="414" spans="1:23">
@@ -12027,8 +12090,8 @@
       <c r="O414" s="1"/>
       <c r="P414" s="1"/>
       <c r="Q414" s="1"/>
-      <c r="T414" s="1"/>
-      <c r="V414" s="1"/>
+      <c r="R414" s="1"/>
+      <c r="U414" s="1"/>
       <c r="W414" s="1"/>
     </row>
     <row r="415" spans="1:23">
@@ -12048,8 +12111,8 @@
       <c r="O415" s="1"/>
       <c r="P415" s="1"/>
       <c r="Q415" s="1"/>
-      <c r="T415" s="1"/>
-      <c r="V415" s="1"/>
+      <c r="R415" s="1"/>
+      <c r="U415" s="1"/>
       <c r="W415" s="1"/>
     </row>
     <row r="416" spans="1:23">
@@ -12069,8 +12132,8 @@
       <c r="O416" s="1"/>
       <c r="P416" s="1"/>
       <c r="Q416" s="1"/>
-      <c r="T416" s="1"/>
-      <c r="V416" s="1"/>
+      <c r="R416" s="1"/>
+      <c r="U416" s="1"/>
       <c r="W416" s="1"/>
     </row>
     <row r="417" spans="1:23">
@@ -12090,8 +12153,8 @@
       <c r="O417" s="1"/>
       <c r="P417" s="1"/>
       <c r="Q417" s="1"/>
-      <c r="T417" s="1"/>
-      <c r="V417" s="1"/>
+      <c r="R417" s="1"/>
+      <c r="U417" s="1"/>
       <c r="W417" s="1"/>
     </row>
     <row r="418" spans="1:23">
@@ -12111,8 +12174,8 @@
       <c r="O418" s="1"/>
       <c r="P418" s="1"/>
       <c r="Q418" s="1"/>
-      <c r="T418" s="1"/>
-      <c r="V418" s="1"/>
+      <c r="R418" s="1"/>
+      <c r="U418" s="1"/>
       <c r="W418" s="1"/>
     </row>
     <row r="419" spans="1:23">
@@ -12132,8 +12195,8 @@
       <c r="O419" s="1"/>
       <c r="P419" s="1"/>
       <c r="Q419" s="1"/>
-      <c r="T419" s="1"/>
-      <c r="V419" s="1"/>
+      <c r="R419" s="1"/>
+      <c r="U419" s="1"/>
       <c r="W419" s="1"/>
     </row>
     <row r="420" spans="1:23">
@@ -12153,8 +12216,8 @@
       <c r="O420" s="1"/>
       <c r="P420" s="1"/>
       <c r="Q420" s="1"/>
-      <c r="T420" s="1"/>
-      <c r="V420" s="1"/>
+      <c r="R420" s="1"/>
+      <c r="U420" s="1"/>
       <c r="W420" s="1"/>
     </row>
     <row r="421" spans="1:23">
@@ -12174,8 +12237,8 @@
       <c r="O421" s="1"/>
       <c r="P421" s="1"/>
       <c r="Q421" s="1"/>
-      <c r="T421" s="1"/>
-      <c r="V421" s="1"/>
+      <c r="R421" s="1"/>
+      <c r="U421" s="1"/>
       <c r="W421" s="1"/>
     </row>
     <row r="422" spans="1:23">
@@ -12195,8 +12258,8 @@
       <c r="O422" s="1"/>
       <c r="P422" s="1"/>
       <c r="Q422" s="1"/>
-      <c r="T422" s="1"/>
-      <c r="V422" s="1"/>
+      <c r="R422" s="1"/>
+      <c r="U422" s="1"/>
       <c r="W422" s="1"/>
     </row>
     <row r="423" spans="1:23">
@@ -12216,8 +12279,8 @@
       <c r="O423" s="1"/>
       <c r="P423" s="1"/>
       <c r="Q423" s="1"/>
-      <c r="T423" s="1"/>
-      <c r="V423" s="1"/>
+      <c r="R423" s="1"/>
+      <c r="U423" s="1"/>
       <c r="W423" s="1"/>
     </row>
     <row r="424" spans="1:23">
@@ -12237,8 +12300,8 @@
       <c r="O424" s="1"/>
       <c r="P424" s="1"/>
       <c r="Q424" s="1"/>
-      <c r="T424" s="1"/>
-      <c r="V424" s="1"/>
+      <c r="R424" s="1"/>
+      <c r="U424" s="1"/>
       <c r="W424" s="1"/>
     </row>
     <row r="425" spans="1:23">
@@ -12258,8 +12321,8 @@
       <c r="O425" s="1"/>
       <c r="P425" s="1"/>
       <c r="Q425" s="1"/>
-      <c r="T425" s="1"/>
-      <c r="V425" s="1"/>
+      <c r="R425" s="1"/>
+      <c r="U425" s="1"/>
       <c r="W425" s="1"/>
     </row>
     <row r="426" spans="1:23">
@@ -12279,8 +12342,8 @@
       <c r="O426" s="1"/>
       <c r="P426" s="1"/>
       <c r="Q426" s="1"/>
-      <c r="T426" s="1"/>
-      <c r="V426" s="1"/>
+      <c r="R426" s="1"/>
+      <c r="U426" s="1"/>
       <c r="W426" s="1"/>
     </row>
     <row r="427" spans="1:23">
@@ -12300,8 +12363,8 @@
       <c r="O427" s="1"/>
       <c r="P427" s="1"/>
       <c r="Q427" s="1"/>
-      <c r="T427" s="1"/>
-      <c r="V427" s="1"/>
+      <c r="R427" s="1"/>
+      <c r="U427" s="1"/>
       <c r="W427" s="1"/>
     </row>
     <row r="428" spans="1:23">
@@ -12321,8 +12384,8 @@
       <c r="O428" s="1"/>
       <c r="P428" s="1"/>
       <c r="Q428" s="1"/>
-      <c r="T428" s="1"/>
-      <c r="V428" s="1"/>
+      <c r="R428" s="1"/>
+      <c r="U428" s="1"/>
       <c r="W428" s="1"/>
     </row>
     <row r="429" spans="1:23">
@@ -12342,8 +12405,8 @@
       <c r="O429" s="1"/>
       <c r="P429" s="1"/>
       <c r="Q429" s="1"/>
-      <c r="T429" s="1"/>
-      <c r="V429" s="1"/>
+      <c r="R429" s="1"/>
+      <c r="U429" s="1"/>
       <c r="W429" s="1"/>
     </row>
     <row r="430" spans="1:23">
@@ -12363,8 +12426,8 @@
       <c r="O430" s="1"/>
       <c r="P430" s="1"/>
       <c r="Q430" s="1"/>
-      <c r="T430" s="1"/>
-      <c r="V430" s="1"/>
+      <c r="R430" s="1"/>
+      <c r="U430" s="1"/>
       <c r="W430" s="1"/>
     </row>
     <row r="431" spans="1:23">
@@ -12384,8 +12447,8 @@
       <c r="O431" s="1"/>
       <c r="P431" s="1"/>
       <c r="Q431" s="1"/>
-      <c r="T431" s="1"/>
-      <c r="V431" s="1"/>
+      <c r="R431" s="1"/>
+      <c r="U431" s="1"/>
       <c r="W431" s="1"/>
     </row>
     <row r="432" spans="1:23">
@@ -12405,8 +12468,8 @@
       <c r="O432" s="1"/>
       <c r="P432" s="1"/>
       <c r="Q432" s="1"/>
-      <c r="T432" s="1"/>
-      <c r="V432" s="1"/>
+      <c r="R432" s="1"/>
+      <c r="U432" s="1"/>
       <c r="W432" s="1"/>
     </row>
     <row r="433" spans="1:23">
@@ -12426,8 +12489,8 @@
       <c r="O433" s="1"/>
       <c r="P433" s="1"/>
       <c r="Q433" s="1"/>
-      <c r="T433" s="1"/>
-      <c r="V433" s="1"/>
+      <c r="R433" s="1"/>
+      <c r="U433" s="1"/>
       <c r="W433" s="1"/>
     </row>
     <row r="434" spans="1:23">
@@ -12447,8 +12510,8 @@
       <c r="O434" s="1"/>
       <c r="P434" s="1"/>
       <c r="Q434" s="1"/>
-      <c r="T434" s="1"/>
-      <c r="V434" s="1"/>
+      <c r="R434" s="1"/>
+      <c r="U434" s="1"/>
       <c r="W434" s="1"/>
     </row>
     <row r="435" spans="1:23">
@@ -12468,8 +12531,8 @@
       <c r="O435" s="1"/>
       <c r="P435" s="1"/>
       <c r="Q435" s="1"/>
-      <c r="T435" s="1"/>
-      <c r="V435" s="1"/>
+      <c r="R435" s="1"/>
+      <c r="U435" s="1"/>
       <c r="W435" s="1"/>
     </row>
     <row r="436" spans="1:23">
@@ -12489,8 +12552,8 @@
       <c r="O436" s="1"/>
       <c r="P436" s="1"/>
       <c r="Q436" s="1"/>
-      <c r="T436" s="1"/>
-      <c r="V436" s="1"/>
+      <c r="R436" s="1"/>
+      <c r="U436" s="1"/>
       <c r="W436" s="1"/>
     </row>
     <row r="437" spans="1:23">
@@ -12510,8 +12573,8 @@
       <c r="O437" s="1"/>
       <c r="P437" s="1"/>
       <c r="Q437" s="1"/>
-      <c r="T437" s="1"/>
-      <c r="V437" s="1"/>
+      <c r="R437" s="1"/>
+      <c r="U437" s="1"/>
       <c r="W437" s="1"/>
     </row>
     <row r="438" spans="1:23">
@@ -12531,8 +12594,8 @@
       <c r="O438" s="1"/>
       <c r="P438" s="1"/>
       <c r="Q438" s="1"/>
-      <c r="T438" s="1"/>
-      <c r="V438" s="1"/>
+      <c r="R438" s="1"/>
+      <c r="U438" s="1"/>
       <c r="W438" s="1"/>
     </row>
     <row r="439" spans="1:23">
@@ -12552,8 +12615,8 @@
       <c r="O439" s="1"/>
       <c r="P439" s="1"/>
       <c r="Q439" s="1"/>
-      <c r="T439" s="1"/>
-      <c r="V439" s="1"/>
+      <c r="R439" s="1"/>
+      <c r="U439" s="1"/>
       <c r="W439" s="1"/>
     </row>
     <row r="440" spans="1:23">
@@ -12573,8 +12636,8 @@
       <c r="O440" s="1"/>
       <c r="P440" s="1"/>
       <c r="Q440" s="1"/>
-      <c r="T440" s="1"/>
-      <c r="V440" s="1"/>
+      <c r="R440" s="1"/>
+      <c r="U440" s="1"/>
       <c r="W440" s="1"/>
     </row>
     <row r="441" spans="1:23">
@@ -12594,8 +12657,8 @@
       <c r="O441" s="1"/>
       <c r="P441" s="1"/>
       <c r="Q441" s="1"/>
-      <c r="T441" s="1"/>
-      <c r="V441" s="1"/>
+      <c r="R441" s="1"/>
+      <c r="U441" s="1"/>
       <c r="W441" s="1"/>
     </row>
     <row r="442" spans="1:23">
@@ -12615,8 +12678,8 @@
       <c r="O442" s="1"/>
       <c r="P442" s="1"/>
       <c r="Q442" s="1"/>
-      <c r="T442" s="1"/>
-      <c r="V442" s="1"/>
+      <c r="R442" s="1"/>
+      <c r="U442" s="1"/>
       <c r="W442" s="1"/>
     </row>
     <row r="443" spans="1:23">
@@ -12636,8 +12699,8 @@
       <c r="O443" s="1"/>
       <c r="P443" s="1"/>
       <c r="Q443" s="1"/>
-      <c r="T443" s="1"/>
-      <c r="V443" s="1"/>
+      <c r="R443" s="1"/>
+      <c r="U443" s="1"/>
       <c r="W443" s="1"/>
     </row>
     <row r="444" spans="1:23">
@@ -12657,8 +12720,8 @@
       <c r="O444" s="1"/>
       <c r="P444" s="1"/>
       <c r="Q444" s="1"/>
-      <c r="T444" s="1"/>
-      <c r="V444" s="1"/>
+      <c r="R444" s="1"/>
+      <c r="U444" s="1"/>
       <c r="W444" s="1"/>
     </row>
     <row r="445" spans="1:23">
@@ -12678,8 +12741,8 @@
       <c r="O445" s="1"/>
       <c r="P445" s="1"/>
       <c r="Q445" s="1"/>
-      <c r="T445" s="1"/>
-      <c r="V445" s="1"/>
+      <c r="R445" s="1"/>
+      <c r="U445" s="1"/>
       <c r="W445" s="1"/>
     </row>
     <row r="446" spans="1:23">
@@ -12699,8 +12762,8 @@
       <c r="O446" s="1"/>
       <c r="P446" s="1"/>
       <c r="Q446" s="1"/>
-      <c r="T446" s="1"/>
-      <c r="V446" s="1"/>
+      <c r="R446" s="1"/>
+      <c r="U446" s="1"/>
       <c r="W446" s="1"/>
     </row>
     <row r="447" spans="1:23">
@@ -12720,8 +12783,8 @@
       <c r="O447" s="1"/>
       <c r="P447" s="1"/>
       <c r="Q447" s="1"/>
-      <c r="T447" s="1"/>
-      <c r="V447" s="1"/>
+      <c r="R447" s="1"/>
+      <c r="U447" s="1"/>
       <c r="W447" s="1"/>
     </row>
     <row r="448" spans="1:23">
@@ -12741,8 +12804,8 @@
       <c r="O448" s="1"/>
       <c r="P448" s="1"/>
       <c r="Q448" s="1"/>
-      <c r="T448" s="1"/>
-      <c r="V448" s="1"/>
+      <c r="R448" s="1"/>
+      <c r="U448" s="1"/>
       <c r="W448" s="1"/>
     </row>
     <row r="449" spans="1:23">
@@ -12762,8 +12825,8 @@
       <c r="O449" s="1"/>
       <c r="P449" s="1"/>
       <c r="Q449" s="1"/>
-      <c r="T449" s="1"/>
-      <c r="V449" s="1"/>
+      <c r="R449" s="1"/>
+      <c r="U449" s="1"/>
       <c r="W449" s="1"/>
     </row>
     <row r="450" spans="1:23">
@@ -12783,8 +12846,8 @@
       <c r="O450" s="1"/>
       <c r="P450" s="1"/>
       <c r="Q450" s="1"/>
-      <c r="T450" s="1"/>
-      <c r="V450" s="1"/>
+      <c r="R450" s="1"/>
+      <c r="U450" s="1"/>
       <c r="W450" s="1"/>
     </row>
     <row r="451" spans="1:23">
@@ -12804,8 +12867,8 @@
       <c r="O451" s="1"/>
       <c r="P451" s="1"/>
       <c r="Q451" s="1"/>
-      <c r="T451" s="1"/>
-      <c r="V451" s="1"/>
+      <c r="R451" s="1"/>
+      <c r="U451" s="1"/>
       <c r="W451" s="1"/>
     </row>
     <row r="452" spans="1:23">
@@ -12825,8 +12888,8 @@
       <c r="O452" s="1"/>
       <c r="P452" s="1"/>
       <c r="Q452" s="1"/>
-      <c r="T452" s="1"/>
-      <c r="V452" s="1"/>
+      <c r="R452" s="1"/>
+      <c r="U452" s="1"/>
       <c r="W452" s="1"/>
     </row>
     <row r="453" spans="1:23">
@@ -12846,8 +12909,8 @@
       <c r="O453" s="1"/>
       <c r="P453" s="1"/>
       <c r="Q453" s="1"/>
-      <c r="T453" s="1"/>
-      <c r="V453" s="1"/>
+      <c r="R453" s="1"/>
+      <c r="U453" s="1"/>
       <c r="W453" s="1"/>
     </row>
     <row r="454" spans="1:23">
@@ -12867,8 +12930,8 @@
       <c r="O454" s="1"/>
       <c r="P454" s="1"/>
       <c r="Q454" s="1"/>
-      <c r="T454" s="1"/>
-      <c r="V454" s="1"/>
+      <c r="R454" s="1"/>
+      <c r="U454" s="1"/>
       <c r="W454" s="1"/>
     </row>
     <row r="455" spans="1:23">
@@ -12888,8 +12951,8 @@
       <c r="O455" s="1"/>
       <c r="P455" s="1"/>
       <c r="Q455" s="1"/>
-      <c r="T455" s="1"/>
-      <c r="V455" s="1"/>
+      <c r="R455" s="1"/>
+      <c r="U455" s="1"/>
       <c r="W455" s="1"/>
     </row>
     <row r="456" spans="1:23">
@@ -12909,8 +12972,8 @@
       <c r="O456" s="1"/>
       <c r="P456" s="1"/>
       <c r="Q456" s="1"/>
-      <c r="T456" s="1"/>
-      <c r="V456" s="1"/>
+      <c r="R456" s="1"/>
+      <c r="U456" s="1"/>
       <c r="W456" s="1"/>
     </row>
     <row r="457" spans="1:23">
@@ -12930,8 +12993,8 @@
       <c r="O457" s="1"/>
       <c r="P457" s="1"/>
       <c r="Q457" s="1"/>
-      <c r="T457" s="1"/>
-      <c r="V457" s="1"/>
+      <c r="R457" s="1"/>
+      <c r="U457" s="1"/>
       <c r="W457" s="1"/>
     </row>
     <row r="458" spans="1:23">
@@ -12951,8 +13014,8 @@
       <c r="O458" s="1"/>
       <c r="P458" s="1"/>
       <c r="Q458" s="1"/>
-      <c r="T458" s="1"/>
-      <c r="V458" s="1"/>
+      <c r="R458" s="1"/>
+      <c r="U458" s="1"/>
       <c r="W458" s="1"/>
     </row>
     <row r="459" spans="1:23">
@@ -12972,8 +13035,8 @@
       <c r="O459" s="1"/>
       <c r="P459" s="1"/>
       <c r="Q459" s="1"/>
-      <c r="T459" s="1"/>
-      <c r="V459" s="1"/>
+      <c r="R459" s="1"/>
+      <c r="U459" s="1"/>
       <c r="W459" s="1"/>
     </row>
     <row r="460" spans="1:23">
@@ -12993,8 +13056,8 @@
       <c r="O460" s="1"/>
       <c r="P460" s="1"/>
       <c r="Q460" s="1"/>
-      <c r="T460" s="1"/>
-      <c r="V460" s="1"/>
+      <c r="R460" s="1"/>
+      <c r="U460" s="1"/>
       <c r="W460" s="1"/>
     </row>
     <row r="461" spans="1:23">
@@ -13014,8 +13077,8 @@
       <c r="O461" s="1"/>
       <c r="P461" s="1"/>
       <c r="Q461" s="1"/>
-      <c r="T461" s="1"/>
-      <c r="V461" s="1"/>
+      <c r="R461" s="1"/>
+      <c r="U461" s="1"/>
       <c r="W461" s="1"/>
     </row>
     <row r="462" spans="1:23">
@@ -13035,8 +13098,8 @@
       <c r="O462" s="1"/>
       <c r="P462" s="1"/>
       <c r="Q462" s="1"/>
-      <c r="T462" s="1"/>
-      <c r="V462" s="1"/>
+      <c r="R462" s="1"/>
+      <c r="U462" s="1"/>
       <c r="W462" s="1"/>
     </row>
     <row r="463" spans="1:23">
@@ -13056,8 +13119,8 @@
       <c r="O463" s="1"/>
       <c r="P463" s="1"/>
       <c r="Q463" s="1"/>
-      <c r="T463" s="1"/>
-      <c r="V463" s="1"/>
+      <c r="R463" s="1"/>
+      <c r="U463" s="1"/>
       <c r="W463" s="1"/>
     </row>
     <row r="464" spans="1:23">
@@ -13077,8 +13140,8 @@
       <c r="O464" s="1"/>
       <c r="P464" s="1"/>
       <c r="Q464" s="1"/>
-      <c r="T464" s="1"/>
-      <c r="V464" s="1"/>
+      <c r="R464" s="1"/>
+      <c r="U464" s="1"/>
       <c r="W464" s="1"/>
     </row>
     <row r="465" spans="1:23">
@@ -13098,8 +13161,8 @@
       <c r="O465" s="1"/>
       <c r="P465" s="1"/>
       <c r="Q465" s="1"/>
-      <c r="T465" s="1"/>
-      <c r="V465" s="1"/>
+      <c r="R465" s="1"/>
+      <c r="U465" s="1"/>
       <c r="W465" s="1"/>
     </row>
     <row r="466" spans="1:23">
@@ -13119,8 +13182,8 @@
       <c r="O466" s="1"/>
       <c r="P466" s="1"/>
       <c r="Q466" s="1"/>
-      <c r="T466" s="1"/>
-      <c r="V466" s="1"/>
+      <c r="R466" s="1"/>
+      <c r="U466" s="1"/>
       <c r="W466" s="1"/>
     </row>
     <row r="467" spans="1:23">
@@ -13140,8 +13203,8 @@
       <c r="O467" s="1"/>
       <c r="P467" s="1"/>
       <c r="Q467" s="1"/>
-      <c r="T467" s="1"/>
-      <c r="V467" s="1"/>
+      <c r="R467" s="1"/>
+      <c r="U467" s="1"/>
       <c r="W467" s="1"/>
     </row>
     <row r="468" spans="1:23">
@@ -13161,8 +13224,8 @@
       <c r="O468" s="1"/>
       <c r="P468" s="1"/>
       <c r="Q468" s="1"/>
-      <c r="T468" s="1"/>
-      <c r="V468" s="1"/>
+      <c r="R468" s="1"/>
+      <c r="U468" s="1"/>
       <c r="W468" s="1"/>
     </row>
     <row r="469" spans="1:23">
@@ -13182,8 +13245,8 @@
       <c r="O469" s="1"/>
       <c r="P469" s="1"/>
       <c r="Q469" s="1"/>
-      <c r="T469" s="1"/>
-      <c r="V469" s="1"/>
+      <c r="R469" s="1"/>
+      <c r="U469" s="1"/>
       <c r="W469" s="1"/>
     </row>
     <row r="470" spans="1:23">
@@ -13203,8 +13266,8 @@
       <c r="O470" s="1"/>
       <c r="P470" s="1"/>
       <c r="Q470" s="1"/>
-      <c r="T470" s="1"/>
-      <c r="V470" s="1"/>
+      <c r="R470" s="1"/>
+      <c r="U470" s="1"/>
       <c r="W470" s="1"/>
     </row>
     <row r="471" spans="1:23">
@@ -13224,8 +13287,8 @@
       <c r="O471" s="1"/>
       <c r="P471" s="1"/>
       <c r="Q471" s="1"/>
-      <c r="T471" s="1"/>
-      <c r="V471" s="1"/>
+      <c r="R471" s="1"/>
+      <c r="U471" s="1"/>
       <c r="W471" s="1"/>
     </row>
     <row r="472" spans="1:23">
@@ -13245,8 +13308,8 @@
       <c r="O472" s="1"/>
       <c r="P472" s="1"/>
       <c r="Q472" s="1"/>
-      <c r="T472" s="1"/>
-      <c r="V472" s="1"/>
+      <c r="R472" s="1"/>
+      <c r="U472" s="1"/>
       <c r="W472" s="1"/>
     </row>
     <row r="473" spans="1:23">
@@ -13266,8 +13329,8 @@
       <c r="O473" s="1"/>
       <c r="P473" s="1"/>
       <c r="Q473" s="1"/>
-      <c r="T473" s="1"/>
-      <c r="V473" s="1"/>
+      <c r="R473" s="1"/>
+      <c r="U473" s="1"/>
       <c r="W473" s="1"/>
     </row>
     <row r="474" spans="1:23">
@@ -13287,8 +13350,8 @@
       <c r="O474" s="1"/>
       <c r="P474" s="1"/>
       <c r="Q474" s="1"/>
-      <c r="T474" s="1"/>
-      <c r="V474" s="1"/>
+      <c r="R474" s="1"/>
+      <c r="U474" s="1"/>
       <c r="W474" s="1"/>
     </row>
     <row r="475" spans="1:23">
@@ -13308,8 +13371,8 @@
       <c r="O475" s="1"/>
       <c r="P475" s="1"/>
       <c r="Q475" s="1"/>
-      <c r="T475" s="1"/>
-      <c r="V475" s="1"/>
+      <c r="R475" s="1"/>
+      <c r="U475" s="1"/>
       <c r="W475" s="1"/>
     </row>
     <row r="476" spans="1:23">
@@ -13329,8 +13392,8 @@
       <c r="O476" s="1"/>
       <c r="P476" s="1"/>
       <c r="Q476" s="1"/>
-      <c r="T476" s="1"/>
-      <c r="V476" s="1"/>
+      <c r="R476" s="1"/>
+      <c r="U476" s="1"/>
       <c r="W476" s="1"/>
     </row>
     <row r="477" spans="1:23">
@@ -13350,8 +13413,8 @@
       <c r="O477" s="1"/>
       <c r="P477" s="1"/>
       <c r="Q477" s="1"/>
-      <c r="T477" s="1"/>
-      <c r="V477" s="1"/>
+      <c r="R477" s="1"/>
+      <c r="U477" s="1"/>
       <c r="W477" s="1"/>
     </row>
     <row r="478" spans="1:23">
@@ -13371,8 +13434,8 @@
       <c r="O478" s="1"/>
       <c r="P478" s="1"/>
       <c r="Q478" s="1"/>
-      <c r="T478" s="1"/>
-      <c r="V478" s="1"/>
+      <c r="R478" s="1"/>
+      <c r="U478" s="1"/>
       <c r="W478" s="1"/>
     </row>
     <row r="479" spans="1:23">
@@ -13392,8 +13455,8 @@
       <c r="O479" s="1"/>
       <c r="P479" s="1"/>
       <c r="Q479" s="1"/>
-      <c r="T479" s="1"/>
-      <c r="V479" s="1"/>
+      <c r="R479" s="1"/>
+      <c r="U479" s="1"/>
       <c r="W479" s="1"/>
     </row>
     <row r="480" spans="1:23">
@@ -13413,8 +13476,8 @@
       <c r="O480" s="1"/>
       <c r="P480" s="1"/>
       <c r="Q480" s="1"/>
-      <c r="T480" s="1"/>
-      <c r="V480" s="1"/>
+      <c r="R480" s="1"/>
+      <c r="U480" s="1"/>
       <c r="W480" s="1"/>
     </row>
     <row r="481" spans="1:23">
@@ -13434,8 +13497,8 @@
       <c r="O481" s="1"/>
       <c r="P481" s="1"/>
       <c r="Q481" s="1"/>
-      <c r="T481" s="1"/>
-      <c r="V481" s="1"/>
+      <c r="R481" s="1"/>
+      <c r="U481" s="1"/>
       <c r="W481" s="1"/>
     </row>
     <row r="482" spans="1:23">
@@ -13455,8 +13518,8 @@
       <c r="O482" s="1"/>
       <c r="P482" s="1"/>
       <c r="Q482" s="1"/>
-      <c r="T482" s="1"/>
-      <c r="V482" s="1"/>
+      <c r="R482" s="1"/>
+      <c r="U482" s="1"/>
       <c r="W482" s="1"/>
     </row>
     <row r="483" spans="1:23">
@@ -13476,8 +13539,8 @@
       <c r="O483" s="1"/>
       <c r="P483" s="1"/>
       <c r="Q483" s="1"/>
-      <c r="T483" s="1"/>
-      <c r="V483" s="1"/>
+      <c r="R483" s="1"/>
+      <c r="U483" s="1"/>
       <c r="W483" s="1"/>
     </row>
     <row r="484" spans="1:23">
@@ -13497,8 +13560,8 @@
       <c r="O484" s="1"/>
       <c r="P484" s="1"/>
       <c r="Q484" s="1"/>
-      <c r="T484" s="1"/>
-      <c r="V484" s="1"/>
+      <c r="R484" s="1"/>
+      <c r="U484" s="1"/>
       <c r="W484" s="1"/>
     </row>
     <row r="485" spans="1:23">
@@ -13518,8 +13581,8 @@
       <c r="O485" s="1"/>
       <c r="P485" s="1"/>
       <c r="Q485" s="1"/>
-      <c r="T485" s="1"/>
-      <c r="V485" s="1"/>
+      <c r="R485" s="1"/>
+      <c r="U485" s="1"/>
       <c r="W485" s="1"/>
     </row>
     <row r="486" spans="1:23">
@@ -13539,8 +13602,8 @@
       <c r="O486" s="1"/>
       <c r="P486" s="1"/>
       <c r="Q486" s="1"/>
-      <c r="T486" s="1"/>
-      <c r="V486" s="1"/>
+      <c r="R486" s="1"/>
+      <c r="U486" s="1"/>
       <c r="W486" s="1"/>
     </row>
     <row r="487" spans="1:23">
@@ -13560,8 +13623,8 @@
       <c r="O487" s="1"/>
       <c r="P487" s="1"/>
       <c r="Q487" s="1"/>
-      <c r="T487" s="1"/>
-      <c r="V487" s="1"/>
+      <c r="R487" s="1"/>
+      <c r="U487" s="1"/>
       <c r="W487" s="1"/>
     </row>
     <row r="488" spans="1:23">
@@ -13581,8 +13644,8 @@
       <c r="O488" s="1"/>
       <c r="P488" s="1"/>
       <c r="Q488" s="1"/>
-      <c r="T488" s="1"/>
-      <c r="V488" s="1"/>
+      <c r="R488" s="1"/>
+      <c r="U488" s="1"/>
       <c r="W488" s="1"/>
     </row>
     <row r="489" spans="1:23">
@@ -13602,8 +13665,8 @@
       <c r="O489" s="1"/>
       <c r="P489" s="1"/>
       <c r="Q489" s="1"/>
-      <c r="T489" s="1"/>
-      <c r="V489" s="1"/>
+      <c r="R489" s="1"/>
+      <c r="U489" s="1"/>
       <c r="W489" s="1"/>
     </row>
     <row r="490" spans="1:23">
@@ -13623,8 +13686,8 @@
       <c r="O490" s="1"/>
       <c r="P490" s="1"/>
       <c r="Q490" s="1"/>
-      <c r="T490" s="1"/>
-      <c r="V490" s="1"/>
+      <c r="R490" s="1"/>
+      <c r="U490" s="1"/>
       <c r="W490" s="1"/>
     </row>
     <row r="491" spans="1:23">
@@ -13644,8 +13707,8 @@
       <c r="O491" s="1"/>
       <c r="P491" s="1"/>
       <c r="Q491" s="1"/>
-      <c r="T491" s="1"/>
-      <c r="V491" s="1"/>
+      <c r="R491" s="1"/>
+      <c r="U491" s="1"/>
       <c r="W491" s="1"/>
     </row>
     <row r="492" spans="1:23">
@@ -13665,8 +13728,8 @@
       <c r="O492" s="1"/>
       <c r="P492" s="1"/>
       <c r="Q492" s="1"/>
-      <c r="T492" s="1"/>
-      <c r="V492" s="1"/>
+      <c r="R492" s="1"/>
+      <c r="U492" s="1"/>
       <c r="W492" s="1"/>
     </row>
     <row r="493" spans="1:23">
@@ -13686,8 +13749,8 @@
       <c r="O493" s="1"/>
       <c r="P493" s="1"/>
       <c r="Q493" s="1"/>
-      <c r="T493" s="1"/>
-      <c r="V493" s="1"/>
+      <c r="R493" s="1"/>
+      <c r="U493" s="1"/>
       <c r="W493" s="1"/>
     </row>
     <row r="494" spans="1:23">
@@ -13707,8 +13770,8 @@
       <c r="O494" s="1"/>
       <c r="P494" s="1"/>
       <c r="Q494" s="1"/>
-      <c r="T494" s="1"/>
-      <c r="V494" s="1"/>
+      <c r="R494" s="1"/>
+      <c r="U494" s="1"/>
       <c r="W494" s="1"/>
     </row>
     <row r="495" spans="1:23">
@@ -13728,8 +13791,8 @@
       <c r="O495" s="1"/>
       <c r="P495" s="1"/>
       <c r="Q495" s="1"/>
-      <c r="T495" s="1"/>
-      <c r="V495" s="1"/>
+      <c r="R495" s="1"/>
+      <c r="U495" s="1"/>
       <c r="W495" s="1"/>
     </row>
     <row r="496" spans="1:23">
@@ -13749,8 +13812,8 @@
       <c r="O496" s="1"/>
       <c r="P496" s="1"/>
       <c r="Q496" s="1"/>
-      <c r="T496" s="1"/>
-      <c r="V496" s="1"/>
+      <c r="R496" s="1"/>
+      <c r="U496" s="1"/>
       <c r="W496" s="1"/>
     </row>
     <row r="497" spans="1:23">
@@ -13770,8 +13833,8 @@
       <c r="O497" s="1"/>
       <c r="P497" s="1"/>
       <c r="Q497" s="1"/>
-      <c r="T497" s="1"/>
-      <c r="V497" s="1"/>
+      <c r="R497" s="1"/>
+      <c r="U497" s="1"/>
       <c r="W497" s="1"/>
     </row>
     <row r="498" spans="1:23">
@@ -13791,8 +13854,8 @@
       <c r="O498" s="1"/>
       <c r="P498" s="1"/>
       <c r="Q498" s="1"/>
-      <c r="T498" s="1"/>
-      <c r="V498" s="1"/>
+      <c r="R498" s="1"/>
+      <c r="U498" s="1"/>
       <c r="W498" s="1"/>
     </row>
     <row r="499" spans="1:23">
@@ -13812,8 +13875,8 @@
       <c r="O499" s="1"/>
       <c r="P499" s="1"/>
       <c r="Q499" s="1"/>
-      <c r="T499" s="1"/>
-      <c r="V499" s="1"/>
+      <c r="R499" s="1"/>
+      <c r="U499" s="1"/>
       <c r="W499" s="1"/>
     </row>
     <row r="500" spans="1:23">
@@ -13833,16 +13896,16 @@
       <c r="O500" s="1"/>
       <c r="P500" s="1"/>
       <c r="Q500" s="1"/>
-      <c r="T500" s="1"/>
-      <c r="V500" s="1"/>
+      <c r="R500" s="1"/>
+      <c r="U500" s="1"/>
       <c r="W500" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:R1"/>
-    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="T1:W1"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
@@ -2973,7 +2973,7 @@
   <dimension ref="A1:W500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>日期</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>止损线状态</t>
-  </si>
-  <si>
-    <t>是否向预期相反方向发展指标</t>
   </si>
   <si>
     <t>强势卖出指标</t>
@@ -52,15 +49,6 @@
     <t>上涨天数</t>
   </si>
   <si>
-    <t>当前止损线</t>
-  </si>
-  <si>
-    <t>预期止损线</t>
-  </si>
-  <si>
-    <t>预期移动止损线股价</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">单日涨幅
 </t>
@@ -73,6 +61,15 @@
       </rPr>
       <t>(止损时，该值创新低是要引起注意；止盈时，该值创新高是要引起注意)</t>
     </r>
+  </si>
+  <si>
+    <t>当前止损线</t>
+  </si>
+  <si>
+    <t>预期止损线</t>
+  </si>
+  <si>
+    <t>预期移动止损线股价</t>
   </si>
   <si>
     <r>
@@ -949,7 +946,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -977,10 +974,13 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2973,11 +2973,11 @@
   <dimension ref="A1:W500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L$1:L$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2989,9 +2989,10 @@
     <col min="5" max="5" width="9.96428571428571" customWidth="1"/>
     <col min="6" max="6" width="10.4107142857143" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.96428571428571" customWidth="1"/>
-    <col min="8" max="8" width="13.5357142857143" customWidth="1"/>
-    <col min="9" max="9" width="13.3839285714286" customWidth="1"/>
-    <col min="10" max="11" width="20.3839285714286" customWidth="1"/>
+    <col min="8" max="8" width="20.3839285714286" customWidth="1"/>
+    <col min="9" max="9" width="13.5357142857143" customWidth="1"/>
+    <col min="10" max="10" width="13.3839285714286" customWidth="1"/>
+    <col min="11" max="11" width="20.3839285714286" customWidth="1"/>
     <col min="12" max="12" width="30.0625" customWidth="1"/>
     <col min="13" max="13" width="40.4732142857143" customWidth="1"/>
     <col min="14" max="14" width="25.4464285714286" customWidth="1"/>
@@ -3018,96 +3019,94 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="11" t="s">
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
     </row>
     <row r="2" ht="56" customHeight="1" spans="1:23">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="L2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="M2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="O2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="P2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="Q2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="R2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="S2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="T2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="19" t="s">
+      <c r="U2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="19" t="s">
+      <c r="V2" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="19" t="s">
+      <c r="W2" s="20" t="s">
         <v>25</v>
-      </c>
-      <c r="W2" s="19" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -3128,43 +3127,43 @@
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="6">
+      <c r="H3" s="6"/>
+      <c r="I3" s="6">
         <v>24.68</v>
       </c>
-      <c r="I3" s="6">
-        <f>H3/(1-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10001,43,FALSE))</f>
+      <c r="J3" s="6">
+        <f>I3/(1-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10001,43,FALSE))</f>
         <v>26.2</v>
       </c>
-      <c r="J3" s="6">
-        <f>I3+I3*VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL1000,43,FALSE)*2</f>
+      <c r="K3" s="6">
+        <f>J3+J3*VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL1000,43,FALSE)*2</f>
         <v>29.24</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="14" t="s">
-        <v>27</v>
+      <c r="L3" s="15" t="s">
+        <v>26</v>
       </c>
-      <c r="M3" s="14" t="s">
-        <v>27</v>
+      <c r="M3" s="15" t="s">
+        <v>26</v>
       </c>
-      <c r="N3" s="14" t="s">
-        <v>27</v>
+      <c r="N3" s="15" t="s">
+        <v>26</v>
       </c>
-      <c r="O3" s="14" t="s">
-        <v>27</v>
+      <c r="O3" s="15" t="s">
+        <v>26</v>
       </c>
-      <c r="P3" s="14" t="str">
+      <c r="P3" s="15" t="str">
         <f t="shared" ref="P3:P6" si="0">IF(C3&gt;(E3-(E3-D3)/3),"上部",IF(C3&gt;(F3+(E3-D3)/3),"中部","下部"))</f>
         <v>中部</v>
       </c>
-      <c r="Q3" s="14" t="s">
-        <v>27</v>
+      <c r="Q3" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="R3" s="10"/>
       <c r="S3" s="8"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="25"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="7">
@@ -3184,43 +3183,43 @@
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="10"/>
-      <c r="H4" s="6">
+      <c r="H4" s="6"/>
+      <c r="I4" s="6">
         <v>24.68</v>
       </c>
-      <c r="I4" s="6">
-        <f>H4/(1-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10002,43,FALSE))</f>
+      <c r="J4" s="6">
+        <f>I4/(1-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10002,43,FALSE))</f>
         <v>26.2</v>
       </c>
-      <c r="J4" s="6">
-        <f>I4+I4*VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL1001,43,FALSE)*2</f>
+      <c r="K4" s="6">
+        <f>J4+J4*VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL1001,43,FALSE)*2</f>
         <v>29.24</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="14" t="s">
-        <v>27</v>
+      <c r="L4" s="15" t="s">
+        <v>26</v>
       </c>
-      <c r="M4" s="14" t="s">
-        <v>27</v>
+      <c r="M4" s="15" t="s">
+        <v>26</v>
       </c>
-      <c r="N4" s="14" t="s">
-        <v>27</v>
+      <c r="N4" s="15" t="s">
+        <v>26</v>
       </c>
-      <c r="O4" s="14" t="s">
-        <v>27</v>
+      <c r="O4" s="15" t="s">
+        <v>26</v>
       </c>
-      <c r="P4" s="15" t="str">
+      <c r="P4" s="16" t="str">
         <f t="shared" si="0"/>
         <v>上部</v>
       </c>
-      <c r="Q4" s="14" t="s">
-        <v>27</v>
+      <c r="Q4" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="R4" s="10"/>
       <c r="S4" s="8"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="25"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="26"/>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="7">
@@ -3240,43 +3239,43 @@
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="10"/>
-      <c r="H5" s="6">
+      <c r="H5" s="6"/>
+      <c r="I5" s="6">
         <v>24.68</v>
       </c>
-      <c r="I5" s="6">
-        <f>H5/(1-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10003,43,FALSE))</f>
+      <c r="J5" s="6">
+        <f>I5/(1-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10003,43,FALSE))</f>
         <v>26.2</v>
       </c>
-      <c r="J5" s="6">
-        <f>I5+I5*VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL1002,43,FALSE)*2</f>
+      <c r="K5" s="6">
+        <f>J5+J5*VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL1002,43,FALSE)*2</f>
         <v>29.24</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="14" t="s">
-        <v>27</v>
+      <c r="L5" s="15" t="s">
+        <v>26</v>
       </c>
-      <c r="M5" s="14" t="s">
-        <v>27</v>
+      <c r="M5" s="15" t="s">
+        <v>26</v>
       </c>
-      <c r="N5" s="14" t="s">
-        <v>27</v>
+      <c r="N5" s="15" t="s">
+        <v>26</v>
       </c>
-      <c r="O5" s="14" t="s">
-        <v>27</v>
+      <c r="O5" s="15" t="s">
+        <v>26</v>
       </c>
-      <c r="P5" s="16" t="str">
+      <c r="P5" s="17" t="str">
         <f t="shared" si="0"/>
         <v>上部</v>
       </c>
-      <c r="Q5" s="15" t="s">
-        <v>28</v>
+      <c r="Q5" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="R5" s="10"/>
       <c r="S5" s="8"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="25"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="26"/>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="7">
@@ -3296,43 +3295,43 @@
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="10"/>
-      <c r="H6" s="6">
+      <c r="H6" s="6"/>
+      <c r="I6" s="6">
         <v>24.68</v>
       </c>
-      <c r="I6" s="6">
-        <f>H6/(1-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10004,43,FALSE))</f>
+      <c r="J6" s="6">
+        <f>I6/(1-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10004,43,FALSE))</f>
         <v>26.2</v>
       </c>
-      <c r="J6" s="6">
-        <f>I6+I6*VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL1003,43,FALSE)*2</f>
+      <c r="K6" s="6">
+        <f>J6+J6*VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL1003,43,FALSE)*2</f>
         <v>29.24</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="14" t="s">
-        <v>27</v>
+      <c r="L6" s="15" t="s">
+        <v>26</v>
       </c>
-      <c r="M6" s="14" t="s">
-        <v>27</v>
+      <c r="M6" s="15" t="s">
+        <v>26</v>
       </c>
-      <c r="N6" s="14" t="s">
-        <v>27</v>
+      <c r="N6" s="15" t="s">
+        <v>26</v>
       </c>
-      <c r="O6" s="14" t="s">
-        <v>27</v>
+      <c r="O6" s="15" t="s">
+        <v>26</v>
       </c>
-      <c r="P6" s="16" t="str">
+      <c r="P6" s="17" t="str">
         <f t="shared" si="0"/>
         <v>中部</v>
       </c>
-      <c r="Q6" s="14" t="s">
-        <v>27</v>
+      <c r="Q6" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="R6" s="10"/>
       <c r="S6" s="8"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="25"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="26"/>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="7">
@@ -3841,7 +3840,7 @@
       <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
       <c r="R25" s="10"/>
-      <c r="S25" s="22"/>
+      <c r="S25" s="23"/>
       <c r="T25" s="10"/>
       <c r="U25" s="10"/>
       <c r="V25" s="10"/>
@@ -3868,7 +3867,7 @@
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
       <c r="R26" s="10"/>
-      <c r="S26" s="22"/>
+      <c r="S26" s="23"/>
       <c r="T26" s="10"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
@@ -3895,7 +3894,7 @@
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
       <c r="R27" s="10"/>
-      <c r="S27" s="22"/>
+      <c r="S27" s="23"/>
       <c r="T27" s="10"/>
       <c r="U27" s="10"/>
       <c r="V27" s="10"/>
@@ -3922,7 +3921,7 @@
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
       <c r="R28" s="10"/>
-      <c r="S28" s="22"/>
+      <c r="S28" s="23"/>
       <c r="T28" s="10"/>
       <c r="U28" s="10"/>
       <c r="V28" s="10"/>
@@ -3949,7 +3948,7 @@
       <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
       <c r="R29" s="10"/>
-      <c r="S29" s="22"/>
+      <c r="S29" s="23"/>
       <c r="T29" s="10"/>
       <c r="U29" s="10"/>
       <c r="V29" s="10"/>
@@ -3976,7 +3975,7 @@
       <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
       <c r="R30" s="10"/>
-      <c r="S30" s="22"/>
+      <c r="S30" s="23"/>
       <c r="T30" s="10"/>
       <c r="U30" s="10"/>
       <c r="V30" s="10"/>
@@ -4003,7 +4002,7 @@
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
       <c r="R31" s="10"/>
-      <c r="S31" s="22"/>
+      <c r="S31" s="23"/>
       <c r="T31" s="10"/>
       <c r="U31" s="10"/>
       <c r="V31" s="10"/>
@@ -4030,7 +4029,7 @@
       <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
       <c r="R32" s="10"/>
-      <c r="S32" s="22"/>
+      <c r="S32" s="23"/>
       <c r="T32" s="10"/>
       <c r="U32" s="10"/>
       <c r="V32" s="10"/>
@@ -4057,7 +4056,7 @@
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
       <c r="R33" s="10"/>
-      <c r="S33" s="22"/>
+      <c r="S33" s="23"/>
       <c r="T33" s="10"/>
       <c r="U33" s="10"/>
       <c r="V33" s="10"/>
@@ -4084,7 +4083,7 @@
       <c r="P34" s="10"/>
       <c r="Q34" s="10"/>
       <c r="R34" s="10"/>
-      <c r="S34" s="22"/>
+      <c r="S34" s="23"/>
       <c r="T34" s="10"/>
       <c r="U34" s="10"/>
       <c r="V34" s="10"/>
@@ -4111,7 +4110,7 @@
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
       <c r="R35" s="10"/>
-      <c r="S35" s="22"/>
+      <c r="S35" s="23"/>
       <c r="T35" s="10"/>
       <c r="U35" s="10"/>
       <c r="V35" s="10"/>
@@ -4138,7 +4137,7 @@
       <c r="P36" s="10"/>
       <c r="Q36" s="10"/>
       <c r="R36" s="10"/>
-      <c r="S36" s="22"/>
+      <c r="S36" s="23"/>
       <c r="T36" s="10"/>
       <c r="U36" s="10"/>
       <c r="V36" s="10"/>
@@ -4165,7 +4164,7 @@
       <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
       <c r="R37" s="10"/>
-      <c r="S37" s="22"/>
+      <c r="S37" s="23"/>
       <c r="T37" s="10"/>
       <c r="U37" s="10"/>
       <c r="V37" s="10"/>
@@ -4192,7 +4191,7 @@
       <c r="P38" s="10"/>
       <c r="Q38" s="10"/>
       <c r="R38" s="10"/>
-      <c r="S38" s="22"/>
+      <c r="S38" s="23"/>
       <c r="T38" s="10"/>
       <c r="U38" s="10"/>
       <c r="V38" s="10"/>
@@ -13902,9 +13901,9 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:S1"/>
     <mergeCell ref="T1:W1"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>日期</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>止损线状态</t>
+  </si>
+  <si>
+    <t>是否向预期反向发展的指标</t>
   </si>
   <si>
     <t>强势卖出指标</t>
@@ -2973,11 +2976,11 @@
   <dimension ref="A1:W500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L$1:L$1048576"/>
+      <selection pane="bottomRight" activeCell="S3" sqref="S3:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3025,7 +3028,9 @@
       </c>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
-      <c r="L1" s="12"/>
+      <c r="L1" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
@@ -3034,7 +3039,7 @@
       <c r="R1" s="12"/>
       <c r="S1" s="12"/>
       <c r="T1" s="18" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U1" s="18"/>
       <c r="V1" s="18"/>
@@ -3043,70 +3048,70 @@
     <row r="2" ht="56" customHeight="1" spans="1:23">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R2" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S2" s="19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T2" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U2" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="V2" s="20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="W2" s="20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -3140,26 +3145,29 @@
         <v>29.24</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P3" s="15" t="str">
         <f t="shared" ref="P3:P6" si="0">IF(C3&gt;(E3-(E3-D3)/3),"上部",IF(C3&gt;(F3+(E3-D3)/3),"中部","下部"))</f>
         <v>中部</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R3" s="10"/>
-      <c r="S3" s="8"/>
+      <c r="S3" s="8">
+        <f>D3-E3</f>
+        <v>1.29</v>
+      </c>
       <c r="T3" s="21"/>
       <c r="U3" s="24"/>
       <c r="V3" s="25"/>
@@ -3196,26 +3204,29 @@
         <v>29.24</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P4" s="16" t="str">
         <f t="shared" si="0"/>
         <v>上部</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R4" s="10"/>
-      <c r="S4" s="8"/>
+      <c r="S4" s="8">
+        <f>D4-E4</f>
+        <v>1.2</v>
+      </c>
       <c r="T4" s="22"/>
       <c r="U4" s="24"/>
       <c r="V4" s="25"/>
@@ -3252,26 +3263,29 @@
         <v>29.24</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="17" t="str">
         <f t="shared" si="0"/>
         <v>上部</v>
       </c>
       <c r="Q5" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R5" s="10"/>
-      <c r="S5" s="8"/>
+      <c r="S5" s="8">
+        <f>D5-E5</f>
+        <v>0.870000000000001</v>
+      </c>
       <c r="T5" s="22"/>
       <c r="U5" s="24"/>
       <c r="V5" s="25"/>
@@ -3308,26 +3322,29 @@
         <v>29.24</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P6" s="17" t="str">
         <f t="shared" si="0"/>
         <v>中部</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R6" s="10"/>
-      <c r="S6" s="8"/>
+      <c r="S6" s="8">
+        <f>D6-E6</f>
+        <v>2.69</v>
+      </c>
       <c r="T6" s="22"/>
       <c r="U6" s="24"/>
       <c r="V6" s="25"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>日期</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>否</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>是</t>
@@ -2976,11 +2979,11 @@
   <dimension ref="A1:W500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S3" sqref="S3:S6"/>
+      <selection pane="bottomRight" activeCell="W3" sqref="W3:W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3114,7 +3117,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" ht="18" spans="1:23">
       <c r="A3" s="5">
         <v>44523</v>
       </c>
@@ -3130,8 +3133,12 @@
       <c r="E3" s="6">
         <v>25.21</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="10"/>
+      <c r="F3" s="8">
+        <v>150.59</v>
+      </c>
+      <c r="G3" s="10">
+        <v>1</v>
+      </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6">
         <v>24.68</v>
@@ -3158,7 +3165,7 @@
       </c>
       <c r="P3" s="15" t="str">
         <f t="shared" ref="P3:P6" si="0">IF(C3&gt;(E3-(E3-D3)/3),"上部",IF(C3&gt;(F3+(E3-D3)/3),"中部","下部"))</f>
-        <v>中部</v>
+        <v>下部</v>
       </c>
       <c r="Q3" s="15" t="s">
         <v>27</v>
@@ -3168,10 +3175,21 @@
         <f>D3-E3</f>
         <v>1.29</v>
       </c>
-      <c r="T3" s="21"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="26"/>
+      <c r="T3" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="24">
+        <f>F3/VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10001,45,FALSE)</f>
+        <v>0.998077942735949</v>
+      </c>
+      <c r="V3" s="25">
+        <f>(B3-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10001,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10001,48,FALSE)</f>
+        <v>0.00839694656488559</v>
+      </c>
+      <c r="W3" s="26">
+        <f>G3/(ROW()-2)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="7">
@@ -3189,8 +3207,12 @@
       <c r="E4" s="6">
         <v>25.76</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="10"/>
+      <c r="F4" s="8">
+        <v>155.11</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1</v>
+      </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6">
         <v>24.68</v>
@@ -3227,10 +3249,21 @@
         <f>D4-E4</f>
         <v>1.2</v>
       </c>
-      <c r="T4" s="22"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="26"/>
+      <c r="T4" s="22">
+        <v>1</v>
+      </c>
+      <c r="U4" s="24">
+        <f>F4/VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10002,45,FALSE)</f>
+        <v>1.02803552492047</v>
+      </c>
+      <c r="V4" s="25">
+        <f>(B4-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10002,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10002,48,FALSE)</f>
+        <v>-0.016030534351145</v>
+      </c>
+      <c r="W4" s="26">
+        <f>G4/(ROW()-2)</f>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="7">
@@ -3248,8 +3281,12 @@
       <c r="E5" s="6">
         <v>24.88</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="10"/>
+      <c r="F5" s="8">
+        <v>151.35</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6">
         <v>24.68</v>
@@ -3279,17 +3316,28 @@
         <v>上部</v>
       </c>
       <c r="Q5" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R5" s="10"/>
       <c r="S5" s="8">
         <f>D5-E5</f>
         <v>0.870000000000001</v>
       </c>
-      <c r="T5" s="22"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="26"/>
+      <c r="T5" s="22">
+        <v>1</v>
+      </c>
+      <c r="U5" s="24">
+        <f>F5/VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10003,45,FALSE)</f>
+        <v>1.0031150583245</v>
+      </c>
+      <c r="V5" s="25">
+        <f>(B5-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10003,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10003,48,FALSE)</f>
+        <v>-0.048091603053435</v>
+      </c>
+      <c r="W5" s="26">
+        <f>G5/(ROW()-2)</f>
+        <v>0.333333333333333</v>
+      </c>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="7">
@@ -3307,8 +3355,12 @@
       <c r="E6" s="6">
         <v>24.74</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="10"/>
+      <c r="F6" s="8">
+        <v>146.42</v>
+      </c>
+      <c r="G6" s="10">
+        <v>2</v>
+      </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6">
         <v>24.68</v>
@@ -3335,7 +3387,7 @@
       </c>
       <c r="P6" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>中部</v>
+        <v>下部</v>
       </c>
       <c r="Q6" s="15" t="s">
         <v>27</v>
@@ -3345,10 +3397,21 @@
         <f>D6-E6</f>
         <v>2.69</v>
       </c>
-      <c r="T6" s="22"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="26"/>
+      <c r="T6" s="22">
+        <v>1</v>
+      </c>
+      <c r="U6" s="24">
+        <f>F6/VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10004,45,FALSE)</f>
+        <v>0.970440084835631</v>
+      </c>
+      <c r="V6" s="25">
+        <f>(B6-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE)</f>
+        <v>0.0469465648854962</v>
+      </c>
+      <c r="W6" s="26">
+        <f>G6/(ROW()-2)</f>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="7">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
@@ -2979,11 +2979,11 @@
   <dimension ref="A1:W500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W3" sqref="W3:W6"/>
+      <selection pane="bottomRight" activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
@@ -63,6 +63,34 @@
         <charset val="134"/>
       </rPr>
       <t>(止损时，该值创新低是要引起注意；止盈时，该值创新高是要引起注意)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">买入后总跌幅/涨幅
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(下跌超过3%考虑卖出；上涨超过25%考虑卖出)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">上涨/下跌天数
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(上涨大于65%考虑止盈；下跌大于65%考虑止损)</t>
     </r>
   </si>
   <si>
@@ -163,91 +191,6 @@
 (超过2倍要考虑卖出)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>目前涨幅</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超过</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>25%</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>要考虑卖出</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上涨天数是否大于65</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>%</t>
-    </r>
-  </si>
-  <si>
     <t>否</t>
   </si>
   <si>
@@ -269,7 +212,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -287,13 +230,6 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -449,15 +385,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -473,6 +402,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,152 +742,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -980,29 +915,32 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1010,13 +948,16 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1024,15 +965,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2979,11 +2911,11 @@
   <dimension ref="A1:W500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W2" sqref="W2"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2995,22 +2927,21 @@
     <col min="5" max="5" width="9.96428571428571" customWidth="1"/>
     <col min="6" max="6" width="10.4107142857143" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.96428571428571" customWidth="1"/>
-    <col min="8" max="8" width="20.3839285714286" customWidth="1"/>
-    <col min="9" max="9" width="13.5357142857143" customWidth="1"/>
-    <col min="10" max="10" width="13.3839285714286" customWidth="1"/>
-    <col min="11" max="11" width="20.3839285714286" customWidth="1"/>
-    <col min="12" max="12" width="30.0625" customWidth="1"/>
-    <col min="13" max="13" width="40.4732142857143" customWidth="1"/>
-    <col min="14" max="14" width="25.4464285714286" customWidth="1"/>
-    <col min="15" max="15" width="28.7142857142857" customWidth="1"/>
-    <col min="16" max="16" width="30.0625" customWidth="1"/>
-    <col min="17" max="17" width="21.875" customWidth="1"/>
-    <col min="18" max="18" width="20.6785714285714" customWidth="1"/>
-    <col min="19" max="19" width="39.5803571428571" customWidth="1"/>
-    <col min="20" max="20" width="20.5267857142857" style="1" customWidth="1"/>
-    <col min="21" max="21" width="18.4464285714286" customWidth="1"/>
-    <col min="22" max="22" width="22.3125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="18.3035714285714" customWidth="1"/>
+    <col min="8" max="9" width="20.3839285714286" customWidth="1"/>
+    <col min="10" max="10" width="24.9910714285714" customWidth="1"/>
+    <col min="11" max="11" width="13.5357142857143" customWidth="1"/>
+    <col min="12" max="12" width="13.3839285714286" customWidth="1"/>
+    <col min="13" max="13" width="20.3839285714286" customWidth="1"/>
+    <col min="14" max="14" width="30.0625" customWidth="1"/>
+    <col min="15" max="15" width="40.4732142857143" customWidth="1"/>
+    <col min="16" max="16" width="25.4464285714286" customWidth="1"/>
+    <col min="17" max="17" width="28.7142857142857" customWidth="1"/>
+    <col min="18" max="18" width="30.0625" customWidth="1"/>
+    <col min="19" max="19" width="21.875" customWidth="1"/>
+    <col min="20" max="20" width="20.6785714285714" customWidth="1"/>
+    <col min="21" max="21" width="39.5803571428571" customWidth="1"/>
+    <col min="22" max="22" width="20.5267857142857" style="1" customWidth="1"/>
+    <col min="23" max="23" width="18.4464285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -3026,27 +2957,27 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="18" t="s">
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
+      <c r="W1" s="20"/>
     </row>
     <row r="2" ht="56" customHeight="1" spans="1:23">
       <c r="A2" s="2"/>
@@ -3071,49 +3002,49 @@
       <c r="H2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="O2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="R2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="S2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="T2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="20" t="s">
+      <c r="U2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="20" t="s">
+      <c r="V2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="20" t="s">
+      <c r="W2" s="21" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3140,55 +3071,55 @@
         <v>1</v>
       </c>
       <c r="H3" s="6"/>
-      <c r="I3" s="6">
+      <c r="I3" s="11">
+        <f>(B3-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10001,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10001,48,FALSE)</f>
+        <v>0.00839694656488559</v>
+      </c>
+      <c r="J3" s="11">
+        <f>G3/(ROW()-2)</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="6">
         <v>24.68</v>
       </c>
-      <c r="J3" s="6">
-        <f>I3/(1-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10001,43,FALSE))</f>
+      <c r="L3" s="6">
+        <f>K3/(1-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10001,43,FALSE))</f>
         <v>26.2</v>
       </c>
-      <c r="K3" s="6">
-        <f>J3+J3*VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL1000,43,FALSE)*2</f>
+      <c r="M3" s="6">
+        <f>L3+L3*VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL1000,43,FALSE)*2</f>
         <v>29.24</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="N3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="O3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="P3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="Q3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="15" t="str">
-        <f t="shared" ref="P3:P6" si="0">IF(C3&gt;(E3-(E3-D3)/3),"上部",IF(C3&gt;(F3+(E3-D3)/3),"中部","下部"))</f>
+      <c r="R3" s="16" t="str">
+        <f t="shared" ref="R3:R6" si="0">IF(C3&gt;(E3-(E3-D3)/3),"上部",IF(C3&gt;(F3+(E3-D3)/3),"中部","下部"))</f>
         <v>下部</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="S3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="10"/>
-      <c r="S3" s="8">
+      <c r="T3" s="10"/>
+      <c r="U3" s="8">
         <f>D3-E3</f>
         <v>1.29</v>
       </c>
-      <c r="T3" s="21" t="s">
+      <c r="V3" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="U3" s="24">
+      <c r="W3" s="23">
         <f>F3/VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10001,45,FALSE)</f>
         <v>0.998077942735949</v>
-      </c>
-      <c r="V3" s="25">
-        <f>(B3-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10001,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10001,48,FALSE)</f>
-        <v>0.00839694656488559</v>
-      </c>
-      <c r="W3" s="26">
-        <f>G3/(ROW()-2)</f>
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -3213,56 +3144,59 @@
       <c r="G4" s="10">
         <v>1</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6">
+      <c r="H4" s="11">
+        <f>(B4-B3)/B3</f>
+        <v>-0.024224072672218</v>
+      </c>
+      <c r="I4" s="11">
+        <f>(B4-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10002,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10002,48,FALSE)</f>
+        <v>-0.016030534351145</v>
+      </c>
+      <c r="J4" s="11">
+        <f>G4/(ROW()-2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="6">
         <v>24.68</v>
       </c>
-      <c r="J4" s="6">
-        <f>I4/(1-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10002,43,FALSE))</f>
+      <c r="L4" s="6">
+        <f>K4/(1-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10002,43,FALSE))</f>
         <v>26.2</v>
       </c>
-      <c r="K4" s="6">
-        <f>J4+J4*VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL1001,43,FALSE)*2</f>
+      <c r="M4" s="6">
+        <f>L4+L4*VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL1001,43,FALSE)*2</f>
         <v>29.24</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="N4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="O4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="P4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="Q4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="16" t="str">
+      <c r="R4" s="18" t="str">
         <f t="shared" si="0"/>
         <v>上部</v>
       </c>
-      <c r="Q4" s="15" t="s">
+      <c r="S4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="10"/>
-      <c r="S4" s="8">
+      <c r="T4" s="10"/>
+      <c r="U4" s="8">
         <f>D4-E4</f>
         <v>1.2</v>
       </c>
-      <c r="T4" s="22">
+      <c r="V4" s="24">
         <v>1</v>
       </c>
-      <c r="U4" s="24">
+      <c r="W4" s="23">
         <f>F4/VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10002,45,FALSE)</f>
         <v>1.02803552492047</v>
-      </c>
-      <c r="V4" s="25">
-        <f>(B4-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10002,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10002,48,FALSE)</f>
-        <v>-0.016030534351145</v>
-      </c>
-      <c r="W4" s="26">
-        <f>G4/(ROW()-2)</f>
-        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -3287,56 +3221,59 @@
       <c r="G5" s="10">
         <v>1</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6">
+      <c r="H5" s="11">
+        <f>(B5-B4)/B4</f>
+        <v>-0.0325833979829325</v>
+      </c>
+      <c r="I5" s="11">
+        <f>(B5-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10003,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10003,48,FALSE)</f>
+        <v>-0.048091603053435</v>
+      </c>
+      <c r="J5" s="11">
+        <f>G5/(ROW()-2)</f>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="K5" s="6">
         <v>24.68</v>
       </c>
-      <c r="J5" s="6">
-        <f>I5/(1-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10003,43,FALSE))</f>
+      <c r="L5" s="6">
+        <f>K5/(1-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10003,43,FALSE))</f>
         <v>26.2</v>
       </c>
-      <c r="K5" s="6">
-        <f>J5+J5*VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL1002,43,FALSE)*2</f>
+      <c r="M5" s="6">
+        <f>L5+L5*VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL1002,43,FALSE)*2</f>
         <v>29.24</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="N5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="O5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="P5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="Q5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="17" t="str">
+      <c r="R5" s="19" t="str">
         <f t="shared" si="0"/>
         <v>上部</v>
       </c>
-      <c r="Q5" s="16" t="s">
+      <c r="S5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="10"/>
-      <c r="S5" s="8">
+      <c r="T5" s="10"/>
+      <c r="U5" s="8">
         <f>D5-E5</f>
         <v>0.870000000000001</v>
       </c>
-      <c r="T5" s="22">
+      <c r="V5" s="24">
         <v>1</v>
       </c>
-      <c r="U5" s="24">
+      <c r="W5" s="23">
         <f>F5/VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10003,45,FALSE)</f>
         <v>1.0031150583245</v>
-      </c>
-      <c r="V5" s="25">
-        <f>(B5-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10003,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10003,48,FALSE)</f>
-        <v>-0.048091603053435</v>
-      </c>
-      <c r="W5" s="26">
-        <f>G5/(ROW()-2)</f>
-        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -3361,56 +3298,59 @@
       <c r="G6" s="10">
         <v>2</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6">
+      <c r="H6" s="11">
+        <f>(B6-B5)/B5</f>
+        <v>0.0998396150761828</v>
+      </c>
+      <c r="I6" s="11">
+        <f>(B6-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE)</f>
+        <v>0.0469465648854962</v>
+      </c>
+      <c r="J6" s="11">
+        <f>G6/(ROW()-2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="6">
         <v>24.68</v>
       </c>
-      <c r="J6" s="6">
-        <f>I6/(1-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10004,43,FALSE))</f>
+      <c r="L6" s="6">
+        <f>K6/(1-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10004,43,FALSE))</f>
         <v>26.2</v>
       </c>
-      <c r="K6" s="6">
-        <f>J6+J6*VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL1003,43,FALSE)*2</f>
+      <c r="M6" s="6">
+        <f>L6+L6*VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL1003,43,FALSE)*2</f>
         <v>29.24</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="N6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="O6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="P6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="15" t="s">
+      <c r="Q6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="P6" s="17" t="str">
+      <c r="R6" s="19" t="str">
         <f t="shared" si="0"/>
         <v>下部</v>
       </c>
-      <c r="Q6" s="15" t="s">
+      <c r="S6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="R6" s="10"/>
-      <c r="S6" s="8">
+      <c r="T6" s="10"/>
+      <c r="U6" s="8">
         <f>D6-E6</f>
         <v>2.69</v>
       </c>
-      <c r="T6" s="22">
+      <c r="V6" s="24">
         <v>1</v>
       </c>
-      <c r="U6" s="24">
+      <c r="W6" s="23">
         <f>F6/VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10004,45,FALSE)</f>
         <v>0.970440084835631</v>
-      </c>
-      <c r="V6" s="25">
-        <f>(B6-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE)</f>
-        <v>0.0469465648854962</v>
-      </c>
-      <c r="W6" s="26">
-        <f>G6/(ROW()-2)</f>
-        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -3427,8 +3367,8 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
@@ -3436,9 +3376,9 @@
       <c r="R7" s="10"/>
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
-      <c r="U7" s="8"/>
+      <c r="U7" s="10"/>
       <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
+      <c r="W7" s="8"/>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="7">
@@ -3454,8 +3394,8 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
@@ -3463,9 +3403,9 @@
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
-      <c r="U8" s="8"/>
+      <c r="U8" s="10"/>
       <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
+      <c r="W8" s="8"/>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="7">
@@ -3481,8 +3421,8 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
@@ -3490,9 +3430,9 @@
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
-      <c r="U9" s="8"/>
+      <c r="U9" s="10"/>
       <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
+      <c r="W9" s="8"/>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="7">
@@ -3508,8 +3448,8 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
@@ -3517,9 +3457,9 @@
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="8"/>
+      <c r="U10" s="10"/>
       <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
+      <c r="W10" s="8"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="7">
@@ -3535,8 +3475,8 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
@@ -3544,9 +3484,9 @@
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="8"/>
+      <c r="U11" s="10"/>
       <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
+      <c r="W11" s="8"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="7">
@@ -3562,8 +3502,8 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
@@ -3571,9 +3511,9 @@
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
-      <c r="U12" s="8"/>
+      <c r="U12" s="10"/>
       <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
+      <c r="W12" s="8"/>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="7">
@@ -3589,8 +3529,8 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
@@ -3598,9 +3538,9 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="8"/>
+      <c r="U13" s="10"/>
       <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
+      <c r="W13" s="8"/>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="7">
@@ -3616,8 +3556,8 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
@@ -3625,9 +3565,9 @@
       <c r="R14" s="10"/>
       <c r="S14" s="10"/>
       <c r="T14" s="10"/>
-      <c r="U14" s="8"/>
+      <c r="U14" s="10"/>
       <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
+      <c r="W14" s="8"/>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="7">
@@ -3643,8 +3583,8 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
@@ -3652,9 +3592,9 @@
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
-      <c r="U15" s="8"/>
+      <c r="U15" s="10"/>
       <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
+      <c r="W15" s="8"/>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="7">
@@ -3670,8 +3610,8 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
@@ -3679,9 +3619,9 @@
       <c r="R16" s="10"/>
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
-      <c r="U16" s="8"/>
+      <c r="U16" s="10"/>
       <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
+      <c r="W16" s="8"/>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="7">
@@ -3697,8 +3637,8 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
@@ -3706,9 +3646,9 @@
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
-      <c r="U17" s="8"/>
+      <c r="U17" s="10"/>
       <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
+      <c r="W17" s="8"/>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="7">
@@ -3724,8 +3664,8 @@
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
@@ -3733,9 +3673,9 @@
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
-      <c r="U18" s="8"/>
+      <c r="U18" s="10"/>
       <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
+      <c r="W18" s="8"/>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="7">
@@ -3751,8 +3691,8 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
@@ -3760,9 +3700,9 @@
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
       <c r="T19" s="10"/>
-      <c r="U19" s="8"/>
+      <c r="U19" s="10"/>
       <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
+      <c r="W19" s="8"/>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="7">
@@ -3778,8 +3718,8 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
@@ -3787,9 +3727,9 @@
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
-      <c r="U20" s="8"/>
+      <c r="U20" s="10"/>
       <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
+      <c r="W20" s="8"/>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="7">
@@ -3805,8 +3745,8 @@
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
@@ -3814,9 +3754,9 @@
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
-      <c r="U21" s="8"/>
+      <c r="U21" s="10"/>
       <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
+      <c r="W21" s="8"/>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="7">
@@ -3832,8 +3772,8 @@
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
@@ -3841,9 +3781,9 @@
       <c r="R22" s="10"/>
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
-      <c r="U22" s="8"/>
+      <c r="U22" s="10"/>
       <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
+      <c r="W22" s="8"/>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="7">
@@ -3859,8 +3799,8 @@
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
@@ -3868,9 +3808,9 @@
       <c r="R23" s="10"/>
       <c r="S23" s="10"/>
       <c r="T23" s="10"/>
-      <c r="U23" s="8"/>
+      <c r="U23" s="10"/>
       <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
+      <c r="W23" s="8"/>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="7">
@@ -3886,8 +3826,8 @@
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
@@ -3895,9 +3835,9 @@
       <c r="R24" s="10"/>
       <c r="S24" s="10"/>
       <c r="T24" s="10"/>
-      <c r="U24" s="8"/>
+      <c r="U24" s="10"/>
       <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
+      <c r="W24" s="8"/>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="7">
@@ -3913,16 +3853,16 @@
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
       <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
       <c r="R25" s="10"/>
-      <c r="S25" s="23"/>
+      <c r="S25" s="10"/>
       <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
+      <c r="U25" s="25"/>
       <c r="V25" s="10"/>
       <c r="W25" s="10"/>
     </row>
@@ -3940,16 +3880,16 @@
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
       <c r="R26" s="10"/>
-      <c r="S26" s="23"/>
+      <c r="S26" s="10"/>
       <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
+      <c r="U26" s="25"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
     </row>
@@ -3967,16 +3907,16 @@
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
       <c r="R27" s="10"/>
-      <c r="S27" s="23"/>
+      <c r="S27" s="10"/>
       <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
+      <c r="U27" s="25"/>
       <c r="V27" s="10"/>
       <c r="W27" s="10"/>
     </row>
@@ -3994,16 +3934,16 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
       <c r="R28" s="10"/>
-      <c r="S28" s="23"/>
+      <c r="S28" s="10"/>
       <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
+      <c r="U28" s="25"/>
       <c r="V28" s="10"/>
       <c r="W28" s="10"/>
     </row>
@@ -4021,16 +3961,16 @@
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
       <c r="R29" s="10"/>
-      <c r="S29" s="23"/>
+      <c r="S29" s="10"/>
       <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
+      <c r="U29" s="25"/>
       <c r="V29" s="10"/>
       <c r="W29" s="10"/>
     </row>
@@ -4048,16 +3988,16 @@
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
       <c r="R30" s="10"/>
-      <c r="S30" s="23"/>
+      <c r="S30" s="10"/>
       <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
+      <c r="U30" s="25"/>
       <c r="V30" s="10"/>
       <c r="W30" s="10"/>
     </row>
@@ -4075,16 +4015,16 @@
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
       <c r="R31" s="10"/>
-      <c r="S31" s="23"/>
+      <c r="S31" s="10"/>
       <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
+      <c r="U31" s="25"/>
       <c r="V31" s="10"/>
       <c r="W31" s="10"/>
     </row>
@@ -4102,16 +4042,16 @@
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
       <c r="R32" s="10"/>
-      <c r="S32" s="23"/>
+      <c r="S32" s="10"/>
       <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
+      <c r="U32" s="25"/>
       <c r="V32" s="10"/>
       <c r="W32" s="10"/>
     </row>
@@ -4129,16 +4069,16 @@
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
       <c r="R33" s="10"/>
-      <c r="S33" s="23"/>
+      <c r="S33" s="10"/>
       <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
+      <c r="U33" s="25"/>
       <c r="V33" s="10"/>
       <c r="W33" s="10"/>
     </row>
@@ -4156,16 +4096,16 @@
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
       <c r="Q34" s="10"/>
       <c r="R34" s="10"/>
-      <c r="S34" s="23"/>
+      <c r="S34" s="10"/>
       <c r="T34" s="10"/>
-      <c r="U34" s="10"/>
+      <c r="U34" s="25"/>
       <c r="V34" s="10"/>
       <c r="W34" s="10"/>
     </row>
@@ -4183,16 +4123,16 @@
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
       <c r="R35" s="10"/>
-      <c r="S35" s="23"/>
+      <c r="S35" s="10"/>
       <c r="T35" s="10"/>
-      <c r="U35" s="10"/>
+      <c r="U35" s="25"/>
       <c r="V35" s="10"/>
       <c r="W35" s="10"/>
     </row>
@@ -4210,16 +4150,16 @@
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
       <c r="Q36" s="10"/>
       <c r="R36" s="10"/>
-      <c r="S36" s="23"/>
+      <c r="S36" s="10"/>
       <c r="T36" s="10"/>
-      <c r="U36" s="10"/>
+      <c r="U36" s="25"/>
       <c r="V36" s="10"/>
       <c r="W36" s="10"/>
     </row>
@@ -4237,16 +4177,16 @@
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
       <c r="R37" s="10"/>
-      <c r="S37" s="23"/>
+      <c r="S37" s="10"/>
       <c r="T37" s="10"/>
-      <c r="U37" s="10"/>
+      <c r="U37" s="25"/>
       <c r="V37" s="10"/>
       <c r="W37" s="10"/>
     </row>
@@ -4264,16 +4204,16 @@
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
       <c r="Q38" s="10"/>
       <c r="R38" s="10"/>
-      <c r="S38" s="23"/>
+      <c r="S38" s="10"/>
       <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
+      <c r="U38" s="25"/>
       <c r="V38" s="10"/>
       <c r="W38" s="10"/>
     </row>
@@ -4295,7 +4235,8 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
-      <c r="U39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
       <c r="W39" s="1"/>
     </row>
     <row r="40" spans="1:23">
@@ -4316,7 +4257,8 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
-      <c r="U40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
       <c r="W40" s="1"/>
     </row>
     <row r="41" spans="1:23">
@@ -4337,7 +4279,8 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
-      <c r="U41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
       <c r="W41" s="1"/>
     </row>
     <row r="42" spans="1:23">
@@ -4358,7 +4301,8 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
-      <c r="U42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
       <c r="W42" s="1"/>
     </row>
     <row r="43" spans="1:23">
@@ -4379,7 +4323,8 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
-      <c r="U43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
       <c r="W43" s="1"/>
     </row>
     <row r="44" spans="1:23">
@@ -4400,7 +4345,8 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
-      <c r="U44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
       <c r="W44" s="1"/>
     </row>
     <row r="45" spans="1:23">
@@ -4421,7 +4367,8 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
-      <c r="U45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
       <c r="W45" s="1"/>
     </row>
     <row r="46" spans="1:23">
@@ -4442,7 +4389,8 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
-      <c r="U46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
       <c r="W46" s="1"/>
     </row>
     <row r="47" spans="1:23">
@@ -4463,7 +4411,8 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
-      <c r="U47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
       <c r="W47" s="1"/>
     </row>
     <row r="48" spans="1:23">
@@ -4484,7 +4433,8 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
-      <c r="U48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
       <c r="W48" s="1"/>
     </row>
     <row r="49" spans="1:23">
@@ -4505,7 +4455,8 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
-      <c r="U49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
       <c r="W49" s="1"/>
     </row>
     <row r="50" spans="1:23">
@@ -4526,7 +4477,8 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
-      <c r="U50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
       <c r="W50" s="1"/>
     </row>
     <row r="51" spans="1:23">
@@ -4547,7 +4499,8 @@
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
-      <c r="U51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
       <c r="W51" s="1"/>
     </row>
     <row r="52" spans="1:23">
@@ -4568,7 +4521,8 @@
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
-      <c r="U52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
       <c r="W52" s="1"/>
     </row>
     <row r="53" spans="1:23">
@@ -4589,7 +4543,8 @@
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
-      <c r="U53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
       <c r="W53" s="1"/>
     </row>
     <row r="54" spans="1:23">
@@ -4610,7 +4565,8 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
-      <c r="U54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
       <c r="W54" s="1"/>
     </row>
     <row r="55" spans="1:23">
@@ -4631,7 +4587,8 @@
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
-      <c r="U55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
       <c r="W55" s="1"/>
     </row>
     <row r="56" spans="1:23">
@@ -4652,7 +4609,8 @@
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
-      <c r="U56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
       <c r="W56" s="1"/>
     </row>
     <row r="57" spans="1:23">
@@ -4673,7 +4631,8 @@
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
-      <c r="U57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
       <c r="W57" s="1"/>
     </row>
     <row r="58" spans="1:23">
@@ -4694,7 +4653,8 @@
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
-      <c r="U58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
       <c r="W58" s="1"/>
     </row>
     <row r="59" spans="1:23">
@@ -4715,7 +4675,8 @@
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
-      <c r="U59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
       <c r="W59" s="1"/>
     </row>
     <row r="60" spans="1:23">
@@ -4736,7 +4697,8 @@
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
-      <c r="U60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
       <c r="W60" s="1"/>
     </row>
     <row r="61" spans="1:23">
@@ -4757,7 +4719,8 @@
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
-      <c r="U61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
       <c r="W61" s="1"/>
     </row>
     <row r="62" spans="1:23">
@@ -4778,7 +4741,8 @@
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
-      <c r="U62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
       <c r="W62" s="1"/>
     </row>
     <row r="63" spans="1:23">
@@ -4799,7 +4763,8 @@
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
-      <c r="U63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
       <c r="W63" s="1"/>
     </row>
     <row r="64" spans="1:23">
@@ -4820,7 +4785,8 @@
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
-      <c r="U64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
       <c r="W64" s="1"/>
     </row>
     <row r="65" spans="1:23">
@@ -4841,7 +4807,8 @@
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
-      <c r="U65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
       <c r="W65" s="1"/>
     </row>
     <row r="66" spans="1:23">
@@ -4862,7 +4829,8 @@
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
-      <c r="U66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
       <c r="W66" s="1"/>
     </row>
     <row r="67" spans="1:23">
@@ -4883,7 +4851,8 @@
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
-      <c r="U67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
       <c r="W67" s="1"/>
     </row>
     <row r="68" spans="1:23">
@@ -4904,7 +4873,8 @@
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
-      <c r="U68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
       <c r="W68" s="1"/>
     </row>
     <row r="69" spans="1:23">
@@ -4925,7 +4895,8 @@
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
-      <c r="U69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
       <c r="W69" s="1"/>
     </row>
     <row r="70" spans="1:23">
@@ -4946,7 +4917,8 @@
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
-      <c r="U70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
       <c r="W70" s="1"/>
     </row>
     <row r="71" spans="1:23">
@@ -4967,7 +4939,8 @@
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
-      <c r="U71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
       <c r="W71" s="1"/>
     </row>
     <row r="72" spans="1:23">
@@ -4988,7 +4961,8 @@
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
-      <c r="U72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
       <c r="W72" s="1"/>
     </row>
     <row r="73" spans="1:23">
@@ -5009,7 +4983,8 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
-      <c r="U73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
       <c r="W73" s="1"/>
     </row>
     <row r="74" spans="1:23">
@@ -5030,7 +5005,8 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
-      <c r="U74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
       <c r="W74" s="1"/>
     </row>
     <row r="75" spans="1:23">
@@ -5051,7 +5027,8 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
-      <c r="U75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
       <c r="W75" s="1"/>
     </row>
     <row r="76" spans="1:23">
@@ -5072,7 +5049,8 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
-      <c r="U76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
       <c r="W76" s="1"/>
     </row>
     <row r="77" spans="1:23">
@@ -5093,7 +5071,8 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
-      <c r="U77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
       <c r="W77" s="1"/>
     </row>
     <row r="78" spans="1:23">
@@ -5114,7 +5093,8 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
-      <c r="U78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
       <c r="W78" s="1"/>
     </row>
     <row r="79" spans="1:23">
@@ -5135,7 +5115,8 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
       <c r="R79" s="1"/>
-      <c r="U79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
       <c r="W79" s="1"/>
     </row>
     <row r="80" spans="1:23">
@@ -5156,7 +5137,8 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
-      <c r="U80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
       <c r="W80" s="1"/>
     </row>
     <row r="81" spans="1:23">
@@ -5177,7 +5159,8 @@
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
-      <c r="U81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
       <c r="W81" s="1"/>
     </row>
     <row r="82" spans="1:23">
@@ -5198,7 +5181,8 @@
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
-      <c r="U82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
       <c r="W82" s="1"/>
     </row>
     <row r="83" spans="1:23">
@@ -5219,7 +5203,8 @@
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
-      <c r="U83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
       <c r="W83" s="1"/>
     </row>
     <row r="84" spans="1:23">
@@ -5240,7 +5225,8 @@
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
-      <c r="U84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
       <c r="W84" s="1"/>
     </row>
     <row r="85" spans="1:23">
@@ -5261,7 +5247,8 @@
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
-      <c r="U85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
       <c r="W85" s="1"/>
     </row>
     <row r="86" spans="1:23">
@@ -5282,7 +5269,8 @@
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
-      <c r="U86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
       <c r="W86" s="1"/>
     </row>
     <row r="87" spans="1:23">
@@ -5303,7 +5291,8 @@
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
-      <c r="U87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
       <c r="W87" s="1"/>
     </row>
     <row r="88" spans="1:23">
@@ -5324,7 +5313,8 @@
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
-      <c r="U88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
       <c r="W88" s="1"/>
     </row>
     <row r="89" spans="1:23">
@@ -5345,7 +5335,8 @@
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
-      <c r="U89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
       <c r="W89" s="1"/>
     </row>
     <row r="90" spans="1:23">
@@ -5366,7 +5357,8 @@
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
-      <c r="U90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
       <c r="W90" s="1"/>
     </row>
     <row r="91" spans="1:23">
@@ -5387,7 +5379,8 @@
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
       <c r="R91" s="1"/>
-      <c r="U91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
       <c r="W91" s="1"/>
     </row>
     <row r="92" spans="1:23">
@@ -5408,7 +5401,8 @@
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
       <c r="R92" s="1"/>
-      <c r="U92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
       <c r="W92" s="1"/>
     </row>
     <row r="93" spans="1:23">
@@ -5429,7 +5423,8 @@
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
       <c r="R93" s="1"/>
-      <c r="U93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
       <c r="W93" s="1"/>
     </row>
     <row r="94" spans="1:23">
@@ -5450,7 +5445,8 @@
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
-      <c r="U94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
       <c r="W94" s="1"/>
     </row>
     <row r="95" spans="1:23">
@@ -5471,7 +5467,8 @@
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
-      <c r="U95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
       <c r="W95" s="1"/>
     </row>
     <row r="96" spans="1:23">
@@ -5492,7 +5489,8 @@
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
-      <c r="U96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="1"/>
       <c r="W96" s="1"/>
     </row>
     <row r="97" spans="1:23">
@@ -5513,7 +5511,8 @@
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
-      <c r="U97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="T97" s="1"/>
       <c r="W97" s="1"/>
     </row>
     <row r="98" spans="1:23">
@@ -5534,7 +5533,8 @@
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
-      <c r="U98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
       <c r="W98" s="1"/>
     </row>
     <row r="99" spans="1:23">
@@ -5555,7 +5555,8 @@
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
-      <c r="U99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
       <c r="W99" s="1"/>
     </row>
     <row r="100" spans="1:23">
@@ -5576,7 +5577,8 @@
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
       <c r="R100" s="1"/>
-      <c r="U100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
       <c r="W100" s="1"/>
     </row>
     <row r="101" spans="1:23">
@@ -5597,7 +5599,8 @@
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
-      <c r="U101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
       <c r="W101" s="1"/>
     </row>
     <row r="102" spans="1:23">
@@ -5618,7 +5621,8 @@
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
-      <c r="U102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="T102" s="1"/>
       <c r="W102" s="1"/>
     </row>
     <row r="103" spans="1:23">
@@ -5639,7 +5643,8 @@
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
       <c r="R103" s="1"/>
-      <c r="U103" s="1"/>
+      <c r="S103" s="1"/>
+      <c r="T103" s="1"/>
       <c r="W103" s="1"/>
     </row>
     <row r="104" spans="1:23">
@@ -5660,7 +5665,8 @@
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
-      <c r="U104" s="1"/>
+      <c r="S104" s="1"/>
+      <c r="T104" s="1"/>
       <c r="W104" s="1"/>
     </row>
     <row r="105" spans="1:23">
@@ -5681,7 +5687,8 @@
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
       <c r="R105" s="1"/>
-      <c r="U105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="T105" s="1"/>
       <c r="W105" s="1"/>
     </row>
     <row r="106" spans="1:23">
@@ -5702,7 +5709,8 @@
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
       <c r="R106" s="1"/>
-      <c r="U106" s="1"/>
+      <c r="S106" s="1"/>
+      <c r="T106" s="1"/>
       <c r="W106" s="1"/>
     </row>
     <row r="107" spans="1:23">
@@ -5723,7 +5731,8 @@
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
       <c r="R107" s="1"/>
-      <c r="U107" s="1"/>
+      <c r="S107" s="1"/>
+      <c r="T107" s="1"/>
       <c r="W107" s="1"/>
     </row>
     <row r="108" spans="1:23">
@@ -5744,7 +5753,8 @@
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
       <c r="R108" s="1"/>
-      <c r="U108" s="1"/>
+      <c r="S108" s="1"/>
+      <c r="T108" s="1"/>
       <c r="W108" s="1"/>
     </row>
     <row r="109" spans="1:23">
@@ -5765,7 +5775,8 @@
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
       <c r="R109" s="1"/>
-      <c r="U109" s="1"/>
+      <c r="S109" s="1"/>
+      <c r="T109" s="1"/>
       <c r="W109" s="1"/>
     </row>
     <row r="110" spans="1:23">
@@ -5786,7 +5797,8 @@
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
       <c r="R110" s="1"/>
-      <c r="U110" s="1"/>
+      <c r="S110" s="1"/>
+      <c r="T110" s="1"/>
       <c r="W110" s="1"/>
     </row>
     <row r="111" spans="1:23">
@@ -5807,7 +5819,8 @@
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
       <c r="R111" s="1"/>
-      <c r="U111" s="1"/>
+      <c r="S111" s="1"/>
+      <c r="T111" s="1"/>
       <c r="W111" s="1"/>
     </row>
     <row r="112" spans="1:23">
@@ -5828,7 +5841,8 @@
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
-      <c r="U112" s="1"/>
+      <c r="S112" s="1"/>
+      <c r="T112" s="1"/>
       <c r="W112" s="1"/>
     </row>
     <row r="113" spans="1:23">
@@ -5849,7 +5863,8 @@
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
       <c r="R113" s="1"/>
-      <c r="U113" s="1"/>
+      <c r="S113" s="1"/>
+      <c r="T113" s="1"/>
       <c r="W113" s="1"/>
     </row>
     <row r="114" spans="1:23">
@@ -5870,7 +5885,8 @@
       <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
       <c r="R114" s="1"/>
-      <c r="U114" s="1"/>
+      <c r="S114" s="1"/>
+      <c r="T114" s="1"/>
       <c r="W114" s="1"/>
     </row>
     <row r="115" spans="1:23">
@@ -5891,7 +5907,8 @@
       <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
       <c r="R115" s="1"/>
-      <c r="U115" s="1"/>
+      <c r="S115" s="1"/>
+      <c r="T115" s="1"/>
       <c r="W115" s="1"/>
     </row>
     <row r="116" spans="1:23">
@@ -5912,7 +5929,8 @@
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
-      <c r="U116" s="1"/>
+      <c r="S116" s="1"/>
+      <c r="T116" s="1"/>
       <c r="W116" s="1"/>
     </row>
     <row r="117" spans="1:23">
@@ -5933,7 +5951,8 @@
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
       <c r="R117" s="1"/>
-      <c r="U117" s="1"/>
+      <c r="S117" s="1"/>
+      <c r="T117" s="1"/>
       <c r="W117" s="1"/>
     </row>
     <row r="118" spans="1:23">
@@ -5954,7 +5973,8 @@
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
       <c r="R118" s="1"/>
-      <c r="U118" s="1"/>
+      <c r="S118" s="1"/>
+      <c r="T118" s="1"/>
       <c r="W118" s="1"/>
     </row>
     <row r="119" spans="1:23">
@@ -5975,7 +5995,8 @@
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
       <c r="R119" s="1"/>
-      <c r="U119" s="1"/>
+      <c r="S119" s="1"/>
+      <c r="T119" s="1"/>
       <c r="W119" s="1"/>
     </row>
     <row r="120" spans="1:23">
@@ -5996,7 +6017,8 @@
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
       <c r="R120" s="1"/>
-      <c r="U120" s="1"/>
+      <c r="S120" s="1"/>
+      <c r="T120" s="1"/>
       <c r="W120" s="1"/>
     </row>
     <row r="121" spans="1:23">
@@ -6017,7 +6039,8 @@
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
       <c r="R121" s="1"/>
-      <c r="U121" s="1"/>
+      <c r="S121" s="1"/>
+      <c r="T121" s="1"/>
       <c r="W121" s="1"/>
     </row>
     <row r="122" spans="1:23">
@@ -6038,7 +6061,8 @@
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
       <c r="R122" s="1"/>
-      <c r="U122" s="1"/>
+      <c r="S122" s="1"/>
+      <c r="T122" s="1"/>
       <c r="W122" s="1"/>
     </row>
     <row r="123" spans="1:23">
@@ -6059,7 +6083,8 @@
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
       <c r="R123" s="1"/>
-      <c r="U123" s="1"/>
+      <c r="S123" s="1"/>
+      <c r="T123" s="1"/>
       <c r="W123" s="1"/>
     </row>
     <row r="124" spans="1:23">
@@ -6080,7 +6105,8 @@
       <c r="P124" s="1"/>
       <c r="Q124" s="1"/>
       <c r="R124" s="1"/>
-      <c r="U124" s="1"/>
+      <c r="S124" s="1"/>
+      <c r="T124" s="1"/>
       <c r="W124" s="1"/>
     </row>
     <row r="125" spans="1:23">
@@ -6101,7 +6127,8 @@
       <c r="P125" s="1"/>
       <c r="Q125" s="1"/>
       <c r="R125" s="1"/>
-      <c r="U125" s="1"/>
+      <c r="S125" s="1"/>
+      <c r="T125" s="1"/>
       <c r="W125" s="1"/>
     </row>
     <row r="126" spans="1:23">
@@ -6122,7 +6149,8 @@
       <c r="P126" s="1"/>
       <c r="Q126" s="1"/>
       <c r="R126" s="1"/>
-      <c r="U126" s="1"/>
+      <c r="S126" s="1"/>
+      <c r="T126" s="1"/>
       <c r="W126" s="1"/>
     </row>
     <row r="127" spans="1:23">
@@ -6143,7 +6171,8 @@
       <c r="P127" s="1"/>
       <c r="Q127" s="1"/>
       <c r="R127" s="1"/>
-      <c r="U127" s="1"/>
+      <c r="S127" s="1"/>
+      <c r="T127" s="1"/>
       <c r="W127" s="1"/>
     </row>
     <row r="128" spans="1:23">
@@ -6164,7 +6193,8 @@
       <c r="P128" s="1"/>
       <c r="Q128" s="1"/>
       <c r="R128" s="1"/>
-      <c r="U128" s="1"/>
+      <c r="S128" s="1"/>
+      <c r="T128" s="1"/>
       <c r="W128" s="1"/>
     </row>
     <row r="129" spans="1:23">
@@ -6185,7 +6215,8 @@
       <c r="P129" s="1"/>
       <c r="Q129" s="1"/>
       <c r="R129" s="1"/>
-      <c r="U129" s="1"/>
+      <c r="S129" s="1"/>
+      <c r="T129" s="1"/>
       <c r="W129" s="1"/>
     </row>
     <row r="130" spans="1:23">
@@ -6206,7 +6237,8 @@
       <c r="P130" s="1"/>
       <c r="Q130" s="1"/>
       <c r="R130" s="1"/>
-      <c r="U130" s="1"/>
+      <c r="S130" s="1"/>
+      <c r="T130" s="1"/>
       <c r="W130" s="1"/>
     </row>
     <row r="131" spans="1:23">
@@ -6227,7 +6259,8 @@
       <c r="P131" s="1"/>
       <c r="Q131" s="1"/>
       <c r="R131" s="1"/>
-      <c r="U131" s="1"/>
+      <c r="S131" s="1"/>
+      <c r="T131" s="1"/>
       <c r="W131" s="1"/>
     </row>
     <row r="132" spans="1:23">
@@ -6248,7 +6281,8 @@
       <c r="P132" s="1"/>
       <c r="Q132" s="1"/>
       <c r="R132" s="1"/>
-      <c r="U132" s="1"/>
+      <c r="S132" s="1"/>
+      <c r="T132" s="1"/>
       <c r="W132" s="1"/>
     </row>
     <row r="133" spans="1:23">
@@ -6269,7 +6303,8 @@
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
       <c r="R133" s="1"/>
-      <c r="U133" s="1"/>
+      <c r="S133" s="1"/>
+      <c r="T133" s="1"/>
       <c r="W133" s="1"/>
     </row>
     <row r="134" spans="1:23">
@@ -6290,7 +6325,8 @@
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
       <c r="R134" s="1"/>
-      <c r="U134" s="1"/>
+      <c r="S134" s="1"/>
+      <c r="T134" s="1"/>
       <c r="W134" s="1"/>
     </row>
     <row r="135" spans="1:23">
@@ -6311,7 +6347,8 @@
       <c r="P135" s="1"/>
       <c r="Q135" s="1"/>
       <c r="R135" s="1"/>
-      <c r="U135" s="1"/>
+      <c r="S135" s="1"/>
+      <c r="T135" s="1"/>
       <c r="W135" s="1"/>
     </row>
     <row r="136" spans="1:23">
@@ -6332,7 +6369,8 @@
       <c r="P136" s="1"/>
       <c r="Q136" s="1"/>
       <c r="R136" s="1"/>
-      <c r="U136" s="1"/>
+      <c r="S136" s="1"/>
+      <c r="T136" s="1"/>
       <c r="W136" s="1"/>
     </row>
     <row r="137" spans="1:23">
@@ -6353,7 +6391,8 @@
       <c r="P137" s="1"/>
       <c r="Q137" s="1"/>
       <c r="R137" s="1"/>
-      <c r="U137" s="1"/>
+      <c r="S137" s="1"/>
+      <c r="T137" s="1"/>
       <c r="W137" s="1"/>
     </row>
     <row r="138" spans="1:23">
@@ -6374,7 +6413,8 @@
       <c r="P138" s="1"/>
       <c r="Q138" s="1"/>
       <c r="R138" s="1"/>
-      <c r="U138" s="1"/>
+      <c r="S138" s="1"/>
+      <c r="T138" s="1"/>
       <c r="W138" s="1"/>
     </row>
     <row r="139" spans="1:23">
@@ -6395,7 +6435,8 @@
       <c r="P139" s="1"/>
       <c r="Q139" s="1"/>
       <c r="R139" s="1"/>
-      <c r="U139" s="1"/>
+      <c r="S139" s="1"/>
+      <c r="T139" s="1"/>
       <c r="W139" s="1"/>
     </row>
     <row r="140" spans="1:23">
@@ -6416,7 +6457,8 @@
       <c r="P140" s="1"/>
       <c r="Q140" s="1"/>
       <c r="R140" s="1"/>
-      <c r="U140" s="1"/>
+      <c r="S140" s="1"/>
+      <c r="T140" s="1"/>
       <c r="W140" s="1"/>
     </row>
     <row r="141" spans="1:23">
@@ -6437,7 +6479,8 @@
       <c r="P141" s="1"/>
       <c r="Q141" s="1"/>
       <c r="R141" s="1"/>
-      <c r="U141" s="1"/>
+      <c r="S141" s="1"/>
+      <c r="T141" s="1"/>
       <c r="W141" s="1"/>
     </row>
     <row r="142" spans="1:23">
@@ -6458,7 +6501,8 @@
       <c r="P142" s="1"/>
       <c r="Q142" s="1"/>
       <c r="R142" s="1"/>
-      <c r="U142" s="1"/>
+      <c r="S142" s="1"/>
+      <c r="T142" s="1"/>
       <c r="W142" s="1"/>
     </row>
     <row r="143" spans="1:23">
@@ -6479,7 +6523,8 @@
       <c r="P143" s="1"/>
       <c r="Q143" s="1"/>
       <c r="R143" s="1"/>
-      <c r="U143" s="1"/>
+      <c r="S143" s="1"/>
+      <c r="T143" s="1"/>
       <c r="W143" s="1"/>
     </row>
     <row r="144" spans="1:23">
@@ -6500,7 +6545,8 @@
       <c r="P144" s="1"/>
       <c r="Q144" s="1"/>
       <c r="R144" s="1"/>
-      <c r="U144" s="1"/>
+      <c r="S144" s="1"/>
+      <c r="T144" s="1"/>
       <c r="W144" s="1"/>
     </row>
     <row r="145" spans="1:23">
@@ -6521,7 +6567,8 @@
       <c r="P145" s="1"/>
       <c r="Q145" s="1"/>
       <c r="R145" s="1"/>
-      <c r="U145" s="1"/>
+      <c r="S145" s="1"/>
+      <c r="T145" s="1"/>
       <c r="W145" s="1"/>
     </row>
     <row r="146" spans="1:23">
@@ -6542,7 +6589,8 @@
       <c r="P146" s="1"/>
       <c r="Q146" s="1"/>
       <c r="R146" s="1"/>
-      <c r="U146" s="1"/>
+      <c r="S146" s="1"/>
+      <c r="T146" s="1"/>
       <c r="W146" s="1"/>
     </row>
     <row r="147" spans="1:23">
@@ -6563,7 +6611,8 @@
       <c r="P147" s="1"/>
       <c r="Q147" s="1"/>
       <c r="R147" s="1"/>
-      <c r="U147" s="1"/>
+      <c r="S147" s="1"/>
+      <c r="T147" s="1"/>
       <c r="W147" s="1"/>
     </row>
     <row r="148" spans="1:23">
@@ -6584,7 +6633,8 @@
       <c r="P148" s="1"/>
       <c r="Q148" s="1"/>
       <c r="R148" s="1"/>
-      <c r="U148" s="1"/>
+      <c r="S148" s="1"/>
+      <c r="T148" s="1"/>
       <c r="W148" s="1"/>
     </row>
     <row r="149" spans="1:23">
@@ -6605,7 +6655,8 @@
       <c r="P149" s="1"/>
       <c r="Q149" s="1"/>
       <c r="R149" s="1"/>
-      <c r="U149" s="1"/>
+      <c r="S149" s="1"/>
+      <c r="T149" s="1"/>
       <c r="W149" s="1"/>
     </row>
     <row r="150" spans="1:23">
@@ -6626,7 +6677,8 @@
       <c r="P150" s="1"/>
       <c r="Q150" s="1"/>
       <c r="R150" s="1"/>
-      <c r="U150" s="1"/>
+      <c r="S150" s="1"/>
+      <c r="T150" s="1"/>
       <c r="W150" s="1"/>
     </row>
     <row r="151" spans="1:23">
@@ -6647,7 +6699,8 @@
       <c r="P151" s="1"/>
       <c r="Q151" s="1"/>
       <c r="R151" s="1"/>
-      <c r="U151" s="1"/>
+      <c r="S151" s="1"/>
+      <c r="T151" s="1"/>
       <c r="W151" s="1"/>
     </row>
     <row r="152" spans="1:23">
@@ -6668,7 +6721,8 @@
       <c r="P152" s="1"/>
       <c r="Q152" s="1"/>
       <c r="R152" s="1"/>
-      <c r="U152" s="1"/>
+      <c r="S152" s="1"/>
+      <c r="T152" s="1"/>
       <c r="W152" s="1"/>
     </row>
     <row r="153" spans="1:23">
@@ -6689,7 +6743,8 @@
       <c r="P153" s="1"/>
       <c r="Q153" s="1"/>
       <c r="R153" s="1"/>
-      <c r="U153" s="1"/>
+      <c r="S153" s="1"/>
+      <c r="T153" s="1"/>
       <c r="W153" s="1"/>
     </row>
     <row r="154" spans="1:23">
@@ -6710,7 +6765,8 @@
       <c r="P154" s="1"/>
       <c r="Q154" s="1"/>
       <c r="R154" s="1"/>
-      <c r="U154" s="1"/>
+      <c r="S154" s="1"/>
+      <c r="T154" s="1"/>
       <c r="W154" s="1"/>
     </row>
     <row r="155" spans="1:23">
@@ -6731,7 +6787,8 @@
       <c r="P155" s="1"/>
       <c r="Q155" s="1"/>
       <c r="R155" s="1"/>
-      <c r="U155" s="1"/>
+      <c r="S155" s="1"/>
+      <c r="T155" s="1"/>
       <c r="W155" s="1"/>
     </row>
     <row r="156" spans="1:23">
@@ -6752,7 +6809,8 @@
       <c r="P156" s="1"/>
       <c r="Q156" s="1"/>
       <c r="R156" s="1"/>
-      <c r="U156" s="1"/>
+      <c r="S156" s="1"/>
+      <c r="T156" s="1"/>
       <c r="W156" s="1"/>
     </row>
     <row r="157" spans="1:23">
@@ -6773,7 +6831,8 @@
       <c r="P157" s="1"/>
       <c r="Q157" s="1"/>
       <c r="R157" s="1"/>
-      <c r="U157" s="1"/>
+      <c r="S157" s="1"/>
+      <c r="T157" s="1"/>
       <c r="W157" s="1"/>
     </row>
     <row r="158" spans="1:23">
@@ -6794,7 +6853,8 @@
       <c r="P158" s="1"/>
       <c r="Q158" s="1"/>
       <c r="R158" s="1"/>
-      <c r="U158" s="1"/>
+      <c r="S158" s="1"/>
+      <c r="T158" s="1"/>
       <c r="W158" s="1"/>
     </row>
     <row r="159" spans="1:23">
@@ -6815,7 +6875,8 @@
       <c r="P159" s="1"/>
       <c r="Q159" s="1"/>
       <c r="R159" s="1"/>
-      <c r="U159" s="1"/>
+      <c r="S159" s="1"/>
+      <c r="T159" s="1"/>
       <c r="W159" s="1"/>
     </row>
     <row r="160" spans="1:23">
@@ -6836,7 +6897,8 @@
       <c r="P160" s="1"/>
       <c r="Q160" s="1"/>
       <c r="R160" s="1"/>
-      <c r="U160" s="1"/>
+      <c r="S160" s="1"/>
+      <c r="T160" s="1"/>
       <c r="W160" s="1"/>
     </row>
     <row r="161" spans="1:23">
@@ -6857,7 +6919,8 @@
       <c r="P161" s="1"/>
       <c r="Q161" s="1"/>
       <c r="R161" s="1"/>
-      <c r="U161" s="1"/>
+      <c r="S161" s="1"/>
+      <c r="T161" s="1"/>
       <c r="W161" s="1"/>
     </row>
     <row r="162" spans="1:23">
@@ -6878,7 +6941,8 @@
       <c r="P162" s="1"/>
       <c r="Q162" s="1"/>
       <c r="R162" s="1"/>
-      <c r="U162" s="1"/>
+      <c r="S162" s="1"/>
+      <c r="T162" s="1"/>
       <c r="W162" s="1"/>
     </row>
     <row r="163" spans="1:23">
@@ -6899,7 +6963,8 @@
       <c r="P163" s="1"/>
       <c r="Q163" s="1"/>
       <c r="R163" s="1"/>
-      <c r="U163" s="1"/>
+      <c r="S163" s="1"/>
+      <c r="T163" s="1"/>
       <c r="W163" s="1"/>
     </row>
     <row r="164" spans="1:23">
@@ -6920,7 +6985,8 @@
       <c r="P164" s="1"/>
       <c r="Q164" s="1"/>
       <c r="R164" s="1"/>
-      <c r="U164" s="1"/>
+      <c r="S164" s="1"/>
+      <c r="T164" s="1"/>
       <c r="W164" s="1"/>
     </row>
     <row r="165" spans="1:23">
@@ -6941,7 +7007,8 @@
       <c r="P165" s="1"/>
       <c r="Q165" s="1"/>
       <c r="R165" s="1"/>
-      <c r="U165" s="1"/>
+      <c r="S165" s="1"/>
+      <c r="T165" s="1"/>
       <c r="W165" s="1"/>
     </row>
     <row r="166" spans="1:23">
@@ -6962,7 +7029,8 @@
       <c r="P166" s="1"/>
       <c r="Q166" s="1"/>
       <c r="R166" s="1"/>
-      <c r="U166" s="1"/>
+      <c r="S166" s="1"/>
+      <c r="T166" s="1"/>
       <c r="W166" s="1"/>
     </row>
     <row r="167" spans="1:23">
@@ -6983,7 +7051,8 @@
       <c r="P167" s="1"/>
       <c r="Q167" s="1"/>
       <c r="R167" s="1"/>
-      <c r="U167" s="1"/>
+      <c r="S167" s="1"/>
+      <c r="T167" s="1"/>
       <c r="W167" s="1"/>
     </row>
     <row r="168" spans="1:23">
@@ -7004,7 +7073,8 @@
       <c r="P168" s="1"/>
       <c r="Q168" s="1"/>
       <c r="R168" s="1"/>
-      <c r="U168" s="1"/>
+      <c r="S168" s="1"/>
+      <c r="T168" s="1"/>
       <c r="W168" s="1"/>
     </row>
     <row r="169" spans="1:23">
@@ -7025,7 +7095,8 @@
       <c r="P169" s="1"/>
       <c r="Q169" s="1"/>
       <c r="R169" s="1"/>
-      <c r="U169" s="1"/>
+      <c r="S169" s="1"/>
+      <c r="T169" s="1"/>
       <c r="W169" s="1"/>
     </row>
     <row r="170" spans="1:23">
@@ -7046,7 +7117,8 @@
       <c r="P170" s="1"/>
       <c r="Q170" s="1"/>
       <c r="R170" s="1"/>
-      <c r="U170" s="1"/>
+      <c r="S170" s="1"/>
+      <c r="T170" s="1"/>
       <c r="W170" s="1"/>
     </row>
     <row r="171" spans="1:23">
@@ -7067,7 +7139,8 @@
       <c r="P171" s="1"/>
       <c r="Q171" s="1"/>
       <c r="R171" s="1"/>
-      <c r="U171" s="1"/>
+      <c r="S171" s="1"/>
+      <c r="T171" s="1"/>
       <c r="W171" s="1"/>
     </row>
     <row r="172" spans="1:23">
@@ -7088,7 +7161,8 @@
       <c r="P172" s="1"/>
       <c r="Q172" s="1"/>
       <c r="R172" s="1"/>
-      <c r="U172" s="1"/>
+      <c r="S172" s="1"/>
+      <c r="T172" s="1"/>
       <c r="W172" s="1"/>
     </row>
     <row r="173" spans="1:23">
@@ -7109,7 +7183,8 @@
       <c r="P173" s="1"/>
       <c r="Q173" s="1"/>
       <c r="R173" s="1"/>
-      <c r="U173" s="1"/>
+      <c r="S173" s="1"/>
+      <c r="T173" s="1"/>
       <c r="W173" s="1"/>
     </row>
     <row r="174" spans="1:23">
@@ -7130,7 +7205,8 @@
       <c r="P174" s="1"/>
       <c r="Q174" s="1"/>
       <c r="R174" s="1"/>
-      <c r="U174" s="1"/>
+      <c r="S174" s="1"/>
+      <c r="T174" s="1"/>
       <c r="W174" s="1"/>
     </row>
     <row r="175" spans="1:23">
@@ -7151,7 +7227,8 @@
       <c r="P175" s="1"/>
       <c r="Q175" s="1"/>
       <c r="R175" s="1"/>
-      <c r="U175" s="1"/>
+      <c r="S175" s="1"/>
+      <c r="T175" s="1"/>
       <c r="W175" s="1"/>
     </row>
     <row r="176" spans="1:23">
@@ -7172,7 +7249,8 @@
       <c r="P176" s="1"/>
       <c r="Q176" s="1"/>
       <c r="R176" s="1"/>
-      <c r="U176" s="1"/>
+      <c r="S176" s="1"/>
+      <c r="T176" s="1"/>
       <c r="W176" s="1"/>
     </row>
     <row r="177" spans="1:23">
@@ -7193,7 +7271,8 @@
       <c r="P177" s="1"/>
       <c r="Q177" s="1"/>
       <c r="R177" s="1"/>
-      <c r="U177" s="1"/>
+      <c r="S177" s="1"/>
+      <c r="T177" s="1"/>
       <c r="W177" s="1"/>
     </row>
     <row r="178" spans="1:23">
@@ -7214,7 +7293,8 @@
       <c r="P178" s="1"/>
       <c r="Q178" s="1"/>
       <c r="R178" s="1"/>
-      <c r="U178" s="1"/>
+      <c r="S178" s="1"/>
+      <c r="T178" s="1"/>
       <c r="W178" s="1"/>
     </row>
     <row r="179" spans="1:23">
@@ -7235,7 +7315,8 @@
       <c r="P179" s="1"/>
       <c r="Q179" s="1"/>
       <c r="R179" s="1"/>
-      <c r="U179" s="1"/>
+      <c r="S179" s="1"/>
+      <c r="T179" s="1"/>
       <c r="W179" s="1"/>
     </row>
     <row r="180" spans="1:23">
@@ -7256,7 +7337,8 @@
       <c r="P180" s="1"/>
       <c r="Q180" s="1"/>
       <c r="R180" s="1"/>
-      <c r="U180" s="1"/>
+      <c r="S180" s="1"/>
+      <c r="T180" s="1"/>
       <c r="W180" s="1"/>
     </row>
     <row r="181" spans="1:23">
@@ -7277,7 +7359,8 @@
       <c r="P181" s="1"/>
       <c r="Q181" s="1"/>
       <c r="R181" s="1"/>
-      <c r="U181" s="1"/>
+      <c r="S181" s="1"/>
+      <c r="T181" s="1"/>
       <c r="W181" s="1"/>
     </row>
     <row r="182" spans="1:23">
@@ -7298,7 +7381,8 @@
       <c r="P182" s="1"/>
       <c r="Q182" s="1"/>
       <c r="R182" s="1"/>
-      <c r="U182" s="1"/>
+      <c r="S182" s="1"/>
+      <c r="T182" s="1"/>
       <c r="W182" s="1"/>
     </row>
     <row r="183" spans="1:23">
@@ -7319,7 +7403,8 @@
       <c r="P183" s="1"/>
       <c r="Q183" s="1"/>
       <c r="R183" s="1"/>
-      <c r="U183" s="1"/>
+      <c r="S183" s="1"/>
+      <c r="T183" s="1"/>
       <c r="W183" s="1"/>
     </row>
     <row r="184" spans="1:23">
@@ -7340,7 +7425,8 @@
       <c r="P184" s="1"/>
       <c r="Q184" s="1"/>
       <c r="R184" s="1"/>
-      <c r="U184" s="1"/>
+      <c r="S184" s="1"/>
+      <c r="T184" s="1"/>
       <c r="W184" s="1"/>
     </row>
     <row r="185" spans="1:23">
@@ -7361,7 +7447,8 @@
       <c r="P185" s="1"/>
       <c r="Q185" s="1"/>
       <c r="R185" s="1"/>
-      <c r="U185" s="1"/>
+      <c r="S185" s="1"/>
+      <c r="T185" s="1"/>
       <c r="W185" s="1"/>
     </row>
     <row r="186" spans="1:23">
@@ -7382,7 +7469,8 @@
       <c r="P186" s="1"/>
       <c r="Q186" s="1"/>
       <c r="R186" s="1"/>
-      <c r="U186" s="1"/>
+      <c r="S186" s="1"/>
+      <c r="T186" s="1"/>
       <c r="W186" s="1"/>
     </row>
     <row r="187" spans="1:23">
@@ -7403,7 +7491,8 @@
       <c r="P187" s="1"/>
       <c r="Q187" s="1"/>
       <c r="R187" s="1"/>
-      <c r="U187" s="1"/>
+      <c r="S187" s="1"/>
+      <c r="T187" s="1"/>
       <c r="W187" s="1"/>
     </row>
     <row r="188" spans="1:23">
@@ -7424,7 +7513,8 @@
       <c r="P188" s="1"/>
       <c r="Q188" s="1"/>
       <c r="R188" s="1"/>
-      <c r="U188" s="1"/>
+      <c r="S188" s="1"/>
+      <c r="T188" s="1"/>
       <c r="W188" s="1"/>
     </row>
     <row r="189" spans="1:23">
@@ -7445,7 +7535,8 @@
       <c r="P189" s="1"/>
       <c r="Q189" s="1"/>
       <c r="R189" s="1"/>
-      <c r="U189" s="1"/>
+      <c r="S189" s="1"/>
+      <c r="T189" s="1"/>
       <c r="W189" s="1"/>
     </row>
     <row r="190" spans="1:23">
@@ -7466,7 +7557,8 @@
       <c r="P190" s="1"/>
       <c r="Q190" s="1"/>
       <c r="R190" s="1"/>
-      <c r="U190" s="1"/>
+      <c r="S190" s="1"/>
+      <c r="T190" s="1"/>
       <c r="W190" s="1"/>
     </row>
     <row r="191" spans="1:23">
@@ -7487,7 +7579,8 @@
       <c r="P191" s="1"/>
       <c r="Q191" s="1"/>
       <c r="R191" s="1"/>
-      <c r="U191" s="1"/>
+      <c r="S191" s="1"/>
+      <c r="T191" s="1"/>
       <c r="W191" s="1"/>
     </row>
     <row r="192" spans="1:23">
@@ -7508,7 +7601,8 @@
       <c r="P192" s="1"/>
       <c r="Q192" s="1"/>
       <c r="R192" s="1"/>
-      <c r="U192" s="1"/>
+      <c r="S192" s="1"/>
+      <c r="T192" s="1"/>
       <c r="W192" s="1"/>
     </row>
     <row r="193" spans="1:23">
@@ -7529,7 +7623,8 @@
       <c r="P193" s="1"/>
       <c r="Q193" s="1"/>
       <c r="R193" s="1"/>
-      <c r="U193" s="1"/>
+      <c r="S193" s="1"/>
+      <c r="T193" s="1"/>
       <c r="W193" s="1"/>
     </row>
     <row r="194" spans="1:23">
@@ -7550,7 +7645,8 @@
       <c r="P194" s="1"/>
       <c r="Q194" s="1"/>
       <c r="R194" s="1"/>
-      <c r="U194" s="1"/>
+      <c r="S194" s="1"/>
+      <c r="T194" s="1"/>
       <c r="W194" s="1"/>
     </row>
     <row r="195" spans="1:23">
@@ -7571,7 +7667,8 @@
       <c r="P195" s="1"/>
       <c r="Q195" s="1"/>
       <c r="R195" s="1"/>
-      <c r="U195" s="1"/>
+      <c r="S195" s="1"/>
+      <c r="T195" s="1"/>
       <c r="W195" s="1"/>
     </row>
     <row r="196" spans="1:23">
@@ -7592,7 +7689,8 @@
       <c r="P196" s="1"/>
       <c r="Q196" s="1"/>
       <c r="R196" s="1"/>
-      <c r="U196" s="1"/>
+      <c r="S196" s="1"/>
+      <c r="T196" s="1"/>
       <c r="W196" s="1"/>
     </row>
     <row r="197" spans="1:23">
@@ -7613,7 +7711,8 @@
       <c r="P197" s="1"/>
       <c r="Q197" s="1"/>
       <c r="R197" s="1"/>
-      <c r="U197" s="1"/>
+      <c r="S197" s="1"/>
+      <c r="T197" s="1"/>
       <c r="W197" s="1"/>
     </row>
     <row r="198" spans="1:23">
@@ -7634,7 +7733,8 @@
       <c r="P198" s="1"/>
       <c r="Q198" s="1"/>
       <c r="R198" s="1"/>
-      <c r="U198" s="1"/>
+      <c r="S198" s="1"/>
+      <c r="T198" s="1"/>
       <c r="W198" s="1"/>
     </row>
     <row r="199" spans="1:23">
@@ -7655,7 +7755,8 @@
       <c r="P199" s="1"/>
       <c r="Q199" s="1"/>
       <c r="R199" s="1"/>
-      <c r="U199" s="1"/>
+      <c r="S199" s="1"/>
+      <c r="T199" s="1"/>
       <c r="W199" s="1"/>
     </row>
     <row r="200" spans="1:23">
@@ -7676,7 +7777,8 @@
       <c r="P200" s="1"/>
       <c r="Q200" s="1"/>
       <c r="R200" s="1"/>
-      <c r="U200" s="1"/>
+      <c r="S200" s="1"/>
+      <c r="T200" s="1"/>
       <c r="W200" s="1"/>
     </row>
     <row r="201" spans="1:23">
@@ -7697,7 +7799,8 @@
       <c r="P201" s="1"/>
       <c r="Q201" s="1"/>
       <c r="R201" s="1"/>
-      <c r="U201" s="1"/>
+      <c r="S201" s="1"/>
+      <c r="T201" s="1"/>
       <c r="W201" s="1"/>
     </row>
     <row r="202" spans="1:23">
@@ -7718,7 +7821,8 @@
       <c r="P202" s="1"/>
       <c r="Q202" s="1"/>
       <c r="R202" s="1"/>
-      <c r="U202" s="1"/>
+      <c r="S202" s="1"/>
+      <c r="T202" s="1"/>
       <c r="W202" s="1"/>
     </row>
     <row r="203" spans="1:23">
@@ -7739,7 +7843,8 @@
       <c r="P203" s="1"/>
       <c r="Q203" s="1"/>
       <c r="R203" s="1"/>
-      <c r="U203" s="1"/>
+      <c r="S203" s="1"/>
+      <c r="T203" s="1"/>
       <c r="W203" s="1"/>
     </row>
     <row r="204" spans="1:23">
@@ -7760,7 +7865,8 @@
       <c r="P204" s="1"/>
       <c r="Q204" s="1"/>
       <c r="R204" s="1"/>
-      <c r="U204" s="1"/>
+      <c r="S204" s="1"/>
+      <c r="T204" s="1"/>
       <c r="W204" s="1"/>
     </row>
     <row r="205" spans="1:23">
@@ -7781,7 +7887,8 @@
       <c r="P205" s="1"/>
       <c r="Q205" s="1"/>
       <c r="R205" s="1"/>
-      <c r="U205" s="1"/>
+      <c r="S205" s="1"/>
+      <c r="T205" s="1"/>
       <c r="W205" s="1"/>
     </row>
     <row r="206" spans="1:23">
@@ -7802,7 +7909,8 @@
       <c r="P206" s="1"/>
       <c r="Q206" s="1"/>
       <c r="R206" s="1"/>
-      <c r="U206" s="1"/>
+      <c r="S206" s="1"/>
+      <c r="T206" s="1"/>
       <c r="W206" s="1"/>
     </row>
     <row r="207" spans="1:23">
@@ -7823,7 +7931,8 @@
       <c r="P207" s="1"/>
       <c r="Q207" s="1"/>
       <c r="R207" s="1"/>
-      <c r="U207" s="1"/>
+      <c r="S207" s="1"/>
+      <c r="T207" s="1"/>
       <c r="W207" s="1"/>
     </row>
     <row r="208" spans="1:23">
@@ -7844,7 +7953,8 @@
       <c r="P208" s="1"/>
       <c r="Q208" s="1"/>
       <c r="R208" s="1"/>
-      <c r="U208" s="1"/>
+      <c r="S208" s="1"/>
+      <c r="T208" s="1"/>
       <c r="W208" s="1"/>
     </row>
     <row r="209" spans="1:23">
@@ -7865,7 +7975,8 @@
       <c r="P209" s="1"/>
       <c r="Q209" s="1"/>
       <c r="R209" s="1"/>
-      <c r="U209" s="1"/>
+      <c r="S209" s="1"/>
+      <c r="T209" s="1"/>
       <c r="W209" s="1"/>
     </row>
     <row r="210" spans="1:23">
@@ -7886,7 +7997,8 @@
       <c r="P210" s="1"/>
       <c r="Q210" s="1"/>
       <c r="R210" s="1"/>
-      <c r="U210" s="1"/>
+      <c r="S210" s="1"/>
+      <c r="T210" s="1"/>
       <c r="W210" s="1"/>
     </row>
     <row r="211" spans="1:23">
@@ -7907,7 +8019,8 @@
       <c r="P211" s="1"/>
       <c r="Q211" s="1"/>
       <c r="R211" s="1"/>
-      <c r="U211" s="1"/>
+      <c r="S211" s="1"/>
+      <c r="T211" s="1"/>
       <c r="W211" s="1"/>
     </row>
     <row r="212" spans="1:23">
@@ -7928,7 +8041,8 @@
       <c r="P212" s="1"/>
       <c r="Q212" s="1"/>
       <c r="R212" s="1"/>
-      <c r="U212" s="1"/>
+      <c r="S212" s="1"/>
+      <c r="T212" s="1"/>
       <c r="W212" s="1"/>
     </row>
     <row r="213" spans="1:23">
@@ -7949,7 +8063,8 @@
       <c r="P213" s="1"/>
       <c r="Q213" s="1"/>
       <c r="R213" s="1"/>
-      <c r="U213" s="1"/>
+      <c r="S213" s="1"/>
+      <c r="T213" s="1"/>
       <c r="W213" s="1"/>
     </row>
     <row r="214" spans="1:23">
@@ -7970,7 +8085,8 @@
       <c r="P214" s="1"/>
       <c r="Q214" s="1"/>
       <c r="R214" s="1"/>
-      <c r="U214" s="1"/>
+      <c r="S214" s="1"/>
+      <c r="T214" s="1"/>
       <c r="W214" s="1"/>
     </row>
     <row r="215" spans="1:23">
@@ -7991,7 +8107,8 @@
       <c r="P215" s="1"/>
       <c r="Q215" s="1"/>
       <c r="R215" s="1"/>
-      <c r="U215" s="1"/>
+      <c r="S215" s="1"/>
+      <c r="T215" s="1"/>
       <c r="W215" s="1"/>
     </row>
     <row r="216" spans="1:23">
@@ -8012,7 +8129,8 @@
       <c r="P216" s="1"/>
       <c r="Q216" s="1"/>
       <c r="R216" s="1"/>
-      <c r="U216" s="1"/>
+      <c r="S216" s="1"/>
+      <c r="T216" s="1"/>
       <c r="W216" s="1"/>
     </row>
     <row r="217" spans="1:23">
@@ -8033,7 +8151,8 @@
       <c r="P217" s="1"/>
       <c r="Q217" s="1"/>
       <c r="R217" s="1"/>
-      <c r="U217" s="1"/>
+      <c r="S217" s="1"/>
+      <c r="T217" s="1"/>
       <c r="W217" s="1"/>
     </row>
     <row r="218" spans="1:23">
@@ -8054,7 +8173,8 @@
       <c r="P218" s="1"/>
       <c r="Q218" s="1"/>
       <c r="R218" s="1"/>
-      <c r="U218" s="1"/>
+      <c r="S218" s="1"/>
+      <c r="T218" s="1"/>
       <c r="W218" s="1"/>
     </row>
     <row r="219" spans="1:23">
@@ -8075,7 +8195,8 @@
       <c r="P219" s="1"/>
       <c r="Q219" s="1"/>
       <c r="R219" s="1"/>
-      <c r="U219" s="1"/>
+      <c r="S219" s="1"/>
+      <c r="T219" s="1"/>
       <c r="W219" s="1"/>
     </row>
     <row r="220" spans="1:23">
@@ -8096,7 +8217,8 @@
       <c r="P220" s="1"/>
       <c r="Q220" s="1"/>
       <c r="R220" s="1"/>
-      <c r="U220" s="1"/>
+      <c r="S220" s="1"/>
+      <c r="T220" s="1"/>
       <c r="W220" s="1"/>
     </row>
     <row r="221" spans="1:23">
@@ -8117,7 +8239,8 @@
       <c r="P221" s="1"/>
       <c r="Q221" s="1"/>
       <c r="R221" s="1"/>
-      <c r="U221" s="1"/>
+      <c r="S221" s="1"/>
+      <c r="T221" s="1"/>
       <c r="W221" s="1"/>
     </row>
     <row r="222" spans="1:23">
@@ -8138,7 +8261,8 @@
       <c r="P222" s="1"/>
       <c r="Q222" s="1"/>
       <c r="R222" s="1"/>
-      <c r="U222" s="1"/>
+      <c r="S222" s="1"/>
+      <c r="T222" s="1"/>
       <c r="W222" s="1"/>
     </row>
     <row r="223" spans="1:23">
@@ -8159,7 +8283,8 @@
       <c r="P223" s="1"/>
       <c r="Q223" s="1"/>
       <c r="R223" s="1"/>
-      <c r="U223" s="1"/>
+      <c r="S223" s="1"/>
+      <c r="T223" s="1"/>
       <c r="W223" s="1"/>
     </row>
     <row r="224" spans="1:23">
@@ -8180,7 +8305,8 @@
       <c r="P224" s="1"/>
       <c r="Q224" s="1"/>
       <c r="R224" s="1"/>
-      <c r="U224" s="1"/>
+      <c r="S224" s="1"/>
+      <c r="T224" s="1"/>
       <c r="W224" s="1"/>
     </row>
     <row r="225" spans="1:23">
@@ -8201,7 +8327,8 @@
       <c r="P225" s="1"/>
       <c r="Q225" s="1"/>
       <c r="R225" s="1"/>
-      <c r="U225" s="1"/>
+      <c r="S225" s="1"/>
+      <c r="T225" s="1"/>
       <c r="W225" s="1"/>
     </row>
     <row r="226" spans="1:23">
@@ -8222,7 +8349,8 @@
       <c r="P226" s="1"/>
       <c r="Q226" s="1"/>
       <c r="R226" s="1"/>
-      <c r="U226" s="1"/>
+      <c r="S226" s="1"/>
+      <c r="T226" s="1"/>
       <c r="W226" s="1"/>
     </row>
     <row r="227" spans="1:23">
@@ -8243,7 +8371,8 @@
       <c r="P227" s="1"/>
       <c r="Q227" s="1"/>
       <c r="R227" s="1"/>
-      <c r="U227" s="1"/>
+      <c r="S227" s="1"/>
+      <c r="T227" s="1"/>
       <c r="W227" s="1"/>
     </row>
     <row r="228" spans="1:23">
@@ -8264,7 +8393,8 @@
       <c r="P228" s="1"/>
       <c r="Q228" s="1"/>
       <c r="R228" s="1"/>
-      <c r="U228" s="1"/>
+      <c r="S228" s="1"/>
+      <c r="T228" s="1"/>
       <c r="W228" s="1"/>
     </row>
     <row r="229" spans="1:23">
@@ -8285,7 +8415,8 @@
       <c r="P229" s="1"/>
       <c r="Q229" s="1"/>
       <c r="R229" s="1"/>
-      <c r="U229" s="1"/>
+      <c r="S229" s="1"/>
+      <c r="T229" s="1"/>
       <c r="W229" s="1"/>
     </row>
     <row r="230" spans="1:23">
@@ -8306,7 +8437,8 @@
       <c r="P230" s="1"/>
       <c r="Q230" s="1"/>
       <c r="R230" s="1"/>
-      <c r="U230" s="1"/>
+      <c r="S230" s="1"/>
+      <c r="T230" s="1"/>
       <c r="W230" s="1"/>
     </row>
     <row r="231" spans="1:23">
@@ -8327,7 +8459,8 @@
       <c r="P231" s="1"/>
       <c r="Q231" s="1"/>
       <c r="R231" s="1"/>
-      <c r="U231" s="1"/>
+      <c r="S231" s="1"/>
+      <c r="T231" s="1"/>
       <c r="W231" s="1"/>
     </row>
     <row r="232" spans="1:23">
@@ -8348,7 +8481,8 @@
       <c r="P232" s="1"/>
       <c r="Q232" s="1"/>
       <c r="R232" s="1"/>
-      <c r="U232" s="1"/>
+      <c r="S232" s="1"/>
+      <c r="T232" s="1"/>
       <c r="W232" s="1"/>
     </row>
     <row r="233" spans="1:23">
@@ -8369,7 +8503,8 @@
       <c r="P233" s="1"/>
       <c r="Q233" s="1"/>
       <c r="R233" s="1"/>
-      <c r="U233" s="1"/>
+      <c r="S233" s="1"/>
+      <c r="T233" s="1"/>
       <c r="W233" s="1"/>
     </row>
     <row r="234" spans="1:23">
@@ -8390,7 +8525,8 @@
       <c r="P234" s="1"/>
       <c r="Q234" s="1"/>
       <c r="R234" s="1"/>
-      <c r="U234" s="1"/>
+      <c r="S234" s="1"/>
+      <c r="T234" s="1"/>
       <c r="W234" s="1"/>
     </row>
     <row r="235" spans="1:23">
@@ -8411,7 +8547,8 @@
       <c r="P235" s="1"/>
       <c r="Q235" s="1"/>
       <c r="R235" s="1"/>
-      <c r="U235" s="1"/>
+      <c r="S235" s="1"/>
+      <c r="T235" s="1"/>
       <c r="W235" s="1"/>
     </row>
     <row r="236" spans="1:23">
@@ -8432,7 +8569,8 @@
       <c r="P236" s="1"/>
       <c r="Q236" s="1"/>
       <c r="R236" s="1"/>
-      <c r="U236" s="1"/>
+      <c r="S236" s="1"/>
+      <c r="T236" s="1"/>
       <c r="W236" s="1"/>
     </row>
     <row r="237" spans="1:23">
@@ -8453,7 +8591,8 @@
       <c r="P237" s="1"/>
       <c r="Q237" s="1"/>
       <c r="R237" s="1"/>
-      <c r="U237" s="1"/>
+      <c r="S237" s="1"/>
+      <c r="T237" s="1"/>
       <c r="W237" s="1"/>
     </row>
     <row r="238" spans="1:23">
@@ -8474,7 +8613,8 @@
       <c r="P238" s="1"/>
       <c r="Q238" s="1"/>
       <c r="R238" s="1"/>
-      <c r="U238" s="1"/>
+      <c r="S238" s="1"/>
+      <c r="T238" s="1"/>
       <c r="W238" s="1"/>
     </row>
     <row r="239" spans="1:23">
@@ -8495,7 +8635,8 @@
       <c r="P239" s="1"/>
       <c r="Q239" s="1"/>
       <c r="R239" s="1"/>
-      <c r="U239" s="1"/>
+      <c r="S239" s="1"/>
+      <c r="T239" s="1"/>
       <c r="W239" s="1"/>
     </row>
     <row r="240" spans="1:23">
@@ -8516,7 +8657,8 @@
       <c r="P240" s="1"/>
       <c r="Q240" s="1"/>
       <c r="R240" s="1"/>
-      <c r="U240" s="1"/>
+      <c r="S240" s="1"/>
+      <c r="T240" s="1"/>
       <c r="W240" s="1"/>
     </row>
     <row r="241" spans="1:23">
@@ -8537,7 +8679,8 @@
       <c r="P241" s="1"/>
       <c r="Q241" s="1"/>
       <c r="R241" s="1"/>
-      <c r="U241" s="1"/>
+      <c r="S241" s="1"/>
+      <c r="T241" s="1"/>
       <c r="W241" s="1"/>
     </row>
     <row r="242" spans="1:23">
@@ -8558,7 +8701,8 @@
       <c r="P242" s="1"/>
       <c r="Q242" s="1"/>
       <c r="R242" s="1"/>
-      <c r="U242" s="1"/>
+      <c r="S242" s="1"/>
+      <c r="T242" s="1"/>
       <c r="W242" s="1"/>
     </row>
     <row r="243" spans="1:23">
@@ -8579,7 +8723,8 @@
       <c r="P243" s="1"/>
       <c r="Q243" s="1"/>
       <c r="R243" s="1"/>
-      <c r="U243" s="1"/>
+      <c r="S243" s="1"/>
+      <c r="T243" s="1"/>
       <c r="W243" s="1"/>
     </row>
     <row r="244" spans="1:23">
@@ -8600,7 +8745,8 @@
       <c r="P244" s="1"/>
       <c r="Q244" s="1"/>
       <c r="R244" s="1"/>
-      <c r="U244" s="1"/>
+      <c r="S244" s="1"/>
+      <c r="T244" s="1"/>
       <c r="W244" s="1"/>
     </row>
     <row r="245" spans="1:23">
@@ -8621,7 +8767,8 @@
       <c r="P245" s="1"/>
       <c r="Q245" s="1"/>
       <c r="R245" s="1"/>
-      <c r="U245" s="1"/>
+      <c r="S245" s="1"/>
+      <c r="T245" s="1"/>
       <c r="W245" s="1"/>
     </row>
     <row r="246" spans="1:23">
@@ -8642,7 +8789,8 @@
       <c r="P246" s="1"/>
       <c r="Q246" s="1"/>
       <c r="R246" s="1"/>
-      <c r="U246" s="1"/>
+      <c r="S246" s="1"/>
+      <c r="T246" s="1"/>
       <c r="W246" s="1"/>
     </row>
     <row r="247" spans="1:23">
@@ -8663,7 +8811,8 @@
       <c r="P247" s="1"/>
       <c r="Q247" s="1"/>
       <c r="R247" s="1"/>
-      <c r="U247" s="1"/>
+      <c r="S247" s="1"/>
+      <c r="T247" s="1"/>
       <c r="W247" s="1"/>
     </row>
     <row r="248" spans="1:23">
@@ -8684,7 +8833,8 @@
       <c r="P248" s="1"/>
       <c r="Q248" s="1"/>
       <c r="R248" s="1"/>
-      <c r="U248" s="1"/>
+      <c r="S248" s="1"/>
+      <c r="T248" s="1"/>
       <c r="W248" s="1"/>
     </row>
     <row r="249" spans="1:23">
@@ -8705,7 +8855,8 @@
       <c r="P249" s="1"/>
       <c r="Q249" s="1"/>
       <c r="R249" s="1"/>
-      <c r="U249" s="1"/>
+      <c r="S249" s="1"/>
+      <c r="T249" s="1"/>
       <c r="W249" s="1"/>
     </row>
     <row r="250" spans="1:23">
@@ -8726,7 +8877,8 @@
       <c r="P250" s="1"/>
       <c r="Q250" s="1"/>
       <c r="R250" s="1"/>
-      <c r="U250" s="1"/>
+      <c r="S250" s="1"/>
+      <c r="T250" s="1"/>
       <c r="W250" s="1"/>
     </row>
     <row r="251" spans="1:23">
@@ -8747,7 +8899,8 @@
       <c r="P251" s="1"/>
       <c r="Q251" s="1"/>
       <c r="R251" s="1"/>
-      <c r="U251" s="1"/>
+      <c r="S251" s="1"/>
+      <c r="T251" s="1"/>
       <c r="W251" s="1"/>
     </row>
     <row r="252" spans="1:23">
@@ -8768,7 +8921,8 @@
       <c r="P252" s="1"/>
       <c r="Q252" s="1"/>
       <c r="R252" s="1"/>
-      <c r="U252" s="1"/>
+      <c r="S252" s="1"/>
+      <c r="T252" s="1"/>
       <c r="W252" s="1"/>
     </row>
     <row r="253" spans="1:23">
@@ -8789,7 +8943,8 @@
       <c r="P253" s="1"/>
       <c r="Q253" s="1"/>
       <c r="R253" s="1"/>
-      <c r="U253" s="1"/>
+      <c r="S253" s="1"/>
+      <c r="T253" s="1"/>
       <c r="W253" s="1"/>
     </row>
     <row r="254" spans="1:23">
@@ -8810,7 +8965,8 @@
       <c r="P254" s="1"/>
       <c r="Q254" s="1"/>
       <c r="R254" s="1"/>
-      <c r="U254" s="1"/>
+      <c r="S254" s="1"/>
+      <c r="T254" s="1"/>
       <c r="W254" s="1"/>
     </row>
     <row r="255" spans="1:23">
@@ -8831,7 +8987,8 @@
       <c r="P255" s="1"/>
       <c r="Q255" s="1"/>
       <c r="R255" s="1"/>
-      <c r="U255" s="1"/>
+      <c r="S255" s="1"/>
+      <c r="T255" s="1"/>
       <c r="W255" s="1"/>
     </row>
     <row r="256" spans="1:23">
@@ -8852,7 +9009,8 @@
       <c r="P256" s="1"/>
       <c r="Q256" s="1"/>
       <c r="R256" s="1"/>
-      <c r="U256" s="1"/>
+      <c r="S256" s="1"/>
+      <c r="T256" s="1"/>
       <c r="W256" s="1"/>
     </row>
     <row r="257" spans="1:23">
@@ -8873,7 +9031,8 @@
       <c r="P257" s="1"/>
       <c r="Q257" s="1"/>
       <c r="R257" s="1"/>
-      <c r="U257" s="1"/>
+      <c r="S257" s="1"/>
+      <c r="T257" s="1"/>
       <c r="W257" s="1"/>
     </row>
     <row r="258" spans="1:23">
@@ -8894,7 +9053,8 @@
       <c r="P258" s="1"/>
       <c r="Q258" s="1"/>
       <c r="R258" s="1"/>
-      <c r="U258" s="1"/>
+      <c r="S258" s="1"/>
+      <c r="T258" s="1"/>
       <c r="W258" s="1"/>
     </row>
     <row r="259" spans="1:23">
@@ -8915,7 +9075,8 @@
       <c r="P259" s="1"/>
       <c r="Q259" s="1"/>
       <c r="R259" s="1"/>
-      <c r="U259" s="1"/>
+      <c r="S259" s="1"/>
+      <c r="T259" s="1"/>
       <c r="W259" s="1"/>
     </row>
     <row r="260" spans="1:23">
@@ -8936,7 +9097,8 @@
       <c r="P260" s="1"/>
       <c r="Q260" s="1"/>
       <c r="R260" s="1"/>
-      <c r="U260" s="1"/>
+      <c r="S260" s="1"/>
+      <c r="T260" s="1"/>
       <c r="W260" s="1"/>
     </row>
     <row r="261" spans="1:23">
@@ -8957,7 +9119,8 @@
       <c r="P261" s="1"/>
       <c r="Q261" s="1"/>
       <c r="R261" s="1"/>
-      <c r="U261" s="1"/>
+      <c r="S261" s="1"/>
+      <c r="T261" s="1"/>
       <c r="W261" s="1"/>
     </row>
     <row r="262" spans="1:23">
@@ -8978,7 +9141,8 @@
       <c r="P262" s="1"/>
       <c r="Q262" s="1"/>
       <c r="R262" s="1"/>
-      <c r="U262" s="1"/>
+      <c r="S262" s="1"/>
+      <c r="T262" s="1"/>
       <c r="W262" s="1"/>
     </row>
     <row r="263" spans="1:23">
@@ -8999,7 +9163,8 @@
       <c r="P263" s="1"/>
       <c r="Q263" s="1"/>
       <c r="R263" s="1"/>
-      <c r="U263" s="1"/>
+      <c r="S263" s="1"/>
+      <c r="T263" s="1"/>
       <c r="W263" s="1"/>
     </row>
     <row r="264" spans="1:23">
@@ -9020,7 +9185,8 @@
       <c r="P264" s="1"/>
       <c r="Q264" s="1"/>
       <c r="R264" s="1"/>
-      <c r="U264" s="1"/>
+      <c r="S264" s="1"/>
+      <c r="T264" s="1"/>
       <c r="W264" s="1"/>
     </row>
     <row r="265" spans="1:23">
@@ -9041,7 +9207,8 @@
       <c r="P265" s="1"/>
       <c r="Q265" s="1"/>
       <c r="R265" s="1"/>
-      <c r="U265" s="1"/>
+      <c r="S265" s="1"/>
+      <c r="T265" s="1"/>
       <c r="W265" s="1"/>
     </row>
     <row r="266" spans="1:23">
@@ -9062,7 +9229,8 @@
       <c r="P266" s="1"/>
       <c r="Q266" s="1"/>
       <c r="R266" s="1"/>
-      <c r="U266" s="1"/>
+      <c r="S266" s="1"/>
+      <c r="T266" s="1"/>
       <c r="W266" s="1"/>
     </row>
     <row r="267" spans="1:23">
@@ -9083,7 +9251,8 @@
       <c r="P267" s="1"/>
       <c r="Q267" s="1"/>
       <c r="R267" s="1"/>
-      <c r="U267" s="1"/>
+      <c r="S267" s="1"/>
+      <c r="T267" s="1"/>
       <c r="W267" s="1"/>
     </row>
     <row r="268" spans="1:23">
@@ -9104,7 +9273,8 @@
       <c r="P268" s="1"/>
       <c r="Q268" s="1"/>
       <c r="R268" s="1"/>
-      <c r="U268" s="1"/>
+      <c r="S268" s="1"/>
+      <c r="T268" s="1"/>
       <c r="W268" s="1"/>
     </row>
     <row r="269" spans="1:23">
@@ -9125,7 +9295,8 @@
       <c r="P269" s="1"/>
       <c r="Q269" s="1"/>
       <c r="R269" s="1"/>
-      <c r="U269" s="1"/>
+      <c r="S269" s="1"/>
+      <c r="T269" s="1"/>
       <c r="W269" s="1"/>
     </row>
     <row r="270" spans="1:23">
@@ -9146,7 +9317,8 @@
       <c r="P270" s="1"/>
       <c r="Q270" s="1"/>
       <c r="R270" s="1"/>
-      <c r="U270" s="1"/>
+      <c r="S270" s="1"/>
+      <c r="T270" s="1"/>
       <c r="W270" s="1"/>
     </row>
     <row r="271" spans="1:23">
@@ -9167,7 +9339,8 @@
       <c r="P271" s="1"/>
       <c r="Q271" s="1"/>
       <c r="R271" s="1"/>
-      <c r="U271" s="1"/>
+      <c r="S271" s="1"/>
+      <c r="T271" s="1"/>
       <c r="W271" s="1"/>
     </row>
     <row r="272" spans="1:23">
@@ -9188,7 +9361,8 @@
       <c r="P272" s="1"/>
       <c r="Q272" s="1"/>
       <c r="R272" s="1"/>
-      <c r="U272" s="1"/>
+      <c r="S272" s="1"/>
+      <c r="T272" s="1"/>
       <c r="W272" s="1"/>
     </row>
     <row r="273" spans="1:23">
@@ -9209,7 +9383,8 @@
       <c r="P273" s="1"/>
       <c r="Q273" s="1"/>
       <c r="R273" s="1"/>
-      <c r="U273" s="1"/>
+      <c r="S273" s="1"/>
+      <c r="T273" s="1"/>
       <c r="W273" s="1"/>
     </row>
     <row r="274" spans="1:23">
@@ -9230,7 +9405,8 @@
       <c r="P274" s="1"/>
       <c r="Q274" s="1"/>
       <c r="R274" s="1"/>
-      <c r="U274" s="1"/>
+      <c r="S274" s="1"/>
+      <c r="T274" s="1"/>
       <c r="W274" s="1"/>
     </row>
     <row r="275" spans="1:23">
@@ -9251,7 +9427,8 @@
       <c r="P275" s="1"/>
       <c r="Q275" s="1"/>
       <c r="R275" s="1"/>
-      <c r="U275" s="1"/>
+      <c r="S275" s="1"/>
+      <c r="T275" s="1"/>
       <c r="W275" s="1"/>
     </row>
     <row r="276" spans="1:23">
@@ -9272,7 +9449,8 @@
       <c r="P276" s="1"/>
       <c r="Q276" s="1"/>
       <c r="R276" s="1"/>
-      <c r="U276" s="1"/>
+      <c r="S276" s="1"/>
+      <c r="T276" s="1"/>
       <c r="W276" s="1"/>
     </row>
     <row r="277" spans="1:23">
@@ -9293,7 +9471,8 @@
       <c r="P277" s="1"/>
       <c r="Q277" s="1"/>
       <c r="R277" s="1"/>
-      <c r="U277" s="1"/>
+      <c r="S277" s="1"/>
+      <c r="T277" s="1"/>
       <c r="W277" s="1"/>
     </row>
     <row r="278" spans="1:23">
@@ -9314,7 +9493,8 @@
       <c r="P278" s="1"/>
       <c r="Q278" s="1"/>
       <c r="R278" s="1"/>
-      <c r="U278" s="1"/>
+      <c r="S278" s="1"/>
+      <c r="T278" s="1"/>
       <c r="W278" s="1"/>
     </row>
     <row r="279" spans="1:23">
@@ -9335,7 +9515,8 @@
       <c r="P279" s="1"/>
       <c r="Q279" s="1"/>
       <c r="R279" s="1"/>
-      <c r="U279" s="1"/>
+      <c r="S279" s="1"/>
+      <c r="T279" s="1"/>
       <c r="W279" s="1"/>
     </row>
     <row r="280" spans="1:23">
@@ -9356,7 +9537,8 @@
       <c r="P280" s="1"/>
       <c r="Q280" s="1"/>
       <c r="R280" s="1"/>
-      <c r="U280" s="1"/>
+      <c r="S280" s="1"/>
+      <c r="T280" s="1"/>
       <c r="W280" s="1"/>
     </row>
     <row r="281" spans="1:23">
@@ -9377,7 +9559,8 @@
       <c r="P281" s="1"/>
       <c r="Q281" s="1"/>
       <c r="R281" s="1"/>
-      <c r="U281" s="1"/>
+      <c r="S281" s="1"/>
+      <c r="T281" s="1"/>
       <c r="W281" s="1"/>
     </row>
     <row r="282" spans="1:23">
@@ -9398,7 +9581,8 @@
       <c r="P282" s="1"/>
       <c r="Q282" s="1"/>
       <c r="R282" s="1"/>
-      <c r="U282" s="1"/>
+      <c r="S282" s="1"/>
+      <c r="T282" s="1"/>
       <c r="W282" s="1"/>
     </row>
     <row r="283" spans="1:23">
@@ -9419,7 +9603,8 @@
       <c r="P283" s="1"/>
       <c r="Q283" s="1"/>
       <c r="R283" s="1"/>
-      <c r="U283" s="1"/>
+      <c r="S283" s="1"/>
+      <c r="T283" s="1"/>
       <c r="W283" s="1"/>
     </row>
     <row r="284" spans="1:23">
@@ -9440,7 +9625,8 @@
       <c r="P284" s="1"/>
       <c r="Q284" s="1"/>
       <c r="R284" s="1"/>
-      <c r="U284" s="1"/>
+      <c r="S284" s="1"/>
+      <c r="T284" s="1"/>
       <c r="W284" s="1"/>
     </row>
     <row r="285" spans="1:23">
@@ -9461,7 +9647,8 @@
       <c r="P285" s="1"/>
       <c r="Q285" s="1"/>
       <c r="R285" s="1"/>
-      <c r="U285" s="1"/>
+      <c r="S285" s="1"/>
+      <c r="T285" s="1"/>
       <c r="W285" s="1"/>
     </row>
     <row r="286" spans="1:23">
@@ -9482,7 +9669,8 @@
       <c r="P286" s="1"/>
       <c r="Q286" s="1"/>
       <c r="R286" s="1"/>
-      <c r="U286" s="1"/>
+      <c r="S286" s="1"/>
+      <c r="T286" s="1"/>
       <c r="W286" s="1"/>
     </row>
     <row r="287" spans="1:23">
@@ -9503,7 +9691,8 @@
       <c r="P287" s="1"/>
       <c r="Q287" s="1"/>
       <c r="R287" s="1"/>
-      <c r="U287" s="1"/>
+      <c r="S287" s="1"/>
+      <c r="T287" s="1"/>
       <c r="W287" s="1"/>
     </row>
     <row r="288" spans="1:23">
@@ -9524,7 +9713,8 @@
       <c r="P288" s="1"/>
       <c r="Q288" s="1"/>
       <c r="R288" s="1"/>
-      <c r="U288" s="1"/>
+      <c r="S288" s="1"/>
+      <c r="T288" s="1"/>
       <c r="W288" s="1"/>
     </row>
     <row r="289" spans="1:23">
@@ -9545,7 +9735,8 @@
       <c r="P289" s="1"/>
       <c r="Q289" s="1"/>
       <c r="R289" s="1"/>
-      <c r="U289" s="1"/>
+      <c r="S289" s="1"/>
+      <c r="T289" s="1"/>
       <c r="W289" s="1"/>
     </row>
     <row r="290" spans="1:23">
@@ -9566,7 +9757,8 @@
       <c r="P290" s="1"/>
       <c r="Q290" s="1"/>
       <c r="R290" s="1"/>
-      <c r="U290" s="1"/>
+      <c r="S290" s="1"/>
+      <c r="T290" s="1"/>
       <c r="W290" s="1"/>
     </row>
     <row r="291" spans="1:23">
@@ -9587,7 +9779,8 @@
       <c r="P291" s="1"/>
       <c r="Q291" s="1"/>
       <c r="R291" s="1"/>
-      <c r="U291" s="1"/>
+      <c r="S291" s="1"/>
+      <c r="T291" s="1"/>
       <c r="W291" s="1"/>
     </row>
     <row r="292" spans="1:23">
@@ -9608,7 +9801,8 @@
       <c r="P292" s="1"/>
       <c r="Q292" s="1"/>
       <c r="R292" s="1"/>
-      <c r="U292" s="1"/>
+      <c r="S292" s="1"/>
+      <c r="T292" s="1"/>
       <c r="W292" s="1"/>
     </row>
     <row r="293" spans="1:23">
@@ -9629,7 +9823,8 @@
       <c r="P293" s="1"/>
       <c r="Q293" s="1"/>
       <c r="R293" s="1"/>
-      <c r="U293" s="1"/>
+      <c r="S293" s="1"/>
+      <c r="T293" s="1"/>
       <c r="W293" s="1"/>
     </row>
     <row r="294" spans="1:23">
@@ -9650,7 +9845,8 @@
       <c r="P294" s="1"/>
       <c r="Q294" s="1"/>
       <c r="R294" s="1"/>
-      <c r="U294" s="1"/>
+      <c r="S294" s="1"/>
+      <c r="T294" s="1"/>
       <c r="W294" s="1"/>
     </row>
     <row r="295" spans="1:23">
@@ -9671,7 +9867,8 @@
       <c r="P295" s="1"/>
       <c r="Q295" s="1"/>
       <c r="R295" s="1"/>
-      <c r="U295" s="1"/>
+      <c r="S295" s="1"/>
+      <c r="T295" s="1"/>
       <c r="W295" s="1"/>
     </row>
     <row r="296" spans="1:23">
@@ -9692,7 +9889,8 @@
       <c r="P296" s="1"/>
       <c r="Q296" s="1"/>
       <c r="R296" s="1"/>
-      <c r="U296" s="1"/>
+      <c r="S296" s="1"/>
+      <c r="T296" s="1"/>
       <c r="W296" s="1"/>
     </row>
     <row r="297" spans="1:23">
@@ -9713,7 +9911,8 @@
       <c r="P297" s="1"/>
       <c r="Q297" s="1"/>
       <c r="R297" s="1"/>
-      <c r="U297" s="1"/>
+      <c r="S297" s="1"/>
+      <c r="T297" s="1"/>
       <c r="W297" s="1"/>
     </row>
     <row r="298" spans="1:23">
@@ -9734,7 +9933,8 @@
       <c r="P298" s="1"/>
       <c r="Q298" s="1"/>
       <c r="R298" s="1"/>
-      <c r="U298" s="1"/>
+      <c r="S298" s="1"/>
+      <c r="T298" s="1"/>
       <c r="W298" s="1"/>
     </row>
     <row r="299" spans="1:23">
@@ -9755,7 +9955,8 @@
       <c r="P299" s="1"/>
       <c r="Q299" s="1"/>
       <c r="R299" s="1"/>
-      <c r="U299" s="1"/>
+      <c r="S299" s="1"/>
+      <c r="T299" s="1"/>
       <c r="W299" s="1"/>
     </row>
     <row r="300" spans="1:23">
@@ -9776,7 +9977,8 @@
       <c r="P300" s="1"/>
       <c r="Q300" s="1"/>
       <c r="R300" s="1"/>
-      <c r="U300" s="1"/>
+      <c r="S300" s="1"/>
+      <c r="T300" s="1"/>
       <c r="W300" s="1"/>
     </row>
     <row r="301" spans="1:23">
@@ -9797,7 +9999,8 @@
       <c r="P301" s="1"/>
       <c r="Q301" s="1"/>
       <c r="R301" s="1"/>
-      <c r="U301" s="1"/>
+      <c r="S301" s="1"/>
+      <c r="T301" s="1"/>
       <c r="W301" s="1"/>
     </row>
     <row r="302" spans="1:23">
@@ -9818,7 +10021,8 @@
       <c r="P302" s="1"/>
       <c r="Q302" s="1"/>
       <c r="R302" s="1"/>
-      <c r="U302" s="1"/>
+      <c r="S302" s="1"/>
+      <c r="T302" s="1"/>
       <c r="W302" s="1"/>
     </row>
     <row r="303" spans="1:23">
@@ -9839,7 +10043,8 @@
       <c r="P303" s="1"/>
       <c r="Q303" s="1"/>
       <c r="R303" s="1"/>
-      <c r="U303" s="1"/>
+      <c r="S303" s="1"/>
+      <c r="T303" s="1"/>
       <c r="W303" s="1"/>
     </row>
     <row r="304" spans="1:23">
@@ -9860,7 +10065,8 @@
       <c r="P304" s="1"/>
       <c r="Q304" s="1"/>
       <c r="R304" s="1"/>
-      <c r="U304" s="1"/>
+      <c r="S304" s="1"/>
+      <c r="T304" s="1"/>
       <c r="W304" s="1"/>
     </row>
     <row r="305" spans="1:23">
@@ -9881,7 +10087,8 @@
       <c r="P305" s="1"/>
       <c r="Q305" s="1"/>
       <c r="R305" s="1"/>
-      <c r="U305" s="1"/>
+      <c r="S305" s="1"/>
+      <c r="T305" s="1"/>
       <c r="W305" s="1"/>
     </row>
     <row r="306" spans="1:23">
@@ -9902,7 +10109,8 @@
       <c r="P306" s="1"/>
       <c r="Q306" s="1"/>
       <c r="R306" s="1"/>
-      <c r="U306" s="1"/>
+      <c r="S306" s="1"/>
+      <c r="T306" s="1"/>
       <c r="W306" s="1"/>
     </row>
     <row r="307" spans="1:23">
@@ -9923,7 +10131,8 @@
       <c r="P307" s="1"/>
       <c r="Q307" s="1"/>
       <c r="R307" s="1"/>
-      <c r="U307" s="1"/>
+      <c r="S307" s="1"/>
+      <c r="T307" s="1"/>
       <c r="W307" s="1"/>
     </row>
     <row r="308" spans="1:23">
@@ -9944,7 +10153,8 @@
       <c r="P308" s="1"/>
       <c r="Q308" s="1"/>
       <c r="R308" s="1"/>
-      <c r="U308" s="1"/>
+      <c r="S308" s="1"/>
+      <c r="T308" s="1"/>
       <c r="W308" s="1"/>
     </row>
     <row r="309" spans="1:23">
@@ -9965,7 +10175,8 @@
       <c r="P309" s="1"/>
       <c r="Q309" s="1"/>
       <c r="R309" s="1"/>
-      <c r="U309" s="1"/>
+      <c r="S309" s="1"/>
+      <c r="T309" s="1"/>
       <c r="W309" s="1"/>
     </row>
     <row r="310" spans="1:23">
@@ -9986,7 +10197,8 @@
       <c r="P310" s="1"/>
       <c r="Q310" s="1"/>
       <c r="R310" s="1"/>
-      <c r="U310" s="1"/>
+      <c r="S310" s="1"/>
+      <c r="T310" s="1"/>
       <c r="W310" s="1"/>
     </row>
     <row r="311" spans="1:23">
@@ -10007,7 +10219,8 @@
       <c r="P311" s="1"/>
       <c r="Q311" s="1"/>
       <c r="R311" s="1"/>
-      <c r="U311" s="1"/>
+      <c r="S311" s="1"/>
+      <c r="T311" s="1"/>
       <c r="W311" s="1"/>
     </row>
     <row r="312" spans="1:23">
@@ -10028,7 +10241,8 @@
       <c r="P312" s="1"/>
       <c r="Q312" s="1"/>
       <c r="R312" s="1"/>
-      <c r="U312" s="1"/>
+      <c r="S312" s="1"/>
+      <c r="T312" s="1"/>
       <c r="W312" s="1"/>
     </row>
     <row r="313" spans="1:23">
@@ -10049,7 +10263,8 @@
       <c r="P313" s="1"/>
       <c r="Q313" s="1"/>
       <c r="R313" s="1"/>
-      <c r="U313" s="1"/>
+      <c r="S313" s="1"/>
+      <c r="T313" s="1"/>
       <c r="W313" s="1"/>
     </row>
     <row r="314" spans="1:23">
@@ -10070,7 +10285,8 @@
       <c r="P314" s="1"/>
       <c r="Q314" s="1"/>
       <c r="R314" s="1"/>
-      <c r="U314" s="1"/>
+      <c r="S314" s="1"/>
+      <c r="T314" s="1"/>
       <c r="W314" s="1"/>
     </row>
     <row r="315" spans="1:23">
@@ -10091,7 +10307,8 @@
       <c r="P315" s="1"/>
       <c r="Q315" s="1"/>
       <c r="R315" s="1"/>
-      <c r="U315" s="1"/>
+      <c r="S315" s="1"/>
+      <c r="T315" s="1"/>
       <c r="W315" s="1"/>
     </row>
     <row r="316" spans="1:23">
@@ -10112,7 +10329,8 @@
       <c r="P316" s="1"/>
       <c r="Q316" s="1"/>
       <c r="R316" s="1"/>
-      <c r="U316" s="1"/>
+      <c r="S316" s="1"/>
+      <c r="T316" s="1"/>
       <c r="W316" s="1"/>
     </row>
     <row r="317" spans="1:23">
@@ -10133,7 +10351,8 @@
       <c r="P317" s="1"/>
       <c r="Q317" s="1"/>
       <c r="R317" s="1"/>
-      <c r="U317" s="1"/>
+      <c r="S317" s="1"/>
+      <c r="T317" s="1"/>
       <c r="W317" s="1"/>
     </row>
     <row r="318" spans="1:23">
@@ -10154,7 +10373,8 @@
       <c r="P318" s="1"/>
       <c r="Q318" s="1"/>
       <c r="R318" s="1"/>
-      <c r="U318" s="1"/>
+      <c r="S318" s="1"/>
+      <c r="T318" s="1"/>
       <c r="W318" s="1"/>
     </row>
     <row r="319" spans="1:23">
@@ -10175,7 +10395,8 @@
       <c r="P319" s="1"/>
       <c r="Q319" s="1"/>
       <c r="R319" s="1"/>
-      <c r="U319" s="1"/>
+      <c r="S319" s="1"/>
+      <c r="T319" s="1"/>
       <c r="W319" s="1"/>
     </row>
     <row r="320" spans="1:23">
@@ -10196,7 +10417,8 @@
       <c r="P320" s="1"/>
       <c r="Q320" s="1"/>
       <c r="R320" s="1"/>
-      <c r="U320" s="1"/>
+      <c r="S320" s="1"/>
+      <c r="T320" s="1"/>
       <c r="W320" s="1"/>
     </row>
     <row r="321" spans="1:23">
@@ -10217,7 +10439,8 @@
       <c r="P321" s="1"/>
       <c r="Q321" s="1"/>
       <c r="R321" s="1"/>
-      <c r="U321" s="1"/>
+      <c r="S321" s="1"/>
+      <c r="T321" s="1"/>
       <c r="W321" s="1"/>
     </row>
     <row r="322" spans="1:23">
@@ -10238,7 +10461,8 @@
       <c r="P322" s="1"/>
       <c r="Q322" s="1"/>
       <c r="R322" s="1"/>
-      <c r="U322" s="1"/>
+      <c r="S322" s="1"/>
+      <c r="T322" s="1"/>
       <c r="W322" s="1"/>
     </row>
     <row r="323" spans="1:23">
@@ -10259,7 +10483,8 @@
       <c r="P323" s="1"/>
       <c r="Q323" s="1"/>
       <c r="R323" s="1"/>
-      <c r="U323" s="1"/>
+      <c r="S323" s="1"/>
+      <c r="T323" s="1"/>
       <c r="W323" s="1"/>
     </row>
     <row r="324" spans="1:23">
@@ -10280,7 +10505,8 @@
       <c r="P324" s="1"/>
       <c r="Q324" s="1"/>
       <c r="R324" s="1"/>
-      <c r="U324" s="1"/>
+      <c r="S324" s="1"/>
+      <c r="T324" s="1"/>
       <c r="W324" s="1"/>
     </row>
     <row r="325" spans="1:23">
@@ -10301,7 +10527,8 @@
       <c r="P325" s="1"/>
       <c r="Q325" s="1"/>
       <c r="R325" s="1"/>
-      <c r="U325" s="1"/>
+      <c r="S325" s="1"/>
+      <c r="T325" s="1"/>
       <c r="W325" s="1"/>
     </row>
     <row r="326" spans="1:23">
@@ -10322,7 +10549,8 @@
       <c r="P326" s="1"/>
       <c r="Q326" s="1"/>
       <c r="R326" s="1"/>
-      <c r="U326" s="1"/>
+      <c r="S326" s="1"/>
+      <c r="T326" s="1"/>
       <c r="W326" s="1"/>
     </row>
     <row r="327" spans="1:23">
@@ -10343,7 +10571,8 @@
       <c r="P327" s="1"/>
       <c r="Q327" s="1"/>
       <c r="R327" s="1"/>
-      <c r="U327" s="1"/>
+      <c r="S327" s="1"/>
+      <c r="T327" s="1"/>
       <c r="W327" s="1"/>
     </row>
     <row r="328" spans="1:23">
@@ -10364,7 +10593,8 @@
       <c r="P328" s="1"/>
       <c r="Q328" s="1"/>
       <c r="R328" s="1"/>
-      <c r="U328" s="1"/>
+      <c r="S328" s="1"/>
+      <c r="T328" s="1"/>
       <c r="W328" s="1"/>
     </row>
     <row r="329" spans="1:23">
@@ -10385,7 +10615,8 @@
       <c r="P329" s="1"/>
       <c r="Q329" s="1"/>
       <c r="R329" s="1"/>
-      <c r="U329" s="1"/>
+      <c r="S329" s="1"/>
+      <c r="T329" s="1"/>
       <c r="W329" s="1"/>
     </row>
     <row r="330" spans="1:23">
@@ -10406,7 +10637,8 @@
       <c r="P330" s="1"/>
       <c r="Q330" s="1"/>
       <c r="R330" s="1"/>
-      <c r="U330" s="1"/>
+      <c r="S330" s="1"/>
+      <c r="T330" s="1"/>
       <c r="W330" s="1"/>
     </row>
     <row r="331" spans="1:23">
@@ -10427,7 +10659,8 @@
       <c r="P331" s="1"/>
       <c r="Q331" s="1"/>
       <c r="R331" s="1"/>
-      <c r="U331" s="1"/>
+      <c r="S331" s="1"/>
+      <c r="T331" s="1"/>
       <c r="W331" s="1"/>
     </row>
     <row r="332" spans="1:23">
@@ -10448,7 +10681,8 @@
       <c r="P332" s="1"/>
       <c r="Q332" s="1"/>
       <c r="R332" s="1"/>
-      <c r="U332" s="1"/>
+      <c r="S332" s="1"/>
+      <c r="T332" s="1"/>
       <c r="W332" s="1"/>
     </row>
     <row r="333" spans="1:23">
@@ -10469,7 +10703,8 @@
       <c r="P333" s="1"/>
       <c r="Q333" s="1"/>
       <c r="R333" s="1"/>
-      <c r="U333" s="1"/>
+      <c r="S333" s="1"/>
+      <c r="T333" s="1"/>
       <c r="W333" s="1"/>
     </row>
     <row r="334" spans="1:23">
@@ -10490,7 +10725,8 @@
       <c r="P334" s="1"/>
       <c r="Q334" s="1"/>
       <c r="R334" s="1"/>
-      <c r="U334" s="1"/>
+      <c r="S334" s="1"/>
+      <c r="T334" s="1"/>
       <c r="W334" s="1"/>
     </row>
     <row r="335" spans="1:23">
@@ -10511,7 +10747,8 @@
       <c r="P335" s="1"/>
       <c r="Q335" s="1"/>
       <c r="R335" s="1"/>
-      <c r="U335" s="1"/>
+      <c r="S335" s="1"/>
+      <c r="T335" s="1"/>
       <c r="W335" s="1"/>
     </row>
     <row r="336" spans="1:23">
@@ -10532,7 +10769,8 @@
       <c r="P336" s="1"/>
       <c r="Q336" s="1"/>
       <c r="R336" s="1"/>
-      <c r="U336" s="1"/>
+      <c r="S336" s="1"/>
+      <c r="T336" s="1"/>
       <c r="W336" s="1"/>
     </row>
     <row r="337" spans="1:23">
@@ -10553,7 +10791,8 @@
       <c r="P337" s="1"/>
       <c r="Q337" s="1"/>
       <c r="R337" s="1"/>
-      <c r="U337" s="1"/>
+      <c r="S337" s="1"/>
+      <c r="T337" s="1"/>
       <c r="W337" s="1"/>
     </row>
     <row r="338" spans="1:23">
@@ -10574,7 +10813,8 @@
       <c r="P338" s="1"/>
       <c r="Q338" s="1"/>
       <c r="R338" s="1"/>
-      <c r="U338" s="1"/>
+      <c r="S338" s="1"/>
+      <c r="T338" s="1"/>
       <c r="W338" s="1"/>
     </row>
     <row r="339" spans="1:23">
@@ -10595,7 +10835,8 @@
       <c r="P339" s="1"/>
       <c r="Q339" s="1"/>
       <c r="R339" s="1"/>
-      <c r="U339" s="1"/>
+      <c r="S339" s="1"/>
+      <c r="T339" s="1"/>
       <c r="W339" s="1"/>
     </row>
     <row r="340" spans="1:23">
@@ -10616,7 +10857,8 @@
       <c r="P340" s="1"/>
       <c r="Q340" s="1"/>
       <c r="R340" s="1"/>
-      <c r="U340" s="1"/>
+      <c r="S340" s="1"/>
+      <c r="T340" s="1"/>
       <c r="W340" s="1"/>
     </row>
     <row r="341" spans="1:23">
@@ -10637,7 +10879,8 @@
       <c r="P341" s="1"/>
       <c r="Q341" s="1"/>
       <c r="R341" s="1"/>
-      <c r="U341" s="1"/>
+      <c r="S341" s="1"/>
+      <c r="T341" s="1"/>
       <c r="W341" s="1"/>
     </row>
     <row r="342" spans="1:23">
@@ -10658,7 +10901,8 @@
       <c r="P342" s="1"/>
       <c r="Q342" s="1"/>
       <c r="R342" s="1"/>
-      <c r="U342" s="1"/>
+      <c r="S342" s="1"/>
+      <c r="T342" s="1"/>
       <c r="W342" s="1"/>
     </row>
     <row r="343" spans="1:23">
@@ -10679,7 +10923,8 @@
       <c r="P343" s="1"/>
       <c r="Q343" s="1"/>
       <c r="R343" s="1"/>
-      <c r="U343" s="1"/>
+      <c r="S343" s="1"/>
+      <c r="T343" s="1"/>
       <c r="W343" s="1"/>
     </row>
     <row r="344" spans="1:23">
@@ -10700,7 +10945,8 @@
       <c r="P344" s="1"/>
       <c r="Q344" s="1"/>
       <c r="R344" s="1"/>
-      <c r="U344" s="1"/>
+      <c r="S344" s="1"/>
+      <c r="T344" s="1"/>
       <c r="W344" s="1"/>
     </row>
     <row r="345" spans="1:23">
@@ -10721,7 +10967,8 @@
       <c r="P345" s="1"/>
       <c r="Q345" s="1"/>
       <c r="R345" s="1"/>
-      <c r="U345" s="1"/>
+      <c r="S345" s="1"/>
+      <c r="T345" s="1"/>
       <c r="W345" s="1"/>
     </row>
     <row r="346" spans="1:23">
@@ -10742,7 +10989,8 @@
       <c r="P346" s="1"/>
       <c r="Q346" s="1"/>
       <c r="R346" s="1"/>
-      <c r="U346" s="1"/>
+      <c r="S346" s="1"/>
+      <c r="T346" s="1"/>
       <c r="W346" s="1"/>
     </row>
     <row r="347" spans="1:23">
@@ -10763,7 +11011,8 @@
       <c r="P347" s="1"/>
       <c r="Q347" s="1"/>
       <c r="R347" s="1"/>
-      <c r="U347" s="1"/>
+      <c r="S347" s="1"/>
+      <c r="T347" s="1"/>
       <c r="W347" s="1"/>
     </row>
     <row r="348" spans="1:23">
@@ -10784,7 +11033,8 @@
       <c r="P348" s="1"/>
       <c r="Q348" s="1"/>
       <c r="R348" s="1"/>
-      <c r="U348" s="1"/>
+      <c r="S348" s="1"/>
+      <c r="T348" s="1"/>
       <c r="W348" s="1"/>
     </row>
     <row r="349" spans="1:23">
@@ -10805,7 +11055,8 @@
       <c r="P349" s="1"/>
       <c r="Q349" s="1"/>
       <c r="R349" s="1"/>
-      <c r="U349" s="1"/>
+      <c r="S349" s="1"/>
+      <c r="T349" s="1"/>
       <c r="W349" s="1"/>
     </row>
     <row r="350" spans="1:23">
@@ -10826,7 +11077,8 @@
       <c r="P350" s="1"/>
       <c r="Q350" s="1"/>
       <c r="R350" s="1"/>
-      <c r="U350" s="1"/>
+      <c r="S350" s="1"/>
+      <c r="T350" s="1"/>
       <c r="W350" s="1"/>
     </row>
     <row r="351" spans="1:23">
@@ -10847,7 +11099,8 @@
       <c r="P351" s="1"/>
       <c r="Q351" s="1"/>
       <c r="R351" s="1"/>
-      <c r="U351" s="1"/>
+      <c r="S351" s="1"/>
+      <c r="T351" s="1"/>
       <c r="W351" s="1"/>
     </row>
     <row r="352" spans="1:23">
@@ -10868,7 +11121,8 @@
       <c r="P352" s="1"/>
       <c r="Q352" s="1"/>
       <c r="R352" s="1"/>
-      <c r="U352" s="1"/>
+      <c r="S352" s="1"/>
+      <c r="T352" s="1"/>
       <c r="W352" s="1"/>
     </row>
     <row r="353" spans="1:23">
@@ -10889,7 +11143,8 @@
       <c r="P353" s="1"/>
       <c r="Q353" s="1"/>
       <c r="R353" s="1"/>
-      <c r="U353" s="1"/>
+      <c r="S353" s="1"/>
+      <c r="T353" s="1"/>
       <c r="W353" s="1"/>
     </row>
     <row r="354" spans="1:23">
@@ -10910,7 +11165,8 @@
       <c r="P354" s="1"/>
       <c r="Q354" s="1"/>
       <c r="R354" s="1"/>
-      <c r="U354" s="1"/>
+      <c r="S354" s="1"/>
+      <c r="T354" s="1"/>
       <c r="W354" s="1"/>
     </row>
     <row r="355" spans="1:23">
@@ -10931,7 +11187,8 @@
       <c r="P355" s="1"/>
       <c r="Q355" s="1"/>
       <c r="R355" s="1"/>
-      <c r="U355" s="1"/>
+      <c r="S355" s="1"/>
+      <c r="T355" s="1"/>
       <c r="W355" s="1"/>
     </row>
     <row r="356" spans="1:23">
@@ -10952,7 +11209,8 @@
       <c r="P356" s="1"/>
       <c r="Q356" s="1"/>
       <c r="R356" s="1"/>
-      <c r="U356" s="1"/>
+      <c r="S356" s="1"/>
+      <c r="T356" s="1"/>
       <c r="W356" s="1"/>
     </row>
     <row r="357" spans="1:23">
@@ -10973,7 +11231,8 @@
       <c r="P357" s="1"/>
       <c r="Q357" s="1"/>
       <c r="R357" s="1"/>
-      <c r="U357" s="1"/>
+      <c r="S357" s="1"/>
+      <c r="T357" s="1"/>
       <c r="W357" s="1"/>
     </row>
     <row r="358" spans="1:23">
@@ -10994,7 +11253,8 @@
       <c r="P358" s="1"/>
       <c r="Q358" s="1"/>
       <c r="R358" s="1"/>
-      <c r="U358" s="1"/>
+      <c r="S358" s="1"/>
+      <c r="T358" s="1"/>
       <c r="W358" s="1"/>
     </row>
     <row r="359" spans="1:23">
@@ -11015,7 +11275,8 @@
       <c r="P359" s="1"/>
       <c r="Q359" s="1"/>
       <c r="R359" s="1"/>
-      <c r="U359" s="1"/>
+      <c r="S359" s="1"/>
+      <c r="T359" s="1"/>
       <c r="W359" s="1"/>
     </row>
     <row r="360" spans="1:23">
@@ -11036,7 +11297,8 @@
       <c r="P360" s="1"/>
       <c r="Q360" s="1"/>
       <c r="R360" s="1"/>
-      <c r="U360" s="1"/>
+      <c r="S360" s="1"/>
+      <c r="T360" s="1"/>
       <c r="W360" s="1"/>
     </row>
     <row r="361" spans="1:23">
@@ -11057,7 +11319,8 @@
       <c r="P361" s="1"/>
       <c r="Q361" s="1"/>
       <c r="R361" s="1"/>
-      <c r="U361" s="1"/>
+      <c r="S361" s="1"/>
+      <c r="T361" s="1"/>
       <c r="W361" s="1"/>
     </row>
     <row r="362" spans="1:23">
@@ -11078,7 +11341,8 @@
       <c r="P362" s="1"/>
       <c r="Q362" s="1"/>
       <c r="R362" s="1"/>
-      <c r="U362" s="1"/>
+      <c r="S362" s="1"/>
+      <c r="T362" s="1"/>
       <c r="W362" s="1"/>
     </row>
     <row r="363" spans="1:23">
@@ -11099,7 +11363,8 @@
       <c r="P363" s="1"/>
       <c r="Q363" s="1"/>
       <c r="R363" s="1"/>
-      <c r="U363" s="1"/>
+      <c r="S363" s="1"/>
+      <c r="T363" s="1"/>
       <c r="W363" s="1"/>
     </row>
     <row r="364" spans="1:23">
@@ -11120,7 +11385,8 @@
       <c r="P364" s="1"/>
       <c r="Q364" s="1"/>
       <c r="R364" s="1"/>
-      <c r="U364" s="1"/>
+      <c r="S364" s="1"/>
+      <c r="T364" s="1"/>
       <c r="W364" s="1"/>
     </row>
     <row r="365" spans="1:23">
@@ -11141,7 +11407,8 @@
       <c r="P365" s="1"/>
       <c r="Q365" s="1"/>
       <c r="R365" s="1"/>
-      <c r="U365" s="1"/>
+      <c r="S365" s="1"/>
+      <c r="T365" s="1"/>
       <c r="W365" s="1"/>
     </row>
     <row r="366" spans="1:23">
@@ -11162,7 +11429,8 @@
       <c r="P366" s="1"/>
       <c r="Q366" s="1"/>
       <c r="R366" s="1"/>
-      <c r="U366" s="1"/>
+      <c r="S366" s="1"/>
+      <c r="T366" s="1"/>
       <c r="W366" s="1"/>
     </row>
     <row r="367" spans="1:23">
@@ -11183,7 +11451,8 @@
       <c r="P367" s="1"/>
       <c r="Q367" s="1"/>
       <c r="R367" s="1"/>
-      <c r="U367" s="1"/>
+      <c r="S367" s="1"/>
+      <c r="T367" s="1"/>
       <c r="W367" s="1"/>
     </row>
     <row r="368" spans="1:23">
@@ -11204,7 +11473,8 @@
       <c r="P368" s="1"/>
       <c r="Q368" s="1"/>
       <c r="R368" s="1"/>
-      <c r="U368" s="1"/>
+      <c r="S368" s="1"/>
+      <c r="T368" s="1"/>
       <c r="W368" s="1"/>
     </row>
     <row r="369" spans="1:23">
@@ -11225,7 +11495,8 @@
       <c r="P369" s="1"/>
       <c r="Q369" s="1"/>
       <c r="R369" s="1"/>
-      <c r="U369" s="1"/>
+      <c r="S369" s="1"/>
+      <c r="T369" s="1"/>
       <c r="W369" s="1"/>
     </row>
     <row r="370" spans="1:23">
@@ -11246,7 +11517,8 @@
       <c r="P370" s="1"/>
       <c r="Q370" s="1"/>
       <c r="R370" s="1"/>
-      <c r="U370" s="1"/>
+      <c r="S370" s="1"/>
+      <c r="T370" s="1"/>
       <c r="W370" s="1"/>
     </row>
     <row r="371" spans="1:23">
@@ -11267,7 +11539,8 @@
       <c r="P371" s="1"/>
       <c r="Q371" s="1"/>
       <c r="R371" s="1"/>
-      <c r="U371" s="1"/>
+      <c r="S371" s="1"/>
+      <c r="T371" s="1"/>
       <c r="W371" s="1"/>
     </row>
     <row r="372" spans="1:23">
@@ -11288,7 +11561,8 @@
       <c r="P372" s="1"/>
       <c r="Q372" s="1"/>
       <c r="R372" s="1"/>
-      <c r="U372" s="1"/>
+      <c r="S372" s="1"/>
+      <c r="T372" s="1"/>
       <c r="W372" s="1"/>
     </row>
     <row r="373" spans="1:23">
@@ -11309,7 +11583,8 @@
       <c r="P373" s="1"/>
       <c r="Q373" s="1"/>
       <c r="R373" s="1"/>
-      <c r="U373" s="1"/>
+      <c r="S373" s="1"/>
+      <c r="T373" s="1"/>
       <c r="W373" s="1"/>
     </row>
     <row r="374" spans="1:23">
@@ -11330,7 +11605,8 @@
       <c r="P374" s="1"/>
       <c r="Q374" s="1"/>
       <c r="R374" s="1"/>
-      <c r="U374" s="1"/>
+      <c r="S374" s="1"/>
+      <c r="T374" s="1"/>
       <c r="W374" s="1"/>
     </row>
     <row r="375" spans="1:23">
@@ -11351,7 +11627,8 @@
       <c r="P375" s="1"/>
       <c r="Q375" s="1"/>
       <c r="R375" s="1"/>
-      <c r="U375" s="1"/>
+      <c r="S375" s="1"/>
+      <c r="T375" s="1"/>
       <c r="W375" s="1"/>
     </row>
     <row r="376" spans="1:23">
@@ -11372,7 +11649,8 @@
       <c r="P376" s="1"/>
       <c r="Q376" s="1"/>
       <c r="R376" s="1"/>
-      <c r="U376" s="1"/>
+      <c r="S376" s="1"/>
+      <c r="T376" s="1"/>
       <c r="W376" s="1"/>
     </row>
     <row r="377" spans="1:23">
@@ -11393,7 +11671,8 @@
       <c r="P377" s="1"/>
       <c r="Q377" s="1"/>
       <c r="R377" s="1"/>
-      <c r="U377" s="1"/>
+      <c r="S377" s="1"/>
+      <c r="T377" s="1"/>
       <c r="W377" s="1"/>
     </row>
     <row r="378" spans="1:23">
@@ -11414,7 +11693,8 @@
       <c r="P378" s="1"/>
       <c r="Q378" s="1"/>
       <c r="R378" s="1"/>
-      <c r="U378" s="1"/>
+      <c r="S378" s="1"/>
+      <c r="T378" s="1"/>
       <c r="W378" s="1"/>
     </row>
     <row r="379" spans="1:23">
@@ -11435,7 +11715,8 @@
       <c r="P379" s="1"/>
       <c r="Q379" s="1"/>
       <c r="R379" s="1"/>
-      <c r="U379" s="1"/>
+      <c r="S379" s="1"/>
+      <c r="T379" s="1"/>
       <c r="W379" s="1"/>
     </row>
     <row r="380" spans="1:23">
@@ -11456,7 +11737,8 @@
       <c r="P380" s="1"/>
       <c r="Q380" s="1"/>
       <c r="R380" s="1"/>
-      <c r="U380" s="1"/>
+      <c r="S380" s="1"/>
+      <c r="T380" s="1"/>
       <c r="W380" s="1"/>
     </row>
     <row r="381" spans="1:23">
@@ -11477,7 +11759,8 @@
       <c r="P381" s="1"/>
       <c r="Q381" s="1"/>
       <c r="R381" s="1"/>
-      <c r="U381" s="1"/>
+      <c r="S381" s="1"/>
+      <c r="T381" s="1"/>
       <c r="W381" s="1"/>
     </row>
     <row r="382" spans="1:23">
@@ -11498,7 +11781,8 @@
       <c r="P382" s="1"/>
       <c r="Q382" s="1"/>
       <c r="R382" s="1"/>
-      <c r="U382" s="1"/>
+      <c r="S382" s="1"/>
+      <c r="T382" s="1"/>
       <c r="W382" s="1"/>
     </row>
     <row r="383" spans="1:23">
@@ -11519,7 +11803,8 @@
       <c r="P383" s="1"/>
       <c r="Q383" s="1"/>
       <c r="R383" s="1"/>
-      <c r="U383" s="1"/>
+      <c r="S383" s="1"/>
+      <c r="T383" s="1"/>
       <c r="W383" s="1"/>
     </row>
     <row r="384" spans="1:23">
@@ -11540,7 +11825,8 @@
       <c r="P384" s="1"/>
       <c r="Q384" s="1"/>
       <c r="R384" s="1"/>
-      <c r="U384" s="1"/>
+      <c r="S384" s="1"/>
+      <c r="T384" s="1"/>
       <c r="W384" s="1"/>
     </row>
     <row r="385" spans="1:23">
@@ -11561,7 +11847,8 @@
       <c r="P385" s="1"/>
       <c r="Q385" s="1"/>
       <c r="R385" s="1"/>
-      <c r="U385" s="1"/>
+      <c r="S385" s="1"/>
+      <c r="T385" s="1"/>
       <c r="W385" s="1"/>
     </row>
     <row r="386" spans="1:23">
@@ -11582,7 +11869,8 @@
       <c r="P386" s="1"/>
       <c r="Q386" s="1"/>
       <c r="R386" s="1"/>
-      <c r="U386" s="1"/>
+      <c r="S386" s="1"/>
+      <c r="T386" s="1"/>
       <c r="W386" s="1"/>
     </row>
     <row r="387" spans="1:23">
@@ -11603,7 +11891,8 @@
       <c r="P387" s="1"/>
       <c r="Q387" s="1"/>
       <c r="R387" s="1"/>
-      <c r="U387" s="1"/>
+      <c r="S387" s="1"/>
+      <c r="T387" s="1"/>
       <c r="W387" s="1"/>
     </row>
     <row r="388" spans="1:23">
@@ -11624,7 +11913,8 @@
       <c r="P388" s="1"/>
       <c r="Q388" s="1"/>
       <c r="R388" s="1"/>
-      <c r="U388" s="1"/>
+      <c r="S388" s="1"/>
+      <c r="T388" s="1"/>
       <c r="W388" s="1"/>
     </row>
     <row r="389" spans="1:23">
@@ -11645,7 +11935,8 @@
       <c r="P389" s="1"/>
       <c r="Q389" s="1"/>
       <c r="R389" s="1"/>
-      <c r="U389" s="1"/>
+      <c r="S389" s="1"/>
+      <c r="T389" s="1"/>
       <c r="W389" s="1"/>
     </row>
     <row r="390" spans="1:23">
@@ -11666,7 +11957,8 @@
       <c r="P390" s="1"/>
       <c r="Q390" s="1"/>
       <c r="R390" s="1"/>
-      <c r="U390" s="1"/>
+      <c r="S390" s="1"/>
+      <c r="T390" s="1"/>
       <c r="W390" s="1"/>
     </row>
     <row r="391" spans="1:23">
@@ -11687,7 +11979,8 @@
       <c r="P391" s="1"/>
       <c r="Q391" s="1"/>
       <c r="R391" s="1"/>
-      <c r="U391" s="1"/>
+      <c r="S391" s="1"/>
+      <c r="T391" s="1"/>
       <c r="W391" s="1"/>
     </row>
     <row r="392" spans="1:23">
@@ -11708,7 +12001,8 @@
       <c r="P392" s="1"/>
       <c r="Q392" s="1"/>
       <c r="R392" s="1"/>
-      <c r="U392" s="1"/>
+      <c r="S392" s="1"/>
+      <c r="T392" s="1"/>
       <c r="W392" s="1"/>
     </row>
     <row r="393" spans="1:23">
@@ -11729,7 +12023,8 @@
       <c r="P393" s="1"/>
       <c r="Q393" s="1"/>
       <c r="R393" s="1"/>
-      <c r="U393" s="1"/>
+      <c r="S393" s="1"/>
+      <c r="T393" s="1"/>
       <c r="W393" s="1"/>
     </row>
     <row r="394" spans="1:23">
@@ -11750,7 +12045,8 @@
       <c r="P394" s="1"/>
       <c r="Q394" s="1"/>
       <c r="R394" s="1"/>
-      <c r="U394" s="1"/>
+      <c r="S394" s="1"/>
+      <c r="T394" s="1"/>
       <c r="W394" s="1"/>
     </row>
     <row r="395" spans="1:23">
@@ -11771,7 +12067,8 @@
       <c r="P395" s="1"/>
       <c r="Q395" s="1"/>
       <c r="R395" s="1"/>
-      <c r="U395" s="1"/>
+      <c r="S395" s="1"/>
+      <c r="T395" s="1"/>
       <c r="W395" s="1"/>
     </row>
     <row r="396" spans="1:23">
@@ -11792,7 +12089,8 @@
       <c r="P396" s="1"/>
       <c r="Q396" s="1"/>
       <c r="R396" s="1"/>
-      <c r="U396" s="1"/>
+      <c r="S396" s="1"/>
+      <c r="T396" s="1"/>
       <c r="W396" s="1"/>
     </row>
     <row r="397" spans="1:23">
@@ -11813,7 +12111,8 @@
       <c r="P397" s="1"/>
       <c r="Q397" s="1"/>
       <c r="R397" s="1"/>
-      <c r="U397" s="1"/>
+      <c r="S397" s="1"/>
+      <c r="T397" s="1"/>
       <c r="W397" s="1"/>
     </row>
     <row r="398" spans="1:23">
@@ -11834,7 +12133,8 @@
       <c r="P398" s="1"/>
       <c r="Q398" s="1"/>
       <c r="R398" s="1"/>
-      <c r="U398" s="1"/>
+      <c r="S398" s="1"/>
+      <c r="T398" s="1"/>
       <c r="W398" s="1"/>
     </row>
     <row r="399" spans="1:23">
@@ -11855,7 +12155,8 @@
       <c r="P399" s="1"/>
       <c r="Q399" s="1"/>
       <c r="R399" s="1"/>
-      <c r="U399" s="1"/>
+      <c r="S399" s="1"/>
+      <c r="T399" s="1"/>
       <c r="W399" s="1"/>
     </row>
     <row r="400" spans="1:23">
@@ -11876,7 +12177,8 @@
       <c r="P400" s="1"/>
       <c r="Q400" s="1"/>
       <c r="R400" s="1"/>
-      <c r="U400" s="1"/>
+      <c r="S400" s="1"/>
+      <c r="T400" s="1"/>
       <c r="W400" s="1"/>
     </row>
     <row r="401" spans="1:23">
@@ -11897,7 +12199,8 @@
       <c r="P401" s="1"/>
       <c r="Q401" s="1"/>
       <c r="R401" s="1"/>
-      <c r="U401" s="1"/>
+      <c r="S401" s="1"/>
+      <c r="T401" s="1"/>
       <c r="W401" s="1"/>
     </row>
     <row r="402" spans="1:23">
@@ -11918,7 +12221,8 @@
       <c r="P402" s="1"/>
       <c r="Q402" s="1"/>
       <c r="R402" s="1"/>
-      <c r="U402" s="1"/>
+      <c r="S402" s="1"/>
+      <c r="T402" s="1"/>
       <c r="W402" s="1"/>
     </row>
     <row r="403" spans="1:23">
@@ -11939,7 +12243,8 @@
       <c r="P403" s="1"/>
       <c r="Q403" s="1"/>
       <c r="R403" s="1"/>
-      <c r="U403" s="1"/>
+      <c r="S403" s="1"/>
+      <c r="T403" s="1"/>
       <c r="W403" s="1"/>
     </row>
     <row r="404" spans="1:23">
@@ -11960,7 +12265,8 @@
       <c r="P404" s="1"/>
       <c r="Q404" s="1"/>
       <c r="R404" s="1"/>
-      <c r="U404" s="1"/>
+      <c r="S404" s="1"/>
+      <c r="T404" s="1"/>
       <c r="W404" s="1"/>
     </row>
     <row r="405" spans="1:23">
@@ -11981,7 +12287,8 @@
       <c r="P405" s="1"/>
       <c r="Q405" s="1"/>
       <c r="R405" s="1"/>
-      <c r="U405" s="1"/>
+      <c r="S405" s="1"/>
+      <c r="T405" s="1"/>
       <c r="W405" s="1"/>
     </row>
     <row r="406" spans="1:23">
@@ -12002,7 +12309,8 @@
       <c r="P406" s="1"/>
       <c r="Q406" s="1"/>
       <c r="R406" s="1"/>
-      <c r="U406" s="1"/>
+      <c r="S406" s="1"/>
+      <c r="T406" s="1"/>
       <c r="W406" s="1"/>
     </row>
     <row r="407" spans="1:23">
@@ -12023,7 +12331,8 @@
       <c r="P407" s="1"/>
       <c r="Q407" s="1"/>
       <c r="R407" s="1"/>
-      <c r="U407" s="1"/>
+      <c r="S407" s="1"/>
+      <c r="T407" s="1"/>
       <c r="W407" s="1"/>
     </row>
     <row r="408" spans="1:23">
@@ -12044,7 +12353,8 @@
       <c r="P408" s="1"/>
       <c r="Q408" s="1"/>
       <c r="R408" s="1"/>
-      <c r="U408" s="1"/>
+      <c r="S408" s="1"/>
+      <c r="T408" s="1"/>
       <c r="W408" s="1"/>
     </row>
     <row r="409" spans="1:23">
@@ -12065,7 +12375,8 @@
       <c r="P409" s="1"/>
       <c r="Q409" s="1"/>
       <c r="R409" s="1"/>
-      <c r="U409" s="1"/>
+      <c r="S409" s="1"/>
+      <c r="T409" s="1"/>
       <c r="W409" s="1"/>
     </row>
     <row r="410" spans="1:23">
@@ -12086,7 +12397,8 @@
       <c r="P410" s="1"/>
       <c r="Q410" s="1"/>
       <c r="R410" s="1"/>
-      <c r="U410" s="1"/>
+      <c r="S410" s="1"/>
+      <c r="T410" s="1"/>
       <c r="W410" s="1"/>
     </row>
     <row r="411" spans="1:23">
@@ -12107,7 +12419,8 @@
       <c r="P411" s="1"/>
       <c r="Q411" s="1"/>
       <c r="R411" s="1"/>
-      <c r="U411" s="1"/>
+      <c r="S411" s="1"/>
+      <c r="T411" s="1"/>
       <c r="W411" s="1"/>
     </row>
     <row r="412" spans="1:23">
@@ -12128,7 +12441,8 @@
       <c r="P412" s="1"/>
       <c r="Q412" s="1"/>
       <c r="R412" s="1"/>
-      <c r="U412" s="1"/>
+      <c r="S412" s="1"/>
+      <c r="T412" s="1"/>
       <c r="W412" s="1"/>
     </row>
     <row r="413" spans="1:23">
@@ -12149,7 +12463,8 @@
       <c r="P413" s="1"/>
       <c r="Q413" s="1"/>
       <c r="R413" s="1"/>
-      <c r="U413" s="1"/>
+      <c r="S413" s="1"/>
+      <c r="T413" s="1"/>
       <c r="W413" s="1"/>
     </row>
     <row r="414" spans="1:23">
@@ -12170,7 +12485,8 @@
       <c r="P414" s="1"/>
       <c r="Q414" s="1"/>
       <c r="R414" s="1"/>
-      <c r="U414" s="1"/>
+      <c r="S414" s="1"/>
+      <c r="T414" s="1"/>
       <c r="W414" s="1"/>
     </row>
     <row r="415" spans="1:23">
@@ -12191,7 +12507,8 @@
       <c r="P415" s="1"/>
       <c r="Q415" s="1"/>
       <c r="R415" s="1"/>
-      <c r="U415" s="1"/>
+      <c r="S415" s="1"/>
+      <c r="T415" s="1"/>
       <c r="W415" s="1"/>
     </row>
     <row r="416" spans="1:23">
@@ -12212,7 +12529,8 @@
       <c r="P416" s="1"/>
       <c r="Q416" s="1"/>
       <c r="R416" s="1"/>
-      <c r="U416" s="1"/>
+      <c r="S416" s="1"/>
+      <c r="T416" s="1"/>
       <c r="W416" s="1"/>
     </row>
     <row r="417" spans="1:23">
@@ -12233,7 +12551,8 @@
       <c r="P417" s="1"/>
       <c r="Q417" s="1"/>
       <c r="R417" s="1"/>
-      <c r="U417" s="1"/>
+      <c r="S417" s="1"/>
+      <c r="T417" s="1"/>
       <c r="W417" s="1"/>
     </row>
     <row r="418" spans="1:23">
@@ -12254,7 +12573,8 @@
       <c r="P418" s="1"/>
       <c r="Q418" s="1"/>
       <c r="R418" s="1"/>
-      <c r="U418" s="1"/>
+      <c r="S418" s="1"/>
+      <c r="T418" s="1"/>
       <c r="W418" s="1"/>
     </row>
     <row r="419" spans="1:23">
@@ -12275,7 +12595,8 @@
       <c r="P419" s="1"/>
       <c r="Q419" s="1"/>
       <c r="R419" s="1"/>
-      <c r="U419" s="1"/>
+      <c r="S419" s="1"/>
+      <c r="T419" s="1"/>
       <c r="W419" s="1"/>
     </row>
     <row r="420" spans="1:23">
@@ -12296,7 +12617,8 @@
       <c r="P420" s="1"/>
       <c r="Q420" s="1"/>
       <c r="R420" s="1"/>
-      <c r="U420" s="1"/>
+      <c r="S420" s="1"/>
+      <c r="T420" s="1"/>
       <c r="W420" s="1"/>
     </row>
     <row r="421" spans="1:23">
@@ -12317,7 +12639,8 @@
       <c r="P421" s="1"/>
       <c r="Q421" s="1"/>
       <c r="R421" s="1"/>
-      <c r="U421" s="1"/>
+      <c r="S421" s="1"/>
+      <c r="T421" s="1"/>
       <c r="W421" s="1"/>
     </row>
     <row r="422" spans="1:23">
@@ -12338,7 +12661,8 @@
       <c r="P422" s="1"/>
       <c r="Q422" s="1"/>
       <c r="R422" s="1"/>
-      <c r="U422" s="1"/>
+      <c r="S422" s="1"/>
+      <c r="T422" s="1"/>
       <c r="W422" s="1"/>
     </row>
     <row r="423" spans="1:23">
@@ -12359,7 +12683,8 @@
       <c r="P423" s="1"/>
       <c r="Q423" s="1"/>
       <c r="R423" s="1"/>
-      <c r="U423" s="1"/>
+      <c r="S423" s="1"/>
+      <c r="T423" s="1"/>
       <c r="W423" s="1"/>
     </row>
     <row r="424" spans="1:23">
@@ -12380,7 +12705,8 @@
       <c r="P424" s="1"/>
       <c r="Q424" s="1"/>
       <c r="R424" s="1"/>
-      <c r="U424" s="1"/>
+      <c r="S424" s="1"/>
+      <c r="T424" s="1"/>
       <c r="W424" s="1"/>
     </row>
     <row r="425" spans="1:23">
@@ -12401,7 +12727,8 @@
       <c r="P425" s="1"/>
       <c r="Q425" s="1"/>
       <c r="R425" s="1"/>
-      <c r="U425" s="1"/>
+      <c r="S425" s="1"/>
+      <c r="T425" s="1"/>
       <c r="W425" s="1"/>
     </row>
     <row r="426" spans="1:23">
@@ -12422,7 +12749,8 @@
       <c r="P426" s="1"/>
       <c r="Q426" s="1"/>
       <c r="R426" s="1"/>
-      <c r="U426" s="1"/>
+      <c r="S426" s="1"/>
+      <c r="T426" s="1"/>
       <c r="W426" s="1"/>
     </row>
     <row r="427" spans="1:23">
@@ -12443,7 +12771,8 @@
       <c r="P427" s="1"/>
       <c r="Q427" s="1"/>
       <c r="R427" s="1"/>
-      <c r="U427" s="1"/>
+      <c r="S427" s="1"/>
+      <c r="T427" s="1"/>
       <c r="W427" s="1"/>
     </row>
     <row r="428" spans="1:23">
@@ -12464,7 +12793,8 @@
       <c r="P428" s="1"/>
       <c r="Q428" s="1"/>
       <c r="R428" s="1"/>
-      <c r="U428" s="1"/>
+      <c r="S428" s="1"/>
+      <c r="T428" s="1"/>
       <c r="W428" s="1"/>
     </row>
     <row r="429" spans="1:23">
@@ -12485,7 +12815,8 @@
       <c r="P429" s="1"/>
       <c r="Q429" s="1"/>
       <c r="R429" s="1"/>
-      <c r="U429" s="1"/>
+      <c r="S429" s="1"/>
+      <c r="T429" s="1"/>
       <c r="W429" s="1"/>
     </row>
     <row r="430" spans="1:23">
@@ -12506,7 +12837,8 @@
       <c r="P430" s="1"/>
       <c r="Q430" s="1"/>
       <c r="R430" s="1"/>
-      <c r="U430" s="1"/>
+      <c r="S430" s="1"/>
+      <c r="T430" s="1"/>
       <c r="W430" s="1"/>
     </row>
     <row r="431" spans="1:23">
@@ -12527,7 +12859,8 @@
       <c r="P431" s="1"/>
       <c r="Q431" s="1"/>
       <c r="R431" s="1"/>
-      <c r="U431" s="1"/>
+      <c r="S431" s="1"/>
+      <c r="T431" s="1"/>
       <c r="W431" s="1"/>
     </row>
     <row r="432" spans="1:23">
@@ -12548,7 +12881,8 @@
       <c r="P432" s="1"/>
       <c r="Q432" s="1"/>
       <c r="R432" s="1"/>
-      <c r="U432" s="1"/>
+      <c r="S432" s="1"/>
+      <c r="T432" s="1"/>
       <c r="W432" s="1"/>
     </row>
     <row r="433" spans="1:23">
@@ -12569,7 +12903,8 @@
       <c r="P433" s="1"/>
       <c r="Q433" s="1"/>
       <c r="R433" s="1"/>
-      <c r="U433" s="1"/>
+      <c r="S433" s="1"/>
+      <c r="T433" s="1"/>
       <c r="W433" s="1"/>
     </row>
     <row r="434" spans="1:23">
@@ -12590,7 +12925,8 @@
       <c r="P434" s="1"/>
       <c r="Q434" s="1"/>
       <c r="R434" s="1"/>
-      <c r="U434" s="1"/>
+      <c r="S434" s="1"/>
+      <c r="T434" s="1"/>
       <c r="W434" s="1"/>
     </row>
     <row r="435" spans="1:23">
@@ -12611,7 +12947,8 @@
       <c r="P435" s="1"/>
       <c r="Q435" s="1"/>
       <c r="R435" s="1"/>
-      <c r="U435" s="1"/>
+      <c r="S435" s="1"/>
+      <c r="T435" s="1"/>
       <c r="W435" s="1"/>
     </row>
     <row r="436" spans="1:23">
@@ -12632,7 +12969,8 @@
       <c r="P436" s="1"/>
       <c r="Q436" s="1"/>
       <c r="R436" s="1"/>
-      <c r="U436" s="1"/>
+      <c r="S436" s="1"/>
+      <c r="T436" s="1"/>
       <c r="W436" s="1"/>
     </row>
     <row r="437" spans="1:23">
@@ -12653,7 +12991,8 @@
       <c r="P437" s="1"/>
       <c r="Q437" s="1"/>
       <c r="R437" s="1"/>
-      <c r="U437" s="1"/>
+      <c r="S437" s="1"/>
+      <c r="T437" s="1"/>
       <c r="W437" s="1"/>
     </row>
     <row r="438" spans="1:23">
@@ -12674,7 +13013,8 @@
       <c r="P438" s="1"/>
       <c r="Q438" s="1"/>
       <c r="R438" s="1"/>
-      <c r="U438" s="1"/>
+      <c r="S438" s="1"/>
+      <c r="T438" s="1"/>
       <c r="W438" s="1"/>
     </row>
     <row r="439" spans="1:23">
@@ -12695,7 +13035,8 @@
       <c r="P439" s="1"/>
       <c r="Q439" s="1"/>
       <c r="R439" s="1"/>
-      <c r="U439" s="1"/>
+      <c r="S439" s="1"/>
+      <c r="T439" s="1"/>
       <c r="W439" s="1"/>
     </row>
     <row r="440" spans="1:23">
@@ -12716,7 +13057,8 @@
       <c r="P440" s="1"/>
       <c r="Q440" s="1"/>
       <c r="R440" s="1"/>
-      <c r="U440" s="1"/>
+      <c r="S440" s="1"/>
+      <c r="T440" s="1"/>
       <c r="W440" s="1"/>
     </row>
     <row r="441" spans="1:23">
@@ -12737,7 +13079,8 @@
       <c r="P441" s="1"/>
       <c r="Q441" s="1"/>
       <c r="R441" s="1"/>
-      <c r="U441" s="1"/>
+      <c r="S441" s="1"/>
+      <c r="T441" s="1"/>
       <c r="W441" s="1"/>
     </row>
     <row r="442" spans="1:23">
@@ -12758,7 +13101,8 @@
       <c r="P442" s="1"/>
       <c r="Q442" s="1"/>
       <c r="R442" s="1"/>
-      <c r="U442" s="1"/>
+      <c r="S442" s="1"/>
+      <c r="T442" s="1"/>
       <c r="W442" s="1"/>
     </row>
     <row r="443" spans="1:23">
@@ -12779,7 +13123,8 @@
       <c r="P443" s="1"/>
       <c r="Q443" s="1"/>
       <c r="R443" s="1"/>
-      <c r="U443" s="1"/>
+      <c r="S443" s="1"/>
+      <c r="T443" s="1"/>
       <c r="W443" s="1"/>
     </row>
     <row r="444" spans="1:23">
@@ -12800,7 +13145,8 @@
       <c r="P444" s="1"/>
       <c r="Q444" s="1"/>
       <c r="R444" s="1"/>
-      <c r="U444" s="1"/>
+      <c r="S444" s="1"/>
+      <c r="T444" s="1"/>
       <c r="W444" s="1"/>
     </row>
     <row r="445" spans="1:23">
@@ -12821,7 +13167,8 @@
       <c r="P445" s="1"/>
       <c r="Q445" s="1"/>
       <c r="R445" s="1"/>
-      <c r="U445" s="1"/>
+      <c r="S445" s="1"/>
+      <c r="T445" s="1"/>
       <c r="W445" s="1"/>
     </row>
     <row r="446" spans="1:23">
@@ -12842,7 +13189,8 @@
       <c r="P446" s="1"/>
       <c r="Q446" s="1"/>
       <c r="R446" s="1"/>
-      <c r="U446" s="1"/>
+      <c r="S446" s="1"/>
+      <c r="T446" s="1"/>
       <c r="W446" s="1"/>
     </row>
     <row r="447" spans="1:23">
@@ -12863,7 +13211,8 @@
       <c r="P447" s="1"/>
       <c r="Q447" s="1"/>
       <c r="R447" s="1"/>
-      <c r="U447" s="1"/>
+      <c r="S447" s="1"/>
+      <c r="T447" s="1"/>
       <c r="W447" s="1"/>
     </row>
     <row r="448" spans="1:23">
@@ -12884,7 +13233,8 @@
       <c r="P448" s="1"/>
       <c r="Q448" s="1"/>
       <c r="R448" s="1"/>
-      <c r="U448" s="1"/>
+      <c r="S448" s="1"/>
+      <c r="T448" s="1"/>
       <c r="W448" s="1"/>
     </row>
     <row r="449" spans="1:23">
@@ -12905,7 +13255,8 @@
       <c r="P449" s="1"/>
       <c r="Q449" s="1"/>
       <c r="R449" s="1"/>
-      <c r="U449" s="1"/>
+      <c r="S449" s="1"/>
+      <c r="T449" s="1"/>
       <c r="W449" s="1"/>
     </row>
     <row r="450" spans="1:23">
@@ -12926,7 +13277,8 @@
       <c r="P450" s="1"/>
       <c r="Q450" s="1"/>
       <c r="R450" s="1"/>
-      <c r="U450" s="1"/>
+      <c r="S450" s="1"/>
+      <c r="T450" s="1"/>
       <c r="W450" s="1"/>
     </row>
     <row r="451" spans="1:23">
@@ -12947,7 +13299,8 @@
       <c r="P451" s="1"/>
       <c r="Q451" s="1"/>
       <c r="R451" s="1"/>
-      <c r="U451" s="1"/>
+      <c r="S451" s="1"/>
+      <c r="T451" s="1"/>
       <c r="W451" s="1"/>
     </row>
     <row r="452" spans="1:23">
@@ -12968,7 +13321,8 @@
       <c r="P452" s="1"/>
       <c r="Q452" s="1"/>
       <c r="R452" s="1"/>
-      <c r="U452" s="1"/>
+      <c r="S452" s="1"/>
+      <c r="T452" s="1"/>
       <c r="W452" s="1"/>
     </row>
     <row r="453" spans="1:23">
@@ -12989,7 +13343,8 @@
       <c r="P453" s="1"/>
       <c r="Q453" s="1"/>
       <c r="R453" s="1"/>
-      <c r="U453" s="1"/>
+      <c r="S453" s="1"/>
+      <c r="T453" s="1"/>
       <c r="W453" s="1"/>
     </row>
     <row r="454" spans="1:23">
@@ -13010,7 +13365,8 @@
       <c r="P454" s="1"/>
       <c r="Q454" s="1"/>
       <c r="R454" s="1"/>
-      <c r="U454" s="1"/>
+      <c r="S454" s="1"/>
+      <c r="T454" s="1"/>
       <c r="W454" s="1"/>
     </row>
     <row r="455" spans="1:23">
@@ -13031,7 +13387,8 @@
       <c r="P455" s="1"/>
       <c r="Q455" s="1"/>
       <c r="R455" s="1"/>
-      <c r="U455" s="1"/>
+      <c r="S455" s="1"/>
+      <c r="T455" s="1"/>
       <c r="W455" s="1"/>
     </row>
     <row r="456" spans="1:23">
@@ -13052,7 +13409,8 @@
       <c r="P456" s="1"/>
       <c r="Q456" s="1"/>
       <c r="R456" s="1"/>
-      <c r="U456" s="1"/>
+      <c r="S456" s="1"/>
+      <c r="T456" s="1"/>
       <c r="W456" s="1"/>
     </row>
     <row r="457" spans="1:23">
@@ -13073,7 +13431,8 @@
       <c r="P457" s="1"/>
       <c r="Q457" s="1"/>
       <c r="R457" s="1"/>
-      <c r="U457" s="1"/>
+      <c r="S457" s="1"/>
+      <c r="T457" s="1"/>
       <c r="W457" s="1"/>
     </row>
     <row r="458" spans="1:23">
@@ -13094,7 +13453,8 @@
       <c r="P458" s="1"/>
       <c r="Q458" s="1"/>
       <c r="R458" s="1"/>
-      <c r="U458" s="1"/>
+      <c r="S458" s="1"/>
+      <c r="T458" s="1"/>
       <c r="W458" s="1"/>
     </row>
     <row r="459" spans="1:23">
@@ -13115,7 +13475,8 @@
       <c r="P459" s="1"/>
       <c r="Q459" s="1"/>
       <c r="R459" s="1"/>
-      <c r="U459" s="1"/>
+      <c r="S459" s="1"/>
+      <c r="T459" s="1"/>
       <c r="W459" s="1"/>
     </row>
     <row r="460" spans="1:23">
@@ -13136,7 +13497,8 @@
       <c r="P460" s="1"/>
       <c r="Q460" s="1"/>
       <c r="R460" s="1"/>
-      <c r="U460" s="1"/>
+      <c r="S460" s="1"/>
+      <c r="T460" s="1"/>
       <c r="W460" s="1"/>
     </row>
     <row r="461" spans="1:23">
@@ -13157,7 +13519,8 @@
       <c r="P461" s="1"/>
       <c r="Q461" s="1"/>
       <c r="R461" s="1"/>
-      <c r="U461" s="1"/>
+      <c r="S461" s="1"/>
+      <c r="T461" s="1"/>
       <c r="W461" s="1"/>
     </row>
     <row r="462" spans="1:23">
@@ -13178,7 +13541,8 @@
       <c r="P462" s="1"/>
       <c r="Q462" s="1"/>
       <c r="R462" s="1"/>
-      <c r="U462" s="1"/>
+      <c r="S462" s="1"/>
+      <c r="T462" s="1"/>
       <c r="W462" s="1"/>
     </row>
     <row r="463" spans="1:23">
@@ -13199,7 +13563,8 @@
       <c r="P463" s="1"/>
       <c r="Q463" s="1"/>
       <c r="R463" s="1"/>
-      <c r="U463" s="1"/>
+      <c r="S463" s="1"/>
+      <c r="T463" s="1"/>
       <c r="W463" s="1"/>
     </row>
     <row r="464" spans="1:23">
@@ -13220,7 +13585,8 @@
       <c r="P464" s="1"/>
       <c r="Q464" s="1"/>
       <c r="R464" s="1"/>
-      <c r="U464" s="1"/>
+      <c r="S464" s="1"/>
+      <c r="T464" s="1"/>
       <c r="W464" s="1"/>
     </row>
     <row r="465" spans="1:23">
@@ -13241,7 +13607,8 @@
       <c r="P465" s="1"/>
       <c r="Q465" s="1"/>
       <c r="R465" s="1"/>
-      <c r="U465" s="1"/>
+      <c r="S465" s="1"/>
+      <c r="T465" s="1"/>
       <c r="W465" s="1"/>
     </row>
     <row r="466" spans="1:23">
@@ -13262,7 +13629,8 @@
       <c r="P466" s="1"/>
       <c r="Q466" s="1"/>
       <c r="R466" s="1"/>
-      <c r="U466" s="1"/>
+      <c r="S466" s="1"/>
+      <c r="T466" s="1"/>
       <c r="W466" s="1"/>
     </row>
     <row r="467" spans="1:23">
@@ -13283,7 +13651,8 @@
       <c r="P467" s="1"/>
       <c r="Q467" s="1"/>
       <c r="R467" s="1"/>
-      <c r="U467" s="1"/>
+      <c r="S467" s="1"/>
+      <c r="T467" s="1"/>
       <c r="W467" s="1"/>
     </row>
     <row r="468" spans="1:23">
@@ -13304,7 +13673,8 @@
       <c r="P468" s="1"/>
       <c r="Q468" s="1"/>
       <c r="R468" s="1"/>
-      <c r="U468" s="1"/>
+      <c r="S468" s="1"/>
+      <c r="T468" s="1"/>
       <c r="W468" s="1"/>
     </row>
     <row r="469" spans="1:23">
@@ -13325,7 +13695,8 @@
       <c r="P469" s="1"/>
       <c r="Q469" s="1"/>
       <c r="R469" s="1"/>
-      <c r="U469" s="1"/>
+      <c r="S469" s="1"/>
+      <c r="T469" s="1"/>
       <c r="W469" s="1"/>
     </row>
     <row r="470" spans="1:23">
@@ -13346,7 +13717,8 @@
       <c r="P470" s="1"/>
       <c r="Q470" s="1"/>
       <c r="R470" s="1"/>
-      <c r="U470" s="1"/>
+      <c r="S470" s="1"/>
+      <c r="T470" s="1"/>
       <c r="W470" s="1"/>
     </row>
     <row r="471" spans="1:23">
@@ -13367,7 +13739,8 @@
       <c r="P471" s="1"/>
       <c r="Q471" s="1"/>
       <c r="R471" s="1"/>
-      <c r="U471" s="1"/>
+      <c r="S471" s="1"/>
+      <c r="T471" s="1"/>
       <c r="W471" s="1"/>
     </row>
     <row r="472" spans="1:23">
@@ -13388,7 +13761,8 @@
       <c r="P472" s="1"/>
       <c r="Q472" s="1"/>
       <c r="R472" s="1"/>
-      <c r="U472" s="1"/>
+      <c r="S472" s="1"/>
+      <c r="T472" s="1"/>
       <c r="W472" s="1"/>
     </row>
     <row r="473" spans="1:23">
@@ -13409,7 +13783,8 @@
       <c r="P473" s="1"/>
       <c r="Q473" s="1"/>
       <c r="R473" s="1"/>
-      <c r="U473" s="1"/>
+      <c r="S473" s="1"/>
+      <c r="T473" s="1"/>
       <c r="W473" s="1"/>
     </row>
     <row r="474" spans="1:23">
@@ -13430,7 +13805,8 @@
       <c r="P474" s="1"/>
       <c r="Q474" s="1"/>
       <c r="R474" s="1"/>
-      <c r="U474" s="1"/>
+      <c r="S474" s="1"/>
+      <c r="T474" s="1"/>
       <c r="W474" s="1"/>
     </row>
     <row r="475" spans="1:23">
@@ -13451,7 +13827,8 @@
       <c r="P475" s="1"/>
       <c r="Q475" s="1"/>
       <c r="R475" s="1"/>
-      <c r="U475" s="1"/>
+      <c r="S475" s="1"/>
+      <c r="T475" s="1"/>
       <c r="W475" s="1"/>
     </row>
     <row r="476" spans="1:23">
@@ -13472,7 +13849,8 @@
       <c r="P476" s="1"/>
       <c r="Q476" s="1"/>
       <c r="R476" s="1"/>
-      <c r="U476" s="1"/>
+      <c r="S476" s="1"/>
+      <c r="T476" s="1"/>
       <c r="W476" s="1"/>
     </row>
     <row r="477" spans="1:23">
@@ -13493,7 +13871,8 @@
       <c r="P477" s="1"/>
       <c r="Q477" s="1"/>
       <c r="R477" s="1"/>
-      <c r="U477" s="1"/>
+      <c r="S477" s="1"/>
+      <c r="T477" s="1"/>
       <c r="W477" s="1"/>
     </row>
     <row r="478" spans="1:23">
@@ -13514,7 +13893,8 @@
       <c r="P478" s="1"/>
       <c r="Q478" s="1"/>
       <c r="R478" s="1"/>
-      <c r="U478" s="1"/>
+      <c r="S478" s="1"/>
+      <c r="T478" s="1"/>
       <c r="W478" s="1"/>
     </row>
     <row r="479" spans="1:23">
@@ -13535,7 +13915,8 @@
       <c r="P479" s="1"/>
       <c r="Q479" s="1"/>
       <c r="R479" s="1"/>
-      <c r="U479" s="1"/>
+      <c r="S479" s="1"/>
+      <c r="T479" s="1"/>
       <c r="W479" s="1"/>
     </row>
     <row r="480" spans="1:23">
@@ -13556,7 +13937,8 @@
       <c r="P480" s="1"/>
       <c r="Q480" s="1"/>
       <c r="R480" s="1"/>
-      <c r="U480" s="1"/>
+      <c r="S480" s="1"/>
+      <c r="T480" s="1"/>
       <c r="W480" s="1"/>
     </row>
     <row r="481" spans="1:23">
@@ -13577,7 +13959,8 @@
       <c r="P481" s="1"/>
       <c r="Q481" s="1"/>
       <c r="R481" s="1"/>
-      <c r="U481" s="1"/>
+      <c r="S481" s="1"/>
+      <c r="T481" s="1"/>
       <c r="W481" s="1"/>
     </row>
     <row r="482" spans="1:23">
@@ -13598,7 +13981,8 @@
       <c r="P482" s="1"/>
       <c r="Q482" s="1"/>
       <c r="R482" s="1"/>
-      <c r="U482" s="1"/>
+      <c r="S482" s="1"/>
+      <c r="T482" s="1"/>
       <c r="W482" s="1"/>
     </row>
     <row r="483" spans="1:23">
@@ -13619,7 +14003,8 @@
       <c r="P483" s="1"/>
       <c r="Q483" s="1"/>
       <c r="R483" s="1"/>
-      <c r="U483" s="1"/>
+      <c r="S483" s="1"/>
+      <c r="T483" s="1"/>
       <c r="W483" s="1"/>
     </row>
     <row r="484" spans="1:23">
@@ -13640,7 +14025,8 @@
       <c r="P484" s="1"/>
       <c r="Q484" s="1"/>
       <c r="R484" s="1"/>
-      <c r="U484" s="1"/>
+      <c r="S484" s="1"/>
+      <c r="T484" s="1"/>
       <c r="W484" s="1"/>
     </row>
     <row r="485" spans="1:23">
@@ -13661,7 +14047,8 @@
       <c r="P485" s="1"/>
       <c r="Q485" s="1"/>
       <c r="R485" s="1"/>
-      <c r="U485" s="1"/>
+      <c r="S485" s="1"/>
+      <c r="T485" s="1"/>
       <c r="W485" s="1"/>
     </row>
     <row r="486" spans="1:23">
@@ -13682,7 +14069,8 @@
       <c r="P486" s="1"/>
       <c r="Q486" s="1"/>
       <c r="R486" s="1"/>
-      <c r="U486" s="1"/>
+      <c r="S486" s="1"/>
+      <c r="T486" s="1"/>
       <c r="W486" s="1"/>
     </row>
     <row r="487" spans="1:23">
@@ -13703,7 +14091,8 @@
       <c r="P487" s="1"/>
       <c r="Q487" s="1"/>
       <c r="R487" s="1"/>
-      <c r="U487" s="1"/>
+      <c r="S487" s="1"/>
+      <c r="T487" s="1"/>
       <c r="W487" s="1"/>
     </row>
     <row r="488" spans="1:23">
@@ -13724,7 +14113,8 @@
       <c r="P488" s="1"/>
       <c r="Q488" s="1"/>
       <c r="R488" s="1"/>
-      <c r="U488" s="1"/>
+      <c r="S488" s="1"/>
+      <c r="T488" s="1"/>
       <c r="W488" s="1"/>
     </row>
     <row r="489" spans="1:23">
@@ -13745,7 +14135,8 @@
       <c r="P489" s="1"/>
       <c r="Q489" s="1"/>
       <c r="R489" s="1"/>
-      <c r="U489" s="1"/>
+      <c r="S489" s="1"/>
+      <c r="T489" s="1"/>
       <c r="W489" s="1"/>
     </row>
     <row r="490" spans="1:23">
@@ -13766,7 +14157,8 @@
       <c r="P490" s="1"/>
       <c r="Q490" s="1"/>
       <c r="R490" s="1"/>
-      <c r="U490" s="1"/>
+      <c r="S490" s="1"/>
+      <c r="T490" s="1"/>
       <c r="W490" s="1"/>
     </row>
     <row r="491" spans="1:23">
@@ -13787,7 +14179,8 @@
       <c r="P491" s="1"/>
       <c r="Q491" s="1"/>
       <c r="R491" s="1"/>
-      <c r="U491" s="1"/>
+      <c r="S491" s="1"/>
+      <c r="T491" s="1"/>
       <c r="W491" s="1"/>
     </row>
     <row r="492" spans="1:23">
@@ -13808,7 +14201,8 @@
       <c r="P492" s="1"/>
       <c r="Q492" s="1"/>
       <c r="R492" s="1"/>
-      <c r="U492" s="1"/>
+      <c r="S492" s="1"/>
+      <c r="T492" s="1"/>
       <c r="W492" s="1"/>
     </row>
     <row r="493" spans="1:23">
@@ -13829,7 +14223,8 @@
       <c r="P493" s="1"/>
       <c r="Q493" s="1"/>
       <c r="R493" s="1"/>
-      <c r="U493" s="1"/>
+      <c r="S493" s="1"/>
+      <c r="T493" s="1"/>
       <c r="W493" s="1"/>
     </row>
     <row r="494" spans="1:23">
@@ -13850,7 +14245,8 @@
       <c r="P494" s="1"/>
       <c r="Q494" s="1"/>
       <c r="R494" s="1"/>
-      <c r="U494" s="1"/>
+      <c r="S494" s="1"/>
+      <c r="T494" s="1"/>
       <c r="W494" s="1"/>
     </row>
     <row r="495" spans="1:23">
@@ -13871,7 +14267,8 @@
       <c r="P495" s="1"/>
       <c r="Q495" s="1"/>
       <c r="R495" s="1"/>
-      <c r="U495" s="1"/>
+      <c r="S495" s="1"/>
+      <c r="T495" s="1"/>
       <c r="W495" s="1"/>
     </row>
     <row r="496" spans="1:23">
@@ -13892,7 +14289,8 @@
       <c r="P496" s="1"/>
       <c r="Q496" s="1"/>
       <c r="R496" s="1"/>
-      <c r="U496" s="1"/>
+      <c r="S496" s="1"/>
+      <c r="T496" s="1"/>
       <c r="W496" s="1"/>
     </row>
     <row r="497" spans="1:23">
@@ -13913,7 +14311,8 @@
       <c r="P497" s="1"/>
       <c r="Q497" s="1"/>
       <c r="R497" s="1"/>
-      <c r="U497" s="1"/>
+      <c r="S497" s="1"/>
+      <c r="T497" s="1"/>
       <c r="W497" s="1"/>
     </row>
     <row r="498" spans="1:23">
@@ -13934,7 +14333,8 @@
       <c r="P498" s="1"/>
       <c r="Q498" s="1"/>
       <c r="R498" s="1"/>
-      <c r="U498" s="1"/>
+      <c r="S498" s="1"/>
+      <c r="T498" s="1"/>
       <c r="W498" s="1"/>
     </row>
     <row r="499" spans="1:23">
@@ -13955,7 +14355,8 @@
       <c r="P499" s="1"/>
       <c r="Q499" s="1"/>
       <c r="R499" s="1"/>
-      <c r="U499" s="1"/>
+      <c r="S499" s="1"/>
+      <c r="T499" s="1"/>
       <c r="W499" s="1"/>
     </row>
     <row r="500" spans="1:23">
@@ -13976,15 +14377,16 @@
       <c r="P500" s="1"/>
       <c r="Q500" s="1"/>
       <c r="R500" s="1"/>
-      <c r="U500" s="1"/>
+      <c r="S500" s="1"/>
+      <c r="T500" s="1"/>
       <c r="W500" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:W1"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
@@ -413,13 +413,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,7 +887,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -924,25 +924,28 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -961,6 +964,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -2911,11 +2917,11 @@
   <dimension ref="A1:W500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomRight" activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2959,25 +2965,25 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="14" t="s">
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="20" t="s">
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="20"/>
+      <c r="W1" s="21"/>
     </row>
     <row r="2" ht="56" customHeight="1" spans="1:23">
       <c r="A2" s="2"/>
@@ -3008,43 +3014,43 @@
       <c r="J2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="R2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="S2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="17" t="s">
+      <c r="T2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="17" t="s">
+      <c r="U2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="21" t="s">
+      <c r="V2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="21" t="s">
+      <c r="W2" s="22" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3070,7 +3076,9 @@
       <c r="G3" s="10">
         <v>1</v>
       </c>
-      <c r="H3" s="6"/>
+      <c r="H3" s="11">
+        <v>0.03</v>
+      </c>
       <c r="I3" s="11">
         <f>(B3-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10001,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10001,48,FALSE)</f>
         <v>0.00839694656488559</v>
@@ -3090,23 +3098,23 @@
         <f>L3+L3*VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL1000,43,FALSE)*2</f>
         <v>29.24</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="O3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="Q3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="16" t="str">
+      <c r="R3" s="17" t="str">
         <f t="shared" ref="R3:R6" si="0">IF(C3&gt;(E3-(E3-D3)/3),"上部",IF(C3&gt;(F3+(E3-D3)/3),"中部","下部"))</f>
         <v>下部</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="S3" s="17" t="s">
         <v>27</v>
       </c>
       <c r="T3" s="10"/>
@@ -3114,10 +3122,10 @@
         <f>D3-E3</f>
         <v>1.29</v>
       </c>
-      <c r="V3" s="22" t="s">
+      <c r="V3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="W3" s="23">
+      <c r="W3" s="24">
         <f>F3/VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10001,45,FALSE)</f>
         <v>0.998077942735949</v>
       </c>
@@ -3167,23 +3175,23 @@
         <f>L4+L4*VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL1001,43,FALSE)*2</f>
         <v>29.24</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="16" t="s">
+      <c r="O4" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="16" t="s">
+      <c r="Q4" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="18" t="str">
+      <c r="R4" s="19" t="str">
         <f t="shared" si="0"/>
         <v>上部</v>
       </c>
-      <c r="S4" s="16" t="s">
+      <c r="S4" s="17" t="s">
         <v>27</v>
       </c>
       <c r="T4" s="10"/>
@@ -3191,10 +3199,10 @@
         <f>D4-E4</f>
         <v>1.2</v>
       </c>
-      <c r="V4" s="24">
+      <c r="V4" s="25">
         <v>1</v>
       </c>
-      <c r="W4" s="23">
+      <c r="W4" s="24">
         <f>F4/VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10002,45,FALSE)</f>
         <v>1.02803552492047</v>
       </c>
@@ -3221,15 +3229,15 @@
       <c r="G5" s="10">
         <v>1</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="12">
         <f>(B5-B4)/B4</f>
         <v>-0.0325833979829325</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="12">
         <f>(B5-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10003,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10003,48,FALSE)</f>
         <v>-0.048091603053435</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="12">
         <f>G5/(ROW()-2)</f>
         <v>0.333333333333333</v>
       </c>
@@ -3244,23 +3252,23 @@
         <f>L5+L5*VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL1002,43,FALSE)*2</f>
         <v>29.24</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="N5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="16" t="s">
+      <c r="P5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="16" t="s">
+      <c r="Q5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="R5" s="19" t="str">
+      <c r="R5" s="20" t="str">
         <f t="shared" si="0"/>
         <v>上部</v>
       </c>
-      <c r="S5" s="18" t="s">
+      <c r="S5" s="19" t="s">
         <v>29</v>
       </c>
       <c r="T5" s="10"/>
@@ -3268,10 +3276,10 @@
         <f>D5-E5</f>
         <v>0.870000000000001</v>
       </c>
-      <c r="V5" s="24">
+      <c r="V5" s="25">
         <v>1</v>
       </c>
-      <c r="W5" s="23">
+      <c r="W5" s="24">
         <f>F5/VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10003,45,FALSE)</f>
         <v>1.0031150583245</v>
       </c>
@@ -3321,34 +3329,34 @@
         <f>L6+L6*VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL1003,43,FALSE)*2</f>
         <v>29.24</v>
       </c>
-      <c r="N6" s="16" t="s">
+      <c r="N6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="16" t="s">
+      <c r="O6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="P6" s="16" t="s">
+      <c r="P6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Q6" s="16" t="s">
+      <c r="Q6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="R6" s="19" t="str">
+      <c r="R6" s="20" t="str">
         <f t="shared" si="0"/>
         <v>下部</v>
       </c>
-      <c r="S6" s="16" t="s">
+      <c r="S6" s="17" t="s">
         <v>27</v>
       </c>
       <c r="T6" s="10"/>
-      <c r="U6" s="8">
+      <c r="U6" s="26">
         <f>D6-E6</f>
         <v>2.69</v>
       </c>
-      <c r="V6" s="24">
+      <c r="V6" s="25">
         <v>1</v>
       </c>
-      <c r="W6" s="23">
+      <c r="W6" s="24">
         <f>F6/VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10004,45,FALSE)</f>
         <v>0.970440084835631</v>
       </c>
@@ -3862,7 +3870,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
       <c r="T25" s="10"/>
-      <c r="U25" s="25"/>
+      <c r="U25" s="27"/>
       <c r="V25" s="10"/>
       <c r="W25" s="10"/>
     </row>
@@ -3889,7 +3897,7 @@
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
       <c r="T26" s="10"/>
-      <c r="U26" s="25"/>
+      <c r="U26" s="27"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
     </row>
@@ -3916,7 +3924,7 @@
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
       <c r="T27" s="10"/>
-      <c r="U27" s="25"/>
+      <c r="U27" s="27"/>
       <c r="V27" s="10"/>
       <c r="W27" s="10"/>
     </row>
@@ -3943,7 +3951,7 @@
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
       <c r="T28" s="10"/>
-      <c r="U28" s="25"/>
+      <c r="U28" s="27"/>
       <c r="V28" s="10"/>
       <c r="W28" s="10"/>
     </row>
@@ -3970,7 +3978,7 @@
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
       <c r="T29" s="10"/>
-      <c r="U29" s="25"/>
+      <c r="U29" s="27"/>
       <c r="V29" s="10"/>
       <c r="W29" s="10"/>
     </row>
@@ -3997,7 +4005,7 @@
       <c r="R30" s="10"/>
       <c r="S30" s="10"/>
       <c r="T30" s="10"/>
-      <c r="U30" s="25"/>
+      <c r="U30" s="27"/>
       <c r="V30" s="10"/>
       <c r="W30" s="10"/>
     </row>
@@ -4024,7 +4032,7 @@
       <c r="R31" s="10"/>
       <c r="S31" s="10"/>
       <c r="T31" s="10"/>
-      <c r="U31" s="25"/>
+      <c r="U31" s="27"/>
       <c r="V31" s="10"/>
       <c r="W31" s="10"/>
     </row>
@@ -4051,7 +4059,7 @@
       <c r="R32" s="10"/>
       <c r="S32" s="10"/>
       <c r="T32" s="10"/>
-      <c r="U32" s="25"/>
+      <c r="U32" s="27"/>
       <c r="V32" s="10"/>
       <c r="W32" s="10"/>
     </row>
@@ -4078,7 +4086,7 @@
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
       <c r="T33" s="10"/>
-      <c r="U33" s="25"/>
+      <c r="U33" s="27"/>
       <c r="V33" s="10"/>
       <c r="W33" s="10"/>
     </row>
@@ -4105,7 +4113,7 @@
       <c r="R34" s="10"/>
       <c r="S34" s="10"/>
       <c r="T34" s="10"/>
-      <c r="U34" s="25"/>
+      <c r="U34" s="27"/>
       <c r="V34" s="10"/>
       <c r="W34" s="10"/>
     </row>
@@ -4132,7 +4140,7 @@
       <c r="R35" s="10"/>
       <c r="S35" s="10"/>
       <c r="T35" s="10"/>
-      <c r="U35" s="25"/>
+      <c r="U35" s="27"/>
       <c r="V35" s="10"/>
       <c r="W35" s="10"/>
     </row>
@@ -4159,7 +4167,7 @@
       <c r="R36" s="10"/>
       <c r="S36" s="10"/>
       <c r="T36" s="10"/>
-      <c r="U36" s="25"/>
+      <c r="U36" s="27"/>
       <c r="V36" s="10"/>
       <c r="W36" s="10"/>
     </row>
@@ -4186,7 +4194,7 @@
       <c r="R37" s="10"/>
       <c r="S37" s="10"/>
       <c r="T37" s="10"/>
-      <c r="U37" s="25"/>
+      <c r="U37" s="27"/>
       <c r="V37" s="10"/>
       <c r="W37" s="10"/>
     </row>
@@ -4213,7 +4221,7 @@
       <c r="R38" s="10"/>
       <c r="S38" s="10"/>
       <c r="T38" s="10"/>
-      <c r="U38" s="25"/>
+      <c r="U38" s="27"/>
       <c r="V38" s="10"/>
       <c r="W38" s="10"/>
     </row>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
@@ -2917,11 +2917,11 @@
   <dimension ref="A1:W500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U6" sqref="U6"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
@@ -53,6 +53,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">单日涨幅
 </t>
     </r>
@@ -60,6 +66,7 @@
       <rPr>
         <sz val="8"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>(止损时，该值创新低是要引起注意；止盈时，该值创新高是要引起注意)</t>
@@ -67,6 +74,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">买入后总跌幅/涨幅
 </t>
     </r>
@@ -74,6 +87,7 @@
       <rPr>
         <sz val="8"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>(下跌超过3%考虑卖出；上涨超过25%考虑卖出)</t>
@@ -81,6 +95,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">上涨/下跌天数
 </t>
     </r>
@@ -88,6 +108,7 @@
       <rPr>
         <sz val="8"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>(上涨大于65%考虑止盈；下跌大于65%考虑止损)</t>
@@ -104,6 +125,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">当日收盘价是否小于20日均线
 </t>
     </r>
@@ -111,6 +138,7 @@
       <rPr>
         <sz val="8"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>(是的时候应该警惕)</t>
@@ -118,6 +146,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">上涨是否交易量收缩/下跌是否交易量放大
 </t>
     </r>
@@ -125,6 +159,7 @@
       <rPr>
         <sz val="8"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>(是的时候应该警惕)</t>
@@ -132,6 +167,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">是否出现连续三日新低
 </t>
     </r>
@@ -139,6 +180,7 @@
       <rPr>
         <sz val="8"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>(是的时候应该警惕)</t>
@@ -146,6 +188,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">下跌天数是否多于上涨天数
 </t>
     </r>
@@ -153,6 +201,7 @@
       <rPr>
         <sz val="8"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>（是的时候应该警惕）</t>
@@ -160,6 +209,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">收盘价处于波动范围的位置
 </t>
     </r>
@@ -167,6 +222,7 @@
       <rPr>
         <sz val="8"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>(处于下部应该警惕)</t>
@@ -205,14 +261,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -236,24 +292,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -262,6 +333,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -275,7 +354,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,69 +362,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,24 +382,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="39">
@@ -437,7 +498,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,79 +540,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,6 +564,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -551,67 +666,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,7 +705,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,26 +740,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -710,6 +751,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -731,9 +781,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,148 +803,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -903,16 +964,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -960,13 +1021,13 @@
     <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -2917,11 +2978,11 @@
   <dimension ref="A1:W500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3348,7 +3409,9 @@
       <c r="S6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="T6" s="10"/>
+      <c r="T6" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="U6" s="26">
         <f>D6-E6</f>
         <v>2.69</v>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
@@ -261,10 +261,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
@@ -305,14 +305,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -328,8 +320,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -344,50 +397,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -396,10 +405,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -412,24 +421,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,13 +486,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,7 +510,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,7 +588,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,37 +618,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,19 +648,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,79 +672,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,37 +705,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,15 +721,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,6 +742,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -790,11 +784,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -803,139 +803,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -944,11 +944,11 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1012,16 +1012,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2978,11 +2975,11 @@
   <dimension ref="A1:W500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T6" sqref="T6"/>
+      <selection pane="bottomRight" activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3041,10 +3038,10 @@
       <c r="S1" s="15"/>
       <c r="T1" s="15"/>
       <c r="U1" s="15"/>
-      <c r="V1" s="21" t="s">
+      <c r="V1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="21"/>
+      <c r="W1" s="20"/>
     </row>
     <row r="2" ht="56" customHeight="1" spans="1:23">
       <c r="A2" s="2"/>
@@ -3108,10 +3105,10 @@
       <c r="U2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="22" t="s">
+      <c r="V2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="22" t="s">
+      <c r="W2" s="21" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3172,8 +3169,8 @@
         <v>27</v>
       </c>
       <c r="R3" s="17" t="str">
-        <f t="shared" ref="R3:R6" si="0">IF(C3&gt;(E3-(E3-D3)/3),"上部",IF(C3&gt;(F3+(E3-D3)/3),"中部","下部"))</f>
-        <v>下部</v>
+        <f>IF(B3&gt;=(D3-(D3-E3)/3),"上部",IF(B3&gt;=(E3+(D3-E3)/3),"中部","下部"))</f>
+        <v>上部</v>
       </c>
       <c r="S3" s="17" t="s">
         <v>27</v>
@@ -3183,10 +3180,10 @@
         <f>D3-E3</f>
         <v>1.29</v>
       </c>
-      <c r="V3" s="23" t="s">
+      <c r="V3" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="W3" s="24">
+      <c r="W3" s="23">
         <f>F3/VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10001,45,FALSE)</f>
         <v>0.998077942735949</v>
       </c>
@@ -3249,8 +3246,8 @@
         <v>27</v>
       </c>
       <c r="R4" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>上部</v>
+        <f>IF(B4&gt;=(D4-(D4-E4)/3),"上部",IF(B4&gt;=(E4+(D4-E4)/3),"中部","下部"))</f>
+        <v>下部</v>
       </c>
       <c r="S4" s="17" t="s">
         <v>27</v>
@@ -3260,10 +3257,10 @@
         <f>D4-E4</f>
         <v>1.2</v>
       </c>
-      <c r="V4" s="25">
+      <c r="V4" s="24">
         <v>1</v>
       </c>
-      <c r="W4" s="24">
+      <c r="W4" s="23">
         <f>F4/VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10002,45,FALSE)</f>
         <v>1.02803552492047</v>
       </c>
@@ -3325,9 +3322,9 @@
       <c r="Q5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="R5" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>上部</v>
+      <c r="R5" s="19" t="str">
+        <f>IF(B5&gt;=(D5-(D5-E5)/3),"上部",IF(B5&gt;=(E5+(D5-E5)/3),"中部","下部"))</f>
+        <v>下部</v>
       </c>
       <c r="S5" s="19" t="s">
         <v>29</v>
@@ -3337,10 +3334,10 @@
         <f>D5-E5</f>
         <v>0.870000000000001</v>
       </c>
-      <c r="V5" s="25">
+      <c r="V5" s="24">
         <v>1</v>
       </c>
-      <c r="W5" s="24">
+      <c r="W5" s="23">
         <f>F5/VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10003,45,FALSE)</f>
         <v>1.0031150583245</v>
       </c>
@@ -3402,9 +3399,9 @@
       <c r="Q6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="R6" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>下部</v>
+      <c r="R6" s="17" t="str">
+        <f>IF(B6&gt;=(D6-(D6-E6)/3),"上部",IF(B6&gt;=(E6+(D6-E6)/3),"中部","下部"))</f>
+        <v>上部</v>
       </c>
       <c r="S6" s="17" t="s">
         <v>27</v>
@@ -3412,14 +3409,14 @@
       <c r="T6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="U6" s="26">
+      <c r="U6" s="25">
         <f>D6-E6</f>
         <v>2.69</v>
       </c>
-      <c r="V6" s="25">
+      <c r="V6" s="24">
         <v>1</v>
       </c>
-      <c r="W6" s="24">
+      <c r="W6" s="23">
         <f>F6/VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10004,45,FALSE)</f>
         <v>0.970440084835631</v>
       </c>
@@ -3933,7 +3930,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
       <c r="T25" s="10"/>
-      <c r="U25" s="27"/>
+      <c r="U25" s="26"/>
       <c r="V25" s="10"/>
       <c r="W25" s="10"/>
     </row>
@@ -3960,7 +3957,7 @@
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
       <c r="T26" s="10"/>
-      <c r="U26" s="27"/>
+      <c r="U26" s="26"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
     </row>
@@ -3987,7 +3984,7 @@
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
       <c r="T27" s="10"/>
-      <c r="U27" s="27"/>
+      <c r="U27" s="26"/>
       <c r="V27" s="10"/>
       <c r="W27" s="10"/>
     </row>
@@ -4014,7 +4011,7 @@
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
       <c r="T28" s="10"/>
-      <c r="U28" s="27"/>
+      <c r="U28" s="26"/>
       <c r="V28" s="10"/>
       <c r="W28" s="10"/>
     </row>
@@ -4041,7 +4038,7 @@
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
       <c r="T29" s="10"/>
-      <c r="U29" s="27"/>
+      <c r="U29" s="26"/>
       <c r="V29" s="10"/>
       <c r="W29" s="10"/>
     </row>
@@ -4068,7 +4065,7 @@
       <c r="R30" s="10"/>
       <c r="S30" s="10"/>
       <c r="T30" s="10"/>
-      <c r="U30" s="27"/>
+      <c r="U30" s="26"/>
       <c r="V30" s="10"/>
       <c r="W30" s="10"/>
     </row>
@@ -4095,7 +4092,7 @@
       <c r="R31" s="10"/>
       <c r="S31" s="10"/>
       <c r="T31" s="10"/>
-      <c r="U31" s="27"/>
+      <c r="U31" s="26"/>
       <c r="V31" s="10"/>
       <c r="W31" s="10"/>
     </row>
@@ -4122,7 +4119,7 @@
       <c r="R32" s="10"/>
       <c r="S32" s="10"/>
       <c r="T32" s="10"/>
-      <c r="U32" s="27"/>
+      <c r="U32" s="26"/>
       <c r="V32" s="10"/>
       <c r="W32" s="10"/>
     </row>
@@ -4149,7 +4146,7 @@
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
       <c r="T33" s="10"/>
-      <c r="U33" s="27"/>
+      <c r="U33" s="26"/>
       <c r="V33" s="10"/>
       <c r="W33" s="10"/>
     </row>
@@ -4176,7 +4173,7 @@
       <c r="R34" s="10"/>
       <c r="S34" s="10"/>
       <c r="T34" s="10"/>
-      <c r="U34" s="27"/>
+      <c r="U34" s="26"/>
       <c r="V34" s="10"/>
       <c r="W34" s="10"/>
     </row>
@@ -4203,7 +4200,7 @@
       <c r="R35" s="10"/>
       <c r="S35" s="10"/>
       <c r="T35" s="10"/>
-      <c r="U35" s="27"/>
+      <c r="U35" s="26"/>
       <c r="V35" s="10"/>
       <c r="W35" s="10"/>
     </row>
@@ -4230,7 +4227,7 @@
       <c r="R36" s="10"/>
       <c r="S36" s="10"/>
       <c r="T36" s="10"/>
-      <c r="U36" s="27"/>
+      <c r="U36" s="26"/>
       <c r="V36" s="10"/>
       <c r="W36" s="10"/>
     </row>
@@ -4257,7 +4254,7 @@
       <c r="R37" s="10"/>
       <c r="S37" s="10"/>
       <c r="T37" s="10"/>
-      <c r="U37" s="27"/>
+      <c r="U37" s="26"/>
       <c r="V37" s="10"/>
       <c r="W37" s="10"/>
     </row>
@@ -4284,7 +4281,7 @@
       <c r="R38" s="10"/>
       <c r="S38" s="10"/>
       <c r="T38" s="10"/>
-      <c r="U38" s="27"/>
+      <c r="U38" s="26"/>
       <c r="V38" s="10"/>
       <c r="W38" s="10"/>
     </row>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
@@ -261,12 +261,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -292,14 +292,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,10 +313,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -329,15 +361,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,16 +384,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,24 +406,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,24 +428,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,12 +498,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -522,7 +516,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,7 +546,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,7 +570,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,121 +666,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,6 +706,56 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,149 +798,99 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -899,28 +899,28 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -929,22 +929,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -964,16 +964,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1018,13 +1018,13 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -2975,11 +2975,11 @@
   <dimension ref="A1:W500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R3" sqref="R3"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3153,8 +3153,8 @@
         <v>26.2</v>
       </c>
       <c r="M3" s="6">
-        <f>L3+L3*VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL1000,43,FALSE)*2</f>
-        <v>29.24</v>
+        <f>L3+L3*VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL1000,43,FALSE)</f>
+        <v>27.72</v>
       </c>
       <c r="N3" s="17" t="s">
         <v>27</v>
@@ -3230,8 +3230,8 @@
         <v>26.2</v>
       </c>
       <c r="M4" s="6">
-        <f>L4+L4*VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL1001,43,FALSE)*2</f>
-        <v>29.24</v>
+        <f>L4+L4*VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL1001,43,FALSE)</f>
+        <v>27.72</v>
       </c>
       <c r="N4" s="17" t="s">
         <v>27</v>
@@ -3307,8 +3307,8 @@
         <v>26.2</v>
       </c>
       <c r="M5" s="6">
-        <f>L5+L5*VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL1002,43,FALSE)*2</f>
-        <v>29.24</v>
+        <f>L5+L5*VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL1002,43,FALSE)</f>
+        <v>27.72</v>
       </c>
       <c r="N5" s="17" t="s">
         <v>27</v>
@@ -3384,8 +3384,8 @@
         <v>26.2</v>
       </c>
       <c r="M6" s="6">
-        <f>L6+L6*VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL1003,43,FALSE)*2</f>
-        <v>29.24</v>
+        <f>L6+L6*VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL1003,43,FALSE)</f>
+        <v>27.72</v>
       </c>
       <c r="N6" s="17" t="s">
         <v>27</v>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
@@ -261,12 +261,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -292,36 +292,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -338,6 +321,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -345,24 +335,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,15 +359,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,21 +367,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,6 +380,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -428,8 +412,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,7 +504,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,7 +528,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,37 +618,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,37 +630,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,67 +672,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,8 +704,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,15 +750,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,21 +784,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -789,162 +798,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -964,16 +964,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1018,13 +1018,13 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
@@ -3029,7 +3029,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3333,7 +3333,9 @@
       <c r="AA5" s="28"/>
       <c r="AB5" s="28"/>
       <c r="AC5" s="28"/>
-      <c r="AD5" s="28"/>
+      <c r="AD5" s="6">
+        <v>24.68</v>
+      </c>
     </row>
     <row r="6" spans="1:30">
       <c r="A6" s="7">
@@ -3405,7 +3407,9 @@
       <c r="AA6" s="28"/>
       <c r="AB6" s="28"/>
       <c r="AC6" s="28"/>
-      <c r="AD6" s="28"/>
+      <c r="AD6" s="6">
+        <v>24.68</v>
+      </c>
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="7">
@@ -3477,7 +3481,9 @@
       <c r="AA7" s="28"/>
       <c r="AB7" s="28"/>
       <c r="AC7" s="28"/>
-      <c r="AD7" s="28"/>
+      <c r="AD7" s="6">
+        <v>24.68</v>
+      </c>
     </row>
     <row r="8" spans="1:30">
       <c r="A8" s="7">
@@ -3549,7 +3555,9 @@
       <c r="AA8" s="28"/>
       <c r="AB8" s="28"/>
       <c r="AC8" s="28"/>
-      <c r="AD8" s="28"/>
+      <c r="AD8" s="6">
+        <v>24.68</v>
+      </c>
     </row>
     <row r="9" spans="1:30">
       <c r="A9" s="7">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
@@ -3029,7 +3029,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3563,15 +3563,34 @@
       <c r="A9" s="7">
         <v>44527</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="B9" s="8">
+        <v>28.08</v>
+      </c>
+      <c r="C9" s="8">
+        <v>26.62</v>
+      </c>
+      <c r="D9" s="8">
+        <v>28.25</v>
+      </c>
+      <c r="E9" s="8">
+        <v>26.62</v>
+      </c>
+      <c r="F9" s="8">
+        <v>25.42</v>
+      </c>
+      <c r="G9" s="8">
+        <v>24.96</v>
+      </c>
+      <c r="H9" s="8">
+        <v>161.04</v>
+      </c>
+      <c r="I9" s="9">
+        <v>3</v>
+      </c>
+      <c r="J9" s="14">
+        <f>(B9-B8)/B8</f>
+        <v>0.0236966824644549</v>
+      </c>
       <c r="K9" s="9"/>
       <c r="L9" s="8"/>
       <c r="M9" s="9"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>日期</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>否</t>
+  </si>
+  <si>
+    <t>是</t>
   </si>
 </sst>
 </file>
@@ -3025,11 +3028,11 @@
   <dimension ref="A1:AD502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="AD7" sqref="AD7:AD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3464,7 +3467,7 @@
         <v>37</v>
       </c>
       <c r="Q7" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R7" s="26" t="str">
         <f>IF(B7&gt;=(D7-(D7-E7)/2),"上部","下部")</f>
@@ -3591,14 +3594,33 @@
         <f>(B9-B8)/B8</f>
         <v>0.0236966824644549</v>
       </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
+      <c r="K9" s="14">
+        <f>(B9-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10007,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10007,48,FALSE)</f>
+        <v>0.0717557251908397</v>
+      </c>
+      <c r="L9" s="14">
+        <f>I9/(ROW()-4)</f>
+        <v>0.6</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="R9" s="17" t="str">
+        <f>IF(B9&gt;=(D9-(D9-E9)/2),"上部","下部")</f>
+        <v>上部</v>
+      </c>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
       <c r="U9" s="8"/>
@@ -3610,7 +3632,9 @@
       <c r="AA9" s="28"/>
       <c r="AB9" s="28"/>
       <c r="AC9" s="28"/>
-      <c r="AD9" s="28"/>
+      <c r="AD9" s="6">
+        <v>24.68</v>
+      </c>
     </row>
     <row r="10" spans="1:30">
       <c r="A10" s="7">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
@@ -3028,11 +3028,11 @@
   <dimension ref="A1:AD502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD7" sqref="AD7:AD9"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="11360"/>
+    <workbookView windowWidth="29140" windowHeight="11360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -221,14 +221,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -267,13 +267,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -281,7 +274,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,6 +288,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -302,23 +317,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -335,6 +335,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -342,7 +350,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,8 +364,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,35 +396,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -411,8 +411,21 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -504,7 +517,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,13 +655,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,145 +685,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,25 +749,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -770,6 +779,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -800,27 +824,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -829,94 +842,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -925,52 +938,52 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -990,16 +1003,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1047,7 +1060,7 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1068,10 +1081,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3028,11 +3041,11 @@
   <dimension ref="A1:AD502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C116" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9:A138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3564,7 +3577,7 @@
     </row>
     <row r="9" spans="1:30">
       <c r="A9" s="7">
-        <v>44527</v>
+        <v>44529</v>
       </c>
       <c r="B9" s="8">
         <v>28.08</v>
@@ -3638,7 +3651,7 @@
     </row>
     <row r="10" spans="1:30">
       <c r="A10" s="7">
-        <v>44528</v>
+        <v>44530</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -3672,7 +3685,7 @@
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="7">
-        <v>44529</v>
+        <v>44531</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -3706,7 +3719,7 @@
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="7">
-        <v>44530</v>
+        <v>44532</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -3740,7 +3753,7 @@
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="7">
-        <v>44531</v>
+        <v>44533</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -3774,7 +3787,7 @@
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="7">
-        <v>44532</v>
+        <v>44534</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -3808,7 +3821,7 @@
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="7">
-        <v>44533</v>
+        <v>44535</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -3842,7 +3855,7 @@
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="7">
-        <v>44534</v>
+        <v>44536</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -3876,7 +3889,7 @@
     </row>
     <row r="17" spans="1:30">
       <c r="A17" s="7">
-        <v>44535</v>
+        <v>44537</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -3910,7 +3923,7 @@
     </row>
     <row r="18" spans="1:30">
       <c r="A18" s="7">
-        <v>44536</v>
+        <v>44538</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -3944,7 +3957,7 @@
     </row>
     <row r="19" spans="1:30">
       <c r="A19" s="7">
-        <v>44537</v>
+        <v>44539</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -3978,7 +3991,7 @@
     </row>
     <row r="20" spans="1:30">
       <c r="A20" s="7">
-        <v>44538</v>
+        <v>44540</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -4012,7 +4025,7 @@
     </row>
     <row r="21" spans="1:30">
       <c r="A21" s="7">
-        <v>44539</v>
+        <v>44541</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -4046,7 +4059,7 @@
     </row>
     <row r="22" spans="1:30">
       <c r="A22" s="7">
-        <v>44540</v>
+        <v>44542</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -4080,7 +4093,7 @@
     </row>
     <row r="23" spans="1:30">
       <c r="A23" s="7">
-        <v>44541</v>
+        <v>44543</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -4114,7 +4127,7 @@
     </row>
     <row r="24" spans="1:30">
       <c r="A24" s="7">
-        <v>44542</v>
+        <v>44544</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -4148,7 +4161,7 @@
     </row>
     <row r="25" spans="1:30">
       <c r="A25" s="7">
-        <v>44543</v>
+        <v>44545</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -4182,7 +4195,7 @@
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="7">
-        <v>44544</v>
+        <v>44546</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -4216,7 +4229,7 @@
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="7">
-        <v>44545</v>
+        <v>44547</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -4250,7 +4263,7 @@
     </row>
     <row r="28" spans="1:30">
       <c r="A28" s="7">
-        <v>44546</v>
+        <v>44548</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -4284,7 +4297,7 @@
     </row>
     <row r="29" spans="1:30">
       <c r="A29" s="7">
-        <v>44547</v>
+        <v>44549</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -4318,7 +4331,7 @@
     </row>
     <row r="30" spans="1:30">
       <c r="A30" s="7">
-        <v>44548</v>
+        <v>44550</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -4352,7 +4365,7 @@
     </row>
     <row r="31" spans="1:30">
       <c r="A31" s="7">
-        <v>44549</v>
+        <v>44551</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -4386,7 +4399,7 @@
     </row>
     <row r="32" spans="1:30">
       <c r="A32" s="7">
-        <v>44550</v>
+        <v>44552</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -4420,7 +4433,7 @@
     </row>
     <row r="33" spans="1:30">
       <c r="A33" s="7">
-        <v>44551</v>
+        <v>44553</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -4454,7 +4467,7 @@
     </row>
     <row r="34" spans="1:30">
       <c r="A34" s="7">
-        <v>44552</v>
+        <v>44554</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -4488,7 +4501,7 @@
     </row>
     <row r="35" spans="1:30">
       <c r="A35" s="7">
-        <v>44553</v>
+        <v>44555</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -4522,7 +4535,7 @@
     </row>
     <row r="36" spans="1:30">
       <c r="A36" s="7">
-        <v>44554</v>
+        <v>44556</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -4556,7 +4569,7 @@
     </row>
     <row r="37" spans="1:30">
       <c r="A37" s="7">
-        <v>44555</v>
+        <v>44557</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -4590,7 +4603,7 @@
     </row>
     <row r="38" spans="1:30">
       <c r="A38" s="7">
-        <v>44556</v>
+        <v>44558</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -4624,7 +4637,7 @@
     </row>
     <row r="39" spans="1:30">
       <c r="A39" s="7">
-        <v>44557</v>
+        <v>44559</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -4658,7 +4671,7 @@
     </row>
     <row r="40" spans="1:30">
       <c r="A40" s="7">
-        <v>44558</v>
+        <v>44560</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -4692,7 +4705,7 @@
     </row>
     <row r="41" spans="1:30">
       <c r="A41" s="7">
-        <v>44559</v>
+        <v>44561</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -4726,7 +4739,7 @@
     </row>
     <row r="42" spans="1:30">
       <c r="A42" s="7">
-        <v>44560</v>
+        <v>44562</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -4760,7 +4773,7 @@
     </row>
     <row r="43" spans="1:30">
       <c r="A43" s="7">
-        <v>44561</v>
+        <v>44563</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -4794,7 +4807,7 @@
     </row>
     <row r="44" spans="1:30">
       <c r="A44" s="7">
-        <v>44562</v>
+        <v>44564</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -4828,7 +4841,7 @@
     </row>
     <row r="45" spans="1:30">
       <c r="A45" s="7">
-        <v>44563</v>
+        <v>44565</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -4862,7 +4875,7 @@
     </row>
     <row r="46" spans="1:30">
       <c r="A46" s="7">
-        <v>44564</v>
+        <v>44566</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -4896,7 +4909,7 @@
     </row>
     <row r="47" spans="1:30">
       <c r="A47" s="7">
-        <v>44565</v>
+        <v>44567</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -4930,7 +4943,7 @@
     </row>
     <row r="48" spans="1:30">
       <c r="A48" s="7">
-        <v>44566</v>
+        <v>44568</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -4964,7 +4977,7 @@
     </row>
     <row r="49" spans="1:30">
       <c r="A49" s="7">
-        <v>44567</v>
+        <v>44569</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -4998,7 +5011,7 @@
     </row>
     <row r="50" spans="1:30">
       <c r="A50" s="7">
-        <v>44568</v>
+        <v>44570</v>
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -5032,7 +5045,7 @@
     </row>
     <row r="51" spans="1:30">
       <c r="A51" s="7">
-        <v>44569</v>
+        <v>44571</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -5066,7 +5079,7 @@
     </row>
     <row r="52" spans="1:30">
       <c r="A52" s="7">
-        <v>44570</v>
+        <v>44572</v>
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -5100,7 +5113,7 @@
     </row>
     <row r="53" spans="1:30">
       <c r="A53" s="7">
-        <v>44571</v>
+        <v>44573</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -5134,7 +5147,7 @@
     </row>
     <row r="54" spans="1:30">
       <c r="A54" s="7">
-        <v>44572</v>
+        <v>44574</v>
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -5168,7 +5181,7 @@
     </row>
     <row r="55" spans="1:30">
       <c r="A55" s="7">
-        <v>44573</v>
+        <v>44575</v>
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -5202,7 +5215,7 @@
     </row>
     <row r="56" spans="1:30">
       <c r="A56" s="7">
-        <v>44574</v>
+        <v>44576</v>
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -5236,7 +5249,7 @@
     </row>
     <row r="57" spans="1:30">
       <c r="A57" s="7">
-        <v>44575</v>
+        <v>44577</v>
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -5270,7 +5283,7 @@
     </row>
     <row r="58" spans="1:30">
       <c r="A58" s="7">
-        <v>44576</v>
+        <v>44578</v>
       </c>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -5304,7 +5317,7 @@
     </row>
     <row r="59" spans="1:30">
       <c r="A59" s="7">
-        <v>44577</v>
+        <v>44579</v>
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -5338,7 +5351,7 @@
     </row>
     <row r="60" spans="1:30">
       <c r="A60" s="7">
-        <v>44578</v>
+        <v>44580</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -5372,7 +5385,7 @@
     </row>
     <row r="61" spans="1:30">
       <c r="A61" s="7">
-        <v>44579</v>
+        <v>44581</v>
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -5406,7 +5419,7 @@
     </row>
     <row r="62" spans="1:30">
       <c r="A62" s="7">
-        <v>44580</v>
+        <v>44582</v>
       </c>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -5440,7 +5453,7 @@
     </row>
     <row r="63" spans="1:30">
       <c r="A63" s="7">
-        <v>44581</v>
+        <v>44583</v>
       </c>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -5474,7 +5487,7 @@
     </row>
     <row r="64" spans="1:30">
       <c r="A64" s="7">
-        <v>44582</v>
+        <v>44584</v>
       </c>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -5508,7 +5521,7 @@
     </row>
     <row r="65" spans="1:30">
       <c r="A65" s="7">
-        <v>44583</v>
+        <v>44585</v>
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -5542,7 +5555,7 @@
     </row>
     <row r="66" spans="1:30">
       <c r="A66" s="7">
-        <v>44584</v>
+        <v>44586</v>
       </c>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -5576,7 +5589,7 @@
     </row>
     <row r="67" spans="1:30">
       <c r="A67" s="7">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
@@ -5610,7 +5623,7 @@
     </row>
     <row r="68" spans="1:30">
       <c r="A68" s="7">
-        <v>44586</v>
+        <v>44588</v>
       </c>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -5644,7 +5657,7 @@
     </row>
     <row r="69" spans="1:30">
       <c r="A69" s="7">
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -5678,7 +5691,7 @@
     </row>
     <row r="70" spans="1:30">
       <c r="A70" s="7">
-        <v>44588</v>
+        <v>44590</v>
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -5712,7 +5725,7 @@
     </row>
     <row r="71" spans="1:30">
       <c r="A71" s="7">
-        <v>44589</v>
+        <v>44591</v>
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -5746,7 +5759,7 @@
     </row>
     <row r="72" spans="1:30">
       <c r="A72" s="7">
-        <v>44590</v>
+        <v>44592</v>
       </c>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
@@ -5780,7 +5793,7 @@
     </row>
     <row r="73" spans="1:30">
       <c r="A73" s="7">
-        <v>44591</v>
+        <v>44593</v>
       </c>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -5814,7 +5827,7 @@
     </row>
     <row r="74" spans="1:30">
       <c r="A74" s="7">
-        <v>44592</v>
+        <v>44594</v>
       </c>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
@@ -5848,7 +5861,7 @@
     </row>
     <row r="75" spans="1:30">
       <c r="A75" s="7">
-        <v>44593</v>
+        <v>44595</v>
       </c>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -5882,7 +5895,7 @@
     </row>
     <row r="76" spans="1:30">
       <c r="A76" s="7">
-        <v>44594</v>
+        <v>44596</v>
       </c>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -5916,7 +5929,7 @@
     </row>
     <row r="77" spans="1:30">
       <c r="A77" s="7">
-        <v>44595</v>
+        <v>44597</v>
       </c>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
@@ -5950,7 +5963,7 @@
     </row>
     <row r="78" spans="1:30">
       <c r="A78" s="7">
-        <v>44596</v>
+        <v>44598</v>
       </c>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
@@ -5984,7 +5997,7 @@
     </row>
     <row r="79" spans="1:30">
       <c r="A79" s="7">
-        <v>44597</v>
+        <v>44599</v>
       </c>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -6018,7 +6031,7 @@
     </row>
     <row r="80" spans="1:30">
       <c r="A80" s="7">
-        <v>44598</v>
+        <v>44600</v>
       </c>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -6052,7 +6065,7 @@
     </row>
     <row r="81" spans="1:30">
       <c r="A81" s="7">
-        <v>44599</v>
+        <v>44601</v>
       </c>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
@@ -6086,7 +6099,7 @@
     </row>
     <row r="82" spans="1:30">
       <c r="A82" s="7">
-        <v>44600</v>
+        <v>44602</v>
       </c>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -6120,7 +6133,7 @@
     </row>
     <row r="83" spans="1:30">
       <c r="A83" s="7">
-        <v>44601</v>
+        <v>44603</v>
       </c>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -6154,7 +6167,7 @@
     </row>
     <row r="84" spans="1:30">
       <c r="A84" s="7">
-        <v>44602</v>
+        <v>44604</v>
       </c>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
@@ -6188,7 +6201,7 @@
     </row>
     <row r="85" spans="1:30">
       <c r="A85" s="7">
-        <v>44603</v>
+        <v>44605</v>
       </c>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
@@ -6222,7 +6235,7 @@
     </row>
     <row r="86" spans="1:30">
       <c r="A86" s="7">
-        <v>44604</v>
+        <v>44606</v>
       </c>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
@@ -6256,7 +6269,7 @@
     </row>
     <row r="87" spans="1:30">
       <c r="A87" s="7">
-        <v>44605</v>
+        <v>44607</v>
       </c>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
@@ -6290,7 +6303,7 @@
     </row>
     <row r="88" spans="1:30">
       <c r="A88" s="7">
-        <v>44606</v>
+        <v>44608</v>
       </c>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -6324,7 +6337,7 @@
     </row>
     <row r="89" spans="1:30">
       <c r="A89" s="7">
-        <v>44607</v>
+        <v>44609</v>
       </c>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
@@ -6358,7 +6371,7 @@
     </row>
     <row r="90" spans="1:30">
       <c r="A90" s="7">
-        <v>44608</v>
+        <v>44610</v>
       </c>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
@@ -6392,7 +6405,7 @@
     </row>
     <row r="91" spans="1:30">
       <c r="A91" s="7">
-        <v>44609</v>
+        <v>44611</v>
       </c>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
@@ -6426,7 +6439,7 @@
     </row>
     <row r="92" spans="1:30">
       <c r="A92" s="7">
-        <v>44610</v>
+        <v>44612</v>
       </c>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
@@ -6460,7 +6473,7 @@
     </row>
     <row r="93" spans="1:30">
       <c r="A93" s="7">
-        <v>44611</v>
+        <v>44613</v>
       </c>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
@@ -6494,7 +6507,7 @@
     </row>
     <row r="94" spans="1:30">
       <c r="A94" s="7">
-        <v>44612</v>
+        <v>44614</v>
       </c>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
@@ -6528,7 +6541,7 @@
     </row>
     <row r="95" spans="1:30">
       <c r="A95" s="7">
-        <v>44613</v>
+        <v>44615</v>
       </c>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -6562,7 +6575,7 @@
     </row>
     <row r="96" spans="1:30">
       <c r="A96" s="7">
-        <v>44614</v>
+        <v>44616</v>
       </c>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
@@ -6596,7 +6609,7 @@
     </row>
     <row r="97" spans="1:30">
       <c r="A97" s="7">
-        <v>44615</v>
+        <v>44617</v>
       </c>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -6630,7 +6643,7 @@
     </row>
     <row r="98" spans="1:30">
       <c r="A98" s="7">
-        <v>44616</v>
+        <v>44618</v>
       </c>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
@@ -6664,7 +6677,7 @@
     </row>
     <row r="99" spans="1:30">
       <c r="A99" s="7">
-        <v>44617</v>
+        <v>44619</v>
       </c>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -6698,7 +6711,7 @@
     </row>
     <row r="100" spans="1:30">
       <c r="A100" s="7">
-        <v>44618</v>
+        <v>44620</v>
       </c>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -6732,7 +6745,7 @@
     </row>
     <row r="101" spans="1:30">
       <c r="A101" s="7">
-        <v>44619</v>
+        <v>44621</v>
       </c>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
@@ -6766,7 +6779,7 @@
     </row>
     <row r="102" spans="1:30">
       <c r="A102" s="7">
-        <v>44620</v>
+        <v>44622</v>
       </c>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
@@ -6800,7 +6813,7 @@
     </row>
     <row r="103" spans="1:30">
       <c r="A103" s="7">
-        <v>44621</v>
+        <v>44623</v>
       </c>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
@@ -6834,7 +6847,7 @@
     </row>
     <row r="104" spans="1:30">
       <c r="A104" s="7">
-        <v>44622</v>
+        <v>44624</v>
       </c>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
@@ -6868,7 +6881,7 @@
     </row>
     <row r="105" spans="1:30">
       <c r="A105" s="7">
-        <v>44623</v>
+        <v>44625</v>
       </c>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
@@ -6902,7 +6915,7 @@
     </row>
     <row r="106" spans="1:30">
       <c r="A106" s="7">
-        <v>44624</v>
+        <v>44626</v>
       </c>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
@@ -6936,7 +6949,7 @@
     </row>
     <row r="107" spans="1:30">
       <c r="A107" s="7">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
@@ -6970,7 +6983,7 @@
     </row>
     <row r="108" spans="1:30">
       <c r="A108" s="7">
-        <v>44626</v>
+        <v>44628</v>
       </c>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
@@ -7004,7 +7017,7 @@
     </row>
     <row r="109" spans="1:30">
       <c r="A109" s="7">
-        <v>44627</v>
+        <v>44629</v>
       </c>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
@@ -7038,7 +7051,7 @@
     </row>
     <row r="110" spans="1:30">
       <c r="A110" s="7">
-        <v>44628</v>
+        <v>44630</v>
       </c>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
@@ -7072,7 +7085,7 @@
     </row>
     <row r="111" spans="1:30">
       <c r="A111" s="7">
-        <v>44629</v>
+        <v>44631</v>
       </c>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
@@ -7106,7 +7119,7 @@
     </row>
     <row r="112" spans="1:30">
       <c r="A112" s="7">
-        <v>44630</v>
+        <v>44632</v>
       </c>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
@@ -7140,7 +7153,7 @@
     </row>
     <row r="113" spans="1:30">
       <c r="A113" s="7">
-        <v>44631</v>
+        <v>44633</v>
       </c>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -7174,7 +7187,7 @@
     </row>
     <row r="114" spans="1:30">
       <c r="A114" s="7">
-        <v>44632</v>
+        <v>44634</v>
       </c>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
@@ -7208,7 +7221,7 @@
     </row>
     <row r="115" spans="1:30">
       <c r="A115" s="7">
-        <v>44633</v>
+        <v>44635</v>
       </c>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
@@ -7242,7 +7255,7 @@
     </row>
     <row r="116" spans="1:30">
       <c r="A116" s="7">
-        <v>44634</v>
+        <v>44636</v>
       </c>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
@@ -7276,7 +7289,7 @@
     </row>
     <row r="117" spans="1:30">
       <c r="A117" s="7">
-        <v>44635</v>
+        <v>44637</v>
       </c>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
@@ -7310,7 +7323,7 @@
     </row>
     <row r="118" spans="1:30">
       <c r="A118" s="7">
-        <v>44636</v>
+        <v>44638</v>
       </c>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
@@ -7344,7 +7357,7 @@
     </row>
     <row r="119" spans="1:30">
       <c r="A119" s="7">
-        <v>44637</v>
+        <v>44639</v>
       </c>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
@@ -7378,7 +7391,7 @@
     </row>
     <row r="120" spans="1:30">
       <c r="A120" s="7">
-        <v>44638</v>
+        <v>44640</v>
       </c>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
@@ -7412,7 +7425,7 @@
     </row>
     <row r="121" spans="1:30">
       <c r="A121" s="7">
-        <v>44639</v>
+        <v>44641</v>
       </c>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
@@ -7446,7 +7459,7 @@
     </row>
     <row r="122" spans="1:30">
       <c r="A122" s="7">
-        <v>44640</v>
+        <v>44642</v>
       </c>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
@@ -7480,7 +7493,7 @@
     </row>
     <row r="123" spans="1:30">
       <c r="A123" s="7">
-        <v>44641</v>
+        <v>44643</v>
       </c>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
@@ -7514,7 +7527,7 @@
     </row>
     <row r="124" spans="1:30">
       <c r="A124" s="7">
-        <v>44642</v>
+        <v>44644</v>
       </c>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
@@ -7548,7 +7561,7 @@
     </row>
     <row r="125" spans="1:30">
       <c r="A125" s="7">
-        <v>44643</v>
+        <v>44645</v>
       </c>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
@@ -7582,7 +7595,7 @@
     </row>
     <row r="126" spans="1:30">
       <c r="A126" s="7">
-        <v>44644</v>
+        <v>44646</v>
       </c>
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
@@ -7616,7 +7629,7 @@
     </row>
     <row r="127" spans="1:30">
       <c r="A127" s="7">
-        <v>44645</v>
+        <v>44647</v>
       </c>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
@@ -7650,7 +7663,7 @@
     </row>
     <row r="128" spans="1:30">
       <c r="A128" s="7">
-        <v>44646</v>
+        <v>44648</v>
       </c>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
@@ -7684,7 +7697,7 @@
     </row>
     <row r="129" spans="1:30">
       <c r="A129" s="7">
-        <v>44647</v>
+        <v>44649</v>
       </c>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
@@ -7718,7 +7731,7 @@
     </row>
     <row r="130" spans="1:30">
       <c r="A130" s="7">
-        <v>44648</v>
+        <v>44650</v>
       </c>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
@@ -7752,7 +7765,7 @@
     </row>
     <row r="131" spans="1:30">
       <c r="A131" s="7">
-        <v>44649</v>
+        <v>44651</v>
       </c>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
@@ -7785,7 +7798,9 @@
       <c r="AD131" s="28"/>
     </row>
     <row r="132" spans="1:21">
-      <c r="A132" s="1"/>
+      <c r="A132" s="7">
+        <v>44652</v>
+      </c>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -7805,7 +7820,9 @@
       <c r="U132" s="1"/>
     </row>
     <row r="133" spans="1:21">
-      <c r="A133" s="1"/>
+      <c r="A133" s="7">
+        <v>44653</v>
+      </c>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -7825,7 +7842,9 @@
       <c r="U133" s="1"/>
     </row>
     <row r="134" spans="1:21">
-      <c r="A134" s="1"/>
+      <c r="A134" s="7">
+        <v>44654</v>
+      </c>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -7845,7 +7864,9 @@
       <c r="U134" s="1"/>
     </row>
     <row r="135" spans="1:21">
-      <c r="A135" s="1"/>
+      <c r="A135" s="7">
+        <v>44655</v>
+      </c>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -7865,7 +7886,9 @@
       <c r="U135" s="1"/>
     </row>
     <row r="136" spans="1:21">
-      <c r="A136" s="1"/>
+      <c r="A136" s="7">
+        <v>44656</v>
+      </c>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -7885,7 +7908,9 @@
       <c r="U136" s="1"/>
     </row>
     <row r="137" spans="1:21">
-      <c r="A137" s="1"/>
+      <c r="A137" s="7">
+        <v>44657</v>
+      </c>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -7905,7 +7930,9 @@
       <c r="U137" s="1"/>
     </row>
     <row r="138" spans="1:21">
-      <c r="A138" s="1"/>
+      <c r="A138" s="7">
+        <v>44658</v>
+      </c>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
@@ -3041,11 +3041,11 @@
   <dimension ref="A1:AD502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C116" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9:A138"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
@@ -3041,11 +3041,11 @@
   <dimension ref="A1:AD502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3479,7 +3479,7 @@
       <c r="P7" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="Q7" s="17" t="s">
+      <c r="Q7" s="26" t="s">
         <v>38</v>
       </c>
       <c r="R7" s="26" t="str">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
@@ -3041,11 +3041,11 @@
   <dimension ref="A1:AD502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
@@ -221,12 +221,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -267,14 +267,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,109 +357,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,8 +371,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,13 +511,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,7 +571,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,19 +601,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,55 +643,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,67 +685,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,11 +749,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -764,6 +779,15 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -799,15 +823,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -822,168 +837,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1003,16 +1003,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1060,7 +1060,7 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1081,10 +1081,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3041,11 +3041,11 @@
   <dimension ref="A1:AD502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="AD6" sqref="AD6:AD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3424,6 +3424,7 @@
       <c r="AB6" s="28"/>
       <c r="AC6" s="28"/>
       <c r="AD6" s="6">
+        <f>IF(G6-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE)&gt;0,G6,AD5)</f>
         <v>24.68</v>
       </c>
     </row>
@@ -3498,6 +3499,7 @@
       <c r="AB7" s="28"/>
       <c r="AC7" s="28"/>
       <c r="AD7" s="6">
+        <f>IF(G7-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE)&gt;0,G7,AD6)</f>
         <v>24.68</v>
       </c>
     </row>
@@ -3572,6 +3574,7 @@
       <c r="AB8" s="28"/>
       <c r="AC8" s="28"/>
       <c r="AD8" s="6">
+        <f>IF(G8-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10006,48,FALSE)&gt;0,G8,AD7)</f>
         <v>24.68</v>
       </c>
     </row>
@@ -3646,6 +3649,7 @@
       <c r="AB9" s="28"/>
       <c r="AC9" s="28"/>
       <c r="AD9" s="6">
+        <f>IF(G9-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10007,48,FALSE)&gt;0,G9,AD8)</f>
         <v>24.68</v>
       </c>
     </row>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29140" windowHeight="11360"/>
+    <workbookView windowWidth="26500" windowHeight="11360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>日期</t>
   </si>
@@ -212,9 +212,6 @@
   <si>
     <t>否</t>
   </si>
-  <si>
-    <t>是</t>
-  </si>
 </sst>
 </file>
 
@@ -222,11 +219,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -274,6 +271,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -281,14 +285,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -297,6 +301,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -311,69 +337,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,8 +353,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,10 +377,33 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -511,19 +508,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,7 +544,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,13 +592,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,43 +604,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,19 +628,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,7 +640,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,37 +682,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,61 +746,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -837,90 +784,140 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -929,58 +926,58 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3041,11 +3038,11 @@
   <dimension ref="A1:AD502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD6" sqref="AD6:AD9"/>
+      <selection pane="bottomRight" activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3331,8 +3328,9 @@
       <c r="P5" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="Q5" s="17" t="s">
-        <v>37</v>
+      <c r="Q5" s="17" t="str">
+        <f>IF(I5/(ROW()-4)&lt;0.5,"是","否")</f>
+        <v>否</v>
       </c>
       <c r="R5" s="17" t="str">
         <f>IF(B5&gt;=(D5-(D5-E5)/2),"上部","下部")</f>
@@ -3405,8 +3403,9 @@
       <c r="P6" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="Q6" s="17" t="s">
-        <v>37</v>
+      <c r="Q6" s="17" t="str">
+        <f>IF(I6/(ROW()-4)&lt;0.5,"是","否")</f>
+        <v>否</v>
       </c>
       <c r="R6" s="26" t="str">
         <f>IF(B6&gt;=(D6-(D6-E6)/2),"上部","下部")</f>
@@ -3480,8 +3479,9 @@
       <c r="P7" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="Q7" s="26" t="s">
-        <v>38</v>
+      <c r="Q7" s="26" t="str">
+        <f>IF(I7/(ROW()-4)&lt;0.5,"是","否")</f>
+        <v>是</v>
       </c>
       <c r="R7" s="26" t="str">
         <f>IF(B7&gt;=(D7-(D7-E7)/2),"上部","下部")</f>
@@ -3555,8 +3555,9 @@
       <c r="P8" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="Q8" s="17" t="s">
-        <v>37</v>
+      <c r="Q8" s="17" t="str">
+        <f>IF(I8/(ROW()-4)&lt;0.5,"是","否")</f>
+        <v>否</v>
       </c>
       <c r="R8" s="17" t="str">
         <f>IF(B8&gt;=(D8-(D8-E8)/2),"上部","下部")</f>
@@ -3630,8 +3631,9 @@
       <c r="P9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="Q9" s="9" t="s">
-        <v>37</v>
+      <c r="Q9" s="17" t="str">
+        <f>IF(I9/(ROW()-4)&lt;0.5,"是","否")</f>
+        <v>否</v>
       </c>
       <c r="R9" s="17" t="str">
         <f>IF(B9&gt;=(D9-(D9-E9)/2),"上部","下部")</f>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>日期</t>
   </si>
@@ -212,18 +212,21 @@
   <si>
     <t>否</t>
   </si>
+  <si>
+    <t>是</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -264,7 +267,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,14 +281,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,22 +296,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,22 +319,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -355,37 +329,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,10 +344,69 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -508,43 +511,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,24 +547,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -592,7 +559,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,7 +613,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,7 +649,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,61 +679,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,36 +759,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -820,6 +793,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -839,148 +842,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1000,16 +1003,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1039,6 +1042,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1057,14 +1063,11 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1078,10 +1081,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1311,13 +1314,13 @@
             <v>5</v>
           </cell>
           <cell r="AY4">
-            <v>0.1048</v>
+            <v>0</v>
           </cell>
           <cell r="AZ4">
-            <v>5245.1048</v>
+            <v>5245</v>
           </cell>
           <cell r="BA4">
-            <v>309.1048</v>
+            <v>309</v>
           </cell>
           <cell r="BB4">
             <v>26.5</v>
@@ -1800,13 +1803,13 @@
             <v>5</v>
           </cell>
           <cell r="AY8">
-            <v>0.14414</v>
+            <v>0</v>
           </cell>
           <cell r="AZ8">
-            <v>7212.14414</v>
+            <v>7212</v>
           </cell>
           <cell r="BA8">
-            <v>524.14414</v>
+            <v>524</v>
           </cell>
           <cell r="BB8">
             <v>74.5</v>
@@ -1995,778 +1998,405 @@
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>000010</v>
+            <v>000006</v>
           </cell>
           <cell r="B10">
-            <v>44524</v>
+            <v>44529</v>
           </cell>
           <cell r="C10" t="str">
-            <v>603663(三祥新材)</v>
+            <v>603010(万盛股份)</v>
           </cell>
           <cell r="D10">
-            <v>18.26</v>
+            <v>22.26</v>
           </cell>
           <cell r="E10">
-            <v>19.01</v>
+            <v>22.69</v>
           </cell>
           <cell r="F10">
-            <v>21.05</v>
+            <v>24.83</v>
           </cell>
         </row>
         <row r="10">
           <cell r="H10">
-            <v>23.2</v>
+            <v>28.99</v>
           </cell>
           <cell r="I10">
-            <v>13.04</v>
+            <v>14.46</v>
           </cell>
           <cell r="J10">
-            <v>26.64</v>
+            <v>31.94</v>
           </cell>
           <cell r="K10">
-            <v>0.779141104294479</v>
+            <v>1.00484094052559</v>
           </cell>
           <cell r="L10">
-            <v>0.129129129129129</v>
+            <v>0.0923606762680026</v>
           </cell>
         </row>
         <row r="10">
           <cell r="N10">
-            <v>18.5</v>
+            <v>20.63</v>
           </cell>
           <cell r="O10">
-            <v>22.39</v>
+            <v>25.66</v>
           </cell>
           <cell r="P10">
-            <v>18.85</v>
+            <v>21.46</v>
           </cell>
           <cell r="Q10">
-            <v>23.56</v>
+            <v>28.89</v>
           </cell>
           <cell r="R10">
-            <v>20.89</v>
+            <v>24.22</v>
+          </cell>
+          <cell r="S10">
+            <v>29.7</v>
+          </cell>
+          <cell r="T10">
+            <v>27.72</v>
           </cell>
         </row>
         <row r="10">
           <cell r="Y10" t="str">
-            <v>12w</v>
+            <v>8w</v>
           </cell>
           <cell r="Z10">
-            <v>0.305555555555556</v>
+            <v>0.354101440200376</v>
           </cell>
           <cell r="AA10">
-            <v>0.158106297454221</v>
+            <v>0.163678877630553</v>
           </cell>
           <cell r="AB10">
-            <v>0.113327674023769</v>
-          </cell>
-          <cell r="AC10" t="e">
-            <v>#DIV/0!</v>
+            <v>0.161647628937349</v>
+          </cell>
+          <cell r="AC10">
+            <v>0.0666666666666667</v>
           </cell>
         </row>
         <row r="10">
           <cell r="AF10" t="str">
-            <v>3T</v>
+            <v>4T</v>
           </cell>
           <cell r="AG10" t="str">
-            <v>成交量先随价格收缩逐级减少，然后随价格收缩放量</v>
+            <v>减少明显，空头几乎被榨干</v>
           </cell>
           <cell r="AH10">
-            <v>25.19</v>
+            <v>31.18</v>
           </cell>
           <cell r="AI10">
-            <v>17.73</v>
+            <v>21.1</v>
           </cell>
           <cell r="AJ10">
-            <v>7.46</v>
+            <v>10.08</v>
           </cell>
           <cell r="AK10">
-            <v>23.56</v>
+            <v>29.77</v>
           </cell>
           <cell r="AL10">
-            <v>22.12</v>
+            <v>27.72</v>
           </cell>
           <cell r="AM10">
-            <v>26.91</v>
+            <v>34.93</v>
           </cell>
           <cell r="AN10">
-            <v>144</v>
+            <v>205</v>
           </cell>
           <cell r="AO10">
-            <v>200</v>
+            <v>100</v>
           </cell>
           <cell r="AP10">
-            <v>2.32638888888889</v>
+            <v>2.51707317073171</v>
           </cell>
           <cell r="AQ10">
-            <v>0.0611205432937181</v>
+            <v>0.0688612697346322</v>
           </cell>
           <cell r="AR10">
-            <v>0.142190152801358</v>
+            <v>0.173328854551562</v>
           </cell>
           <cell r="AS10">
-            <v>53.49</v>
+            <v>17.95</v>
           </cell>
           <cell r="AT10" t="str">
-            <v>不宜入场</v>
+            <v>可以</v>
+          </cell>
+          <cell r="AU10">
+            <v>44530</v>
+          </cell>
+          <cell r="AV10">
+            <v>29.81</v>
+          </cell>
+          <cell r="AW10">
+            <v>100</v>
+          </cell>
+          <cell r="AX10">
+            <v>5</v>
+          </cell>
+          <cell r="AY10">
+            <v>0.05962</v>
+          </cell>
+          <cell r="AZ10">
+            <v>2986.05962</v>
+          </cell>
+          <cell r="BA10">
+            <v>214.05962</v>
+          </cell>
+          <cell r="BB10">
+            <v>30.32</v>
+          </cell>
+          <cell r="BC10">
+            <v>28.81</v>
+          </cell>
+          <cell r="BD10">
+            <v>0.337748344370862</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>000014</v>
-          </cell>
-          <cell r="B11">
-            <v>44524</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>600392(盛和资源)</v>
-          </cell>
-          <cell r="D11">
-            <v>20.14</v>
-          </cell>
-          <cell r="E11">
-            <v>20.65</v>
-          </cell>
-          <cell r="F11">
-            <v>20.97</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="H11">
-            <v>21.52</v>
-          </cell>
-          <cell r="I11">
-            <v>7.07</v>
-          </cell>
-          <cell r="J11">
-            <v>29.28</v>
-          </cell>
-          <cell r="K11">
-            <v>2.04384724186704</v>
-          </cell>
-          <cell r="L11">
-            <v>0.265027322404372</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="N11">
-            <v>18.34</v>
-          </cell>
-          <cell r="O11">
-            <v>21.65</v>
-          </cell>
-          <cell r="P11">
-            <v>18.61</v>
-          </cell>
-          <cell r="Q11">
-            <v>21.14</v>
-          </cell>
-          <cell r="R11">
-            <v>18.86</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="Y11" t="str">
-            <v>8w</v>
-          </cell>
-          <cell r="Z11">
-            <v>0.373633879781421</v>
-          </cell>
-          <cell r="AA11">
-            <v>0.140415704387991</v>
-          </cell>
-          <cell r="AB11">
-            <v>0.107852412488174</v>
-          </cell>
-          <cell r="AC11" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="AF11" t="str">
-            <v>3T</v>
-          </cell>
-          <cell r="AG11" t="str">
-            <v>成交量先随价格收缩逐级减少，然后随价格收缩放量</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="AN11">
-            <v>0</v>
-          </cell>
-          <cell r="AO11" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="AP11" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="AT11" t="str">
-            <v>不宜入场</v>
+            <v>000020</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>000015</v>
-          </cell>
-          <cell r="B12">
-            <v>44524</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>600399(抚顺特钢)</v>
-          </cell>
-          <cell r="D12">
-            <v>19.9</v>
-          </cell>
-          <cell r="E12">
-            <v>20.73</v>
-          </cell>
-          <cell r="F12">
-            <v>22.88</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="H12">
-            <v>23.53</v>
-          </cell>
-          <cell r="I12">
-            <v>7.25</v>
-          </cell>
-          <cell r="J12">
-            <v>29.3</v>
-          </cell>
-          <cell r="K12">
-            <v>2.24551724137931</v>
-          </cell>
-          <cell r="L12">
-            <v>0.196928327645051</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="N12">
-            <v>19.05</v>
-          </cell>
-          <cell r="O12">
-            <v>22.91</v>
-          </cell>
-          <cell r="P12">
-            <v>19.73</v>
-          </cell>
-          <cell r="Q12">
-            <v>25.5</v>
-          </cell>
-          <cell r="R12">
-            <v>23.12</v>
-          </cell>
-          <cell r="S12">
-            <v>26.45</v>
-          </cell>
-          <cell r="T12">
-            <v>23.48</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="Y12" t="str">
-            <v>12w</v>
-          </cell>
-          <cell r="Z12">
-            <v>0.349829351535836</v>
-          </cell>
-          <cell r="AA12">
-            <v>0.138804015713662</v>
-          </cell>
-          <cell r="AB12">
-            <v>0.0933333333333333</v>
-          </cell>
-          <cell r="AC12">
-            <v>0.112287334593573</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="AF12" t="str">
-            <v>3T</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="AK12">
-            <v>25.15</v>
-          </cell>
-          <cell r="AL12">
-            <v>23.48</v>
-          </cell>
-          <cell r="AM12">
-            <v>27.83</v>
-          </cell>
-          <cell r="AN12">
-            <v>167</v>
-          </cell>
-          <cell r="AO12">
-            <v>100</v>
-          </cell>
-          <cell r="AP12">
-            <v>1.60479041916168</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="AT12" t="str">
-            <v>不宜入场</v>
+            <v>000021</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>000017</v>
-          </cell>
-          <cell r="B13">
-            <v>44524</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>601677(明泰铝业)</v>
-          </cell>
-          <cell r="D13">
-            <v>26.7</v>
-          </cell>
-          <cell r="E13">
-            <v>28.65</v>
-          </cell>
-          <cell r="F13">
-            <v>33.16</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="H13">
-            <v>36.11</v>
-          </cell>
-          <cell r="I13">
-            <v>11.38</v>
-          </cell>
-          <cell r="J13">
-            <v>41.75</v>
-          </cell>
-          <cell r="K13">
-            <v>2.17311072056239</v>
-          </cell>
-          <cell r="L13">
-            <v>0.135089820359281</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="N13">
-            <v>28.85</v>
-          </cell>
-          <cell r="O13">
-            <v>35.46</v>
-          </cell>
-          <cell r="P13">
-            <v>29.05</v>
-          </cell>
-          <cell r="Q13">
-            <v>34.35</v>
-          </cell>
-          <cell r="R13">
-            <v>31.5</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="Y13" t="str">
-            <v>8w</v>
-          </cell>
-          <cell r="Z13">
-            <v>0.308982035928144</v>
-          </cell>
-          <cell r="AA13">
-            <v>0.180767061477721</v>
-          </cell>
-          <cell r="AB13">
-            <v>0.0829694323144105</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="AF13" t="str">
-            <v>3T</v>
-          </cell>
-          <cell r="AG13" t="str">
-            <v>减少明显，空头几乎被榨干</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="AK13">
-            <v>37.13</v>
-          </cell>
-          <cell r="AL13">
-            <v>35.6</v>
-          </cell>
-          <cell r="AM13">
-            <v>38.61</v>
-          </cell>
-          <cell r="AN13">
-            <v>153</v>
-          </cell>
-          <cell r="AO13">
-            <v>100</v>
-          </cell>
-          <cell r="AP13">
-            <v>0.967320261437906</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="AT13" t="str">
-            <v>不宜入场</v>
+            <v>000022</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>000018</v>
-          </cell>
-          <cell r="B14">
-            <v>44524</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>002223(鱼跃医疗)</v>
-          </cell>
-          <cell r="D14">
-            <v>32.91</v>
-          </cell>
-          <cell r="E14">
-            <v>33.52</v>
-          </cell>
-          <cell r="F14">
-            <v>34.71</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="H14">
-            <v>36.09</v>
-          </cell>
-          <cell r="I14">
-            <v>25.12</v>
-          </cell>
-          <cell r="J14">
-            <v>41.77</v>
-          </cell>
-          <cell r="K14">
-            <v>0.436703821656051</v>
-          </cell>
-          <cell r="L14">
-            <v>0.135982762748384</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="N14">
-            <v>30.46</v>
-          </cell>
-          <cell r="O14">
-            <v>36.94</v>
-          </cell>
-          <cell r="P14">
-            <v>33.59</v>
-          </cell>
-          <cell r="Q14">
-            <v>37.1</v>
-          </cell>
-          <cell r="R14">
-            <v>34.44</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="Y14" t="str">
-            <v>16w</v>
-          </cell>
-          <cell r="Z14">
-            <v>0.270768494134546</v>
-          </cell>
-          <cell r="AA14">
-            <v>0.0906876015159717</v>
-          </cell>
-          <cell r="AB14">
-            <v>0.0716981132075473</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="AF14" t="str">
-            <v>3T</v>
-          </cell>
-          <cell r="AG14" t="str">
-            <v>不是很明显</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="AK14">
-            <v>37.09</v>
-          </cell>
-          <cell r="AL14">
-            <v>35.25</v>
-          </cell>
-          <cell r="AM14">
-            <v>38.8</v>
-          </cell>
-          <cell r="AN14">
-            <v>184</v>
-          </cell>
-          <cell r="AO14">
-            <v>100</v>
-          </cell>
-          <cell r="AP14">
-            <v>0.929347826086951</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="AT14" t="str">
-            <v>不宜入场</v>
+            <v>000023</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>000019</v>
+            <v>000024</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>000020</v>
+            <v>000025</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>000021</v>
+            <v>000026</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>000022</v>
+            <v>000027</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>000023</v>
+            <v>000028</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>000024</v>
+            <v>000029</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>000025</v>
+            <v>000030</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>000026</v>
+            <v>000031</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>000027</v>
+            <v>000032</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>000028</v>
+            <v>000033</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>000029</v>
+            <v>000034</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>000030</v>
+            <v>000035</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>000031</v>
+            <v>000036</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>000032</v>
+            <v>000037</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>000033</v>
+            <v>000038</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>000034</v>
+            <v>000039</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>000035</v>
+            <v>000040</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>000036</v>
+            <v>000041</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>000037</v>
+            <v>000042</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>000038</v>
+            <v>000043</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>000039</v>
+            <v>000044</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>000040</v>
+            <v>000045</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>000041</v>
+            <v>000046</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>000042</v>
+            <v>000047</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>000043</v>
+            <v>000048</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>000044</v>
+            <v>000049</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>000045</v>
+            <v>000050</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42" t="str">
-            <v>000046</v>
+            <v>000051</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>000047</v>
+            <v>000052</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>000048</v>
+            <v>000053</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>000049</v>
+            <v>000054</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>000050</v>
+            <v>000055</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>000051</v>
+            <v>000056</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48" t="str">
-            <v>000052</v>
+            <v>000057</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49" t="str">
-            <v>000053</v>
+            <v>000058</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50" t="str">
-            <v>000054</v>
+            <v>000059</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51" t="str">
-            <v>000055</v>
+            <v>000060</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52" t="str">
-            <v>000056</v>
+            <v>000061</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53" t="str">
-            <v>000057</v>
+            <v>000062</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54" t="str">
-            <v>000058</v>
+            <v>000063</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55" t="str">
-            <v>000059</v>
+            <v>000064</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56" t="str">
-            <v>000060</v>
+            <v>000065</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57" t="str">
-            <v>000061</v>
+            <v>000066</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58" t="str">
-            <v>000062</v>
+            <v>000067</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>000063</v>
+            <v>000068</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60" t="str">
-            <v>000064</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61" t="str">
-            <v>000065</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62" t="str">
-            <v>000066</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63" t="str">
-            <v>000067</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64" t="str">
-            <v>000068</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65" t="str">
             <v>000069</v>
           </cell>
         </row>
@@ -3038,11 +2668,11 @@
   <dimension ref="A1:AD502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q5" sqref="Q5"/>
+      <selection pane="bottomRight" activeCell="AD9" sqref="AD8:AD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3100,21 +2730,21 @@
       <c r="P1" s="15"/>
       <c r="Q1" s="15"/>
       <c r="R1" s="15"/>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="T1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
       <c r="AD1" s="34" t="s">
         <v>5</v>
       </c>
@@ -3138,17 +2768,17 @@
       <c r="P2" s="15"/>
       <c r="Q2" s="15"/>
       <c r="R2" s="15"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="21" t="s">
+      <c r="S2" s="21"/>
+      <c r="T2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
       <c r="AB2" s="33" t="s">
         <v>7</v>
       </c>
@@ -3208,23 +2838,23 @@
       <c r="R3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="22" t="s">
+      <c r="S3" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="23" t="s">
+      <c r="T3" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="U3" s="23" t="s">
+      <c r="U3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="21" t="s">
+      <c r="V3" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="W3" s="21"/>
+      <c r="W3" s="22"/>
       <c r="X3" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="Y3" s="21" t="s">
+      <c r="Y3" s="22" t="s">
         <v>30</v>
       </c>
       <c r="Z3" s="29" t="s">
@@ -3260,19 +2890,19 @@
       <c r="P4" s="16"/>
       <c r="Q4" s="16"/>
       <c r="R4" s="16"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
       <c r="V4" s="30" t="s">
         <v>35</v>
       </c>
       <c r="W4" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
       <c r="AB4" s="33"/>
       <c r="AC4" s="33"/>
       <c r="AD4" s="34"/>
@@ -3336,8 +2966,8 @@
         <f>IF(B5&gt;=(D5-(D5-E5)/2),"上部","下部")</f>
         <v>上部</v>
       </c>
-      <c r="S5" s="24"/>
-      <c r="T5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="26"/>
       <c r="U5" s="31"/>
       <c r="V5" s="28"/>
       <c r="W5" s="28"/>
@@ -3407,7 +3037,7 @@
         <f>IF(I6/(ROW()-4)&lt;0.5,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="R6" s="26" t="str">
+      <c r="R6" s="18" t="str">
         <f>IF(B6&gt;=(D6-(D6-E6)/2),"上部","下部")</f>
         <v>下部</v>
       </c>
@@ -3479,11 +3109,11 @@
       <c r="P7" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="Q7" s="26" t="str">
+      <c r="Q7" s="18" t="str">
         <f>IF(I7/(ROW()-4)&lt;0.5,"是","否")</f>
         <v>是</v>
       </c>
-      <c r="R7" s="26" t="str">
+      <c r="R7" s="18" t="str">
         <f>IF(B7&gt;=(D7-(D7-E7)/2),"上部","下部")</f>
         <v>下部</v>
       </c>
@@ -3659,23 +3289,62 @@
       <c r="A10" s="7">
         <v>44530</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
+      <c r="B10" s="8">
+        <v>28.55</v>
+      </c>
+      <c r="C10" s="8">
+        <v>27.8</v>
+      </c>
+      <c r="D10" s="8">
+        <v>30.68</v>
+      </c>
+      <c r="E10" s="8">
+        <v>27.06</v>
+      </c>
+      <c r="F10" s="8">
+        <v>25.72</v>
+      </c>
+      <c r="G10" s="8">
+        <v>25.1</v>
+      </c>
+      <c r="H10" s="8">
+        <v>164.85</v>
+      </c>
+      <c r="I10" s="9">
+        <v>4</v>
+      </c>
+      <c r="J10" s="14">
+        <f>(B10-B9)/B9</f>
+        <v>0.0167378917378918</v>
+      </c>
+      <c r="K10" s="14">
+        <f>(B10-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10008,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10008,48,FALSE)</f>
+        <v>0.0896946564885497</v>
+      </c>
+      <c r="L10" s="14">
+        <f>I10/(ROW()-4)</f>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="17" t="str">
+        <f>IF(I10/(ROW()-4)&lt;0.5,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="R10" s="18" t="str">
+        <f>IF(B10&gt;=(D10-(D10-E10)/2),"上部","下部")</f>
+        <v>下部</v>
+      </c>
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
       <c r="U10" s="8"/>
@@ -3687,7 +3356,10 @@
       <c r="AA10" s="28"/>
       <c r="AB10" s="28"/>
       <c r="AC10" s="28"/>
-      <c r="AD10" s="28"/>
+      <c r="AD10" s="6">
+        <f>IF(G10-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10008,48,FALSE)&gt;0,G10,AD9)</f>
+        <v>24.68</v>
+      </c>
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="7">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
@@ -221,12 +221,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -266,8 +266,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,21 +301,6 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -311,55 +320,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,22 +344,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,7 +374,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,7 +511,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,37 +601,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,7 +673,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,115 +685,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,8 +743,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,7 +753,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -776,34 +776,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -837,153 +811,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2672,7 +2672,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD9" sqref="AD8:AD10"/>
+      <selection pane="bottomRight" activeCell="O5" sqref="O5:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2943,7 +2943,7 @@
         <v>0.00839694656488559</v>
       </c>
       <c r="L5" s="14">
-        <f>I5/(ROW()-4)</f>
+        <f t="shared" ref="L5:L10" si="0">I5/(ROW()-4)</f>
         <v>1</v>
       </c>
       <c r="M5" s="9" t="s">
@@ -2952,18 +2952,19 @@
       <c r="N5" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="17" t="s">
-        <v>37</v>
+      <c r="O5" s="17" t="str">
+        <f>IF(B5&lt;F5,"是","否")</f>
+        <v>否</v>
       </c>
       <c r="P5" s="17" t="s">
         <v>37</v>
       </c>
       <c r="Q5" s="17" t="str">
-        <f>IF(I5/(ROW()-4)&lt;0.5,"是","否")</f>
+        <f t="shared" ref="Q5:Q10" si="1">IF(I5/(ROW()-4)&lt;0.5,"是","否")</f>
         <v>否</v>
       </c>
       <c r="R5" s="17" t="str">
-        <f>IF(B5&gt;=(D5-(D5-E5)/2),"上部","下部")</f>
+        <f t="shared" ref="R5:R10" si="2">IF(B5&gt;=(D5-(D5-E5)/2),"上部","下部")</f>
         <v>上部</v>
       </c>
       <c r="S5" s="25"/>
@@ -3018,7 +3019,7 @@
         <v>-0.016030534351145</v>
       </c>
       <c r="L6" s="14">
-        <f>I6/(ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="M6" s="9" t="s">
@@ -3027,18 +3028,19 @@
       <c r="N6" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="O6" s="17" t="s">
-        <v>37</v>
+      <c r="O6" s="17" t="str">
+        <f>IF(B6&lt;F6,"是","否")</f>
+        <v>否</v>
       </c>
       <c r="P6" s="17" t="s">
         <v>37</v>
       </c>
       <c r="Q6" s="17" t="str">
-        <f>IF(I6/(ROW()-4)&lt;0.5,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="R6" s="18" t="str">
-        <f>IF(B6&gt;=(D6-(D6-E6)/2),"上部","下部")</f>
+        <f t="shared" si="2"/>
         <v>下部</v>
       </c>
       <c r="S6" s="8"/>
@@ -3094,7 +3096,7 @@
         <v>-0.048091603053435</v>
       </c>
       <c r="L7" s="14">
-        <f>I7/(ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v>0.333333333333333</v>
       </c>
       <c r="M7" s="9" t="s">
@@ -3103,18 +3105,19 @@
       <c r="N7" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="O7" s="17" t="s">
-        <v>37</v>
+      <c r="O7" s="17" t="str">
+        <f>IF(B7&lt;F7,"是","否")</f>
+        <v>否</v>
       </c>
       <c r="P7" s="17" t="s">
         <v>37</v>
       </c>
       <c r="Q7" s="18" t="str">
-        <f>IF(I7/(ROW()-4)&lt;0.5,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="R7" s="18" t="str">
-        <f>IF(B7&gt;=(D7-(D7-E7)/2),"上部","下部")</f>
+        <f t="shared" si="2"/>
         <v>下部</v>
       </c>
       <c r="S7" s="8"/>
@@ -3170,7 +3173,7 @@
         <v>0.0469465648854962</v>
       </c>
       <c r="L8" s="14">
-        <f>I8/(ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="M8" s="9" t="s">
@@ -3179,18 +3182,19 @@
       <c r="N8" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="O8" s="17" t="s">
-        <v>37</v>
+      <c r="O8" s="17" t="str">
+        <f>IF(B8&lt;F8,"是","否")</f>
+        <v>否</v>
       </c>
       <c r="P8" s="17" t="s">
         <v>37</v>
       </c>
       <c r="Q8" s="17" t="str">
-        <f>IF(I8/(ROW()-4)&lt;0.5,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="R8" s="17" t="str">
-        <f>IF(B8&gt;=(D8-(D8-E8)/2),"上部","下部")</f>
+        <f t="shared" si="2"/>
         <v>上部</v>
       </c>
       <c r="S8" s="8"/>
@@ -3246,7 +3250,7 @@
         <v>0.0717557251908397</v>
       </c>
       <c r="L9" s="14">
-        <f>I9/(ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="M9" s="9" t="s">
@@ -3255,18 +3259,19 @@
       <c r="N9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="9" t="s">
-        <v>37</v>
+      <c r="O9" s="17" t="str">
+        <f>IF(B9&lt;F9,"是","否")</f>
+        <v>否</v>
       </c>
       <c r="P9" s="9" t="s">
         <v>37</v>
       </c>
       <c r="Q9" s="17" t="str">
-        <f>IF(I9/(ROW()-4)&lt;0.5,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="R9" s="17" t="str">
-        <f>IF(B9&gt;=(D9-(D9-E9)/2),"上部","下部")</f>
+        <f t="shared" si="2"/>
         <v>上部</v>
       </c>
       <c r="S9" s="9"/>
@@ -3322,7 +3327,7 @@
         <v>0.0896946564885497</v>
       </c>
       <c r="L10" s="14">
-        <f>I10/(ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v>0.666666666666667</v>
       </c>
       <c r="M10" s="9" t="s">
@@ -3331,18 +3336,19 @@
       <c r="N10" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="O10" s="17" t="s">
-        <v>37</v>
+      <c r="O10" s="17" t="str">
+        <f>IF(B10&lt;F10,"是","否")</f>
+        <v>否</v>
       </c>
       <c r="P10" s="18" t="s">
         <v>38</v>
       </c>
       <c r="Q10" s="17" t="str">
-        <f>IF(I10/(ROW()-4)&lt;0.5,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="R10" s="18" t="str">
-        <f>IF(B10&gt;=(D10-(D10-E10)/2),"上部","下部")</f>
+        <f t="shared" si="2"/>
         <v>下部</v>
       </c>
       <c r="S10" s="9"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
@@ -223,10 +223,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -266,26 +266,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -320,17 +304,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -350,9 +328,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,21 +389,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,21 +405,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,7 +511,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,7 +529,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,13 +553,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,97 +661,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,25 +673,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,24 +740,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -776,8 +758,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,17 +794,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -837,153 +808,182 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1234,8 +1234,12 @@
           <cell r="V4">
             <v>24.52</v>
           </cell>
-        </row>
-        <row r="4">
+          <cell r="W4" t="str">
+            <v>26.96</v>
+          </cell>
+          <cell r="X4" t="str">
+            <v>24.74</v>
+          </cell>
           <cell r="Y4" t="str">
             <v>24w</v>
           </cell>
@@ -1254,8 +1258,9 @@
           <cell r="AD4">
             <v>0.0641221374045801</v>
           </cell>
-        </row>
-        <row r="4">
+          <cell r="AE4">
+            <v>0.0823442136498517</v>
+          </cell>
           <cell r="AF4" t="str">
             <v>5T</v>
           </cell>
@@ -1572,6 +1577,12 @@
           <cell r="R7">
             <v>30.89</v>
           </cell>
+          <cell r="S7">
+            <v>34.66</v>
+          </cell>
+          <cell r="T7">
+            <v>32.59</v>
+          </cell>
         </row>
         <row r="7">
           <cell r="Y7" t="str">
@@ -1586,8 +1597,8 @@
           <cell r="AB7">
             <v>0.124184859654097</v>
           </cell>
-          <cell r="AC7" t="e">
-            <v>#DIV/0!</v>
+          <cell r="AC7">
+            <v>0.0597230236583957</v>
           </cell>
           <cell r="AD7" t="e">
             <v>#DIV/0!</v>
@@ -2668,7 +2679,7 @@
   <dimension ref="A1:AD502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -2953,18 +2964,18 @@
         <v>37</v>
       </c>
       <c r="O5" s="17" t="str">
-        <f>IF(B5&lt;F5,"是","否")</f>
+        <f t="shared" ref="O5:O10" si="1">IF(B5&lt;F5,"是","否")</f>
         <v>否</v>
       </c>
       <c r="P5" s="17" t="s">
         <v>37</v>
       </c>
       <c r="Q5" s="17" t="str">
-        <f t="shared" ref="Q5:Q10" si="1">IF(I5/(ROW()-4)&lt;0.5,"是","否")</f>
+        <f t="shared" ref="Q5:Q10" si="2">IF(I5/(ROW()-4)&lt;0.5,"是","否")</f>
         <v>否</v>
       </c>
       <c r="R5" s="17" t="str">
-        <f t="shared" ref="R5:R10" si="2">IF(B5&gt;=(D5-(D5-E5)/2),"上部","下部")</f>
+        <f t="shared" ref="R5:R10" si="3">IF(B5&gt;=(D5-(D5-E5)/2),"上部","下部")</f>
         <v>上部</v>
       </c>
       <c r="S5" s="25"/>
@@ -3029,18 +3040,18 @@
         <v>37</v>
       </c>
       <c r="O6" s="17" t="str">
-        <f>IF(B6&lt;F6,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="P6" s="17" t="s">
         <v>37</v>
       </c>
       <c r="Q6" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>否</v>
       </c>
       <c r="R6" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>下部</v>
       </c>
       <c r="S6" s="8"/>
@@ -3106,18 +3117,18 @@
         <v>37</v>
       </c>
       <c r="O7" s="17" t="str">
-        <f>IF(B7&lt;F7,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="P7" s="17" t="s">
         <v>37</v>
       </c>
       <c r="Q7" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="R7" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>下部</v>
       </c>
       <c r="S7" s="8"/>
@@ -3183,18 +3194,18 @@
         <v>37</v>
       </c>
       <c r="O8" s="17" t="str">
-        <f>IF(B8&lt;F8,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="P8" s="17" t="s">
         <v>37</v>
       </c>
       <c r="Q8" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>否</v>
       </c>
       <c r="R8" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>上部</v>
       </c>
       <c r="S8" s="8"/>
@@ -3260,18 +3271,18 @@
         <v>37</v>
       </c>
       <c r="O9" s="17" t="str">
-        <f>IF(B9&lt;F9,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="P9" s="9" t="s">
         <v>37</v>
       </c>
       <c r="Q9" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>否</v>
       </c>
       <c r="R9" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>上部</v>
       </c>
       <c r="S9" s="9"/>
@@ -3337,18 +3348,18 @@
         <v>37</v>
       </c>
       <c r="O10" s="17" t="str">
-        <f>IF(B10&lt;F10,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="P10" s="18" t="s">
         <v>38</v>
       </c>
       <c r="Q10" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>否</v>
       </c>
       <c r="R10" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>下部</v>
       </c>
       <c r="S10" s="9"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>日期</t>
   </si>
@@ -215,18 +215,21 @@
   <si>
     <t>是</t>
   </si>
+  <si>
+    <t>缩量</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -267,15 +270,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,7 +284,30 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -298,17 +316,31 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -328,45 +360,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,22 +385,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,7 +514,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,157 +586,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,6 +599,96 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,6 +743,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -751,15 +772,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -811,17 +823,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -831,9 +832,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -842,85 +845,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -929,61 +932,61 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1003,16 +1006,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1063,7 +1066,7 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1081,10 +1084,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2679,11 +2682,11 @@
   <dimension ref="A1:AD502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O5" sqref="O5:O10"/>
+      <selection pane="bottomRight" activeCell="AD9" sqref="AD9:AD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3382,23 +3385,63 @@
       <c r="A11" s="7">
         <v>44531</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
+      <c r="B11" s="8">
+        <v>27.72</v>
+      </c>
+      <c r="C11" s="8">
+        <v>28</v>
+      </c>
+      <c r="D11" s="8">
+        <v>28.7</v>
+      </c>
+      <c r="E11" s="8">
+        <v>27.5</v>
+      </c>
+      <c r="F11" s="8">
+        <v>25.91</v>
+      </c>
+      <c r="G11" s="8">
+        <v>25.2</v>
+      </c>
+      <c r="H11" s="8">
+        <v>167.61</v>
+      </c>
+      <c r="I11" s="9">
+        <v>4</v>
+      </c>
+      <c r="J11" s="14">
+        <f>(B11-B10)/B10</f>
+        <v>-0.0290718038528897</v>
+      </c>
+      <c r="K11" s="14">
+        <f>(B11-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10009,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10009,48,FALSE)</f>
+        <v>0.0580152671755725</v>
+      </c>
+      <c r="L11" s="14">
+        <f>I11/(ROW()-4)</f>
+        <v>0.571428571428571</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11" s="17" t="str">
+        <f>IF(B11&lt;F11,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q11" s="17" t="str">
+        <f>IF(I11/(ROW()-4)&lt;0.5,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="R11" s="18" t="str">
+        <f>IF(B11&gt;=(D11-(D11-E11)/2),"上部","下部")</f>
+        <v>下部</v>
+      </c>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
       <c r="U11" s="8"/>
@@ -3410,7 +3453,10 @@
       <c r="AA11" s="28"/>
       <c r="AB11" s="28"/>
       <c r="AC11" s="28"/>
-      <c r="AD11" s="28"/>
+      <c r="AD11" s="6">
+        <f>IF(G11-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10009,48,FALSE)&gt;0,G11,AD10)</f>
+        <v>24.68</v>
+      </c>
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="7">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
@@ -225,10 +225,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -277,6 +277,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -291,54 +298,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,9 +330,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,9 +346,55 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -401,13 +408,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,7 +514,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,31 +538,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,7 +556,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,37 +628,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,30 +658,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -664,31 +670,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,21 +762,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -807,25 +792,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -840,150 +816,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1362,6 +1362,32 @@
           </cell>
           <cell r="BL4">
             <v>24.74</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="BE5">
+            <v>44531</v>
+          </cell>
+          <cell r="BF5">
+            <v>27.7</v>
+          </cell>
+          <cell r="BG5">
+            <v>100</v>
+          </cell>
+          <cell r="BH5">
+            <v>5</v>
+          </cell>
+          <cell r="BI5">
+            <v>2.77</v>
+          </cell>
+          <cell r="BJ5">
+            <v>2762.23</v>
+          </cell>
+          <cell r="BK5">
+            <v>28.7</v>
+          </cell>
+          <cell r="BL5">
+            <v>27.5</v>
           </cell>
         </row>
         <row r="6">
@@ -2682,11 +2708,11 @@
   <dimension ref="A1:AD502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD9" sqref="AD9:AD11"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2957,7 +2983,7 @@
         <v>0.00839694656488559</v>
       </c>
       <c r="L5" s="14">
-        <f t="shared" ref="L5:L10" si="0">I5/(ROW()-4)</f>
+        <f t="shared" ref="L5:L11" si="0">I5/(ROW()-4)</f>
         <v>1</v>
       </c>
       <c r="M5" s="9" t="s">
@@ -2967,18 +2993,18 @@
         <v>37</v>
       </c>
       <c r="O5" s="17" t="str">
-        <f t="shared" ref="O5:O10" si="1">IF(B5&lt;F5,"是","否")</f>
+        <f t="shared" ref="O5:O11" si="1">IF(B5&lt;F5,"是","否")</f>
         <v>否</v>
       </c>
       <c r="P5" s="17" t="s">
         <v>37</v>
       </c>
       <c r="Q5" s="17" t="str">
-        <f t="shared" ref="Q5:Q10" si="2">IF(I5/(ROW()-4)&lt;0.5,"是","否")</f>
+        <f t="shared" ref="Q5:Q11" si="2">IF(I5/(ROW()-4)&lt;0.5,"是","否")</f>
         <v>否</v>
       </c>
       <c r="R5" s="17" t="str">
-        <f t="shared" ref="R5:R10" si="3">IF(B5&gt;=(D5-(D5-E5)/2),"上部","下部")</f>
+        <f t="shared" ref="R5:R11" si="3">IF(B5&gt;=(D5-(D5-E5)/2),"上部","下部")</f>
         <v>上部</v>
       </c>
       <c r="S5" s="25"/>
@@ -3025,7 +3051,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="14">
-        <f>(B6-B5)/B5</f>
+        <f t="shared" ref="J6:J11" si="4">(B6-B5)/B5</f>
         <v>-0.024224072672218</v>
       </c>
       <c r="K6" s="14">
@@ -3102,7 +3128,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="14">
-        <f>(B7-B6)/B6</f>
+        <f t="shared" si="4"/>
         <v>-0.0325833979829325</v>
       </c>
       <c r="K7" s="14">
@@ -3179,7 +3205,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="14">
-        <f>(B8-B7)/B7</f>
+        <f t="shared" si="4"/>
         <v>0.0998396150761828</v>
       </c>
       <c r="K8" s="14">
@@ -3256,7 +3282,7 @@
         <v>3</v>
       </c>
       <c r="J9" s="14">
-        <f>(B9-B8)/B8</f>
+        <f t="shared" si="4"/>
         <v>0.0236966824644549</v>
       </c>
       <c r="K9" s="14">
@@ -3333,7 +3359,7 @@
         <v>4</v>
       </c>
       <c r="J10" s="14">
-        <f>(B10-B9)/B9</f>
+        <f t="shared" si="4"/>
         <v>0.0167378917378918</v>
       </c>
       <c r="K10" s="14">
@@ -3410,7 +3436,7 @@
         <v>4</v>
       </c>
       <c r="J11" s="14">
-        <f>(B11-B10)/B10</f>
+        <f t="shared" si="4"/>
         <v>-0.0290718038528897</v>
       </c>
       <c r="K11" s="14">
@@ -3418,7 +3444,7 @@
         <v>0.0580152671755725</v>
       </c>
       <c r="L11" s="14">
-        <f>I11/(ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v>0.571428571428571</v>
       </c>
       <c r="M11" s="9" t="s">
@@ -3428,18 +3454,18 @@
         <v>37</v>
       </c>
       <c r="O11" s="17" t="str">
-        <f>IF(B11&lt;F11,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="P11" s="9" t="s">
         <v>39</v>
       </c>
       <c r="Q11" s="17" t="str">
-        <f>IF(I11/(ROW()-4)&lt;0.5,"是","否")</f>
+        <f t="shared" si="2"/>
         <v>否</v>
       </c>
       <c r="R11" s="18" t="str">
-        <f>IF(B11&gt;=(D11-(D11-E11)/2),"上部","下部")</f>
+        <f t="shared" si="3"/>
         <v>下部</v>
       </c>
       <c r="S11" s="9"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
@@ -224,10 +224,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -270,13 +270,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -290,11 +283,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -303,14 +318,6 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -330,46 +337,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,9 +352,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,6 +367,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -406,8 +397,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,31 +526,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,7 +556,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,7 +610,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,13 +634,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,61 +646,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,13 +676,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,11 +743,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -756,7 +762,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,17 +812,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -816,177 +840,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="41" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙.xlsx
@@ -224,12 +224,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -270,7 +270,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,8 +313,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,21 +336,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -322,8 +345,38 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,44 +391,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -389,25 +405,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,13 +472,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,7 +520,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,7 +538,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,13 +550,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,7 +574,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,103 +670,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,13 +688,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,17 +743,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -762,7 +756,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -783,16 +777,36 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,31 +826,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -845,152 +845,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1036,10 +1036,13 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1048,19 +1051,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2194,249 +2197,476 @@
           <cell r="A11" t="str">
             <v>000020</v>
           </cell>
+          <cell r="B11">
+            <v>44531</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>603663(三祥新材)</v>
+          </cell>
+          <cell r="D11">
+            <v>18.62</v>
+          </cell>
+          <cell r="E11">
+            <v>19.35</v>
+          </cell>
+          <cell r="F11">
+            <v>21.48</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="H11">
+            <v>23.35</v>
+          </cell>
+          <cell r="I11">
+            <v>13.04</v>
+          </cell>
+          <cell r="J11">
+            <v>26.64</v>
+          </cell>
+          <cell r="K11">
+            <v>0.790644171779141</v>
+          </cell>
+          <cell r="L11">
+            <v>0.123498498498498</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="N11">
+            <v>18.5</v>
+          </cell>
+          <cell r="O11">
+            <v>22.39</v>
+          </cell>
+          <cell r="P11">
+            <v>18.85</v>
+          </cell>
+          <cell r="Q11">
+            <v>23.56</v>
+          </cell>
+          <cell r="R11">
+            <v>20.89</v>
+          </cell>
+          <cell r="S11">
+            <v>23.49</v>
+          </cell>
+          <cell r="T11">
+            <v>22.12</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="Y11" t="str">
+            <v>12w</v>
+          </cell>
+          <cell r="Z11">
+            <v>0.305555555555556</v>
+          </cell>
+          <cell r="AA11">
+            <v>0.158106297454221</v>
+          </cell>
+          <cell r="AB11">
+            <v>0.113327674023769</v>
+          </cell>
+          <cell r="AC11">
+            <v>0.0583226905065984</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="AF11" t="str">
+            <v>4T</v>
+          </cell>
+          <cell r="AG11" t="str">
+            <v>减少明显，空头几乎被榨干</v>
+          </cell>
+          <cell r="AH11">
+            <v>25.59</v>
+          </cell>
+          <cell r="AI11">
+            <v>18.59</v>
+          </cell>
+          <cell r="AJ11">
+            <v>7</v>
+          </cell>
+          <cell r="AK11">
+            <v>24.28</v>
+          </cell>
+          <cell r="AL11">
+            <v>23.09</v>
+          </cell>
+          <cell r="AM11">
+            <v>26.77</v>
+          </cell>
+          <cell r="AN11">
+            <v>119</v>
+          </cell>
+          <cell r="AO11">
+            <v>200</v>
+          </cell>
+          <cell r="AP11">
+            <v>2.09243697478991</v>
+          </cell>
+          <cell r="AQ11">
+            <v>0.049011532125206</v>
+          </cell>
+          <cell r="AR11">
+            <v>0.102553542009885</v>
+          </cell>
+          <cell r="AS11">
+            <v>56.67</v>
+          </cell>
+          <cell r="AT11" t="str">
+            <v>可以</v>
+          </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
             <v>000021</v>
           </cell>
+          <cell r="B12">
+            <v>44531</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>605028(世贸能源)</v>
+          </cell>
+          <cell r="D12">
+            <v>22.96</v>
+          </cell>
+          <cell r="E12">
+            <v>23.55</v>
+          </cell>
+          <cell r="F12">
+            <v>25.45</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="H12">
+            <v>25.7</v>
+          </cell>
+          <cell r="I12">
+            <v>16.52</v>
+          </cell>
+          <cell r="J12">
+            <v>33.51</v>
+          </cell>
+          <cell r="K12">
+            <v>0.555690072639225</v>
+          </cell>
+          <cell r="L12">
+            <v>0.233064756789018</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="N12">
+            <v>19.92</v>
+          </cell>
+          <cell r="O12">
+            <v>26.6</v>
+          </cell>
+          <cell r="P12">
+            <v>20.5</v>
+          </cell>
+          <cell r="Q12">
+            <v>29.5</v>
+          </cell>
+          <cell r="R12">
+            <v>23.34</v>
+          </cell>
+          <cell r="S12">
+            <v>28.3</v>
+          </cell>
+          <cell r="T12">
+            <v>24.74</v>
+          </cell>
+          <cell r="U12">
+            <v>27.7</v>
+          </cell>
+          <cell r="V12">
+            <v>25</v>
+          </cell>
+          <cell r="W12">
+            <v>27.58</v>
+          </cell>
+          <cell r="X12">
+            <v>25.01</v>
+          </cell>
+          <cell r="Y12" t="str">
+            <v>16w</v>
+          </cell>
+          <cell r="Z12">
+            <v>0.405550581915846</v>
+          </cell>
+          <cell r="AA12">
+            <v>0.229323308270677</v>
+          </cell>
+          <cell r="AB12">
+            <v>0.208813559322034</v>
+          </cell>
+          <cell r="AC12">
+            <v>0.125795053003534</v>
+          </cell>
+          <cell r="AD12">
+            <v>0.0974729241877256</v>
+          </cell>
+          <cell r="AE12">
+            <v>0.0931834662799129</v>
+          </cell>
+          <cell r="AF12" t="str">
+            <v>6T</v>
+          </cell>
+          <cell r="AG12" t="str">
+            <v>减少明显，空A头几乎被榨干</v>
+          </cell>
+          <cell r="AH12">
+            <v>29.7</v>
+          </cell>
+          <cell r="AI12">
+            <v>21.86</v>
+          </cell>
+          <cell r="AJ12">
+            <v>7.84</v>
+          </cell>
+          <cell r="AK12">
+            <v>27.58</v>
+          </cell>
+          <cell r="AL12">
+            <v>25.01</v>
+          </cell>
+          <cell r="AM12">
+            <v>35.47</v>
+          </cell>
+          <cell r="AN12">
+            <v>257</v>
+          </cell>
+          <cell r="AO12">
+            <v>100</v>
+          </cell>
+          <cell r="AP12">
+            <v>3.07003891050584</v>
+          </cell>
+          <cell r="AQ12">
+            <v>0.0931834662799129</v>
+          </cell>
+          <cell r="AR12">
+            <v>0.286076867295141</v>
+          </cell>
+          <cell r="AS12">
+            <v>22.12</v>
+          </cell>
+          <cell r="AT12" t="str">
+            <v>可以</v>
+          </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>000022</v>
+            <v>000027</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>000023</v>
+            <v>000028</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>000024</v>
+            <v>000029</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>000025</v>
+            <v>000030</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>000026</v>
+            <v>000031</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>000027</v>
+            <v>000032</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>000028</v>
+            <v>000033</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>000029</v>
+            <v>000034</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>000030</v>
+            <v>000035</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>000031</v>
+            <v>000036</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>000032</v>
+            <v>000037</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>000033</v>
+            <v>000038</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>000034</v>
+            <v>000039</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>000035</v>
+            <v>000040</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>000036</v>
+            <v>000041</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>000037</v>
+            <v>000042</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>000038</v>
+            <v>000043</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>000039</v>
+            <v>000044</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>000040</v>
+            <v>000045</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>000041</v>
+            <v>000046</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>000042</v>
+            <v>000047</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>000043</v>
+            <v>000048</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>000044</v>
+            <v>000049</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>000045</v>
+            <v>000050</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>000046</v>
+            <v>000051</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>000047</v>
+            <v>000052</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>000048</v>
+            <v>000053</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>000049</v>
+            <v>000054</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>000050</v>
+            <v>000055</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42" t="str">
-            <v>000051</v>
+            <v>000056</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>000052</v>
+            <v>000057</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>000053</v>
+            <v>000058</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>000054</v>
+            <v>000059</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>000055</v>
+            <v>000060</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>000056</v>
+            <v>000061</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48" t="str">
-            <v>000057</v>
+            <v>000062</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49" t="str">
-            <v>000058</v>
+            <v>000063</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50" t="str">
-            <v>000059</v>
+            <v>000064</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51" t="str">
-            <v>000060</v>
+            <v>000065</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52" t="str">
-            <v>000061</v>
+            <v>000066</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53" t="str">
-            <v>000062</v>
+            <v>000067</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54" t="str">
-            <v>000063</v>
+            <v>000068</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55" t="str">
-            <v>000064</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56" t="str">
-            <v>000065</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57" t="str">
-            <v>000066</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58" t="str">
-            <v>000067</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59" t="str">
-            <v>000068</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60" t="str">
             <v>000069</v>
           </cell>
         </row>
@@ -2708,11 +2938,11 @@
   <dimension ref="A1:AD502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomRight" activeCell="R10" sqref="R10:R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2762,30 +2992,30 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="19" t="s">
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="34" t="s">
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="35" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2802,28 +3032,28 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="22" t="s">
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="33" t="s">
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="35"/>
     </row>
     <row r="3" spans="1:30">
       <c r="A3" s="2"/>
@@ -2860,56 +3090,56 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="O3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="Q3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="R3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="23" t="s">
+      <c r="S3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="24" t="s">
+      <c r="T3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="U3" s="24" t="s">
+      <c r="U3" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="22" t="s">
+      <c r="V3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="W3" s="22"/>
-      <c r="X3" s="29" t="s">
+      <c r="W3" s="23"/>
+      <c r="X3" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="Y3" s="22" t="s">
+      <c r="Y3" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="Z3" s="29" t="s">
+      <c r="Z3" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="AA3" s="29" t="s">
+      <c r="AA3" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="AB3" s="33" t="s">
+      <c r="AB3" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="AC3" s="35" t="s">
+      <c r="AC3" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="AD3" s="34"/>
+      <c r="AD3" s="35"/>
     </row>
     <row r="4" ht="56" customHeight="1" spans="1:30">
       <c r="A4" s="2"/>
@@ -2924,28 +3154,28 @@
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
       <c r="L4" s="13"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="30" t="s">
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="W4" s="30" t="s">
+      <c r="W4" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="34"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="35"/>
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="5">
@@ -2989,35 +3219,35 @@
       <c r="M5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="17" t="s">
+      <c r="N5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="17" t="str">
+      <c r="O5" s="18" t="str">
         <f t="shared" ref="O5:O11" si="1">IF(B5&lt;F5,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="P5" s="17" t="s">
+      <c r="P5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="Q5" s="17" t="str">
+      <c r="Q5" s="18" t="str">
         <f t="shared" ref="Q5:Q11" si="2">IF(I5/(ROW()-4)&lt;0.5,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="R5" s="17" t="str">
+      <c r="R5" s="18" t="str">
         <f t="shared" ref="R5:R11" si="3">IF(B5&gt;=(D5-(D5-E5)/2),"上部","下部")</f>
         <v>上部</v>
       </c>
-      <c r="S5" s="25"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="28"/>
-      <c r="AC5" s="28"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="29"/>
       <c r="AD5" s="6">
         <v>24.68</v>
       </c>
@@ -3054,7 +3284,7 @@
         <f t="shared" ref="J6:J11" si="4">(B6-B5)/B5</f>
         <v>-0.024224072672218</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="15">
         <f>(B6-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE)</f>
         <v>-0.016030534351145</v>
       </c>
@@ -3065,35 +3295,35 @@
       <c r="M6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="N6" s="17" t="s">
+      <c r="N6" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="O6" s="17" t="str">
+      <c r="O6" s="18" t="str">
         <f t="shared" si="1"/>
         <v>否</v>
       </c>
-      <c r="P6" s="17" t="s">
+      <c r="P6" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="Q6" s="17" t="str">
+      <c r="Q6" s="18" t="str">
         <f t="shared" si="2"/>
         <v>否</v>
       </c>
-      <c r="R6" s="18" t="str">
+      <c r="R6" s="19" t="str">
         <f t="shared" si="3"/>
         <v>下部</v>
       </c>
       <c r="S6" s="8"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="29"/>
       <c r="AD6" s="6">
         <f>IF(G6-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE)&gt;0,G6,AD5)</f>
         <v>24.68</v>
@@ -3127,11 +3357,11 @@
       <c r="I7" s="9">
         <v>1</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="15">
         <f t="shared" si="4"/>
         <v>-0.0325833979829325</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="15">
         <f>(B7-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE)</f>
         <v>-0.048091603053435</v>
       </c>
@@ -3142,35 +3372,35 @@
       <c r="M7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="N7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="O7" s="17" t="str">
+      <c r="O7" s="18" t="str">
         <f t="shared" si="1"/>
         <v>否</v>
       </c>
-      <c r="P7" s="17" t="s">
+      <c r="P7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="Q7" s="18" t="str">
+      <c r="Q7" s="19" t="str">
         <f t="shared" si="2"/>
         <v>是</v>
       </c>
-      <c r="R7" s="18" t="str">
+      <c r="R7" s="19" t="str">
         <f t="shared" si="3"/>
         <v>下部</v>
       </c>
       <c r="S7" s="8"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
       <c r="AD7" s="6">
         <f>IF(G7-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE)&gt;0,G7,AD6)</f>
         <v>24.68</v>
@@ -3219,35 +3449,35 @@
       <c r="M8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="N8" s="17" t="s">
+      <c r="N8" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="O8" s="17" t="str">
+      <c r="O8" s="18" t="str">
         <f t="shared" si="1"/>
         <v>否</v>
       </c>
-      <c r="P8" s="17" t="s">
+      <c r="P8" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="Q8" s="17" t="str">
+      <c r="Q8" s="18" t="str">
         <f t="shared" si="2"/>
         <v>否</v>
       </c>
-      <c r="R8" s="17" t="str">
+      <c r="R8" s="18" t="str">
         <f t="shared" si="3"/>
         <v>上部</v>
       </c>
       <c r="S8" s="8"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
       <c r="AD8" s="6">
         <f>IF(G8-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10006,48,FALSE)&gt;0,G8,AD7)</f>
         <v>24.68</v>
@@ -3299,32 +3529,32 @@
       <c r="N9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="17" t="str">
+      <c r="O9" s="18" t="str">
         <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="P9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="Q9" s="17" t="str">
+      <c r="Q9" s="18" t="str">
         <f t="shared" si="2"/>
         <v>否</v>
       </c>
-      <c r="R9" s="17" t="str">
+      <c r="R9" s="18" t="str">
         <f t="shared" si="3"/>
         <v>上部</v>
       </c>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
       <c r="U9" s="8"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="28"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
       <c r="AD9" s="6">
         <f>IF(G9-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10007,48,FALSE)&gt;0,G9,AD8)</f>
         <v>24.68</v>
@@ -3373,35 +3603,35 @@
       <c r="M10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="N10" s="17" t="s">
+      <c r="N10" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="O10" s="17" t="str">
+      <c r="O10" s="18" t="str">
         <f t="shared" si="1"/>
         <v>否</v>
       </c>
-      <c r="P10" s="18" t="s">
+      <c r="P10" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="Q10" s="17" t="str">
+      <c r="Q10" s="18" t="str">
         <f t="shared" si="2"/>
         <v>否</v>
       </c>
-      <c r="R10" s="18" t="str">
+      <c r="R10" s="19" t="str">
         <f t="shared" si="3"/>
         <v>下部</v>
       </c>
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
       <c r="U10" s="8"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="28"/>
-      <c r="AC10" s="28"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="29"/>
+      <c r="AB10" s="29"/>
+      <c r="AC10" s="29"/>
       <c r="AD10" s="6">
         <f>IF(G10-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10008,48,FALSE)&gt;0,G10,AD9)</f>
         <v>24.68</v>
@@ -3450,35 +3680,35 @@
       <c r="M11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="N11" s="17" t="s">
+      <c r="N11" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="O11" s="17" t="str">
+      <c r="O11" s="18" t="str">
         <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="P11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="Q11" s="17" t="str">
+      <c r="Q11" s="18" t="str">
         <f t="shared" si="2"/>
         <v>否</v>
       </c>
-      <c r="R11" s="18" t="str">
+      <c r="R11" s="19" t="str">
         <f t="shared" si="3"/>
         <v>下部</v>
       </c>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
       <c r="U11" s="8"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="28"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="29"/>
+      <c r="AB11" s="29"/>
+      <c r="AC11" s="29"/>
       <c r="AD11" s="6">
         <f>IF(G11-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10009,48,FALSE)&gt;0,G11,AD10)</f>
         <v>24.68</v>
@@ -3508,15 +3738,15 @@
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
       <c r="U12" s="8"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="28"/>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="28"/>
-      <c r="AD12" s="28"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="29"/>
+      <c r="AD12" s="29"/>
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="7">
@@ -3542,15 +3772,15 @@
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
       <c r="U13" s="8"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="28"/>
-      <c r="AD13" s="28"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="29"/>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="7">
@@ -3576,15 +3806,15 @@
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
       <c r="U14" s="8"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="28"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="29"/>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="7">
@@ -3610,15 +3840,15 @@
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
       <c r="U15" s="8"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="28"/>
-      <c r="AD15" s="28"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="29"/>
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="7">
@@ -3644,15 +3874,15 @@
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
       <c r="U16" s="8"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="28"/>
-      <c r="AD16" s="28"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29"/>
     </row>
     <row r="17" spans="1:30">
       <c r="A17" s="7">
@@ -3678,15 +3908,15 @@
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
       <c r="U17" s="8"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="28"/>
-      <c r="AD17" s="28"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="29"/>
     </row>
     <row r="18" spans="1:30">
       <c r="A18" s="7">
@@ -3712,15 +3942,15 @@
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
       <c r="U18" s="8"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="28"/>
-      <c r="AD18" s="28"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="29"/>
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="29"/>
     </row>
     <row r="19" spans="1:30">
       <c r="A19" s="7">
@@ -3746,15 +3976,15 @@
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
       <c r="U19" s="8"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="28"/>
-      <c r="AD19" s="28"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="29"/>
     </row>
     <row r="20" spans="1:30">
       <c r="A20" s="7">
@@ -3780,15 +4010,15 @@
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
       <c r="U20" s="8"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="28"/>
-      <c r="AD20" s="28"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
     </row>
     <row r="21" spans="1:30">
       <c r="A21" s="7">
@@ -3814,15 +4044,15 @@
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
       <c r="U21" s="8"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="28"/>
-      <c r="AC21" s="28"/>
-      <c r="AD21" s="28"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="29"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="29"/>
     </row>
     <row r="22" spans="1:30">
       <c r="A22" s="7">
@@ -3848,15 +4078,15 @@
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
       <c r="U22" s="8"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="28"/>
-      <c r="AC22" s="28"/>
-      <c r="AD22" s="28"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="29"/>
     </row>
     <row r="23" spans="1:30">
       <c r="A23" s="7">
@@ -3882,15 +4112,15 @@
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
       <c r="U23" s="8"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="28"/>
-      <c r="AD23" s="28"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="29"/>
     </row>
     <row r="24" spans="1:30">
       <c r="A24" s="7">
@@ -3916,15 +4146,15 @@
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
       <c r="U24" s="8"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="28"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="28"/>
-      <c r="AD24" s="28"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="29"/>
     </row>
     <row r="25" spans="1:30">
       <c r="A25" s="7">
@@ -3950,15 +4180,15 @@
       <c r="S25" s="9"/>
       <c r="T25" s="9"/>
       <c r="U25" s="8"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="28"/>
-      <c r="AA25" s="28"/>
-      <c r="AB25" s="28"/>
-      <c r="AC25" s="28"/>
-      <c r="AD25" s="28"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="29"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="29"/>
+      <c r="AD25" s="29"/>
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="7">
@@ -3984,15 +4214,15 @@
       <c r="S26" s="9"/>
       <c r="T26" s="9"/>
       <c r="U26" s="8"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="28"/>
-      <c r="X26" s="28"/>
-      <c r="Y26" s="28"/>
-      <c r="Z26" s="28"/>
-      <c r="AA26" s="28"/>
-      <c r="AB26" s="28"/>
-      <c r="AC26" s="28"/>
-      <c r="AD26" s="28"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="29"/>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="29"/>
+      <c r="AD26" s="29"/>
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="7">
@@ -4015,18 +4245,18 @@
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
       <c r="R27" s="9"/>
-      <c r="S27" s="28"/>
+      <c r="S27" s="29"/>
       <c r="T27" s="9"/>
       <c r="U27" s="9"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="28"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="28"/>
-      <c r="AA27" s="28"/>
-      <c r="AB27" s="28"/>
-      <c r="AC27" s="28"/>
-      <c r="AD27" s="28"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
+      <c r="AD27" s="29"/>
     </row>
     <row r="28" spans="1:30">
       <c r="A28" s="7">
@@ -4049,18 +4279,18 @@
       <c r="P28" s="9"/>
       <c r="Q28" s="9"/>
       <c r="R28" s="9"/>
-      <c r="S28" s="28"/>
+      <c r="S28" s="29"/>
       <c r="T28" s="9"/>
       <c r="U28" s="9"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="28"/>
-      <c r="X28" s="28"/>
-      <c r="Y28" s="28"/>
-      <c r="Z28" s="28"/>
-      <c r="AA28" s="28"/>
-      <c r="AB28" s="28"/>
-      <c r="AC28" s="28"/>
-      <c r="AD28" s="28"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="29"/>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="29"/>
+      <c r="AD28" s="29"/>
     </row>
     <row r="29" spans="1:30">
       <c r="A29" s="7">
@@ -4083,18 +4313,18 @@
       <c r="P29" s="9"/>
       <c r="Q29" s="9"/>
       <c r="R29" s="9"/>
-      <c r="S29" s="28"/>
+      <c r="S29" s="29"/>
       <c r="T29" s="9"/>
       <c r="U29" s="9"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="28"/>
-      <c r="X29" s="28"/>
-      <c r="Y29" s="28"/>
-      <c r="Z29" s="28"/>
-      <c r="AA29" s="28"/>
-      <c r="AB29" s="28"/>
-      <c r="AC29" s="28"/>
-      <c r="AD29" s="28"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="29"/>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="29"/>
+      <c r="AD29" s="29"/>
     </row>
     <row r="30" spans="1:30">
       <c r="A30" s="7">
@@ -4117,18 +4347,18 @@
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
       <c r="R30" s="9"/>
-      <c r="S30" s="28"/>
+      <c r="S30" s="29"/>
       <c r="T30" s="9"/>
       <c r="U30" s="9"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="28"/>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="28"/>
-      <c r="Z30" s="28"/>
-      <c r="AA30" s="28"/>
-      <c r="AB30" s="28"/>
-      <c r="AC30" s="28"/>
-      <c r="AD30" s="28"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="29"/>
+      <c r="AB30" s="29"/>
+      <c r="AC30" s="29"/>
+      <c r="AD30" s="29"/>
     </row>
     <row r="31" spans="1:30">
       <c r="A31" s="7">
@@ -4151,18 +4381,18 @@
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
       <c r="R31" s="9"/>
-      <c r="S31" s="28"/>
+      <c r="S31" s="29"/>
       <c r="T31" s="9"/>
       <c r="U31" s="9"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="28"/>
-      <c r="X31" s="28"/>
-      <c r="Y31" s="28"/>
-      <c r="Z31" s="28"/>
-      <c r="AA31" s="28"/>
-      <c r="AB31" s="28"/>
-      <c r="AC31" s="28"/>
-      <c r="AD31" s="28"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="29"/>
+      <c r="AA31" s="29"/>
+      <c r="AB31" s="29"/>
+      <c r="AC31" s="29"/>
+      <c r="AD31" s="29"/>
     </row>
     <row r="32" spans="1:30">
       <c r="A32" s="7">
@@ -4185,18 +4415,18 @@
       <c r="P32" s="9"/>
       <c r="Q32" s="9"/>
       <c r="R32" s="9"/>
-      <c r="S32" s="28"/>
+      <c r="S32" s="29"/>
       <c r="T32" s="9"/>
       <c r="U32" s="9"/>
-      <c r="V32" s="28"/>
-      <c r="W32" s="28"/>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="28"/>
-      <c r="Z32" s="28"/>
-      <c r="AA32" s="28"/>
-      <c r="AB32" s="28"/>
-      <c r="AC32" s="28"/>
-      <c r="AD32" s="28"/>
+      <c r="V32" s="29"/>
+      <c r="W32" s="29"/>
+      <c r="X32" s="29"/>
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="29"/>
+      <c r="AA32" s="29"/>
+      <c r="AB32" s="29"/>
+      <c r="AC32" s="29"/>
+      <c r="AD32" s="29"/>
     </row>
     <row r="33" spans="1:30">
       <c r="A33" s="7">
@@ -4219,18 +4449,18 @@
       <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
       <c r="R33" s="9"/>
-      <c r="S33" s="28"/>
+      <c r="S33" s="29"/>
       <c r="T33" s="9"/>
       <c r="U33" s="9"/>
-      <c r="V33" s="28"/>
-      <c r="W33" s="28"/>
-      <c r="X33" s="28"/>
-      <c r="Y33" s="28"/>
-      <c r="Z33" s="28"/>
-      <c r="AA33" s="28"/>
-      <c r="AB33" s="28"/>
-      <c r="AC33" s="28"/>
-      <c r="AD33" s="28"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="29"/>
+      <c r="X33" s="29"/>
+      <c r="Y33" s="29"/>
+      <c r="Z33" s="29"/>
+      <c r="AA33" s="29"/>
+      <c r="AB33" s="29"/>
+      <c r="AC33" s="29"/>
+      <c r="AD33" s="29"/>
     </row>
     <row r="34" spans="1:30">
       <c r="A34" s="7">
@@ -4253,18 +4483,18 @@
       <c r="P34" s="9"/>
       <c r="Q34" s="9"/>
       <c r="R34" s="9"/>
-      <c r="S34" s="28"/>
+      <c r="S34" s="29"/>
       <c r="T34" s="9"/>
       <c r="U34" s="9"/>
-      <c r="V34" s="28"/>
-      <c r="W34" s="28"/>
-      <c r="X34" s="28"/>
-      <c r="Y34" s="28"/>
-      <c r="Z34" s="28"/>
-      <c r="AA34" s="28"/>
-      <c r="AB34" s="28"/>
-      <c r="AC34" s="28"/>
-      <c r="AD34" s="28"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="29"/>
+      <c r="X34" s="29"/>
+      <c r="Y34" s="29"/>
+      <c r="Z34" s="29"/>
+      <c r="AA34" s="29"/>
+      <c r="AB34" s="29"/>
+      <c r="AC34" s="29"/>
+      <c r="AD34" s="29"/>
     </row>
     <row r="35" spans="1:30">
       <c r="A35" s="7">
@@ -4287,18 +4517,18 @@
       <c r="P35" s="9"/>
       <c r="Q35" s="9"/>
       <c r="R35" s="9"/>
-      <c r="S35" s="28"/>
+      <c r="S35" s="29"/>
       <c r="T35" s="9"/>
       <c r="U35" s="9"/>
-      <c r="V35" s="28"/>
-      <c r="W35" s="28"/>
-      <c r="X35" s="28"/>
-      <c r="Y35" s="28"/>
-      <c r="Z35" s="28"/>
-      <c r="AA35" s="28"/>
-      <c r="AB35" s="28"/>
-      <c r="AC35" s="28"/>
-      <c r="AD35" s="28"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="29"/>
+      <c r="X35" s="29"/>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="29"/>
+      <c r="AA35" s="29"/>
+      <c r="AB35" s="29"/>
+      <c r="AC35" s="29"/>
+      <c r="AD35" s="29"/>
     </row>
     <row r="36" spans="1:30">
       <c r="A36" s="7">
@@ -4321,18 +4551,18 @@
       <c r="P36" s="9"/>
       <c r="Q36" s="9"/>
       <c r="R36" s="9"/>
-      <c r="S36" s="28"/>
+      <c r="S36" s="29"/>
       <c r="T36" s="9"/>
       <c r="U36" s="9"/>
-      <c r="V36" s="28"/>
-      <c r="W36" s="28"/>
-      <c r="X36" s="28"/>
-      <c r="Y36" s="28"/>
-      <c r="Z36" s="28"/>
-      <c r="AA36" s="28"/>
-      <c r="AB36" s="28"/>
-      <c r="AC36" s="28"/>
-      <c r="AD36" s="28"/>
+      <c r="V36" s="29"/>
+      <c r="W36" s="29"/>
+      <c r="X36" s="29"/>
+      <c r="Y36" s="29"/>
+      <c r="Z36" s="29"/>
+      <c r="AA36" s="29"/>
+      <c r="AB36" s="29"/>
+      <c r="AC36" s="29"/>
+      <c r="AD36" s="29"/>
     </row>
     <row r="37" spans="1:30">
       <c r="A37" s="7">
@@ -4355,18 +4585,18 @@
       <c r="P37" s="9"/>
       <c r="Q37" s="9"/>
       <c r="R37" s="9"/>
-      <c r="S37" s="28"/>
+      <c r="S37" s="29"/>
       <c r="T37" s="9"/>
       <c r="U37" s="9"/>
-      <c r="V37" s="28"/>
-      <c r="W37" s="28"/>
-      <c r="X37" s="28"/>
-      <c r="Y37" s="28"/>
-      <c r="Z37" s="28"/>
-      <c r="AA37" s="28"/>
-      <c r="AB37" s="28"/>
-      <c r="AC37" s="28"/>
-      <c r="AD37" s="28"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="29"/>
+      <c r="AA37" s="29"/>
+      <c r="AB37" s="29"/>
+      <c r="AC37" s="29"/>
+      <c r="AD37" s="29"/>
     </row>
     <row r="38" spans="1:30">
       <c r="A38" s="7">
@@ -4389,18 +4619,18 @@
       <c r="P38" s="9"/>
       <c r="Q38" s="9"/>
       <c r="R38" s="9"/>
-      <c r="S38" s="28"/>
+      <c r="S38" s="29"/>
       <c r="T38" s="9"/>
       <c r="U38" s="9"/>
-      <c r="V38" s="28"/>
-      <c r="W38" s="28"/>
-      <c r="X38" s="28"/>
-      <c r="Y38" s="28"/>
-      <c r="Z38" s="28"/>
-      <c r="AA38" s="28"/>
-      <c r="AB38" s="28"/>
-      <c r="AC38" s="28"/>
-      <c r="AD38" s="28"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="29"/>
+      <c r="X38" s="29"/>
+      <c r="Y38" s="29"/>
+      <c r="Z38" s="29"/>
+      <c r="AA38" s="29"/>
+      <c r="AB38" s="29"/>
+      <c r="AC38" s="29"/>
+      <c r="AD38" s="29"/>
     </row>
     <row r="39" spans="1:30">
       <c r="A39" s="7">
@@ -4423,18 +4653,18 @@
       <c r="P39" s="9"/>
       <c r="Q39" s="9"/>
       <c r="R39" s="9"/>
-      <c r="S39" s="28"/>
+      <c r="S39" s="29"/>
       <c r="T39" s="9"/>
       <c r="U39" s="9"/>
-      <c r="V39" s="28"/>
-      <c r="W39" s="28"/>
-      <c r="X39" s="28"/>
-      <c r="Y39" s="28"/>
-      <c r="Z39" s="28"/>
-      <c r="AA39" s="28"/>
-      <c r="AB39" s="28"/>
-      <c r="AC39" s="28"/>
-      <c r="AD39" s="28"/>
+      <c r="V39" s="29"/>
+      <c r="W39" s="29"/>
+      <c r="X39" s="29"/>
+      <c r="Y39" s="29"/>
+      <c r="Z39" s="29"/>
+      <c r="AA39" s="29"/>
+      <c r="AB39" s="29"/>
+      <c r="AC39" s="29"/>
+      <c r="AD39" s="29"/>
     </row>
     <row r="40" spans="1:30">
       <c r="A40" s="7">
@@ -4457,18 +4687,18 @@
       <c r="P40" s="9"/>
       <c r="Q40" s="9"/>
       <c r="R40" s="9"/>
-      <c r="S40" s="28"/>
+      <c r="S40" s="29"/>
       <c r="T40" s="9"/>
       <c r="U40" s="9"/>
-      <c r="V40" s="28"/>
-      <c r="W40" s="28"/>
-      <c r="X40" s="28"/>
-      <c r="Y40" s="28"/>
-      <c r="Z40" s="28"/>
-      <c r="AA40" s="28"/>
-      <c r="AB40" s="28"/>
-      <c r="AC40" s="28"/>
-      <c r="AD40" s="28"/>
+      <c r="V40" s="29"/>
+      <c r="W40" s="29"/>
+      <c r="X40" s="29"/>
+      <c r="Y40" s="29"/>
+      <c r="Z40" s="29"/>
+      <c r="AA40" s="29"/>
+      <c r="AB40" s="29"/>
+      <c r="AC40" s="29"/>
+      <c r="AD40" s="29"/>
     </row>
     <row r="41" spans="1:30">
       <c r="A41" s="7">
@@ -4491,18 +4721,18 @@
       <c r="P41" s="9"/>
       <c r="Q41" s="9"/>
       <c r="R41" s="9"/>
-      <c r="S41" s="28"/>
+      <c r="S41" s="29"/>
       <c r="T41" s="9"/>
       <c r="U41" s="9"/>
-      <c r="V41" s="28"/>
-      <c r="W41" s="28"/>
-      <c r="X41" s="28"/>
-      <c r="Y41" s="28"/>
-      <c r="Z41" s="28"/>
-      <c r="AA41" s="28"/>
-      <c r="AB41" s="28"/>
-      <c r="AC41" s="28"/>
-      <c r="AD41" s="28"/>
+      <c r="V41" s="29"/>
+      <c r="W41" s="29"/>
+      <c r="X41" s="29"/>
+      <c r="Y41" s="29"/>
+      <c r="Z41" s="29"/>
+      <c r="AA41" s="29"/>
+      <c r="AB41" s="29"/>
+      <c r="AC41" s="29"/>
+      <c r="AD41" s="29"/>
     </row>
     <row r="42" spans="1:30">
       <c r="A42" s="7">
@@ -4525,18 +4755,18 @@
       <c r="P42" s="9"/>
       <c r="Q42" s="9"/>
       <c r="R42" s="9"/>
-      <c r="S42" s="28"/>
+      <c r="S42" s="29"/>
       <c r="T42" s="9"/>
       <c r="U42" s="9"/>
-      <c r="V42" s="28"/>
-      <c r="W42" s="28"/>
-      <c r="X42" s="28"/>
-      <c r="Y42" s="28"/>
-      <c r="Z42" s="28"/>
-      <c r="AA42" s="28"/>
-      <c r="AB42" s="28"/>
-      <c r="AC42" s="28"/>
-      <c r="AD42" s="28"/>
+      <c r="V42" s="29"/>
+      <c r="W42" s="29"/>
+      <c r="X42" s="29"/>
+      <c r="Y42" s="29"/>
+      <c r="Z42" s="29"/>
+      <c r="AA42" s="29"/>
+      <c r="AB42" s="29"/>
+      <c r="AC42" s="29"/>
+      <c r="AD42" s="29"/>
     </row>
     <row r="43" spans="1:30">
       <c r="A43" s="7">
@@ -4559,18 +4789,18 @@
       <c r="P43" s="9"/>
       <c r="Q43" s="9"/>
       <c r="R43" s="9"/>
-      <c r="S43" s="28"/>
+      <c r="S43" s="29"/>
       <c r="T43" s="9"/>
       <c r="U43" s="9"/>
-      <c r="V43" s="28"/>
-      <c r="W43" s="28"/>
-      <c r="X43" s="28"/>
-      <c r="Y43" s="28"/>
-      <c r="Z43" s="28"/>
-      <c r="AA43" s="28"/>
-      <c r="AB43" s="28"/>
-      <c r="AC43" s="28"/>
-      <c r="AD43" s="28"/>
+      <c r="V43" s="29"/>
+      <c r="W43" s="29"/>
+      <c r="X43" s="29"/>
+      <c r="Y43" s="29"/>
+      <c r="Z43" s="29"/>
+      <c r="AA43" s="29"/>
+      <c r="AB43" s="29"/>
+      <c r="AC43" s="29"/>
+      <c r="AD43" s="29"/>
     </row>
     <row r="44" spans="1:30">
       <c r="A44" s="7">
@@ -4593,18 +4823,18 @@
       <c r="P44" s="9"/>
       <c r="Q44" s="9"/>
       <c r="R44" s="9"/>
-      <c r="S44" s="28"/>
+      <c r="S44" s="29"/>
       <c r="T44" s="9"/>
       <c r="U44" s="9"/>
-      <c r="V44" s="28"/>
-      <c r="W44" s="28"/>
-      <c r="X44" s="28"/>
-      <c r="Y44" s="28"/>
-      <c r="Z44" s="28"/>
-      <c r="AA44" s="28"/>
-      <c r="AB44" s="28"/>
-      <c r="AC44" s="28"/>
-      <c r="AD44" s="28"/>
+      <c r="V44" s="29"/>
+      <c r="W44" s="29"/>
+      <c r="X44" s="29"/>
+      <c r="Y44" s="29"/>
+      <c r="Z44" s="29"/>
+      <c r="AA44" s="29"/>
+      <c r="AB44" s="29"/>
+      <c r="AC44" s="29"/>
+      <c r="AD44" s="29"/>
     </row>
     <row r="45" spans="1:30">
       <c r="A45" s="7">
@@ -4627,18 +4857,18 @@
       <c r="P45" s="9"/>
       <c r="Q45" s="9"/>
       <c r="R45" s="9"/>
-      <c r="S45" s="28"/>
+      <c r="S45" s="29"/>
       <c r="T45" s="9"/>
       <c r="U45" s="9"/>
-      <c r="V45" s="28"/>
-      <c r="W45" s="28"/>
-      <c r="X45" s="28"/>
-      <c r="Y45" s="28"/>
-      <c r="Z45" s="28"/>
-      <c r="AA45" s="28"/>
-      <c r="AB45" s="28"/>
-      <c r="AC45" s="28"/>
-      <c r="AD45" s="28"/>
+      <c r="V45" s="29"/>
+      <c r="W45" s="29"/>
+      <c r="X45" s="29"/>
+      <c r="Y45" s="29"/>
+      <c r="Z45" s="29"/>
+      <c r="AA45" s="29"/>
+      <c r="AB45" s="29"/>
+      <c r="AC45" s="29"/>
+      <c r="AD45" s="29"/>
     </row>
     <row r="46" spans="1:30">
       <c r="A46" s="7">
@@ -4661,18 +4891,18 @@
       <c r="P46" s="9"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="9"/>
-      <c r="S46" s="28"/>
+      <c r="S46" s="29"/>
       <c r="T46" s="9"/>
       <c r="U46" s="9"/>
-      <c r="V46" s="28"/>
-      <c r="W46" s="28"/>
-      <c r="X46" s="28"/>
-      <c r="Y46" s="28"/>
-      <c r="Z46" s="28"/>
-      <c r="AA46" s="28"/>
-      <c r="AB46" s="28"/>
-      <c r="AC46" s="28"/>
-      <c r="AD46" s="28"/>
+      <c r="V46" s="29"/>
+      <c r="W46" s="29"/>
+      <c r="X46" s="29"/>
+      <c r="Y46" s="29"/>
+      <c r="Z46" s="29"/>
+      <c r="AA46" s="29"/>
+      <c r="AB46" s="29"/>
+      <c r="AC46" s="29"/>
+      <c r="AD46" s="29"/>
     </row>
     <row r="47" spans="1:30">
       <c r="A47" s="7">
@@ -4695,18 +4925,18 @@
       <c r="P47" s="9"/>
       <c r="Q47" s="9"/>
       <c r="R47" s="9"/>
-      <c r="S47" s="28"/>
+      <c r="S47" s="29"/>
       <c r="T47" s="9"/>
       <c r="U47" s="9"/>
-      <c r="V47" s="28"/>
-      <c r="W47" s="28"/>
-      <c r="X47" s="28"/>
-      <c r="Y47" s="28"/>
-      <c r="Z47" s="28"/>
-      <c r="AA47" s="28"/>
-      <c r="AB47" s="28"/>
-      <c r="AC47" s="28"/>
-      <c r="AD47" s="28"/>
+      <c r="V47" s="29"/>
+      <c r="W47" s="29"/>
+      <c r="X47" s="29"/>
+      <c r="Y47" s="29"/>
+      <c r="Z47" s="29"/>
+      <c r="AA47" s="29"/>
+      <c r="AB47" s="29"/>
+      <c r="AC47" s="29"/>
+      <c r="AD47" s="29"/>
     </row>
     <row r="48" spans="1:30">
       <c r="A48" s="7">
@@ -4729,18 +4959,18 @@
       <c r="P48" s="9"/>
       <c r="Q48" s="9"/>
       <c r="R48" s="9"/>
-      <c r="S48" s="28"/>
+      <c r="S48" s="29"/>
       <c r="T48" s="9"/>
       <c r="U48" s="9"/>
-      <c r="V48" s="28"/>
-      <c r="W48" s="28"/>
-      <c r="X48" s="28"/>
-      <c r="Y48" s="28"/>
-      <c r="Z48" s="28"/>
-      <c r="AA48" s="28"/>
-      <c r="AB48" s="28"/>
-      <c r="AC48" s="28"/>
-      <c r="AD48" s="28"/>
+      <c r="V48" s="29"/>
+      <c r="W48" s="29"/>
+      <c r="X48" s="29"/>
+      <c r="Y48" s="29"/>
+      <c r="Z48" s="29"/>
+      <c r="AA48" s="29"/>
+      <c r="AB48" s="29"/>
+      <c r="AC48" s="29"/>
+      <c r="AD48" s="29"/>
     </row>
     <row r="49" spans="1:30">
       <c r="A49" s="7">
@@ -4763,18 +4993,18 @@
       <c r="P49" s="9"/>
       <c r="Q49" s="9"/>
       <c r="R49" s="9"/>
-      <c r="S49" s="28"/>
+      <c r="S49" s="29"/>
       <c r="T49" s="9"/>
       <c r="U49" s="9"/>
-      <c r="V49" s="28"/>
-      <c r="W49" s="28"/>
-      <c r="X49" s="28"/>
-      <c r="Y49" s="28"/>
-      <c r="Z49" s="28"/>
-      <c r="AA49" s="28"/>
-      <c r="AB49" s="28"/>
-      <c r="AC49" s="28"/>
-      <c r="AD49" s="28"/>
+      <c r="V49" s="29"/>
+      <c r="W49" s="29"/>
+      <c r="X49" s="29"/>
+      <c r="Y49" s="29"/>
+      <c r="Z49" s="29"/>
+      <c r="AA49" s="29"/>
+      <c r="AB49" s="29"/>
+      <c r="AC49" s="29"/>
+      <c r="AD49" s="29"/>
     </row>
     <row r="50" spans="1:30">
       <c r="A50" s="7">
@@ -4797,18 +5027,18 @@
       <c r="P50" s="9"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="9"/>
-      <c r="S50" s="28"/>
+      <c r="S50" s="29"/>
       <c r="T50" s="9"/>
       <c r="U50" s="9"/>
-      <c r="V50" s="28"/>
-      <c r="W50" s="28"/>
-      <c r="X50" s="28"/>
-      <c r="Y50" s="28"/>
-      <c r="Z50" s="28"/>
-      <c r="AA50" s="28"/>
-      <c r="AB50" s="28"/>
-      <c r="AC50" s="28"/>
-      <c r="AD50" s="28"/>
+      <c r="V50" s="29"/>
+      <c r="W50" s="29"/>
+      <c r="X50" s="29"/>
+      <c r="Y50" s="29"/>
+      <c r="Z50" s="29"/>
+      <c r="AA50" s="29"/>
+      <c r="AB50" s="29"/>
+      <c r="AC50" s="29"/>
+      <c r="AD50" s="29"/>
     </row>
     <row r="51" spans="1:30">
       <c r="A51" s="7">
@@ -4831,18 +5061,18 @@
       <c r="P51" s="9"/>
       <c r="Q51" s="9"/>
       <c r="R51" s="9"/>
-      <c r="S51" s="28"/>
+      <c r="S51" s="29"/>
       <c r="T51" s="9"/>
       <c r="U51" s="9"/>
-      <c r="V51" s="28"/>
-      <c r="W51" s="28"/>
-      <c r="X51" s="28"/>
-      <c r="Y51" s="28"/>
-      <c r="Z51" s="28"/>
-      <c r="AA51" s="28"/>
-      <c r="AB51" s="28"/>
-      <c r="AC51" s="28"/>
-      <c r="AD51" s="28"/>
+      <c r="V51" s="29"/>
+      <c r="W51" s="29"/>
+      <c r="X51" s="29"/>
+      <c r="Y51" s="29"/>
+      <c r="Z51" s="29"/>
+      <c r="AA51" s="29"/>
+      <c r="AB51" s="29"/>
+      <c r="AC51" s="29"/>
+      <c r="AD51" s="29"/>
     </row>
     <row r="52" spans="1:30">
       <c r="A52" s="7">
@@ -4865,18 +5095,18 @@
       <c r="P52" s="9"/>
       <c r="Q52" s="9"/>
       <c r="R52" s="9"/>
-      <c r="S52" s="28"/>
+      <c r="S52" s="29"/>
       <c r="T52" s="9"/>
       <c r="U52" s="9"/>
-      <c r="V52" s="28"/>
-      <c r="W52" s="28"/>
-      <c r="X52" s="28"/>
-      <c r="Y52" s="28"/>
-      <c r="Z52" s="28"/>
-      <c r="AA52" s="28"/>
-      <c r="AB52" s="28"/>
-      <c r="AC52" s="28"/>
-      <c r="AD52" s="28"/>
+      <c r="V52" s="29"/>
+      <c r="W52" s="29"/>
+      <c r="X52" s="29"/>
+      <c r="Y52" s="29"/>
+      <c r="Z52" s="29"/>
+      <c r="AA52" s="29"/>
+      <c r="AB52" s="29"/>
+      <c r="AC52" s="29"/>
+      <c r="AD52" s="29"/>
     </row>
     <row r="53" spans="1:30">
       <c r="A53" s="7">
@@ -4899,18 +5129,18 @@
       <c r="P53" s="9"/>
       <c r="Q53" s="9"/>
       <c r="R53" s="9"/>
-      <c r="S53" s="28"/>
+      <c r="S53" s="29"/>
       <c r="T53" s="9"/>
       <c r="U53" s="9"/>
-      <c r="V53" s="28"/>
-      <c r="W53" s="28"/>
-      <c r="X53" s="28"/>
-      <c r="Y53" s="28"/>
-      <c r="Z53" s="28"/>
-      <c r="AA53" s="28"/>
-      <c r="AB53" s="28"/>
-      <c r="AC53" s="28"/>
-      <c r="AD53" s="28"/>
+      <c r="V53" s="29"/>
+      <c r="W53" s="29"/>
+      <c r="X53" s="29"/>
+      <c r="Y53" s="29"/>
+      <c r="Z53" s="29"/>
+      <c r="AA53" s="29"/>
+      <c r="AB53" s="29"/>
+      <c r="AC53" s="29"/>
+      <c r="AD53" s="29"/>
     </row>
     <row r="54" spans="1:30">
       <c r="A54" s="7">
@@ -4933,18 +5163,18 @@
       <c r="P54" s="9"/>
       <c r="Q54" s="9"/>
       <c r="R54" s="9"/>
-      <c r="S54" s="28"/>
+      <c r="S54" s="29"/>
       <c r="T54" s="9"/>
       <c r="U54" s="9"/>
-      <c r="V54" s="28"/>
-      <c r="W54" s="28"/>
-      <c r="X54" s="28"/>
-      <c r="Y54" s="28"/>
-      <c r="Z54" s="28"/>
-      <c r="AA54" s="28"/>
-      <c r="AB54" s="28"/>
-      <c r="AC54" s="28"/>
-      <c r="AD54" s="28"/>
+      <c r="V54" s="29"/>
+      <c r="W54" s="29"/>
+      <c r="X54" s="29"/>
+      <c r="Y54" s="29"/>
+      <c r="Z54" s="29"/>
+      <c r="AA54" s="29"/>
+      <c r="AB54" s="29"/>
+      <c r="AC54" s="29"/>
+      <c r="AD54" s="29"/>
     </row>
     <row r="55" spans="1:30">
       <c r="A55" s="7">
@@ -4967,18 +5197,18 @@
       <c r="P55" s="9"/>
       <c r="Q55" s="9"/>
       <c r="R55" s="9"/>
-      <c r="S55" s="28"/>
+      <c r="S55" s="29"/>
       <c r="T55" s="9"/>
       <c r="U55" s="9"/>
-      <c r="V55" s="28"/>
-      <c r="W55" s="28"/>
-      <c r="X55" s="28"/>
-      <c r="Y55" s="28"/>
-      <c r="Z55" s="28"/>
-      <c r="AA55" s="28"/>
-      <c r="AB55" s="28"/>
-      <c r="AC55" s="28"/>
-      <c r="AD55" s="28"/>
+      <c r="V55" s="29"/>
+      <c r="W55" s="29"/>
+      <c r="X55" s="29"/>
+      <c r="Y55" s="29"/>
+      <c r="Z55" s="29"/>
+      <c r="AA55" s="29"/>
+      <c r="AB55" s="29"/>
+      <c r="AC55" s="29"/>
+      <c r="AD55" s="29"/>
     </row>
     <row r="56" spans="1:30">
       <c r="A56" s="7">
@@ -5001,18 +5231,18 @@
       <c r="P56" s="9"/>
       <c r="Q56" s="9"/>
       <c r="R56" s="9"/>
-      <c r="S56" s="28"/>
+      <c r="S56" s="29"/>
       <c r="T56" s="9"/>
       <c r="U56" s="9"/>
-      <c r="V56" s="28"/>
-      <c r="W56" s="28"/>
-      <c r="X56" s="28"/>
-      <c r="Y56" s="28"/>
-      <c r="Z56" s="28"/>
-      <c r="AA56" s="28"/>
-      <c r="AB56" s="28"/>
-      <c r="AC56" s="28"/>
-      <c r="AD56" s="28"/>
+      <c r="V56" s="29"/>
+      <c r="W56" s="29"/>
+      <c r="X56" s="29"/>
+      <c r="Y56" s="29"/>
+      <c r="Z56" s="29"/>
+      <c r="AA56" s="29"/>
+      <c r="AB56" s="29"/>
+      <c r="AC56" s="29"/>
+      <c r="AD56" s="29"/>
     </row>
     <row r="57" spans="1:30">
       <c r="A57" s="7">
@@ -5035,18 +5265,18 @@
       <c r="P57" s="9"/>
       <c r="Q57" s="9"/>
       <c r="R57" s="9"/>
-      <c r="S57" s="28"/>
+      <c r="S57" s="29"/>
       <c r="T57" s="9"/>
       <c r="U57" s="9"/>
-      <c r="V57" s="28"/>
-      <c r="W57" s="28"/>
-      <c r="X57" s="28"/>
-      <c r="Y57" s="28"/>
-      <c r="Z57" s="28"/>
-      <c r="AA57" s="28"/>
-      <c r="AB57" s="28"/>
-      <c r="AC57" s="28"/>
-      <c r="AD57" s="28"/>
+      <c r="V57" s="29"/>
+      <c r="W57" s="29"/>
+      <c r="X57" s="29"/>
+      <c r="Y57" s="29"/>
+      <c r="Z57" s="29"/>
+      <c r="AA57" s="29"/>
+      <c r="AB57" s="29"/>
+      <c r="AC57" s="29"/>
+      <c r="AD57" s="29"/>
     </row>
     <row r="58" spans="1:30">
       <c r="A58" s="7">
@@ -5069,18 +5299,18 @@
       <c r="P58" s="9"/>
       <c r="Q58" s="9"/>
       <c r="R58" s="9"/>
-      <c r="S58" s="28"/>
+      <c r="S58" s="29"/>
       <c r="T58" s="9"/>
       <c r="U58" s="9"/>
-      <c r="V58" s="28"/>
-      <c r="W58" s="28"/>
-      <c r="X58" s="28"/>
-      <c r="Y58" s="28"/>
-      <c r="Z58" s="28"/>
-      <c r="AA58" s="28"/>
-      <c r="AB58" s="28"/>
-      <c r="AC58" s="28"/>
-      <c r="AD58" s="28"/>
+      <c r="V58" s="29"/>
+      <c r="W58" s="29"/>
+      <c r="X58" s="29"/>
+      <c r="Y58" s="29"/>
+      <c r="Z58" s="29"/>
+      <c r="AA58" s="29"/>
+      <c r="AB58" s="29"/>
+      <c r="AC58" s="29"/>
+      <c r="AD58" s="29"/>
     </row>
     <row r="59" spans="1:30">
       <c r="A59" s="7">
@@ -5103,18 +5333,18 @@
       <c r="P59" s="9"/>
       <c r="Q59" s="9"/>
       <c r="R59" s="9"/>
-      <c r="S59" s="28"/>
+      <c r="S59" s="29"/>
       <c r="T59" s="9"/>
       <c r="U59" s="9"/>
-      <c r="V59" s="28"/>
-      <c r="W59" s="28"/>
-      <c r="X59" s="28"/>
-      <c r="Y59" s="28"/>
-      <c r="Z59" s="28"/>
-      <c r="AA59" s="28"/>
-      <c r="AB59" s="28"/>
-      <c r="AC59" s="28"/>
-      <c r="AD59" s="28"/>
+      <c r="V59" s="29"/>
+      <c r="W59" s="29"/>
+      <c r="X59" s="29"/>
+      <c r="Y59" s="29"/>
+      <c r="Z59" s="29"/>
+      <c r="AA59" s="29"/>
+      <c r="AB59" s="29"/>
+      <c r="AC59" s="29"/>
+      <c r="AD59" s="29"/>
     </row>
     <row r="60" spans="1:30">
       <c r="A60" s="7">
@@ -5137,18 +5367,18 @@
       <c r="P60" s="9"/>
       <c r="Q60" s="9"/>
       <c r="R60" s="9"/>
-      <c r="S60" s="28"/>
+      <c r="S60" s="29"/>
       <c r="T60" s="9"/>
       <c r="U60" s="9"/>
-      <c r="V60" s="28"/>
-      <c r="W60" s="28"/>
-      <c r="X60" s="28"/>
-      <c r="Y60" s="28"/>
-      <c r="Z60" s="28"/>
-      <c r="AA60" s="28"/>
-      <c r="AB60" s="28"/>
-      <c r="AC60" s="28"/>
-      <c r="AD60" s="28"/>
+      <c r="V60" s="29"/>
+      <c r="W60" s="29"/>
+      <c r="X60" s="29"/>
+      <c r="Y60" s="29"/>
+      <c r="Z60" s="29"/>
+      <c r="AA60" s="29"/>
+      <c r="AB60" s="29"/>
+      <c r="AC60" s="29"/>
+      <c r="AD60" s="29"/>
     </row>
     <row r="61" spans="1:30">
       <c r="A61" s="7">
@@ -5171,18 +5401,18 @@
       <c r="P61" s="9"/>
       <c r="Q61" s="9"/>
       <c r="R61" s="9"/>
-      <c r="S61" s="28"/>
+      <c r="S61" s="29"/>
       <c r="T61" s="9"/>
       <c r="U61" s="9"/>
-      <c r="V61" s="28"/>
-      <c r="W61" s="28"/>
-      <c r="X61" s="28"/>
-      <c r="Y61" s="28"/>
-      <c r="Z61" s="28"/>
-      <c r="AA61" s="28"/>
-      <c r="AB61" s="28"/>
-      <c r="AC61" s="28"/>
-      <c r="AD61" s="28"/>
+      <c r="V61" s="29"/>
+      <c r="W61" s="29"/>
+      <c r="X61" s="29"/>
+      <c r="Y61" s="29"/>
+      <c r="Z61" s="29"/>
+      <c r="AA61" s="29"/>
+      <c r="AB61" s="29"/>
+      <c r="AC61" s="29"/>
+      <c r="AD61" s="29"/>
     </row>
     <row r="62" spans="1:30">
       <c r="A62" s="7">
@@ -5205,18 +5435,18 @@
       <c r="P62" s="9"/>
       <c r="Q62" s="9"/>
       <c r="R62" s="9"/>
-      <c r="S62" s="28"/>
+      <c r="S62" s="29"/>
       <c r="T62" s="9"/>
       <c r="U62" s="9"/>
-      <c r="V62" s="28"/>
-      <c r="W62" s="28"/>
-      <c r="X62" s="28"/>
-      <c r="Y62" s="28"/>
-      <c r="Z62" s="28"/>
-      <c r="AA62" s="28"/>
-      <c r="AB62" s="28"/>
-      <c r="AC62" s="28"/>
-      <c r="AD62" s="28"/>
+      <c r="V62" s="29"/>
+      <c r="W62" s="29"/>
+      <c r="X62" s="29"/>
+      <c r="Y62" s="29"/>
+      <c r="Z62" s="29"/>
+      <c r="AA62" s="29"/>
+      <c r="AB62" s="29"/>
+      <c r="AC62" s="29"/>
+      <c r="AD62" s="29"/>
     </row>
     <row r="63" spans="1:30">
       <c r="A63" s="7">
@@ -5239,18 +5469,18 @@
       <c r="P63" s="9"/>
       <c r="Q63" s="9"/>
       <c r="R63" s="9"/>
-      <c r="S63" s="28"/>
+      <c r="S63" s="29"/>
       <c r="T63" s="9"/>
       <c r="U63" s="9"/>
-      <c r="V63" s="28"/>
-      <c r="W63" s="28"/>
-      <c r="X63" s="28"/>
-      <c r="Y63" s="28"/>
-      <c r="Z63" s="28"/>
-      <c r="AA63" s="28"/>
-      <c r="AB63" s="28"/>
-      <c r="AC63" s="28"/>
-      <c r="AD63" s="28"/>
+      <c r="V63" s="29"/>
+      <c r="W63" s="29"/>
+      <c r="X63" s="29"/>
+      <c r="Y63" s="29"/>
+      <c r="Z63" s="29"/>
+      <c r="AA63" s="29"/>
+      <c r="AB63" s="29"/>
+      <c r="AC63" s="29"/>
+      <c r="AD63" s="29"/>
     </row>
     <row r="64" spans="1:30">
       <c r="A64" s="7">
@@ -5273,18 +5503,18 @@
       <c r="P64" s="9"/>
       <c r="Q64" s="9"/>
       <c r="R64" s="9"/>
-      <c r="S64" s="28"/>
+      <c r="S64" s="29"/>
       <c r="T64" s="9"/>
       <c r="U64" s="9"/>
-      <c r="V64" s="28"/>
-      <c r="W64" s="28"/>
-      <c r="X64" s="28"/>
-      <c r="Y64" s="28"/>
-      <c r="Z64" s="28"/>
-      <c r="AA64" s="28"/>
-      <c r="AB64" s="28"/>
-      <c r="AC64" s="28"/>
-      <c r="AD64" s="28"/>
+      <c r="V64" s="29"/>
+      <c r="W64" s="29"/>
+      <c r="X64" s="29"/>
+      <c r="Y64" s="29"/>
+      <c r="Z64" s="29"/>
+      <c r="AA64" s="29"/>
+      <c r="AB64" s="29"/>
+      <c r="AC64" s="29"/>
+      <c r="AD64" s="29"/>
     </row>
     <row r="65" spans="1:30">
       <c r="A65" s="7">
@@ -5307,18 +5537,18 @@
       <c r="P65" s="9"/>
       <c r="Q65" s="9"/>
       <c r="R65" s="9"/>
-      <c r="S65" s="28"/>
+      <c r="S65" s="29"/>
       <c r="T65" s="9"/>
       <c r="U65" s="9"/>
-      <c r="V65" s="28"/>
-      <c r="W65" s="28"/>
-      <c r="X65" s="28"/>
-      <c r="Y65" s="28"/>
-      <c r="Z65" s="28"/>
-      <c r="AA65" s="28"/>
-      <c r="AB65" s="28"/>
-      <c r="AC65" s="28"/>
-      <c r="AD65" s="28"/>
+      <c r="V65" s="29"/>
+      <c r="W65" s="29"/>
+      <c r="X65" s="29"/>
+      <c r="Y65" s="29"/>
+      <c r="Z65" s="29"/>
+      <c r="AA65" s="29"/>
+      <c r="AB65" s="29"/>
+      <c r="AC65" s="29"/>
+      <c r="AD65" s="29"/>
     </row>
     <row r="66" spans="1:30">
       <c r="A66" s="7">
@@ -5341,18 +5571,18 @@
       <c r="P66" s="9"/>
       <c r="Q66" s="9"/>
       <c r="R66" s="9"/>
-      <c r="S66" s="28"/>
+      <c r="S66" s="29"/>
       <c r="T66" s="9"/>
       <c r="U66" s="9"/>
-      <c r="V66" s="28"/>
-      <c r="W66" s="28"/>
-      <c r="X66" s="28"/>
-      <c r="Y66" s="28"/>
-      <c r="Z66" s="28"/>
-      <c r="AA66" s="28"/>
-      <c r="AB66" s="28"/>
-      <c r="AC66" s="28"/>
-      <c r="AD66" s="28"/>
+      <c r="V66" s="29"/>
+      <c r="W66" s="29"/>
+      <c r="X66" s="29"/>
+      <c r="Y66" s="29"/>
+      <c r="Z66" s="29"/>
+      <c r="AA66" s="29"/>
+      <c r="AB66" s="29"/>
+      <c r="AC66" s="29"/>
+      <c r="AD66" s="29"/>
     </row>
     <row r="67" spans="1:30">
       <c r="A67" s="7">
@@ -5375,18 +5605,18 @@
       <c r="P67" s="9"/>
       <c r="Q67" s="9"/>
       <c r="R67" s="9"/>
-      <c r="S67" s="28"/>
+      <c r="S67" s="29"/>
       <c r="T67" s="9"/>
       <c r="U67" s="9"/>
-      <c r="V67" s="28"/>
-      <c r="W67" s="28"/>
-      <c r="X67" s="28"/>
-      <c r="Y67" s="28"/>
-      <c r="Z67" s="28"/>
-      <c r="AA67" s="28"/>
-      <c r="AB67" s="28"/>
-      <c r="AC67" s="28"/>
-      <c r="AD67" s="28"/>
+      <c r="V67" s="29"/>
+      <c r="W67" s="29"/>
+      <c r="X67" s="29"/>
+      <c r="Y67" s="29"/>
+      <c r="Z67" s="29"/>
+      <c r="AA67" s="29"/>
+      <c r="AB67" s="29"/>
+      <c r="AC67" s="29"/>
+      <c r="AD67" s="29"/>
     </row>
     <row r="68" spans="1:30">
       <c r="A68" s="7">
@@ -5409,18 +5639,18 @@
       <c r="P68" s="9"/>
       <c r="Q68" s="9"/>
       <c r="R68" s="9"/>
-      <c r="S68" s="28"/>
+      <c r="S68" s="29"/>
       <c r="T68" s="9"/>
       <c r="U68" s="9"/>
-      <c r="V68" s="28"/>
-      <c r="W68" s="28"/>
-      <c r="X68" s="28"/>
-      <c r="Y68" s="28"/>
-      <c r="Z68" s="28"/>
-      <c r="AA68" s="28"/>
-      <c r="AB68" s="28"/>
-      <c r="AC68" s="28"/>
-      <c r="AD68" s="28"/>
+      <c r="V68" s="29"/>
+      <c r="W68" s="29"/>
+      <c r="X68" s="29"/>
+      <c r="Y68" s="29"/>
+      <c r="Z68" s="29"/>
+      <c r="AA68" s="29"/>
+      <c r="AB68" s="29"/>
+      <c r="AC68" s="29"/>
+      <c r="AD68" s="29"/>
     </row>
     <row r="69" spans="1:30">
       <c r="A69" s="7">
@@ -5443,18 +5673,18 @@
       <c r="P69" s="9"/>
       <c r="Q69" s="9"/>
       <c r="R69" s="9"/>
-      <c r="S69" s="28"/>
+      <c r="S69" s="29"/>
       <c r="T69" s="9"/>
       <c r="U69" s="9"/>
-      <c r="V69" s="28"/>
-      <c r="W69" s="28"/>
-      <c r="X69" s="28"/>
-      <c r="Y69" s="28"/>
-      <c r="Z69" s="28"/>
-      <c r="AA69" s="28"/>
-      <c r="AB69" s="28"/>
-      <c r="AC69" s="28"/>
-      <c r="AD69" s="28"/>
+      <c r="V69" s="29"/>
+      <c r="W69" s="29"/>
+      <c r="X69" s="29"/>
+      <c r="Y69" s="29"/>
+      <c r="Z69" s="29"/>
+      <c r="AA69" s="29"/>
+      <c r="AB69" s="29"/>
+      <c r="AC69" s="29"/>
+      <c r="AD69" s="29"/>
     </row>
     <row r="70" spans="1:30">
       <c r="A70" s="7">
@@ -5477,18 +5707,18 @@
       <c r="P70" s="9"/>
       <c r="Q70" s="9"/>
       <c r="R70" s="9"/>
-      <c r="S70" s="28"/>
+      <c r="S70" s="29"/>
       <c r="T70" s="9"/>
       <c r="U70" s="9"/>
-      <c r="V70" s="28"/>
-      <c r="W70" s="28"/>
-      <c r="X70" s="28"/>
-      <c r="Y70" s="28"/>
-      <c r="Z70" s="28"/>
-      <c r="AA70" s="28"/>
-      <c r="AB70" s="28"/>
-      <c r="AC70" s="28"/>
-      <c r="AD70" s="28"/>
+      <c r="V70" s="29"/>
+      <c r="W70" s="29"/>
+      <c r="X70" s="29"/>
+      <c r="Y70" s="29"/>
+      <c r="Z70" s="29"/>
+      <c r="AA70" s="29"/>
+      <c r="AB70" s="29"/>
+      <c r="AC70" s="29"/>
+      <c r="AD70" s="29"/>
     </row>
     <row r="71" spans="1:30">
       <c r="A71" s="7">
@@ -5511,18 +5741,18 @@
       <c r="P71" s="9"/>
       <c r="Q71" s="9"/>
       <c r="R71" s="9"/>
-      <c r="S71" s="28"/>
+      <c r="S71" s="29"/>
       <c r="T71" s="9"/>
       <c r="U71" s="9"/>
-      <c r="V71" s="28"/>
-      <c r="W71" s="28"/>
-      <c r="X71" s="28"/>
-      <c r="Y71" s="28"/>
-      <c r="Z71" s="28"/>
-      <c r="AA71" s="28"/>
-      <c r="AB71" s="28"/>
-      <c r="AC71" s="28"/>
-      <c r="AD71" s="28"/>
+      <c r="V71" s="29"/>
+      <c r="W71" s="29"/>
+      <c r="X71" s="29"/>
+      <c r="Y71" s="29"/>
+      <c r="Z71" s="29"/>
+      <c r="AA71" s="29"/>
+      <c r="AB71" s="29"/>
+      <c r="AC71" s="29"/>
+      <c r="AD71" s="29"/>
     </row>
     <row r="72" spans="1:30">
       <c r="A72" s="7">
@@ -5545,18 +5775,18 @@
       <c r="P72" s="9"/>
       <c r="Q72" s="9"/>
       <c r="R72" s="9"/>
-      <c r="S72" s="28"/>
+      <c r="S72" s="29"/>
       <c r="T72" s="9"/>
       <c r="U72" s="9"/>
-      <c r="V72" s="28"/>
-      <c r="W72" s="28"/>
-      <c r="X72" s="28"/>
-      <c r="Y72" s="28"/>
-      <c r="Z72" s="28"/>
-      <c r="AA72" s="28"/>
-      <c r="AB72" s="28"/>
-      <c r="AC72" s="28"/>
-      <c r="AD72" s="28"/>
+      <c r="V72" s="29"/>
+      <c r="W72" s="29"/>
+      <c r="X72" s="29"/>
+      <c r="Y72" s="29"/>
+      <c r="Z72" s="29"/>
+      <c r="AA72" s="29"/>
+      <c r="AB72" s="29"/>
+      <c r="AC72" s="29"/>
+      <c r="AD72" s="29"/>
     </row>
     <row r="73" spans="1:30">
       <c r="A73" s="7">
@@ -5579,18 +5809,18 @@
       <c r="P73" s="9"/>
       <c r="Q73" s="9"/>
       <c r="R73" s="9"/>
-      <c r="S73" s="28"/>
+      <c r="S73" s="29"/>
       <c r="T73" s="9"/>
       <c r="U73" s="9"/>
-      <c r="V73" s="28"/>
-      <c r="W73" s="28"/>
-      <c r="X73" s="28"/>
-      <c r="Y73" s="28"/>
-      <c r="Z73" s="28"/>
-      <c r="AA73" s="28"/>
-      <c r="AB73" s="28"/>
-      <c r="AC73" s="28"/>
-      <c r="AD73" s="28"/>
+      <c r="V73" s="29"/>
+      <c r="W73" s="29"/>
+      <c r="X73" s="29"/>
+      <c r="Y73" s="29"/>
+      <c r="Z73" s="29"/>
+      <c r="AA73" s="29"/>
+      <c r="AB73" s="29"/>
+      <c r="AC73" s="29"/>
+      <c r="AD73" s="29"/>
     </row>
     <row r="74" spans="1:30">
       <c r="A74" s="7">
@@ -5613,18 +5843,18 @@
       <c r="P74" s="9"/>
       <c r="Q74" s="9"/>
       <c r="R74" s="9"/>
-      <c r="S74" s="28"/>
+      <c r="S74" s="29"/>
       <c r="T74" s="9"/>
       <c r="U74" s="9"/>
-      <c r="V74" s="28"/>
-      <c r="W74" s="28"/>
-      <c r="X74" s="28"/>
-      <c r="Y74" s="28"/>
-      <c r="Z74" s="28"/>
-      <c r="AA74" s="28"/>
-      <c r="AB74" s="28"/>
-      <c r="AC74" s="28"/>
-      <c r="AD74" s="28"/>
+      <c r="V74" s="29"/>
+      <c r="W74" s="29"/>
+      <c r="X74" s="29"/>
+      <c r="Y74" s="29"/>
+      <c r="Z74" s="29"/>
+      <c r="AA74" s="29"/>
+      <c r="AB74" s="29"/>
+      <c r="AC74" s="29"/>
+      <c r="AD74" s="29"/>
     </row>
     <row r="75" spans="1:30">
       <c r="A75" s="7">
@@ -5647,18 +5877,18 @@
       <c r="P75" s="9"/>
       <c r="Q75" s="9"/>
       <c r="R75" s="9"/>
-      <c r="S75" s="28"/>
+      <c r="S75" s="29"/>
       <c r="T75" s="9"/>
       <c r="U75" s="9"/>
-      <c r="V75" s="28"/>
-      <c r="W75" s="28"/>
-      <c r="X75" s="28"/>
-      <c r="Y75" s="28"/>
-      <c r="Z75" s="28"/>
-      <c r="AA75" s="28"/>
-      <c r="AB75" s="28"/>
-      <c r="AC75" s="28"/>
-      <c r="AD75" s="28"/>
+      <c r="V75" s="29"/>
+      <c r="W75" s="29"/>
+      <c r="X75" s="29"/>
+      <c r="Y75" s="29"/>
+      <c r="Z75" s="29"/>
+      <c r="AA75" s="29"/>
+      <c r="AB75" s="29"/>
+      <c r="AC75" s="29"/>
+      <c r="AD75" s="29"/>
     </row>
     <row r="76" spans="1:30">
       <c r="A76" s="7">
@@ -5681,18 +5911,18 @@
       <c r="P76" s="9"/>
       <c r="Q76" s="9"/>
       <c r="R76" s="9"/>
-      <c r="S76" s="28"/>
+      <c r="S76" s="29"/>
       <c r="T76" s="9"/>
       <c r="U76" s="9"/>
-      <c r="V76" s="28"/>
-      <c r="W76" s="28"/>
-      <c r="X76" s="28"/>
-      <c r="Y76" s="28"/>
-      <c r="Z76" s="28"/>
-      <c r="AA76" s="28"/>
-      <c r="AB76" s="28"/>
-      <c r="AC76" s="28"/>
-      <c r="AD76" s="28"/>
+      <c r="V76" s="29"/>
+      <c r="W76" s="29"/>
+      <c r="X76" s="29"/>
+      <c r="Y76" s="29"/>
+      <c r="Z76" s="29"/>
+      <c r="AA76" s="29"/>
+      <c r="AB76" s="29"/>
+      <c r="AC76" s="29"/>
+      <c r="AD76" s="29"/>
     </row>
     <row r="77" spans="1:30">
       <c r="A77" s="7">
@@ -5715,18 +5945,18 @@
       <c r="P77" s="9"/>
       <c r="Q77" s="9"/>
       <c r="R77" s="9"/>
-      <c r="S77" s="28"/>
+      <c r="S77" s="29"/>
       <c r="T77" s="9"/>
       <c r="U77" s="9"/>
-      <c r="V77" s="28"/>
-      <c r="W77" s="28"/>
-      <c r="X77" s="28"/>
-      <c r="Y77" s="28"/>
-      <c r="Z77" s="28"/>
-      <c r="AA77" s="28"/>
-      <c r="AB77" s="28"/>
-      <c r="AC77" s="28"/>
-      <c r="AD77" s="28"/>
+      <c r="V77" s="29"/>
+      <c r="W77" s="29"/>
+      <c r="X77" s="29"/>
+      <c r="Y77" s="29"/>
+      <c r="Z77" s="29"/>
+      <c r="AA77" s="29"/>
+      <c r="AB77" s="29"/>
+      <c r="AC77" s="29"/>
+      <c r="AD77" s="29"/>
     </row>
     <row r="78" spans="1:30">
       <c r="A78" s="7">
@@ -5749,18 +5979,18 @@
       <c r="P78" s="9"/>
       <c r="Q78" s="9"/>
       <c r="R78" s="9"/>
-      <c r="S78" s="28"/>
+      <c r="S78" s="29"/>
       <c r="T78" s="9"/>
       <c r="U78" s="9"/>
-      <c r="V78" s="28"/>
-      <c r="W78" s="28"/>
-      <c r="X78" s="28"/>
-      <c r="Y78" s="28"/>
-      <c r="Z78" s="28"/>
-      <c r="AA78" s="28"/>
-      <c r="AB78" s="28"/>
-      <c r="AC78" s="28"/>
-      <c r="AD78" s="28"/>
+      <c r="V78" s="29"/>
+      <c r="W78" s="29"/>
+      <c r="X78" s="29"/>
+      <c r="Y78" s="29"/>
+      <c r="Z78" s="29"/>
+      <c r="AA78" s="29"/>
+      <c r="AB78" s="29"/>
+      <c r="AC78" s="29"/>
+      <c r="AD78" s="29"/>
     </row>
     <row r="79" spans="1:30">
       <c r="A79" s="7">
@@ -5783,18 +6013,18 @@
       <c r="P79" s="9"/>
       <c r="Q79" s="9"/>
       <c r="R79" s="9"/>
-      <c r="S79" s="28"/>
+      <c r="S79" s="29"/>
       <c r="T79" s="9"/>
       <c r="U79" s="9"/>
-      <c r="V79" s="28"/>
-      <c r="W79" s="28"/>
-      <c r="X79" s="28"/>
-      <c r="Y79" s="28"/>
-      <c r="Z79" s="28"/>
-      <c r="AA79" s="28"/>
-      <c r="AB79" s="28"/>
-      <c r="AC79" s="28"/>
-      <c r="AD79" s="28"/>
+      <c r="V79" s="29"/>
+      <c r="W79" s="29"/>
+      <c r="X79" s="29"/>
+      <c r="Y79" s="29"/>
+      <c r="Z79" s="29"/>
+      <c r="AA79" s="29"/>
+      <c r="AB79" s="29"/>
+      <c r="AC79" s="29"/>
+      <c r="AD79" s="29"/>
     </row>
     <row r="80" spans="1:30">
       <c r="A80" s="7">
@@ -5817,18 +6047,18 @@
       <c r="P80" s="9"/>
       <c r="Q80" s="9"/>
       <c r="R80" s="9"/>
-      <c r="S80" s="28"/>
+      <c r="S80" s="29"/>
       <c r="T80" s="9"/>
       <c r="U80" s="9"/>
-      <c r="V80" s="28"/>
-      <c r="W80" s="28"/>
-      <c r="X80" s="28"/>
-      <c r="Y80" s="28"/>
-      <c r="Z80" s="28"/>
-      <c r="AA80" s="28"/>
-      <c r="AB80" s="28"/>
-      <c r="AC80" s="28"/>
-      <c r="AD80" s="28"/>
+      <c r="V80" s="29"/>
+      <c r="W80" s="29"/>
+      <c r="X80" s="29"/>
+      <c r="Y80" s="29"/>
+      <c r="Z80" s="29"/>
+      <c r="AA80" s="29"/>
+      <c r="AB80" s="29"/>
+      <c r="AC80" s="29"/>
+      <c r="AD80" s="29"/>
     </row>
     <row r="81" spans="1:30">
       <c r="A81" s="7">
@@ -5851,18 +6081,18 @@
       <c r="P81" s="9"/>
       <c r="Q81" s="9"/>
       <c r="R81" s="9"/>
-      <c r="S81" s="28"/>
+      <c r="S81" s="29"/>
       <c r="T81" s="9"/>
       <c r="U81" s="9"/>
-      <c r="V81" s="28"/>
-      <c r="W81" s="28"/>
-      <c r="X81" s="28"/>
-      <c r="Y81" s="28"/>
-      <c r="Z81" s="28"/>
-      <c r="AA81" s="28"/>
-      <c r="AB81" s="28"/>
-      <c r="AC81" s="28"/>
-      <c r="AD81" s="28"/>
+      <c r="V81" s="29"/>
+      <c r="W81" s="29"/>
+      <c r="X81" s="29"/>
+      <c r="Y81" s="29"/>
+      <c r="Z81" s="29"/>
+      <c r="AA81" s="29"/>
+      <c r="AB81" s="29"/>
+      <c r="AC81" s="29"/>
+      <c r="AD81" s="29"/>
     </row>
     <row r="82" spans="1:30">
       <c r="A82" s="7">
@@ -5885,18 +6115,18 @@
       <c r="P82" s="9"/>
       <c r="Q82" s="9"/>
       <c r="R82" s="9"/>
-      <c r="S82" s="28"/>
+      <c r="S82" s="29"/>
       <c r="T82" s="9"/>
       <c r="U82" s="9"/>
-      <c r="V82" s="28"/>
-      <c r="W82" s="28"/>
-      <c r="X82" s="28"/>
-      <c r="Y82" s="28"/>
-      <c r="Z82" s="28"/>
-      <c r="AA82" s="28"/>
-      <c r="AB82" s="28"/>
-      <c r="AC82" s="28"/>
-      <c r="AD82" s="28"/>
+      <c r="V82" s="29"/>
+      <c r="W82" s="29"/>
+      <c r="X82" s="29"/>
+      <c r="Y82" s="29"/>
+      <c r="Z82" s="29"/>
+      <c r="AA82" s="29"/>
+      <c r="AB82" s="29"/>
+      <c r="AC82" s="29"/>
+      <c r="AD82" s="29"/>
     </row>
     <row r="83" spans="1:30">
       <c r="A83" s="7">
@@ -5919,18 +6149,18 @@
       <c r="P83" s="9"/>
       <c r="Q83" s="9"/>
       <c r="R83" s="9"/>
-      <c r="S83" s="28"/>
+      <c r="S83" s="29"/>
       <c r="T83" s="9"/>
       <c r="U83" s="9"/>
-      <c r="V83" s="28"/>
-      <c r="W83" s="28"/>
-      <c r="X83" s="28"/>
-      <c r="Y83" s="28"/>
-      <c r="Z83" s="28"/>
-      <c r="AA83" s="28"/>
-      <c r="AB83" s="28"/>
-      <c r="AC83" s="28"/>
-      <c r="AD83" s="28"/>
+      <c r="V83" s="29"/>
+      <c r="W83" s="29"/>
+      <c r="X83" s="29"/>
+      <c r="Y83" s="29"/>
+      <c r="Z83" s="29"/>
+      <c r="AA83" s="29"/>
+      <c r="AB83" s="29"/>
+      <c r="AC83" s="29"/>
+      <c r="AD83" s="29"/>
     </row>
     <row r="84" spans="1:30">
       <c r="A84" s="7">
@@ -5953,18 +6183,18 @@
       <c r="P84" s="9"/>
       <c r="Q84" s="9"/>
       <c r="R84" s="9"/>
-      <c r="S84" s="28"/>
+      <c r="S84" s="29"/>
       <c r="T84" s="9"/>
       <c r="U84" s="9"/>
-      <c r="V84" s="28"/>
-      <c r="W84" s="28"/>
-      <c r="X84" s="28"/>
-      <c r="Y84" s="28"/>
-      <c r="Z84" s="28"/>
-      <c r="AA84" s="28"/>
-      <c r="AB84" s="28"/>
-      <c r="AC84" s="28"/>
-      <c r="AD84" s="28"/>
+      <c r="V84" s="29"/>
+      <c r="W84" s="29"/>
+      <c r="X84" s="29"/>
+      <c r="Y84" s="29"/>
+      <c r="Z84" s="29"/>
+      <c r="AA84" s="29"/>
+      <c r="AB84" s="29"/>
+      <c r="AC84" s="29"/>
+      <c r="AD84" s="29"/>
     </row>
     <row r="85" spans="1:30">
       <c r="A85" s="7">
@@ -5987,18 +6217,18 @@
       <c r="P85" s="9"/>
       <c r="Q85" s="9"/>
       <c r="R85" s="9"/>
-      <c r="S85" s="28"/>
+      <c r="S85" s="29"/>
       <c r="T85" s="9"/>
       <c r="U85" s="9"/>
-      <c r="V85" s="28"/>
-      <c r="W85" s="28"/>
-      <c r="X85" s="28"/>
-      <c r="Y85" s="28"/>
-      <c r="Z85" s="28"/>
-      <c r="AA85" s="28"/>
-      <c r="AB85" s="28"/>
-      <c r="AC85" s="28"/>
-      <c r="AD85" s="28"/>
+      <c r="V85" s="29"/>
+      <c r="W85" s="29"/>
+      <c r="X85" s="29"/>
+      <c r="Y85" s="29"/>
+      <c r="Z85" s="29"/>
+      <c r="AA85" s="29"/>
+      <c r="AB85" s="29"/>
+      <c r="AC85" s="29"/>
+      <c r="AD85" s="29"/>
     </row>
     <row r="86" spans="1:30">
       <c r="A86" s="7">
@@ -6021,18 +6251,18 @@
       <c r="P86" s="9"/>
       <c r="Q86" s="9"/>
       <c r="R86" s="9"/>
-      <c r="S86" s="28"/>
+      <c r="S86" s="29"/>
       <c r="T86" s="9"/>
       <c r="U86" s="9"/>
-      <c r="V86" s="28"/>
-      <c r="W86" s="28"/>
-      <c r="X86" s="28"/>
-      <c r="Y86" s="28"/>
-      <c r="Z86" s="28"/>
-      <c r="AA86" s="28"/>
-      <c r="AB86" s="28"/>
-      <c r="AC86" s="28"/>
-      <c r="AD86" s="28"/>
+      <c r="V86" s="29"/>
+      <c r="W86" s="29"/>
+      <c r="X86" s="29"/>
+      <c r="Y86" s="29"/>
+      <c r="Z86" s="29"/>
+      <c r="AA86" s="29"/>
+      <c r="AB86" s="29"/>
+      <c r="AC86" s="29"/>
+      <c r="AD86" s="29"/>
     </row>
     <row r="87" spans="1:30">
       <c r="A87" s="7">
@@ -6055,18 +6285,18 @@
       <c r="P87" s="9"/>
       <c r="Q87" s="9"/>
       <c r="R87" s="9"/>
-      <c r="S87" s="28"/>
+      <c r="S87" s="29"/>
       <c r="T87" s="9"/>
       <c r="U87" s="9"/>
-      <c r="V87" s="28"/>
-      <c r="W87" s="28"/>
-      <c r="X87" s="28"/>
-      <c r="Y87" s="28"/>
-      <c r="Z87" s="28"/>
-      <c r="AA87" s="28"/>
-      <c r="AB87" s="28"/>
-      <c r="AC87" s="28"/>
-      <c r="AD87" s="28"/>
+      <c r="V87" s="29"/>
+      <c r="W87" s="29"/>
+      <c r="X87" s="29"/>
+      <c r="Y87" s="29"/>
+      <c r="Z87" s="29"/>
+      <c r="AA87" s="29"/>
+      <c r="AB87" s="29"/>
+      <c r="AC87" s="29"/>
+      <c r="AD87" s="29"/>
     </row>
     <row r="88" spans="1:30">
       <c r="A88" s="7">
@@ -6089,18 +6319,18 @@
       <c r="P88" s="9"/>
       <c r="Q88" s="9"/>
       <c r="R88" s="9"/>
-      <c r="S88" s="28"/>
+      <c r="S88" s="29"/>
       <c r="T88" s="9"/>
       <c r="U88" s="9"/>
-      <c r="V88" s="28"/>
-      <c r="W88" s="28"/>
-      <c r="X88" s="28"/>
-      <c r="Y88" s="28"/>
-      <c r="Z88" s="28"/>
-      <c r="AA88" s="28"/>
-      <c r="AB88" s="28"/>
-      <c r="AC88" s="28"/>
-      <c r="AD88" s="28"/>
+      <c r="V88" s="29"/>
+      <c r="W88" s="29"/>
+      <c r="X88" s="29"/>
+      <c r="Y88" s="29"/>
+      <c r="Z88" s="29"/>
+      <c r="AA88" s="29"/>
+      <c r="AB88" s="29"/>
+      <c r="AC88" s="29"/>
+      <c r="AD88" s="29"/>
     </row>
     <row r="89" spans="1:30">
       <c r="A89" s="7">
@@ -6123,18 +6353,18 @@
       <c r="P89" s="9"/>
       <c r="Q89" s="9"/>
       <c r="R89" s="9"/>
-      <c r="S89" s="28"/>
+      <c r="S89" s="29"/>
       <c r="T89" s="9"/>
       <c r="U89" s="9"/>
-      <c r="V89" s="28"/>
-      <c r="W89" s="28"/>
-      <c r="X89" s="28"/>
-      <c r="Y89" s="28"/>
-      <c r="Z89" s="28"/>
-      <c r="AA89" s="28"/>
-      <c r="AB89" s="28"/>
-      <c r="AC89" s="28"/>
-      <c r="AD89" s="28"/>
+      <c r="V89" s="29"/>
+      <c r="W89" s="29"/>
+      <c r="X89" s="29"/>
+      <c r="Y89" s="29"/>
+      <c r="Z89" s="29"/>
+      <c r="AA89" s="29"/>
+      <c r="AB89" s="29"/>
+      <c r="AC89" s="29"/>
+      <c r="AD89" s="29"/>
     </row>
     <row r="90" spans="1:30">
       <c r="A90" s="7">
@@ -6157,18 +6387,18 @@
       <c r="P90" s="9"/>
       <c r="Q90" s="9"/>
       <c r="R90" s="9"/>
-      <c r="S90" s="28"/>
+      <c r="S90" s="29"/>
       <c r="T90" s="9"/>
       <c r="U90" s="9"/>
-      <c r="V90" s="28"/>
-      <c r="W90" s="28"/>
-      <c r="X90" s="28"/>
-      <c r="Y90" s="28"/>
-      <c r="Z90" s="28"/>
-      <c r="AA90" s="28"/>
-      <c r="AB90" s="28"/>
-      <c r="AC90" s="28"/>
-      <c r="AD90" s="28"/>
+      <c r="V90" s="29"/>
+      <c r="W90" s="29"/>
+      <c r="X90" s="29"/>
+      <c r="Y90" s="29"/>
+      <c r="Z90" s="29"/>
+      <c r="AA90" s="29"/>
+      <c r="AB90" s="29"/>
+      <c r="AC90" s="29"/>
+      <c r="AD90" s="29"/>
     </row>
     <row r="91" spans="1:30">
       <c r="A91" s="7">
@@ -6191,18 +6421,18 @@
       <c r="P91" s="9"/>
       <c r="Q91" s="9"/>
       <c r="R91" s="9"/>
-      <c r="S91" s="28"/>
+      <c r="S91" s="29"/>
       <c r="T91" s="9"/>
       <c r="U91" s="9"/>
-      <c r="V91" s="28"/>
-      <c r="W91" s="28"/>
-      <c r="X91" s="28"/>
-      <c r="Y91" s="28"/>
-      <c r="Z91" s="28"/>
-      <c r="AA91" s="28"/>
-      <c r="AB91" s="28"/>
-      <c r="AC91" s="28"/>
-      <c r="AD91" s="28"/>
+      <c r="V91" s="29"/>
+      <c r="W91" s="29"/>
+      <c r="X91" s="29"/>
+      <c r="Y91" s="29"/>
+      <c r="Z91" s="29"/>
+      <c r="AA91" s="29"/>
+      <c r="AB91" s="29"/>
+      <c r="AC91" s="29"/>
+      <c r="AD91" s="29"/>
     </row>
     <row r="92" spans="1:30">
       <c r="A92" s="7">
@@ -6225,18 +6455,18 @@
       <c r="P92" s="9"/>
       <c r="Q92" s="9"/>
       <c r="R92" s="9"/>
-      <c r="S92" s="28"/>
+      <c r="S92" s="29"/>
       <c r="T92" s="9"/>
       <c r="U92" s="9"/>
-      <c r="V92" s="28"/>
-      <c r="W92" s="28"/>
-      <c r="X92" s="28"/>
-      <c r="Y92" s="28"/>
-      <c r="Z92" s="28"/>
-      <c r="AA92" s="28"/>
-      <c r="AB92" s="28"/>
-      <c r="AC92" s="28"/>
-      <c r="AD92" s="28"/>
+      <c r="V92" s="29"/>
+      <c r="W92" s="29"/>
+      <c r="X92" s="29"/>
+      <c r="Y92" s="29"/>
+      <c r="Z92" s="29"/>
+      <c r="AA92" s="29"/>
+      <c r="AB92" s="29"/>
+      <c r="AC92" s="29"/>
+      <c r="AD92" s="29"/>
     </row>
     <row r="93" spans="1:30">
       <c r="A93" s="7">
@@ -6259,18 +6489,18 @@
       <c r="P93" s="9"/>
       <c r="Q93" s="9"/>
       <c r="R93" s="9"/>
-      <c r="S93" s="28"/>
+      <c r="S93" s="29"/>
       <c r="T93" s="9"/>
       <c r="U93" s="9"/>
-      <c r="V93" s="28"/>
-      <c r="W93" s="28"/>
-      <c r="X93" s="28"/>
-      <c r="Y93" s="28"/>
-      <c r="Z93" s="28"/>
-      <c r="AA93" s="28"/>
-      <c r="AB93" s="28"/>
-      <c r="AC93" s="28"/>
-      <c r="AD93" s="28"/>
+      <c r="V93" s="29"/>
+      <c r="W93" s="29"/>
+      <c r="X93" s="29"/>
+      <c r="Y93" s="29"/>
+      <c r="Z93" s="29"/>
+      <c r="AA93" s="29"/>
+      <c r="AB93" s="29"/>
+      <c r="AC93" s="29"/>
+      <c r="AD93" s="29"/>
     </row>
     <row r="94" spans="1:30">
       <c r="A94" s="7">
@@ -6293,18 +6523,18 @@
       <c r="P94" s="9"/>
       <c r="Q94" s="9"/>
       <c r="R94" s="9"/>
-      <c r="S94" s="28"/>
+      <c r="S94" s="29"/>
       <c r="T94" s="9"/>
       <c r="U94" s="9"/>
-      <c r="V94" s="28"/>
-      <c r="W94" s="28"/>
-      <c r="X94" s="28"/>
-      <c r="Y94" s="28"/>
-      <c r="Z94" s="28"/>
-      <c r="AA94" s="28"/>
-      <c r="AB94" s="28"/>
-      <c r="AC94" s="28"/>
-      <c r="AD94" s="28"/>
+      <c r="V94" s="29"/>
+      <c r="W94" s="29"/>
+      <c r="X94" s="29"/>
+      <c r="Y94" s="29"/>
+      <c r="Z94" s="29"/>
+      <c r="AA94" s="29"/>
+      <c r="AB94" s="29"/>
+      <c r="AC94" s="29"/>
+      <c r="AD94" s="29"/>
     </row>
     <row r="95" spans="1:30">
       <c r="A95" s="7">
@@ -6327,18 +6557,18 @@
       <c r="P95" s="9"/>
       <c r="Q95" s="9"/>
       <c r="R95" s="9"/>
-      <c r="S95" s="28"/>
+      <c r="S95" s="29"/>
       <c r="T95" s="9"/>
       <c r="U95" s="9"/>
-      <c r="V95" s="28"/>
-      <c r="W95" s="28"/>
-      <c r="X95" s="28"/>
-      <c r="Y95" s="28"/>
-      <c r="Z95" s="28"/>
-      <c r="AA95" s="28"/>
-      <c r="AB95" s="28"/>
-      <c r="AC95" s="28"/>
-      <c r="AD95" s="28"/>
+      <c r="V95" s="29"/>
+      <c r="W95" s="29"/>
+      <c r="X95" s="29"/>
+      <c r="Y95" s="29"/>
+      <c r="Z95" s="29"/>
+      <c r="AA95" s="29"/>
+      <c r="AB95" s="29"/>
+      <c r="AC95" s="29"/>
+      <c r="AD95" s="29"/>
     </row>
     <row r="96" spans="1:30">
       <c r="A96" s="7">
@@ -6361,18 +6591,18 @@
       <c r="P96" s="9"/>
       <c r="Q96" s="9"/>
       <c r="R96" s="9"/>
-      <c r="S96" s="28"/>
+      <c r="S96" s="29"/>
       <c r="T96" s="9"/>
       <c r="U96" s="9"/>
-      <c r="V96" s="28"/>
-      <c r="W96" s="28"/>
-      <c r="X96" s="28"/>
-      <c r="Y96" s="28"/>
-      <c r="Z96" s="28"/>
-      <c r="AA96" s="28"/>
-      <c r="AB96" s="28"/>
-      <c r="AC96" s="28"/>
-      <c r="AD96" s="28"/>
+      <c r="V96" s="29"/>
+      <c r="W96" s="29"/>
+      <c r="X96" s="29"/>
+      <c r="Y96" s="29"/>
+      <c r="Z96" s="29"/>
+      <c r="AA96" s="29"/>
+      <c r="AB96" s="29"/>
+      <c r="AC96" s="29"/>
+      <c r="AD96" s="29"/>
     </row>
     <row r="97" spans="1:30">
       <c r="A97" s="7">
@@ -6395,18 +6625,18 @@
       <c r="P97" s="9"/>
       <c r="Q97" s="9"/>
       <c r="R97" s="9"/>
-      <c r="S97" s="28"/>
+      <c r="S97" s="29"/>
       <c r="T97" s="9"/>
       <c r="U97" s="9"/>
-      <c r="V97" s="28"/>
-      <c r="W97" s="28"/>
-      <c r="X97" s="28"/>
-      <c r="Y97" s="28"/>
-      <c r="Z97" s="28"/>
-      <c r="AA97" s="28"/>
-      <c r="AB97" s="28"/>
-      <c r="AC97" s="28"/>
-      <c r="AD97" s="28"/>
+      <c r="V97" s="29"/>
+      <c r="W97" s="29"/>
+      <c r="X97" s="29"/>
+      <c r="Y97" s="29"/>
+      <c r="Z97" s="29"/>
+      <c r="AA97" s="29"/>
+      <c r="AB97" s="29"/>
+      <c r="AC97" s="29"/>
+      <c r="AD97" s="29"/>
     </row>
     <row r="98" spans="1:30">
       <c r="A98" s="7">
@@ -6429,18 +6659,18 @@
       <c r="P98" s="9"/>
       <c r="Q98" s="9"/>
       <c r="R98" s="9"/>
-      <c r="S98" s="28"/>
+      <c r="S98" s="29"/>
       <c r="T98" s="9"/>
       <c r="U98" s="9"/>
-      <c r="V98" s="28"/>
-      <c r="W98" s="28"/>
-      <c r="X98" s="28"/>
-      <c r="Y98" s="28"/>
-      <c r="Z98" s="28"/>
-      <c r="AA98" s="28"/>
-      <c r="AB98" s="28"/>
-      <c r="AC98" s="28"/>
-      <c r="AD98" s="28"/>
+      <c r="V98" s="29"/>
+      <c r="W98" s="29"/>
+      <c r="X98" s="29"/>
+      <c r="Y98" s="29"/>
+      <c r="Z98" s="29"/>
+      <c r="AA98" s="29"/>
+      <c r="AB98" s="29"/>
+      <c r="AC98" s="29"/>
+      <c r="AD98" s="29"/>
     </row>
     <row r="99" spans="1:30">
       <c r="A99" s="7">
@@ -6463,18 +6693,18 @@
       <c r="P99" s="9"/>
       <c r="Q99" s="9"/>
       <c r="R99" s="9"/>
-      <c r="S99" s="28"/>
+      <c r="S99" s="29"/>
       <c r="T99" s="9"/>
       <c r="U99" s="9"/>
-      <c r="V99" s="28"/>
-      <c r="W99" s="28"/>
-      <c r="X99" s="28"/>
-      <c r="Y99" s="28"/>
-      <c r="Z99" s="28"/>
-      <c r="AA99" s="28"/>
-      <c r="AB99" s="28"/>
-      <c r="AC99" s="28"/>
-      <c r="AD99" s="28"/>
+      <c r="V99" s="29"/>
+      <c r="W99" s="29"/>
+      <c r="X99" s="29"/>
+      <c r="Y99" s="29"/>
+      <c r="Z99" s="29"/>
+      <c r="AA99" s="29"/>
+      <c r="AB99" s="29"/>
+      <c r="AC99" s="29"/>
+      <c r="AD99" s="29"/>
     </row>
     <row r="100" spans="1:30">
       <c r="A100" s="7">
@@ -6497,18 +6727,18 @@
       <c r="P100" s="9"/>
       <c r="Q100" s="9"/>
       <c r="R100" s="9"/>
-      <c r="S100" s="28"/>
+      <c r="S100" s="29"/>
       <c r="T100" s="9"/>
       <c r="U100" s="9"/>
-      <c r="V100" s="28"/>
-      <c r="W100" s="28"/>
-      <c r="X100" s="28"/>
-      <c r="Y100" s="28"/>
-      <c r="Z100" s="28"/>
-      <c r="AA100" s="28"/>
-      <c r="AB100" s="28"/>
-      <c r="AC100" s="28"/>
-      <c r="AD100" s="28"/>
+      <c r="V100" s="29"/>
+      <c r="W100" s="29"/>
+      <c r="X100" s="29"/>
+      <c r="Y100" s="29"/>
+      <c r="Z100" s="29"/>
+      <c r="AA100" s="29"/>
+      <c r="AB100" s="29"/>
+      <c r="AC100" s="29"/>
+      <c r="AD100" s="29"/>
     </row>
     <row r="101" spans="1:30">
       <c r="A101" s="7">
@@ -6531,18 +6761,18 @@
       <c r="P101" s="9"/>
       <c r="Q101" s="9"/>
       <c r="R101" s="9"/>
-      <c r="S101" s="28"/>
+      <c r="S101" s="29"/>
       <c r="T101" s="9"/>
       <c r="U101" s="9"/>
-      <c r="V101" s="28"/>
-      <c r="W101" s="28"/>
-      <c r="X101" s="28"/>
-      <c r="Y101" s="28"/>
-      <c r="Z101" s="28"/>
-      <c r="AA101" s="28"/>
-      <c r="AB101" s="28"/>
-      <c r="AC101" s="28"/>
-      <c r="AD101" s="28"/>
+      <c r="V101" s="29"/>
+      <c r="W101" s="29"/>
+      <c r="X101" s="29"/>
+      <c r="Y101" s="29"/>
+      <c r="Z101" s="29"/>
+      <c r="AA101" s="29"/>
+      <c r="AB101" s="29"/>
+      <c r="AC101" s="29"/>
+      <c r="AD101" s="29"/>
     </row>
     <row r="102" spans="1:30">
       <c r="A102" s="7">
@@ -6565,18 +6795,18 @@
       <c r="P102" s="9"/>
       <c r="Q102" s="9"/>
       <c r="R102" s="9"/>
-      <c r="S102" s="28"/>
+      <c r="S102" s="29"/>
       <c r="T102" s="9"/>
       <c r="U102" s="9"/>
-      <c r="V102" s="28"/>
-      <c r="W102" s="28"/>
-      <c r="X102" s="28"/>
-      <c r="Y102" s="28"/>
-      <c r="Z102" s="28"/>
-      <c r="AA102" s="28"/>
-      <c r="AB102" s="28"/>
-      <c r="AC102" s="28"/>
-      <c r="AD102" s="28"/>
+      <c r="V102" s="29"/>
+      <c r="W102" s="29"/>
+      <c r="X102" s="29"/>
+      <c r="Y102" s="29"/>
+      <c r="Z102" s="29"/>
+      <c r="AA102" s="29"/>
+      <c r="AB102" s="29"/>
+      <c r="AC102" s="29"/>
+      <c r="AD102" s="29"/>
     </row>
     <row r="103" spans="1:30">
       <c r="A103" s="7">
@@ -6599,18 +6829,18 @@
       <c r="P103" s="9"/>
       <c r="Q103" s="9"/>
       <c r="R103" s="9"/>
-      <c r="S103" s="28"/>
+      <c r="S103" s="29"/>
       <c r="T103" s="9"/>
       <c r="U103" s="9"/>
-      <c r="V103" s="28"/>
-      <c r="W103" s="28"/>
-      <c r="X103" s="28"/>
-      <c r="Y103" s="28"/>
-      <c r="Z103" s="28"/>
-      <c r="AA103" s="28"/>
-      <c r="AB103" s="28"/>
-      <c r="AC103" s="28"/>
-      <c r="AD103" s="28"/>
+      <c r="V103" s="29"/>
+      <c r="W103" s="29"/>
+      <c r="X103" s="29"/>
+      <c r="Y103" s="29"/>
+      <c r="Z103" s="29"/>
+      <c r="AA103" s="29"/>
+      <c r="AB103" s="29"/>
+      <c r="AC103" s="29"/>
+      <c r="AD103" s="29"/>
     </row>
     <row r="104" spans="1:30">
       <c r="A104" s="7">
@@ -6633,18 +6863,18 @@
       <c r="P104" s="9"/>
       <c r="Q104" s="9"/>
       <c r="R104" s="9"/>
-      <c r="S104" s="28"/>
+      <c r="S104" s="29"/>
       <c r="T104" s="9"/>
       <c r="U104" s="9"/>
-      <c r="V104" s="28"/>
-      <c r="W104" s="28"/>
-      <c r="X104" s="28"/>
-      <c r="Y104" s="28"/>
-      <c r="Z104" s="28"/>
-      <c r="AA104" s="28"/>
-      <c r="AB104" s="28"/>
-      <c r="AC104" s="28"/>
-      <c r="AD104" s="28"/>
+      <c r="V104" s="29"/>
+      <c r="W104" s="29"/>
+      <c r="X104" s="29"/>
+      <c r="Y104" s="29"/>
+      <c r="Z104" s="29"/>
+      <c r="AA104" s="29"/>
+      <c r="AB104" s="29"/>
+      <c r="AC104" s="29"/>
+      <c r="AD104" s="29"/>
     </row>
     <row r="105" spans="1:30">
       <c r="A105" s="7">
@@ -6667,18 +6897,18 @@
       <c r="P105" s="9"/>
       <c r="Q105" s="9"/>
       <c r="R105" s="9"/>
-      <c r="S105" s="28"/>
+      <c r="S105" s="29"/>
       <c r="T105" s="9"/>
       <c r="U105" s="9"/>
-      <c r="V105" s="28"/>
-      <c r="W105" s="28"/>
-      <c r="X105" s="28"/>
-      <c r="Y105" s="28"/>
-      <c r="Z105" s="28"/>
-      <c r="AA105" s="28"/>
-      <c r="AB105" s="28"/>
-      <c r="AC105" s="28"/>
-      <c r="AD105" s="28"/>
+      <c r="V105" s="29"/>
+      <c r="W105" s="29"/>
+      <c r="X105" s="29"/>
+      <c r="Y105" s="29"/>
+      <c r="Z105" s="29"/>
+      <c r="AA105" s="29"/>
+      <c r="AB105" s="29"/>
+      <c r="AC105" s="29"/>
+      <c r="AD105" s="29"/>
     </row>
     <row r="106" spans="1:30">
       <c r="A106" s="7">
@@ -6701,18 +6931,18 @@
       <c r="P106" s="9"/>
       <c r="Q106" s="9"/>
       <c r="R106" s="9"/>
-      <c r="S106" s="28"/>
+      <c r="S106" s="29"/>
       <c r="T106" s="9"/>
       <c r="U106" s="9"/>
-      <c r="V106" s="28"/>
-      <c r="W106" s="28"/>
-      <c r="X106" s="28"/>
-      <c r="Y106" s="28"/>
-      <c r="Z106" s="28"/>
-      <c r="AA106" s="28"/>
-      <c r="AB106" s="28"/>
-      <c r="AC106" s="28"/>
-      <c r="AD106" s="28"/>
+      <c r="V106" s="29"/>
+      <c r="W106" s="29"/>
+      <c r="X106" s="29"/>
+      <c r="Y106" s="29"/>
+      <c r="Z106" s="29"/>
+      <c r="AA106" s="29"/>
+      <c r="AB106" s="29"/>
+      <c r="AC106" s="29"/>
+      <c r="AD106" s="29"/>
     </row>
     <row r="107" spans="1:30">
       <c r="A107" s="7">
@@ -6735,18 +6965,18 @@
       <c r="P107" s="9"/>
       <c r="Q107" s="9"/>
       <c r="R107" s="9"/>
-      <c r="S107" s="28"/>
+      <c r="S107" s="29"/>
       <c r="T107" s="9"/>
       <c r="U107" s="9"/>
-      <c r="V107" s="28"/>
-      <c r="W107" s="28"/>
-      <c r="X107" s="28"/>
-      <c r="Y107" s="28"/>
-      <c r="Z107" s="28"/>
-      <c r="AA107" s="28"/>
-      <c r="AB107" s="28"/>
-      <c r="AC107" s="28"/>
-      <c r="AD107" s="28"/>
+      <c r="V107" s="29"/>
+      <c r="W107" s="29"/>
+      <c r="X107" s="29"/>
+      <c r="Y107" s="29"/>
+      <c r="Z107" s="29"/>
+      <c r="AA107" s="29"/>
+      <c r="AB107" s="29"/>
+      <c r="AC107" s="29"/>
+      <c r="AD107" s="29"/>
     </row>
     <row r="108" spans="1:30">
       <c r="A108" s="7">
@@ -6769,18 +6999,18 @@
       <c r="P108" s="9"/>
       <c r="Q108" s="9"/>
       <c r="R108" s="9"/>
-      <c r="S108" s="28"/>
+      <c r="S108" s="29"/>
       <c r="T108" s="9"/>
       <c r="U108" s="9"/>
-      <c r="V108" s="28"/>
-      <c r="W108" s="28"/>
-      <c r="X108" s="28"/>
-      <c r="Y108" s="28"/>
-      <c r="Z108" s="28"/>
-      <c r="AA108" s="28"/>
-      <c r="AB108" s="28"/>
-      <c r="AC108" s="28"/>
-      <c r="AD108" s="28"/>
+      <c r="V108" s="29"/>
+      <c r="W108" s="29"/>
+      <c r="X108" s="29"/>
+      <c r="Y108" s="29"/>
+      <c r="Z108" s="29"/>
+      <c r="AA108" s="29"/>
+      <c r="AB108" s="29"/>
+      <c r="AC108" s="29"/>
+      <c r="AD108" s="29"/>
     </row>
     <row r="109" spans="1:30">
       <c r="A109" s="7">
@@ -6803,18 +7033,18 @@
       <c r="P109" s="9"/>
       <c r="Q109" s="9"/>
       <c r="R109" s="9"/>
-      <c r="S109" s="28"/>
+      <c r="S109" s="29"/>
       <c r="T109" s="9"/>
       <c r="U109" s="9"/>
-      <c r="V109" s="28"/>
-      <c r="W109" s="28"/>
-      <c r="X109" s="28"/>
-      <c r="Y109" s="28"/>
-      <c r="Z109" s="28"/>
-      <c r="AA109" s="28"/>
-      <c r="AB109" s="28"/>
-      <c r="AC109" s="28"/>
-      <c r="AD109" s="28"/>
+      <c r="V109" s="29"/>
+      <c r="W109" s="29"/>
+      <c r="X109" s="29"/>
+      <c r="Y109" s="29"/>
+      <c r="Z109" s="29"/>
+      <c r="AA109" s="29"/>
+      <c r="AB109" s="29"/>
+      <c r="AC109" s="29"/>
+      <c r="AD109" s="29"/>
     </row>
     <row r="110" spans="1:30">
       <c r="A110" s="7">
@@ -6837,18 +7067,18 @@
       <c r="P110" s="9"/>
       <c r="Q110" s="9"/>
       <c r="R110" s="9"/>
-      <c r="S110" s="28"/>
+      <c r="S110" s="29"/>
       <c r="T110" s="9"/>
       <c r="U110" s="9"/>
-      <c r="V110" s="28"/>
-      <c r="W110" s="28"/>
-      <c r="X110" s="28"/>
-      <c r="Y110" s="28"/>
-      <c r="Z110" s="28"/>
-      <c r="AA110" s="28"/>
-      <c r="AB110" s="28"/>
-      <c r="AC110" s="28"/>
-      <c r="AD110" s="28"/>
+      <c r="V110" s="29"/>
+      <c r="W110" s="29"/>
+      <c r="X110" s="29"/>
+      <c r="Y110" s="29"/>
+      <c r="Z110" s="29"/>
+      <c r="AA110" s="29"/>
+      <c r="AB110" s="29"/>
+      <c r="AC110" s="29"/>
+      <c r="AD110" s="29"/>
     </row>
     <row r="111" spans="1:30">
       <c r="A111" s="7">
@@ -6871,18 +7101,18 @@
       <c r="P111" s="9"/>
       <c r="Q111" s="9"/>
       <c r="R111" s="9"/>
-      <c r="S111" s="28"/>
+      <c r="S111" s="29"/>
       <c r="T111" s="9"/>
       <c r="U111" s="9"/>
-      <c r="V111" s="28"/>
-      <c r="W111" s="28"/>
-      <c r="X111" s="28"/>
-      <c r="Y111" s="28"/>
-      <c r="Z111" s="28"/>
-      <c r="AA111" s="28"/>
-      <c r="AB111" s="28"/>
-      <c r="AC111" s="28"/>
-      <c r="AD111" s="28"/>
+      <c r="V111" s="29"/>
+      <c r="W111" s="29"/>
+      <c r="X111" s="29"/>
+      <c r="Y111" s="29"/>
+      <c r="Z111" s="29"/>
+      <c r="AA111" s="29"/>
+      <c r="AB111" s="29"/>
+      <c r="AC111" s="29"/>
+      <c r="AD111" s="29"/>
     </row>
     <row r="112" spans="1:30">
       <c r="A112" s="7">
@@ -6905,18 +7135,18 @@
       <c r="P112" s="9"/>
       <c r="Q112" s="9"/>
       <c r="R112" s="9"/>
-      <c r="S112" s="28"/>
+      <c r="S112" s="29"/>
       <c r="T112" s="9"/>
       <c r="U112" s="9"/>
-      <c r="V112" s="28"/>
-      <c r="W112" s="28"/>
-      <c r="X112" s="28"/>
-      <c r="Y112" s="28"/>
-      <c r="Z112" s="28"/>
-      <c r="AA112" s="28"/>
-      <c r="AB112" s="28"/>
-      <c r="AC112" s="28"/>
-      <c r="AD112" s="28"/>
+      <c r="V112" s="29"/>
+      <c r="W112" s="29"/>
+      <c r="X112" s="29"/>
+      <c r="Y112" s="29"/>
+      <c r="Z112" s="29"/>
+      <c r="AA112" s="29"/>
+      <c r="AB112" s="29"/>
+      <c r="AC112" s="29"/>
+      <c r="AD112" s="29"/>
     </row>
     <row r="113" spans="1:30">
       <c r="A113" s="7">
@@ -6939,18 +7169,18 @@
       <c r="P113" s="9"/>
       <c r="Q113" s="9"/>
       <c r="R113" s="9"/>
-      <c r="S113" s="28"/>
+      <c r="S113" s="29"/>
       <c r="T113" s="9"/>
       <c r="U113" s="9"/>
-      <c r="V113" s="28"/>
-      <c r="W113" s="28"/>
-      <c r="X113" s="28"/>
-      <c r="Y113" s="28"/>
-      <c r="Z113" s="28"/>
-      <c r="AA113" s="28"/>
-      <c r="AB113" s="28"/>
-      <c r="AC113" s="28"/>
-      <c r="AD113" s="28"/>
+      <c r="V113" s="29"/>
+      <c r="W113" s="29"/>
+      <c r="X113" s="29"/>
+      <c r="Y113" s="29"/>
+      <c r="Z113" s="29"/>
+      <c r="AA113" s="29"/>
+      <c r="AB113" s="29"/>
+      <c r="AC113" s="29"/>
+      <c r="AD113" s="29"/>
     </row>
     <row r="114" spans="1:30">
       <c r="A114" s="7">
@@ -6973,18 +7203,18 @@
       <c r="P114" s="9"/>
       <c r="Q114" s="9"/>
       <c r="R114" s="9"/>
-      <c r="S114" s="28"/>
+      <c r="S114" s="29"/>
       <c r="T114" s="9"/>
       <c r="U114" s="9"/>
-      <c r="V114" s="28"/>
-      <c r="W114" s="28"/>
-      <c r="X114" s="28"/>
-      <c r="Y114" s="28"/>
-      <c r="Z114" s="28"/>
-      <c r="AA114" s="28"/>
-      <c r="AB114" s="28"/>
-      <c r="AC114" s="28"/>
-      <c r="AD114" s="28"/>
+      <c r="V114" s="29"/>
+      <c r="W114" s="29"/>
+      <c r="X114" s="29"/>
+      <c r="Y114" s="29"/>
+      <c r="Z114" s="29"/>
+      <c r="AA114" s="29"/>
+      <c r="AB114" s="29"/>
+      <c r="AC114" s="29"/>
+      <c r="AD114" s="29"/>
     </row>
     <row r="115" spans="1:30">
       <c r="A115" s="7">
@@ -7007,18 +7237,18 @@
       <c r="P115" s="9"/>
       <c r="Q115" s="9"/>
       <c r="R115" s="9"/>
-      <c r="S115" s="28"/>
+      <c r="S115" s="29"/>
       <c r="T115" s="9"/>
       <c r="U115" s="9"/>
-      <c r="V115" s="28"/>
-      <c r="W115" s="28"/>
-      <c r="X115" s="28"/>
-      <c r="Y115" s="28"/>
-      <c r="Z115" s="28"/>
-      <c r="AA115" s="28"/>
-      <c r="AB115" s="28"/>
-      <c r="AC115" s="28"/>
-      <c r="AD115" s="28"/>
+      <c r="V115" s="29"/>
+      <c r="W115" s="29"/>
+      <c r="X115" s="29"/>
+      <c r="Y115" s="29"/>
+      <c r="Z115" s="29"/>
+      <c r="AA115" s="29"/>
+      <c r="AB115" s="29"/>
+      <c r="AC115" s="29"/>
+      <c r="AD115" s="29"/>
     </row>
     <row r="116" spans="1:30">
       <c r="A116" s="7">
@@ -7041,18 +7271,18 @@
       <c r="P116" s="9"/>
       <c r="Q116" s="9"/>
       <c r="R116" s="9"/>
-      <c r="S116" s="28"/>
+      <c r="S116" s="29"/>
       <c r="T116" s="9"/>
       <c r="U116" s="9"/>
-      <c r="V116" s="28"/>
-      <c r="W116" s="28"/>
-      <c r="X116" s="28"/>
-      <c r="Y116" s="28"/>
-      <c r="Z116" s="28"/>
-      <c r="AA116" s="28"/>
-      <c r="AB116" s="28"/>
-      <c r="AC116" s="28"/>
-      <c r="AD116" s="28"/>
+      <c r="V116" s="29"/>
+      <c r="W116" s="29"/>
+      <c r="X116" s="29"/>
+      <c r="Y116" s="29"/>
+      <c r="Z116" s="29"/>
+      <c r="AA116" s="29"/>
+      <c r="AB116" s="29"/>
+      <c r="AC116" s="29"/>
+      <c r="AD116" s="29"/>
     </row>
     <row r="117" spans="1:30">
       <c r="A117" s="7">
@@ -7075,18 +7305,18 @@
       <c r="P117" s="9"/>
       <c r="Q117" s="9"/>
       <c r="R117" s="9"/>
-      <c r="S117" s="28"/>
+      <c r="S117" s="29"/>
       <c r="T117" s="9"/>
       <c r="U117" s="9"/>
-      <c r="V117" s="28"/>
-      <c r="W117" s="28"/>
-      <c r="X117" s="28"/>
-      <c r="Y117" s="28"/>
-      <c r="Z117" s="28"/>
-      <c r="AA117" s="28"/>
-      <c r="AB117" s="28"/>
-      <c r="AC117" s="28"/>
-      <c r="AD117" s="28"/>
+      <c r="V117" s="29"/>
+      <c r="W117" s="29"/>
+      <c r="X117" s="29"/>
+      <c r="Y117" s="29"/>
+      <c r="Z117" s="29"/>
+      <c r="AA117" s="29"/>
+      <c r="AB117" s="29"/>
+      <c r="AC117" s="29"/>
+      <c r="AD117" s="29"/>
     </row>
     <row r="118" spans="1:30">
       <c r="A118" s="7">
@@ -7109,18 +7339,18 @@
       <c r="P118" s="9"/>
       <c r="Q118" s="9"/>
       <c r="R118" s="9"/>
-      <c r="S118" s="28"/>
+      <c r="S118" s="29"/>
       <c r="T118" s="9"/>
       <c r="U118" s="9"/>
-      <c r="V118" s="28"/>
-      <c r="W118" s="28"/>
-      <c r="X118" s="28"/>
-      <c r="Y118" s="28"/>
-      <c r="Z118" s="28"/>
-      <c r="AA118" s="28"/>
-      <c r="AB118" s="28"/>
-      <c r="AC118" s="28"/>
-      <c r="AD118" s="28"/>
+      <c r="V118" s="29"/>
+      <c r="W118" s="29"/>
+      <c r="X118" s="29"/>
+      <c r="Y118" s="29"/>
+      <c r="Z118" s="29"/>
+      <c r="AA118" s="29"/>
+      <c r="AB118" s="29"/>
+      <c r="AC118" s="29"/>
+      <c r="AD118" s="29"/>
     </row>
     <row r="119" spans="1:30">
       <c r="A119" s="7">
@@ -7143,18 +7373,18 @@
       <c r="P119" s="9"/>
       <c r="Q119" s="9"/>
       <c r="R119" s="9"/>
-      <c r="S119" s="28"/>
+      <c r="S119" s="29"/>
       <c r="T119" s="9"/>
       <c r="U119" s="9"/>
-      <c r="V119" s="28"/>
-      <c r="W119" s="28"/>
-      <c r="X119" s="28"/>
-      <c r="Y119" s="28"/>
-      <c r="Z119" s="28"/>
-      <c r="AA119" s="28"/>
-      <c r="AB119" s="28"/>
-      <c r="AC119" s="28"/>
-      <c r="AD119" s="28"/>
+      <c r="V119" s="29"/>
+      <c r="W119" s="29"/>
+      <c r="X119" s="29"/>
+      <c r="Y119" s="29"/>
+      <c r="Z119" s="29"/>
+      <c r="AA119" s="29"/>
+      <c r="AB119" s="29"/>
+      <c r="AC119" s="29"/>
+      <c r="AD119" s="29"/>
     </row>
     <row r="120" spans="1:30">
       <c r="A120" s="7">
@@ -7177,18 +7407,18 @@
       <c r="P120" s="9"/>
       <c r="Q120" s="9"/>
       <c r="R120" s="9"/>
-      <c r="S120" s="28"/>
+      <c r="S120" s="29"/>
       <c r="T120" s="9"/>
       <c r="U120" s="9"/>
-      <c r="V120" s="28"/>
-      <c r="W120" s="28"/>
-      <c r="X120" s="28"/>
-      <c r="Y120" s="28"/>
-      <c r="Z120" s="28"/>
-      <c r="AA120" s="28"/>
-      <c r="AB120" s="28"/>
-      <c r="AC120" s="28"/>
-      <c r="AD120" s="28"/>
+      <c r="V120" s="29"/>
+      <c r="W120" s="29"/>
+      <c r="X120" s="29"/>
+      <c r="Y120" s="29"/>
+      <c r="Z120" s="29"/>
+      <c r="AA120" s="29"/>
+      <c r="AB120" s="29"/>
+      <c r="AC120" s="29"/>
+      <c r="AD120" s="29"/>
     </row>
     <row r="121" spans="1:30">
       <c r="A121" s="7">
@@ -7211,18 +7441,18 @@
       <c r="P121" s="9"/>
       <c r="Q121" s="9"/>
       <c r="R121" s="9"/>
-      <c r="S121" s="28"/>
+      <c r="S121" s="29"/>
       <c r="T121" s="9"/>
       <c r="U121" s="9"/>
-      <c r="V121" s="28"/>
-      <c r="W121" s="28"/>
-      <c r="X121" s="28"/>
-      <c r="Y121" s="28"/>
-      <c r="Z121" s="28"/>
-      <c r="AA121" s="28"/>
-      <c r="AB121" s="28"/>
-      <c r="AC121" s="28"/>
-      <c r="AD121" s="28"/>
+      <c r="V121" s="29"/>
+      <c r="W121" s="29"/>
+      <c r="X121" s="29"/>
+      <c r="Y121" s="29"/>
+      <c r="Z121" s="29"/>
+      <c r="AA121" s="29"/>
+      <c r="AB121" s="29"/>
+      <c r="AC121" s="29"/>
+      <c r="AD121" s="29"/>
     </row>
     <row r="122" spans="1:30">
       <c r="A122" s="7">
@@ -7245,18 +7475,18 @@
       <c r="P122" s="9"/>
       <c r="Q122" s="9"/>
       <c r="R122" s="9"/>
-      <c r="S122" s="28"/>
+      <c r="S122" s="29"/>
       <c r="T122" s="9"/>
       <c r="U122" s="9"/>
-      <c r="V122" s="28"/>
-      <c r="W122" s="28"/>
-      <c r="X122" s="28"/>
-      <c r="Y122" s="28"/>
-      <c r="Z122" s="28"/>
-      <c r="AA122" s="28"/>
-      <c r="AB122" s="28"/>
-      <c r="AC122" s="28"/>
-      <c r="AD122" s="28"/>
+      <c r="V122" s="29"/>
+      <c r="W122" s="29"/>
+      <c r="X122" s="29"/>
+      <c r="Y122" s="29"/>
+      <c r="Z122" s="29"/>
+      <c r="AA122" s="29"/>
+      <c r="AB122" s="29"/>
+      <c r="AC122" s="29"/>
+      <c r="AD122" s="29"/>
     </row>
     <row r="123" spans="1:30">
       <c r="A123" s="7">
@@ -7279,18 +7509,18 @@
       <c r="P123" s="9"/>
       <c r="Q123" s="9"/>
       <c r="R123" s="9"/>
-      <c r="S123" s="28"/>
+      <c r="S123" s="29"/>
       <c r="T123" s="9"/>
       <c r="U123" s="9"/>
-      <c r="V123" s="28"/>
-      <c r="W123" s="28"/>
-      <c r="X123" s="28"/>
-      <c r="Y123" s="28"/>
-      <c r="Z123" s="28"/>
-      <c r="AA123" s="28"/>
-      <c r="AB123" s="28"/>
-      <c r="AC123" s="28"/>
-      <c r="AD123" s="28"/>
+      <c r="V123" s="29"/>
+      <c r="W123" s="29"/>
+      <c r="X123" s="29"/>
+      <c r="Y123" s="29"/>
+      <c r="Z123" s="29"/>
+      <c r="AA123" s="29"/>
+      <c r="AB123" s="29"/>
+      <c r="AC123" s="29"/>
+      <c r="AD123" s="29"/>
     </row>
     <row r="124" spans="1:30">
       <c r="A124" s="7">
@@ -7313,18 +7543,18 @@
       <c r="P124" s="9"/>
       <c r="Q124" s="9"/>
       <c r="R124" s="9"/>
-      <c r="S124" s="28"/>
+      <c r="S124" s="29"/>
       <c r="T124" s="9"/>
       <c r="U124" s="9"/>
-      <c r="V124" s="28"/>
-      <c r="W124" s="28"/>
-      <c r="X124" s="28"/>
-      <c r="Y124" s="28"/>
-      <c r="Z124" s="28"/>
-      <c r="AA124" s="28"/>
-      <c r="AB124" s="28"/>
-      <c r="AC124" s="28"/>
-      <c r="AD124" s="28"/>
+      <c r="V124" s="29"/>
+      <c r="W124" s="29"/>
+      <c r="X124" s="29"/>
+      <c r="Y124" s="29"/>
+      <c r="Z124" s="29"/>
+      <c r="AA124" s="29"/>
+      <c r="AB124" s="29"/>
+      <c r="AC124" s="29"/>
+      <c r="AD124" s="29"/>
     </row>
     <row r="125" spans="1:30">
       <c r="A125" s="7">
@@ -7347,18 +7577,18 @@
       <c r="P125" s="9"/>
       <c r="Q125" s="9"/>
       <c r="R125" s="9"/>
-      <c r="S125" s="28"/>
+      <c r="S125" s="29"/>
       <c r="T125" s="9"/>
       <c r="U125" s="9"/>
-      <c r="V125" s="28"/>
-      <c r="W125" s="28"/>
-      <c r="X125" s="28"/>
-      <c r="Y125" s="28"/>
-      <c r="Z125" s="28"/>
-      <c r="AA125" s="28"/>
-      <c r="AB125" s="28"/>
-      <c r="AC125" s="28"/>
-      <c r="AD125" s="28"/>
+      <c r="V125" s="29"/>
+      <c r="W125" s="29"/>
+      <c r="X125" s="29"/>
+      <c r="Y125" s="29"/>
+      <c r="Z125" s="29"/>
+      <c r="AA125" s="29"/>
+      <c r="AB125" s="29"/>
+      <c r="AC125" s="29"/>
+      <c r="AD125" s="29"/>
     </row>
     <row r="126" spans="1:30">
       <c r="A126" s="7">
@@ -7381,18 +7611,18 @@
       <c r="P126" s="9"/>
       <c r="Q126" s="9"/>
       <c r="R126" s="9"/>
-      <c r="S126" s="28"/>
+      <c r="S126" s="29"/>
       <c r="T126" s="9"/>
       <c r="U126" s="9"/>
-      <c r="V126" s="28"/>
-      <c r="W126" s="28"/>
-      <c r="X126" s="28"/>
-      <c r="Y126" s="28"/>
-      <c r="Z126" s="28"/>
-      <c r="AA126" s="28"/>
-      <c r="AB126" s="28"/>
-      <c r="AC126" s="28"/>
-      <c r="AD126" s="28"/>
+      <c r="V126" s="29"/>
+      <c r="W126" s="29"/>
+      <c r="X126" s="29"/>
+      <c r="Y126" s="29"/>
+      <c r="Z126" s="29"/>
+      <c r="AA126" s="29"/>
+      <c r="AB126" s="29"/>
+      <c r="AC126" s="29"/>
+      <c r="AD126" s="29"/>
     </row>
     <row r="127" spans="1:30">
       <c r="A127" s="7">
@@ -7415,18 +7645,18 @@
       <c r="P127" s="9"/>
       <c r="Q127" s="9"/>
       <c r="R127" s="9"/>
-      <c r="S127" s="28"/>
+      <c r="S127" s="29"/>
       <c r="T127" s="9"/>
       <c r="U127" s="9"/>
-      <c r="V127" s="28"/>
-      <c r="W127" s="28"/>
-      <c r="X127" s="28"/>
-      <c r="Y127" s="28"/>
-      <c r="Z127" s="28"/>
-      <c r="AA127" s="28"/>
-      <c r="AB127" s="28"/>
-      <c r="AC127" s="28"/>
-      <c r="AD127" s="28"/>
+      <c r="V127" s="29"/>
+      <c r="W127" s="29"/>
+      <c r="X127" s="29"/>
+      <c r="Y127" s="29"/>
+      <c r="Z127" s="29"/>
+      <c r="AA127" s="29"/>
+      <c r="AB127" s="29"/>
+      <c r="AC127" s="29"/>
+      <c r="AD127" s="29"/>
     </row>
     <row r="128" spans="1:30">
       <c r="A128" s="7">
@@ -7449,18 +7679,18 @@
       <c r="P128" s="9"/>
       <c r="Q128" s="9"/>
       <c r="R128" s="9"/>
-      <c r="S128" s="28"/>
+      <c r="S128" s="29"/>
       <c r="T128" s="9"/>
       <c r="U128" s="9"/>
-      <c r="V128" s="28"/>
-      <c r="W128" s="28"/>
-      <c r="X128" s="28"/>
-      <c r="Y128" s="28"/>
-      <c r="Z128" s="28"/>
-      <c r="AA128" s="28"/>
-      <c r="AB128" s="28"/>
-      <c r="AC128" s="28"/>
-      <c r="AD128" s="28"/>
+      <c r="V128" s="29"/>
+      <c r="W128" s="29"/>
+      <c r="X128" s="29"/>
+      <c r="Y128" s="29"/>
+      <c r="Z128" s="29"/>
+      <c r="AA128" s="29"/>
+      <c r="AB128" s="29"/>
+      <c r="AC128" s="29"/>
+      <c r="AD128" s="29"/>
     </row>
     <row r="129" spans="1:30">
       <c r="A129" s="7">
@@ -7483,18 +7713,18 @@
       <c r="P129" s="9"/>
       <c r="Q129" s="9"/>
       <c r="R129" s="9"/>
-      <c r="S129" s="28"/>
+      <c r="S129" s="29"/>
       <c r="T129" s="9"/>
       <c r="U129" s="9"/>
-      <c r="V129" s="28"/>
-      <c r="W129" s="28"/>
-      <c r="X129" s="28"/>
-      <c r="Y129" s="28"/>
-      <c r="Z129" s="28"/>
-      <c r="AA129" s="28"/>
-      <c r="AB129" s="28"/>
-      <c r="AC129" s="28"/>
-      <c r="AD129" s="28"/>
+      <c r="V129" s="29"/>
+      <c r="W129" s="29"/>
+      <c r="X129" s="29"/>
+      <c r="Y129" s="29"/>
+      <c r="Z129" s="29"/>
+      <c r="AA129" s="29"/>
+      <c r="AB129" s="29"/>
+      <c r="AC129" s="29"/>
+      <c r="AD129" s="29"/>
     </row>
     <row r="130" spans="1:30">
       <c r="A130" s="7">
@@ -7517,18 +7747,18 @@
       <c r="P130" s="9"/>
       <c r="Q130" s="9"/>
       <c r="R130" s="9"/>
-      <c r="S130" s="28"/>
+      <c r="S130" s="29"/>
       <c r="T130" s="9"/>
       <c r="U130" s="9"/>
-      <c r="V130" s="28"/>
-      <c r="W130" s="28"/>
-      <c r="X130" s="28"/>
-      <c r="Y130" s="28"/>
-      <c r="Z130" s="28"/>
-      <c r="AA130" s="28"/>
-      <c r="AB130" s="28"/>
-      <c r="AC130" s="28"/>
-      <c r="AD130" s="28"/>
+      <c r="V130" s="29"/>
+      <c r="W130" s="29"/>
+      <c r="X130" s="29"/>
+      <c r="Y130" s="29"/>
+      <c r="Z130" s="29"/>
+      <c r="AA130" s="29"/>
+      <c r="AB130" s="29"/>
+      <c r="AC130" s="29"/>
+      <c r="AD130" s="29"/>
     </row>
     <row r="131" spans="1:30">
       <c r="A131" s="7">
@@ -7551,18 +7781,18 @@
       <c r="P131" s="9"/>
       <c r="Q131" s="9"/>
       <c r="R131" s="9"/>
-      <c r="S131" s="28"/>
+      <c r="S131" s="29"/>
       <c r="T131" s="9"/>
       <c r="U131" s="9"/>
-      <c r="V131" s="28"/>
-      <c r="W131" s="28"/>
-      <c r="X131" s="28"/>
-      <c r="Y131" s="28"/>
-      <c r="Z131" s="28"/>
-      <c r="AA131" s="28"/>
-      <c r="AB131" s="28"/>
-      <c r="AC131" s="28"/>
-      <c r="AD131" s="28"/>
+      <c r="V131" s="29"/>
+      <c r="W131" s="29"/>
+      <c r="X131" s="29"/>
+      <c r="Y131" s="29"/>
+      <c r="Z131" s="29"/>
+      <c r="AA131" s="29"/>
+      <c r="AB131" s="29"/>
+      <c r="AC131" s="29"/>
+      <c r="AD131" s="29"/>
     </row>
     <row r="132" spans="1:21">
       <c r="A132" s="7">
